--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12646800</v>
+        <v>13310000</v>
       </c>
       <c r="E8" s="3">
-        <v>12146100</v>
+        <v>12757300</v>
       </c>
       <c r="F8" s="3">
-        <v>10028000</v>
+        <v>12252300</v>
       </c>
       <c r="G8" s="3">
-        <v>6949200</v>
+        <v>10115700</v>
       </c>
       <c r="H8" s="3">
-        <v>6826300</v>
+        <v>7010000</v>
       </c>
       <c r="I8" s="3">
-        <v>9016800</v>
+        <v>6885900</v>
       </c>
       <c r="J8" s="3">
+        <v>9095600</v>
+      </c>
+      <c r="K8" s="3">
         <v>8852100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7700300</v>
+        <v>8195100</v>
       </c>
       <c r="E9" s="3">
-        <v>7408200</v>
+        <v>7767600</v>
       </c>
       <c r="F9" s="3">
-        <v>6131200</v>
+        <v>7473000</v>
       </c>
       <c r="G9" s="3">
-        <v>13697600</v>
+        <v>6184800</v>
       </c>
       <c r="H9" s="3">
-        <v>14567200</v>
+        <v>13817300</v>
       </c>
       <c r="I9" s="3">
-        <v>5874300</v>
+        <v>14694500</v>
       </c>
       <c r="J9" s="3">
+        <v>5925700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5667900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4946500</v>
+        <v>5114900</v>
       </c>
       <c r="E10" s="3">
-        <v>4737900</v>
+        <v>4989700</v>
       </c>
       <c r="F10" s="3">
-        <v>3896800</v>
+        <v>4779300</v>
       </c>
       <c r="G10" s="3">
-        <v>-6748300</v>
+        <v>3930900</v>
       </c>
       <c r="H10" s="3">
-        <v>-7740900</v>
+        <v>-6807300</v>
       </c>
       <c r="I10" s="3">
-        <v>3142500</v>
+        <v>-7808600</v>
       </c>
       <c r="J10" s="3">
+        <v>3170000</v>
+      </c>
+      <c r="K10" s="3">
         <v>3184200</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +838,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +868,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>51600</v>
+        <v>27700</v>
       </c>
       <c r="E14" s="3">
-        <v>27500</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>52100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>27700</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>71400</v>
-      </c>
       <c r="H14" s="3">
-        <v>88900</v>
+        <v>72000</v>
       </c>
       <c r="I14" s="3">
-        <v>131800</v>
+        <v>89700</v>
       </c>
       <c r="J14" s="3">
+        <v>132900</v>
+      </c>
+      <c r="K14" s="3">
         <v>93300</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47200</v>
+        <v>48700</v>
       </c>
       <c r="E15" s="3">
-        <v>41700</v>
+        <v>47600</v>
       </c>
       <c r="F15" s="3">
-        <v>36200</v>
+        <v>42100</v>
       </c>
       <c r="G15" s="3">
-        <v>206400</v>
+        <v>36600</v>
       </c>
       <c r="H15" s="3">
-        <v>231700</v>
+        <v>208200</v>
       </c>
       <c r="I15" s="3">
-        <v>208600</v>
+        <v>233700</v>
       </c>
       <c r="J15" s="3">
+        <v>210400</v>
+      </c>
+      <c r="K15" s="3">
         <v>235000</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11219400</v>
+        <v>11595500</v>
       </c>
       <c r="E17" s="3">
-        <v>10762600</v>
+        <v>11317500</v>
       </c>
       <c r="F17" s="3">
-        <v>9093600</v>
+        <v>10856700</v>
       </c>
       <c r="G17" s="3">
-        <v>6115900</v>
+        <v>9173100</v>
       </c>
       <c r="H17" s="3">
-        <v>6006100</v>
+        <v>6169300</v>
       </c>
       <c r="I17" s="3">
-        <v>8013200</v>
+        <v>6058600</v>
       </c>
       <c r="J17" s="3">
+        <v>8083300</v>
+      </c>
+      <c r="K17" s="3">
         <v>7833100</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1427400</v>
+        <v>1714600</v>
       </c>
       <c r="E18" s="3">
-        <v>1383500</v>
+        <v>1439900</v>
       </c>
       <c r="F18" s="3">
-        <v>934400</v>
+        <v>1395600</v>
       </c>
       <c r="G18" s="3">
-        <v>833400</v>
+        <v>942600</v>
       </c>
       <c r="H18" s="3">
-        <v>820200</v>
+        <v>840700</v>
       </c>
       <c r="I18" s="3">
-        <v>1003600</v>
+        <v>827400</v>
       </c>
       <c r="J18" s="3">
+        <v>1012300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1018900</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1016,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>42800</v>
+        <v>47600</v>
       </c>
       <c r="E20" s="3">
-        <v>43900</v>
+        <v>43200</v>
       </c>
       <c r="F20" s="3">
-        <v>14300</v>
+        <v>44300</v>
       </c>
       <c r="G20" s="3">
-        <v>13200</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>31800</v>
+        <v>13300</v>
       </c>
       <c r="I20" s="3">
-        <v>-119700</v>
+        <v>32100</v>
       </c>
       <c r="J20" s="3">
+        <v>-120700</v>
+      </c>
+      <c r="K20" s="3">
         <v>3300</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2033300</v>
+        <v>2465300</v>
       </c>
       <c r="E21" s="3">
-        <v>1966300</v>
+        <v>2046400</v>
       </c>
       <c r="F21" s="3">
-        <v>1357800</v>
+        <v>1979000</v>
       </c>
       <c r="G21" s="3">
-        <v>1118200</v>
+        <v>1366300</v>
       </c>
       <c r="H21" s="3">
-        <v>1108300</v>
+        <v>1125700</v>
       </c>
       <c r="I21" s="3">
-        <v>1222600</v>
+        <v>1115900</v>
       </c>
       <c r="J21" s="3">
+        <v>1230500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1390600</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>147100</v>
+        <v>151700</v>
       </c>
       <c r="E22" s="3">
-        <v>154800</v>
+        <v>148400</v>
       </c>
       <c r="F22" s="3">
-        <v>159200</v>
+        <v>156200</v>
       </c>
       <c r="G22" s="3">
-        <v>139400</v>
+        <v>160600</v>
       </c>
       <c r="H22" s="3">
-        <v>129600</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>140700</v>
+      </c>
+      <c r="I22" s="3">
+        <v>130700</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>103200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1323100</v>
+        <v>1610500</v>
       </c>
       <c r="E23" s="3">
-        <v>1272600</v>
+        <v>1334700</v>
       </c>
       <c r="F23" s="3">
-        <v>789500</v>
+        <v>1283700</v>
       </c>
       <c r="G23" s="3">
-        <v>707100</v>
+        <v>796400</v>
       </c>
       <c r="H23" s="3">
-        <v>722500</v>
+        <v>713300</v>
       </c>
       <c r="I23" s="3">
-        <v>883900</v>
+        <v>728800</v>
       </c>
       <c r="J23" s="3">
+        <v>891600</v>
+      </c>
+      <c r="K23" s="3">
         <v>919000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>354700</v>
+        <v>403200</v>
       </c>
       <c r="E24" s="3">
-        <v>165800</v>
+        <v>357800</v>
       </c>
       <c r="F24" s="3">
-        <v>186700</v>
+        <v>167200</v>
       </c>
       <c r="G24" s="3">
-        <v>143800</v>
+        <v>188300</v>
       </c>
       <c r="H24" s="3">
-        <v>191100</v>
+        <v>145100</v>
       </c>
       <c r="I24" s="3">
-        <v>151500</v>
+        <v>192700</v>
       </c>
       <c r="J24" s="3">
+        <v>152800</v>
+      </c>
+      <c r="K24" s="3">
         <v>175700</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>968400</v>
+        <v>1207300</v>
       </c>
       <c r="E26" s="3">
-        <v>1106800</v>
+        <v>976900</v>
       </c>
       <c r="F26" s="3">
-        <v>602800</v>
+        <v>1116500</v>
       </c>
       <c r="G26" s="3">
-        <v>563300</v>
+        <v>608100</v>
       </c>
       <c r="H26" s="3">
-        <v>531400</v>
+        <v>568200</v>
       </c>
       <c r="I26" s="3">
-        <v>732400</v>
+        <v>536100</v>
       </c>
       <c r="J26" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K26" s="3">
         <v>743300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>968400</v>
+        <v>1207300</v>
       </c>
       <c r="E27" s="3">
-        <v>1106800</v>
+        <v>976900</v>
       </c>
       <c r="F27" s="3">
-        <v>602800</v>
+        <v>1116500</v>
       </c>
       <c r="G27" s="3">
-        <v>563300</v>
+        <v>608100</v>
       </c>
       <c r="H27" s="3">
-        <v>531400</v>
+        <v>568200</v>
       </c>
       <c r="I27" s="3">
-        <v>732400</v>
+        <v>536100</v>
       </c>
       <c r="J27" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K27" s="3">
         <v>743300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,20 +1283,23 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>29600</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>-351400</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
+        <v>29900</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-354400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-42800</v>
+        <v>-47600</v>
       </c>
       <c r="E32" s="3">
-        <v>-43900</v>
+        <v>-43200</v>
       </c>
       <c r="F32" s="3">
-        <v>-14300</v>
+        <v>-44300</v>
       </c>
       <c r="G32" s="3">
-        <v>-13200</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-31800</v>
+        <v>-13300</v>
       </c>
       <c r="I32" s="3">
-        <v>119700</v>
+        <v>-32100</v>
       </c>
       <c r="J32" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3300</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>998100</v>
+        <v>1207300</v>
       </c>
       <c r="E33" s="3">
-        <v>755400</v>
+        <v>1006800</v>
       </c>
       <c r="F33" s="3">
-        <v>602800</v>
+        <v>762000</v>
       </c>
       <c r="G33" s="3">
-        <v>563300</v>
+        <v>608100</v>
       </c>
       <c r="H33" s="3">
-        <v>531400</v>
+        <v>568200</v>
       </c>
       <c r="I33" s="3">
-        <v>732400</v>
+        <v>536100</v>
       </c>
       <c r="J33" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K33" s="3">
         <v>743300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>998100</v>
+        <v>1207300</v>
       </c>
       <c r="E35" s="3">
-        <v>755400</v>
+        <v>1006800</v>
       </c>
       <c r="F35" s="3">
-        <v>602800</v>
+        <v>762000</v>
       </c>
       <c r="G35" s="3">
-        <v>563300</v>
+        <v>608100</v>
       </c>
       <c r="H35" s="3">
-        <v>531400</v>
+        <v>568200</v>
       </c>
       <c r="I35" s="3">
-        <v>732400</v>
+        <v>536100</v>
       </c>
       <c r="J35" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K35" s="3">
         <v>743300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,170 +1559,189 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>306300</v>
+        <v>188700</v>
       </c>
       <c r="E41" s="3">
-        <v>333800</v>
+        <v>309600</v>
       </c>
       <c r="F41" s="3">
-        <v>306300</v>
+        <v>337400</v>
       </c>
       <c r="G41" s="3">
-        <v>443600</v>
+        <v>309600</v>
       </c>
       <c r="H41" s="3">
-        <v>613800</v>
+        <v>448400</v>
       </c>
       <c r="I41" s="3">
-        <v>376600</v>
+        <v>620400</v>
       </c>
       <c r="J41" s="3">
+        <v>380700</v>
+      </c>
+      <c r="K41" s="3">
         <v>791700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32900</v>
+        <v>162000</v>
       </c>
       <c r="E42" s="3">
-        <v>61500</v>
+        <v>33300</v>
       </c>
       <c r="F42" s="3">
-        <v>117500</v>
+        <v>62100</v>
       </c>
       <c r="G42" s="3">
-        <v>85600</v>
+        <v>118700</v>
       </c>
       <c r="H42" s="3">
-        <v>35100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>86600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>35500</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2101600</v>
+        <v>2185200</v>
       </c>
       <c r="E43" s="3">
-        <v>2447400</v>
+        <v>2124200</v>
       </c>
       <c r="F43" s="3">
-        <v>2492500</v>
+        <v>2473700</v>
       </c>
       <c r="G43" s="3">
-        <v>4232800</v>
+        <v>2519200</v>
       </c>
       <c r="H43" s="3">
-        <v>4571000</v>
+        <v>4278300</v>
       </c>
       <c r="I43" s="3">
-        <v>1761200</v>
+        <v>4620100</v>
       </c>
       <c r="J43" s="3">
+        <v>1780100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1644800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>760900</v>
+        <v>802400</v>
       </c>
       <c r="E44" s="3">
-        <v>713700</v>
+        <v>769100</v>
       </c>
       <c r="F44" s="3">
-        <v>739000</v>
+        <v>721400</v>
       </c>
       <c r="G44" s="3">
-        <v>1183600</v>
+        <v>746900</v>
       </c>
       <c r="H44" s="3">
-        <v>1247300</v>
+        <v>1196400</v>
       </c>
       <c r="I44" s="3">
-        <v>496300</v>
+        <v>1260700</v>
       </c>
       <c r="J44" s="3">
+        <v>501600</v>
+      </c>
+      <c r="K44" s="3">
         <v>423800</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82400</v>
+        <v>105400</v>
       </c>
       <c r="E45" s="3">
-        <v>82400</v>
+        <v>83200</v>
       </c>
       <c r="F45" s="3">
-        <v>105400</v>
+        <v>83200</v>
       </c>
       <c r="G45" s="3">
-        <v>338200</v>
+        <v>106500</v>
       </c>
       <c r="H45" s="3">
-        <v>499600</v>
+        <v>341800</v>
       </c>
       <c r="I45" s="3">
-        <v>185600</v>
+        <v>505000</v>
       </c>
       <c r="J45" s="3">
+        <v>187600</v>
+      </c>
+      <c r="K45" s="3">
         <v>172400</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3284100</v>
+        <v>3443700</v>
       </c>
       <c r="E46" s="3">
-        <v>3638800</v>
+        <v>3319400</v>
       </c>
       <c r="F46" s="3">
-        <v>3760700</v>
+        <v>3677900</v>
       </c>
       <c r="G46" s="3">
-        <v>2067500</v>
+        <v>3801100</v>
       </c>
       <c r="H46" s="3">
-        <v>2204800</v>
+        <v>2089800</v>
       </c>
       <c r="I46" s="3">
-        <v>2819700</v>
+        <v>2228500</v>
       </c>
       <c r="J46" s="3">
+        <v>2850000</v>
+      </c>
+      <c r="K46" s="3">
         <v>3032700</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1662,63 +1766,72 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4396400</v>
+        <v>4823200</v>
       </c>
       <c r="E48" s="3">
-        <v>4326100</v>
+        <v>4443600</v>
       </c>
       <c r="F48" s="3">
-        <v>4486400</v>
+        <v>4372600</v>
       </c>
       <c r="G48" s="3">
-        <v>5916000</v>
+        <v>4534600</v>
       </c>
       <c r="H48" s="3">
-        <v>6064300</v>
+        <v>5979600</v>
       </c>
       <c r="I48" s="3">
-        <v>2583600</v>
+        <v>6129400</v>
       </c>
       <c r="J48" s="3">
+        <v>2611400</v>
+      </c>
+      <c r="K48" s="3">
         <v>2549600</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11843000</v>
+        <v>12080200</v>
       </c>
       <c r="E49" s="3">
-        <v>11859500</v>
+        <v>11970300</v>
       </c>
       <c r="F49" s="3">
-        <v>11724400</v>
+        <v>11986900</v>
       </c>
       <c r="G49" s="3">
-        <v>10839500</v>
+        <v>11850400</v>
       </c>
       <c r="H49" s="3">
-        <v>10894400</v>
+        <v>10955900</v>
       </c>
       <c r="I49" s="3">
-        <v>4532500</v>
+        <v>11011400</v>
       </c>
       <c r="J49" s="3">
+        <v>4581300</v>
+      </c>
+      <c r="K49" s="3">
         <v>4452400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>477600</v>
+        <v>389500</v>
       </c>
       <c r="E52" s="3">
-        <v>152600</v>
+        <v>482800</v>
       </c>
       <c r="F52" s="3">
-        <v>416100</v>
+        <v>154300</v>
       </c>
       <c r="G52" s="3">
-        <v>400800</v>
+        <v>420600</v>
       </c>
       <c r="H52" s="3">
-        <v>479800</v>
+        <v>405100</v>
       </c>
       <c r="I52" s="3">
-        <v>522600</v>
+        <v>485000</v>
       </c>
       <c r="J52" s="3">
+        <v>528300</v>
+      </c>
+      <c r="K52" s="3">
         <v>407400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20001200</v>
+        <v>20736600</v>
       </c>
       <c r="E54" s="3">
-        <v>19977000</v>
+        <v>20216100</v>
       </c>
       <c r="F54" s="3">
-        <v>20387700</v>
+        <v>20191700</v>
       </c>
       <c r="G54" s="3">
-        <v>7681600</v>
+        <v>20606800</v>
       </c>
       <c r="H54" s="3">
-        <v>7738700</v>
+        <v>7764200</v>
       </c>
       <c r="I54" s="3">
-        <v>10458500</v>
+        <v>7821900</v>
       </c>
       <c r="J54" s="3">
+        <v>10570800</v>
+      </c>
+      <c r="K54" s="3">
         <v>10442000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2007,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1213300</v>
+        <v>1263000</v>
       </c>
       <c r="E57" s="3">
-        <v>1160600</v>
+        <v>1226300</v>
       </c>
       <c r="F57" s="3">
-        <v>992600</v>
+        <v>1173100</v>
       </c>
       <c r="G57" s="3">
-        <v>2656100</v>
+        <v>1003300</v>
       </c>
       <c r="H57" s="3">
-        <v>2774600</v>
+        <v>2684600</v>
       </c>
       <c r="I57" s="3">
-        <v>692800</v>
+        <v>2804500</v>
       </c>
       <c r="J57" s="3">
+        <v>700300</v>
+      </c>
+      <c r="K57" s="3">
         <v>1481200</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>539100</v>
+        <v>886700</v>
       </c>
       <c r="E58" s="3">
-        <v>300900</v>
+        <v>544900</v>
       </c>
       <c r="F58" s="3">
-        <v>960800</v>
+        <v>304100</v>
       </c>
       <c r="G58" s="3">
-        <v>957500</v>
+        <v>971100</v>
       </c>
       <c r="H58" s="3">
-        <v>1268200</v>
+        <v>967700</v>
       </c>
       <c r="I58" s="3">
-        <v>121900</v>
+        <v>1281800</v>
       </c>
       <c r="J58" s="3">
+        <v>123200</v>
+      </c>
+      <c r="K58" s="3">
         <v>693900</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2411200</v>
+        <v>2417100</v>
       </c>
       <c r="E59" s="3">
-        <v>2147700</v>
+        <v>2437100</v>
       </c>
       <c r="F59" s="3">
-        <v>2166400</v>
+        <v>2170800</v>
       </c>
       <c r="G59" s="3">
-        <v>2726300</v>
+        <v>2189600</v>
       </c>
       <c r="H59" s="3">
-        <v>2820800</v>
+        <v>2755600</v>
       </c>
       <c r="I59" s="3">
-        <v>1595400</v>
+        <v>2851100</v>
       </c>
       <c r="J59" s="3">
+        <v>1612500</v>
+      </c>
+      <c r="K59" s="3">
         <v>656600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4163600</v>
+        <v>4566800</v>
       </c>
       <c r="E60" s="3">
-        <v>3609100</v>
+        <v>4208400</v>
       </c>
       <c r="F60" s="3">
-        <v>4119700</v>
+        <v>3647900</v>
       </c>
       <c r="G60" s="3">
-        <v>2202600</v>
+        <v>4164000</v>
       </c>
       <c r="H60" s="3">
-        <v>2366200</v>
+        <v>2226300</v>
       </c>
       <c r="I60" s="3">
-        <v>2410100</v>
+        <v>2391600</v>
       </c>
       <c r="J60" s="3">
+        <v>2436000</v>
+      </c>
+      <c r="K60" s="3">
         <v>2831700</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5629400</v>
+        <v>6239300</v>
       </c>
       <c r="E61" s="3">
-        <v>6010500</v>
+        <v>5689900</v>
       </c>
       <c r="F61" s="3">
-        <v>6107100</v>
+        <v>6075000</v>
       </c>
       <c r="G61" s="3">
-        <v>3428000</v>
+        <v>6172700</v>
       </c>
       <c r="H61" s="3">
-        <v>2998600</v>
+        <v>3464800</v>
       </c>
       <c r="I61" s="3">
-        <v>4091100</v>
+        <v>3030900</v>
       </c>
       <c r="J61" s="3">
+        <v>4135100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3111700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000800</v>
+        <v>3098600</v>
       </c>
       <c r="E62" s="3">
-        <v>3017300</v>
+        <v>3033100</v>
       </c>
       <c r="F62" s="3">
-        <v>3066700</v>
+        <v>3049700</v>
       </c>
       <c r="G62" s="3">
-        <v>2314600</v>
+        <v>3099700</v>
       </c>
       <c r="H62" s="3">
-        <v>2386000</v>
+        <v>2339500</v>
       </c>
       <c r="I62" s="3">
-        <v>1453800</v>
+        <v>2411600</v>
       </c>
       <c r="J62" s="3">
+        <v>1469400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1541600</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12793900</v>
+        <v>13904700</v>
       </c>
       <c r="E66" s="3">
-        <v>12636900</v>
+        <v>12931400</v>
       </c>
       <c r="F66" s="3">
-        <v>13293500</v>
+        <v>12772700</v>
       </c>
       <c r="G66" s="3">
-        <v>6725300</v>
+        <v>13436300</v>
       </c>
       <c r="H66" s="3">
-        <v>6435400</v>
+        <v>6797500</v>
       </c>
       <c r="I66" s="3">
-        <v>7955000</v>
+        <v>6504500</v>
       </c>
       <c r="J66" s="3">
+        <v>8040500</v>
+      </c>
+      <c r="K66" s="3">
         <v>7485100</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7641000</v>
+        <v>7127100</v>
       </c>
       <c r="E72" s="3">
-        <v>7747500</v>
+        <v>7723100</v>
       </c>
       <c r="F72" s="3">
-        <v>7423600</v>
+        <v>7830700</v>
       </c>
       <c r="G72" s="3">
-        <v>4342600</v>
+        <v>7503400</v>
       </c>
       <c r="H72" s="3">
-        <v>3666200</v>
+        <v>4389300</v>
       </c>
       <c r="I72" s="3">
-        <v>1731500</v>
+        <v>3705600</v>
       </c>
       <c r="J72" s="3">
+        <v>1750200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1236300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7207300</v>
+        <v>6831900</v>
       </c>
       <c r="E76" s="3">
-        <v>7340100</v>
+        <v>7284700</v>
       </c>
       <c r="F76" s="3">
-        <v>7094200</v>
+        <v>7419000</v>
       </c>
       <c r="G76" s="3">
-        <v>956400</v>
+        <v>7170400</v>
       </c>
       <c r="H76" s="3">
-        <v>1303300</v>
+        <v>966600</v>
       </c>
       <c r="I76" s="3">
-        <v>2503400</v>
+        <v>1317300</v>
       </c>
       <c r="J76" s="3">
+        <v>2530300</v>
+      </c>
+      <c r="K76" s="3">
         <v>2956900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>998100</v>
+        <v>1207300</v>
       </c>
       <c r="E81" s="3">
-        <v>755400</v>
+        <v>1006800</v>
       </c>
       <c r="F81" s="3">
-        <v>602800</v>
+        <v>762000</v>
       </c>
       <c r="G81" s="3">
-        <v>563300</v>
+        <v>608100</v>
       </c>
       <c r="H81" s="3">
-        <v>531400</v>
+        <v>568200</v>
       </c>
       <c r="I81" s="3">
-        <v>732400</v>
+        <v>536100</v>
       </c>
       <c r="J81" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K81" s="3">
         <v>743300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>562200</v>
+        <v>707800</v>
       </c>
       <c r="E83" s="3">
-        <v>538000</v>
+        <v>567100</v>
       </c>
       <c r="F83" s="3">
-        <v>408500</v>
+        <v>542700</v>
       </c>
       <c r="G83" s="3">
-        <v>271200</v>
+        <v>412000</v>
       </c>
       <c r="H83" s="3">
-        <v>255800</v>
+        <v>273600</v>
       </c>
       <c r="I83" s="3">
-        <v>338200</v>
+        <v>258100</v>
       </c>
       <c r="J83" s="3">
+        <v>341100</v>
+      </c>
+      <c r="K83" s="3">
         <v>367800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1983000</v>
+        <v>2108900</v>
       </c>
       <c r="E89" s="3">
-        <v>1782100</v>
+        <v>2000300</v>
       </c>
       <c r="F89" s="3">
-        <v>1365900</v>
+        <v>1797600</v>
       </c>
       <c r="G89" s="3">
-        <v>1012400</v>
+        <v>1377900</v>
       </c>
       <c r="H89" s="3">
-        <v>894900</v>
+        <v>1021200</v>
       </c>
       <c r="I89" s="3">
-        <v>914600</v>
+        <v>902700</v>
       </c>
       <c r="J89" s="3">
+        <v>922600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1039800</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-576500</v>
+        <v>-560400</v>
       </c>
       <c r="E91" s="3">
-        <v>-531400</v>
+        <v>-581500</v>
       </c>
       <c r="F91" s="3">
-        <v>-504000</v>
+        <v>-536100</v>
       </c>
       <c r="G91" s="3">
-        <v>-673100</v>
+        <v>-508400</v>
       </c>
       <c r="H91" s="3">
-        <v>-608300</v>
+        <v>-679000</v>
       </c>
       <c r="I91" s="3">
-        <v>-343700</v>
+        <v>-613600</v>
       </c>
       <c r="J91" s="3">
+        <v>-346700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-415000</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-654400</v>
+        <v>-663500</v>
       </c>
       <c r="E94" s="3">
-        <v>-535800</v>
+        <v>-660100</v>
       </c>
       <c r="F94" s="3">
-        <v>-420500</v>
+        <v>-540500</v>
       </c>
       <c r="G94" s="3">
-        <v>-298700</v>
+        <v>-424200</v>
       </c>
       <c r="H94" s="3">
-        <v>-227300</v>
+        <v>-301300</v>
       </c>
       <c r="I94" s="3">
-        <v>-362300</v>
+        <v>-229300</v>
       </c>
       <c r="J94" s="3">
+        <v>-365500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-409600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-563300</v>
+        <v>-635800</v>
       </c>
       <c r="E96" s="3">
-        <v>-536900</v>
+        <v>-568200</v>
       </c>
       <c r="F96" s="3">
-        <v>-224000</v>
+        <v>-541600</v>
       </c>
       <c r="G96" s="3">
-        <v>-536900</v>
+        <v>-226000</v>
       </c>
       <c r="H96" s="3">
-        <v>-473200</v>
+        <v>-541600</v>
       </c>
       <c r="I96" s="3">
-        <v>-233900</v>
+        <v>-477400</v>
       </c>
       <c r="J96" s="3">
+        <v>-235900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-205300</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1382400</v>
+        <v>-1442100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1264900</v>
+        <v>-1394500</v>
       </c>
       <c r="F100" s="3">
-        <v>-687300</v>
+        <v>-1276000</v>
       </c>
       <c r="G100" s="3">
-        <v>-752100</v>
+        <v>-693400</v>
       </c>
       <c r="H100" s="3">
-        <v>-743300</v>
+        <v>-758700</v>
       </c>
       <c r="I100" s="3">
-        <v>-983800</v>
+        <v>-749800</v>
       </c>
       <c r="J100" s="3">
+        <v>-992400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-610500</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-9900</v>
-      </c>
       <c r="F101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G101" s="3">
         <v>-5500</v>
       </c>
-      <c r="G101" s="3">
-        <v>7700</v>
-      </c>
       <c r="H101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="I101" s="3">
-        <v>16500</v>
-      </c>
       <c r="J101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="K101" s="3">
         <v>20900</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-56000</v>
+        <v>7800</v>
       </c>
       <c r="E102" s="3">
-        <v>-28500</v>
+        <v>-56500</v>
       </c>
       <c r="F102" s="3">
-        <v>252500</v>
+        <v>-28800</v>
       </c>
       <c r="G102" s="3">
-        <v>-30700</v>
+        <v>254700</v>
       </c>
       <c r="H102" s="3">
-        <v>-72500</v>
+        <v>-31000</v>
       </c>
       <c r="I102" s="3">
-        <v>-415000</v>
+        <v>-73100</v>
       </c>
       <c r="J102" s="3">
+        <v>-418700</v>
+      </c>
+      <c r="K102" s="3">
         <v>40600</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13310000</v>
+        <v>14214900</v>
       </c>
       <c r="E8" s="3">
-        <v>12757300</v>
+        <v>13624600</v>
       </c>
       <c r="F8" s="3">
-        <v>12252300</v>
+        <v>13085200</v>
       </c>
       <c r="G8" s="3">
-        <v>10115700</v>
+        <v>10803400</v>
       </c>
       <c r="H8" s="3">
-        <v>7010000</v>
+        <v>7486600</v>
       </c>
       <c r="I8" s="3">
-        <v>6885900</v>
+        <v>7354100</v>
       </c>
       <c r="J8" s="3">
-        <v>9095600</v>
+        <v>9714000</v>
       </c>
       <c r="K8" s="3">
         <v>8852100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8195100</v>
+        <v>8752300</v>
       </c>
       <c r="E9" s="3">
-        <v>7767600</v>
+        <v>8295700</v>
       </c>
       <c r="F9" s="3">
-        <v>7473000</v>
+        <v>7981000</v>
       </c>
       <c r="G9" s="3">
-        <v>6184800</v>
+        <v>6605300</v>
       </c>
       <c r="H9" s="3">
-        <v>13817300</v>
+        <v>14756700</v>
       </c>
       <c r="I9" s="3">
-        <v>14694500</v>
+        <v>15693500</v>
       </c>
       <c r="J9" s="3">
-        <v>5925700</v>
+        <v>6328500</v>
       </c>
       <c r="K9" s="3">
         <v>5667900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5114900</v>
+        <v>5462600</v>
       </c>
       <c r="E10" s="3">
-        <v>4989700</v>
+        <v>5329000</v>
       </c>
       <c r="F10" s="3">
-        <v>4779300</v>
+        <v>5104200</v>
       </c>
       <c r="G10" s="3">
-        <v>3930900</v>
+        <v>4198100</v>
       </c>
       <c r="H10" s="3">
-        <v>-6807300</v>
+        <v>-7270100</v>
       </c>
       <c r="I10" s="3">
-        <v>-7808600</v>
+        <v>-8339400</v>
       </c>
       <c r="J10" s="3">
-        <v>3170000</v>
+        <v>3385500</v>
       </c>
       <c r="K10" s="3">
         <v>3184200</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="E14" s="3">
-        <v>52100</v>
+        <v>55600</v>
       </c>
       <c r="F14" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>72000</v>
+        <v>76900</v>
       </c>
       <c r="I14" s="3">
-        <v>89700</v>
+        <v>95800</v>
       </c>
       <c r="J14" s="3">
-        <v>132900</v>
+        <v>141900</v>
       </c>
       <c r="K14" s="3">
         <v>93300</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>48700</v>
+        <v>52000</v>
       </c>
       <c r="E15" s="3">
-        <v>47600</v>
+        <v>50900</v>
       </c>
       <c r="F15" s="3">
-        <v>42100</v>
+        <v>45000</v>
       </c>
       <c r="G15" s="3">
-        <v>36600</v>
+        <v>39000</v>
       </c>
       <c r="H15" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="I15" s="3">
-        <v>233700</v>
+        <v>249600</v>
       </c>
       <c r="J15" s="3">
-        <v>210400</v>
+        <v>224800</v>
       </c>
       <c r="K15" s="3">
         <v>235000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11595500</v>
+        <v>12383800</v>
       </c>
       <c r="E17" s="3">
-        <v>11317500</v>
+        <v>12086900</v>
       </c>
       <c r="F17" s="3">
-        <v>10856700</v>
+        <v>11594800</v>
       </c>
       <c r="G17" s="3">
-        <v>9173100</v>
+        <v>9796800</v>
       </c>
       <c r="H17" s="3">
-        <v>6169300</v>
+        <v>6588800</v>
       </c>
       <c r="I17" s="3">
-        <v>6058600</v>
+        <v>6470500</v>
       </c>
       <c r="J17" s="3">
-        <v>8083300</v>
+        <v>8632800</v>
       </c>
       <c r="K17" s="3">
         <v>7833100</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1714600</v>
+        <v>1831100</v>
       </c>
       <c r="E18" s="3">
-        <v>1439900</v>
+        <v>1537800</v>
       </c>
       <c r="F18" s="3">
-        <v>1395600</v>
+        <v>1490500</v>
       </c>
       <c r="G18" s="3">
-        <v>942600</v>
+        <v>1006600</v>
       </c>
       <c r="H18" s="3">
-        <v>840700</v>
+        <v>897800</v>
       </c>
       <c r="I18" s="3">
-        <v>827400</v>
+        <v>883600</v>
       </c>
       <c r="J18" s="3">
-        <v>1012300</v>
+        <v>1081200</v>
       </c>
       <c r="K18" s="3">
         <v>1018900</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>47600</v>
+        <v>50900</v>
       </c>
       <c r="E20" s="3">
-        <v>43200</v>
+        <v>46100</v>
       </c>
       <c r="F20" s="3">
-        <v>44300</v>
+        <v>47300</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>15400</v>
       </c>
       <c r="H20" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="I20" s="3">
-        <v>32100</v>
+        <v>34300</v>
       </c>
       <c r="J20" s="3">
-        <v>-120700</v>
+        <v>-128900</v>
       </c>
       <c r="K20" s="3">
         <v>3300</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2465300</v>
+        <v>2638100</v>
       </c>
       <c r="E21" s="3">
-        <v>2046400</v>
+        <v>2189800</v>
       </c>
       <c r="F21" s="3">
-        <v>1979000</v>
+        <v>2117600</v>
       </c>
       <c r="G21" s="3">
-        <v>1366300</v>
+        <v>1462200</v>
       </c>
       <c r="H21" s="3">
-        <v>1125700</v>
+        <v>1204300</v>
       </c>
       <c r="I21" s="3">
-        <v>1115900</v>
+        <v>1193600</v>
       </c>
       <c r="J21" s="3">
-        <v>1230500</v>
+        <v>1316700</v>
       </c>
       <c r="K21" s="3">
         <v>1390600</v>
@@ -1083,22 +1083,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>151700</v>
+        <v>162100</v>
       </c>
       <c r="E22" s="3">
-        <v>148400</v>
+        <v>158500</v>
       </c>
       <c r="F22" s="3">
-        <v>156200</v>
+        <v>166800</v>
       </c>
       <c r="G22" s="3">
-        <v>160600</v>
+        <v>171500</v>
       </c>
       <c r="H22" s="3">
-        <v>140700</v>
+        <v>150200</v>
       </c>
       <c r="I22" s="3">
-        <v>130700</v>
+        <v>139600</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1610500</v>
+        <v>1719900</v>
       </c>
       <c r="E23" s="3">
-        <v>1334700</v>
+        <v>1425400</v>
       </c>
       <c r="F23" s="3">
-        <v>1283700</v>
+        <v>1371000</v>
       </c>
       <c r="G23" s="3">
-        <v>796400</v>
+        <v>850500</v>
       </c>
       <c r="H23" s="3">
-        <v>713300</v>
+        <v>761800</v>
       </c>
       <c r="I23" s="3">
-        <v>728800</v>
+        <v>778300</v>
       </c>
       <c r="J23" s="3">
-        <v>891600</v>
+        <v>952200</v>
       </c>
       <c r="K23" s="3">
         <v>919000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>403200</v>
+        <v>430600</v>
       </c>
       <c r="E24" s="3">
-        <v>357800</v>
+        <v>382100</v>
       </c>
       <c r="F24" s="3">
-        <v>167200</v>
+        <v>178600</v>
       </c>
       <c r="G24" s="3">
-        <v>188300</v>
+        <v>201100</v>
       </c>
       <c r="H24" s="3">
-        <v>145100</v>
+        <v>155000</v>
       </c>
       <c r="I24" s="3">
-        <v>192700</v>
+        <v>205800</v>
       </c>
       <c r="J24" s="3">
-        <v>152800</v>
+        <v>163200</v>
       </c>
       <c r="K24" s="3">
         <v>175700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="E26" s="3">
-        <v>976900</v>
+        <v>1043300</v>
       </c>
       <c r="F26" s="3">
-        <v>1116500</v>
+        <v>1192400</v>
       </c>
       <c r="G26" s="3">
-        <v>608100</v>
+        <v>649400</v>
       </c>
       <c r="H26" s="3">
-        <v>568200</v>
+        <v>606800</v>
       </c>
       <c r="I26" s="3">
-        <v>536100</v>
+        <v>572500</v>
       </c>
       <c r="J26" s="3">
-        <v>738800</v>
+        <v>789000</v>
       </c>
       <c r="K26" s="3">
         <v>743300</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="E27" s="3">
-        <v>976900</v>
+        <v>1043300</v>
       </c>
       <c r="F27" s="3">
-        <v>1116500</v>
+        <v>1192400</v>
       </c>
       <c r="G27" s="3">
-        <v>608100</v>
+        <v>649400</v>
       </c>
       <c r="H27" s="3">
-        <v>568200</v>
+        <v>606800</v>
       </c>
       <c r="I27" s="3">
-        <v>536100</v>
+        <v>572500</v>
       </c>
       <c r="J27" s="3">
-        <v>738800</v>
+        <v>789000</v>
       </c>
       <c r="K27" s="3">
         <v>743300</v>
@@ -1296,10 +1296,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>29900</v>
+        <v>31900</v>
       </c>
       <c r="F29" s="3">
-        <v>-354400</v>
+        <v>-378500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47600</v>
+        <v>-50900</v>
       </c>
       <c r="E32" s="3">
-        <v>-43200</v>
+        <v>-46100</v>
       </c>
       <c r="F32" s="3">
-        <v>-44300</v>
+        <v>-47300</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-15400</v>
       </c>
       <c r="H32" s="3">
-        <v>-13300</v>
+        <v>-14200</v>
       </c>
       <c r="I32" s="3">
-        <v>-32100</v>
+        <v>-34300</v>
       </c>
       <c r="J32" s="3">
-        <v>120700</v>
+        <v>128900</v>
       </c>
       <c r="K32" s="3">
         <v>-3300</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="E33" s="3">
-        <v>1006800</v>
+        <v>1075300</v>
       </c>
       <c r="F33" s="3">
-        <v>762000</v>
+        <v>813800</v>
       </c>
       <c r="G33" s="3">
-        <v>608100</v>
+        <v>649400</v>
       </c>
       <c r="H33" s="3">
-        <v>568200</v>
+        <v>606800</v>
       </c>
       <c r="I33" s="3">
-        <v>536100</v>
+        <v>572500</v>
       </c>
       <c r="J33" s="3">
-        <v>738800</v>
+        <v>789000</v>
       </c>
       <c r="K33" s="3">
         <v>743300</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="E35" s="3">
-        <v>1006800</v>
+        <v>1075300</v>
       </c>
       <c r="F35" s="3">
-        <v>762000</v>
+        <v>813800</v>
       </c>
       <c r="G35" s="3">
-        <v>608100</v>
+        <v>649400</v>
       </c>
       <c r="H35" s="3">
-        <v>568200</v>
+        <v>606800</v>
       </c>
       <c r="I35" s="3">
-        <v>536100</v>
+        <v>572500</v>
       </c>
       <c r="J35" s="3">
-        <v>738800</v>
+        <v>789000</v>
       </c>
       <c r="K35" s="3">
         <v>743300</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>188700</v>
+        <v>201100</v>
       </c>
       <c r="E41" s="3">
-        <v>309600</v>
+        <v>330000</v>
       </c>
       <c r="F41" s="3">
-        <v>337400</v>
+        <v>359600</v>
       </c>
       <c r="G41" s="3">
-        <v>309600</v>
+        <v>330000</v>
       </c>
       <c r="H41" s="3">
-        <v>448400</v>
+        <v>477900</v>
       </c>
       <c r="I41" s="3">
-        <v>620400</v>
+        <v>661200</v>
       </c>
       <c r="J41" s="3">
-        <v>380700</v>
+        <v>405700</v>
       </c>
       <c r="K41" s="3">
         <v>791700</v>
@@ -1596,22 +1596,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>162000</v>
+        <v>172700</v>
       </c>
       <c r="E42" s="3">
-        <v>33300</v>
+        <v>35500</v>
       </c>
       <c r="F42" s="3">
-        <v>62100</v>
+        <v>66200</v>
       </c>
       <c r="G42" s="3">
-        <v>118700</v>
+        <v>126600</v>
       </c>
       <c r="H42" s="3">
-        <v>86600</v>
+        <v>92300</v>
       </c>
       <c r="I42" s="3">
-        <v>35500</v>
+        <v>37900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2185200</v>
+        <v>2329100</v>
       </c>
       <c r="E43" s="3">
-        <v>2124200</v>
+        <v>2264100</v>
       </c>
       <c r="F43" s="3">
-        <v>2473700</v>
+        <v>2636700</v>
       </c>
       <c r="G43" s="3">
-        <v>2519200</v>
+        <v>2685200</v>
       </c>
       <c r="H43" s="3">
-        <v>4278300</v>
+        <v>4560100</v>
       </c>
       <c r="I43" s="3">
-        <v>4620100</v>
+        <v>4924400</v>
       </c>
       <c r="J43" s="3">
-        <v>1780100</v>
+        <v>1897400</v>
       </c>
       <c r="K43" s="3">
         <v>1644800</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>802400</v>
+        <v>855200</v>
       </c>
       <c r="E44" s="3">
-        <v>769100</v>
+        <v>819700</v>
       </c>
       <c r="F44" s="3">
-        <v>721400</v>
+        <v>768900</v>
       </c>
       <c r="G44" s="3">
-        <v>746900</v>
+        <v>796100</v>
       </c>
       <c r="H44" s="3">
-        <v>1196400</v>
+        <v>1275200</v>
       </c>
       <c r="I44" s="3">
-        <v>1260700</v>
+        <v>1343800</v>
       </c>
       <c r="J44" s="3">
-        <v>501600</v>
+        <v>534700</v>
       </c>
       <c r="K44" s="3">
         <v>423800</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>105400</v>
+        <v>112400</v>
       </c>
       <c r="E45" s="3">
-        <v>83200</v>
+        <v>88700</v>
       </c>
       <c r="F45" s="3">
-        <v>83200</v>
+        <v>88700</v>
       </c>
       <c r="G45" s="3">
-        <v>106500</v>
+        <v>113600</v>
       </c>
       <c r="H45" s="3">
-        <v>341800</v>
+        <v>364300</v>
       </c>
       <c r="I45" s="3">
-        <v>505000</v>
+        <v>538200</v>
       </c>
       <c r="J45" s="3">
-        <v>187600</v>
+        <v>199900</v>
       </c>
       <c r="K45" s="3">
         <v>172400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3443700</v>
+        <v>3670500</v>
       </c>
       <c r="E46" s="3">
-        <v>3319400</v>
+        <v>3538100</v>
       </c>
       <c r="F46" s="3">
-        <v>3677900</v>
+        <v>3920100</v>
       </c>
       <c r="G46" s="3">
-        <v>3801100</v>
+        <v>4051400</v>
       </c>
       <c r="H46" s="3">
-        <v>2089800</v>
+        <v>2227400</v>
       </c>
       <c r="I46" s="3">
-        <v>2228500</v>
+        <v>2375300</v>
       </c>
       <c r="J46" s="3">
-        <v>2850000</v>
+        <v>3037700</v>
       </c>
       <c r="K46" s="3">
         <v>3032700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4823200</v>
+        <v>4974100</v>
       </c>
       <c r="E48" s="3">
-        <v>4443600</v>
+        <v>4599100</v>
       </c>
       <c r="F48" s="3">
-        <v>4372600</v>
+        <v>4538800</v>
       </c>
       <c r="G48" s="3">
-        <v>4534600</v>
+        <v>4723300</v>
       </c>
       <c r="H48" s="3">
-        <v>5979600</v>
+        <v>6274100</v>
       </c>
       <c r="I48" s="3">
-        <v>6129400</v>
+        <v>6443300</v>
       </c>
       <c r="J48" s="3">
-        <v>2611400</v>
+        <v>2783400</v>
       </c>
       <c r="K48" s="3">
         <v>2549600</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12080200</v>
+        <v>13042700</v>
       </c>
       <c r="E49" s="3">
-        <v>11970300</v>
+        <v>12896000</v>
       </c>
       <c r="F49" s="3">
-        <v>11986900</v>
+        <v>12898300</v>
       </c>
       <c r="G49" s="3">
-        <v>11850400</v>
+        <v>12741000</v>
       </c>
       <c r="H49" s="3">
-        <v>10955900</v>
+        <v>11777000</v>
       </c>
       <c r="I49" s="3">
-        <v>11011400</v>
+        <v>11826600</v>
       </c>
       <c r="J49" s="3">
-        <v>4581300</v>
+        <v>4883000</v>
       </c>
       <c r="K49" s="3">
         <v>4452400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>389500</v>
+        <v>415200</v>
       </c>
       <c r="E52" s="3">
-        <v>482800</v>
+        <v>514600</v>
       </c>
       <c r="F52" s="3">
-        <v>154300</v>
+        <v>164400</v>
       </c>
       <c r="G52" s="3">
-        <v>420600</v>
+        <v>448300</v>
       </c>
       <c r="H52" s="3">
-        <v>405100</v>
+        <v>431800</v>
       </c>
       <c r="I52" s="3">
-        <v>485000</v>
+        <v>516900</v>
       </c>
       <c r="J52" s="3">
-        <v>528300</v>
+        <v>563100</v>
       </c>
       <c r="K52" s="3">
         <v>407400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20736600</v>
+        <v>22102500</v>
       </c>
       <c r="E54" s="3">
-        <v>20216100</v>
+        <v>21547700</v>
       </c>
       <c r="F54" s="3">
-        <v>20191700</v>
+        <v>21521700</v>
       </c>
       <c r="G54" s="3">
-        <v>20606800</v>
+        <v>21964100</v>
       </c>
       <c r="H54" s="3">
-        <v>7764200</v>
+        <v>8275600</v>
       </c>
       <c r="I54" s="3">
-        <v>7821900</v>
+        <v>8337100</v>
       </c>
       <c r="J54" s="3">
-        <v>10570800</v>
+        <v>11267100</v>
       </c>
       <c r="K54" s="3">
         <v>10442000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1263000</v>
+        <v>1346100</v>
       </c>
       <c r="E57" s="3">
-        <v>1226300</v>
+        <v>1307100</v>
       </c>
       <c r="F57" s="3">
-        <v>1173100</v>
+        <v>1250300</v>
       </c>
       <c r="G57" s="3">
-        <v>1003300</v>
+        <v>1069300</v>
       </c>
       <c r="H57" s="3">
-        <v>2684600</v>
+        <v>2861400</v>
       </c>
       <c r="I57" s="3">
-        <v>2804500</v>
+        <v>2989200</v>
       </c>
       <c r="J57" s="3">
-        <v>700300</v>
+        <v>746400</v>
       </c>
       <c r="K57" s="3">
         <v>1481200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>886700</v>
+        <v>945100</v>
       </c>
       <c r="E58" s="3">
-        <v>544900</v>
+        <v>580800</v>
       </c>
       <c r="F58" s="3">
-        <v>304100</v>
+        <v>324100</v>
       </c>
       <c r="G58" s="3">
-        <v>971100</v>
+        <v>1035000</v>
       </c>
       <c r="H58" s="3">
-        <v>967700</v>
+        <v>1031500</v>
       </c>
       <c r="I58" s="3">
-        <v>1281800</v>
+        <v>1366200</v>
       </c>
       <c r="J58" s="3">
-        <v>123200</v>
+        <v>131300</v>
       </c>
       <c r="K58" s="3">
         <v>693900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2417100</v>
+        <v>2576400</v>
       </c>
       <c r="E59" s="3">
-        <v>2437100</v>
+        <v>2597600</v>
       </c>
       <c r="F59" s="3">
-        <v>2170800</v>
+        <v>2313800</v>
       </c>
       <c r="G59" s="3">
-        <v>2189600</v>
+        <v>2333900</v>
       </c>
       <c r="H59" s="3">
-        <v>2755600</v>
+        <v>2937100</v>
       </c>
       <c r="I59" s="3">
-        <v>2851100</v>
+        <v>3038900</v>
       </c>
       <c r="J59" s="3">
-        <v>1612500</v>
+        <v>1718800</v>
       </c>
       <c r="K59" s="3">
         <v>656600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4566800</v>
+        <v>4867600</v>
       </c>
       <c r="E60" s="3">
-        <v>4208400</v>
+        <v>4485600</v>
       </c>
       <c r="F60" s="3">
-        <v>3647900</v>
+        <v>3888200</v>
       </c>
       <c r="G60" s="3">
-        <v>4164000</v>
+        <v>4438200</v>
       </c>
       <c r="H60" s="3">
-        <v>2226300</v>
+        <v>2372900</v>
       </c>
       <c r="I60" s="3">
-        <v>2391600</v>
+        <v>2549100</v>
       </c>
       <c r="J60" s="3">
-        <v>2436000</v>
+        <v>2596500</v>
       </c>
       <c r="K60" s="3">
         <v>2831700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6239300</v>
+        <v>6650300</v>
       </c>
       <c r="E61" s="3">
-        <v>5689900</v>
+        <v>6064700</v>
       </c>
       <c r="F61" s="3">
-        <v>6075000</v>
+        <v>6475200</v>
       </c>
       <c r="G61" s="3">
-        <v>6172700</v>
+        <v>6579300</v>
       </c>
       <c r="H61" s="3">
-        <v>3464800</v>
+        <v>3693000</v>
       </c>
       <c r="I61" s="3">
-        <v>3030900</v>
+        <v>3230500</v>
       </c>
       <c r="J61" s="3">
-        <v>4135100</v>
+        <v>4407500</v>
       </c>
       <c r="K61" s="3">
         <v>3111700</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3098600</v>
+        <v>3302700</v>
       </c>
       <c r="E62" s="3">
-        <v>3033100</v>
+        <v>3232900</v>
       </c>
       <c r="F62" s="3">
-        <v>3049700</v>
+        <v>3250600</v>
       </c>
       <c r="G62" s="3">
-        <v>3099700</v>
+        <v>3303800</v>
       </c>
       <c r="H62" s="3">
-        <v>2339500</v>
+        <v>2493600</v>
       </c>
       <c r="I62" s="3">
-        <v>2411600</v>
+        <v>2570400</v>
       </c>
       <c r="J62" s="3">
-        <v>1469400</v>
+        <v>1566200</v>
       </c>
       <c r="K62" s="3">
         <v>1541600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>13904700</v>
+        <v>14820600</v>
       </c>
       <c r="E66" s="3">
-        <v>12931400</v>
+        <v>13783200</v>
       </c>
       <c r="F66" s="3">
-        <v>12772700</v>
+        <v>13614000</v>
       </c>
       <c r="G66" s="3">
-        <v>13436300</v>
+        <v>14321400</v>
       </c>
       <c r="H66" s="3">
-        <v>6797500</v>
+        <v>7245300</v>
       </c>
       <c r="I66" s="3">
-        <v>6504500</v>
+        <v>6933000</v>
       </c>
       <c r="J66" s="3">
-        <v>8040500</v>
+        <v>8570100</v>
       </c>
       <c r="K66" s="3">
         <v>7485100</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7127100</v>
+        <v>7596600</v>
       </c>
       <c r="E72" s="3">
-        <v>7723100</v>
+        <v>8231800</v>
       </c>
       <c r="F72" s="3">
-        <v>7830700</v>
+        <v>8346500</v>
       </c>
       <c r="G72" s="3">
-        <v>7503400</v>
+        <v>7997600</v>
       </c>
       <c r="H72" s="3">
-        <v>4389300</v>
+        <v>4678400</v>
       </c>
       <c r="I72" s="3">
-        <v>3705600</v>
+        <v>3949700</v>
       </c>
       <c r="J72" s="3">
-        <v>1750200</v>
+        <v>1865400</v>
       </c>
       <c r="K72" s="3">
         <v>1236300</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6831900</v>
+        <v>7281900</v>
       </c>
       <c r="E76" s="3">
-        <v>7284700</v>
+        <v>7764600</v>
       </c>
       <c r="F76" s="3">
-        <v>7419000</v>
+        <v>7907700</v>
       </c>
       <c r="G76" s="3">
-        <v>7170400</v>
+        <v>7642700</v>
       </c>
       <c r="H76" s="3">
-        <v>966600</v>
+        <v>1030300</v>
       </c>
       <c r="I76" s="3">
-        <v>1317300</v>
+        <v>1404100</v>
       </c>
       <c r="J76" s="3">
-        <v>2530300</v>
+        <v>2697000</v>
       </c>
       <c r="K76" s="3">
         <v>2956900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="E81" s="3">
-        <v>1006800</v>
+        <v>1075300</v>
       </c>
       <c r="F81" s="3">
-        <v>762000</v>
+        <v>813800</v>
       </c>
       <c r="G81" s="3">
-        <v>608100</v>
+        <v>649400</v>
       </c>
       <c r="H81" s="3">
-        <v>568200</v>
+        <v>606800</v>
       </c>
       <c r="I81" s="3">
-        <v>536100</v>
+        <v>572500</v>
       </c>
       <c r="J81" s="3">
-        <v>738800</v>
+        <v>789000</v>
       </c>
       <c r="K81" s="3">
         <v>743300</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>707800</v>
+        <v>755900</v>
       </c>
       <c r="E83" s="3">
-        <v>567100</v>
+        <v>605600</v>
       </c>
       <c r="F83" s="3">
-        <v>542700</v>
+        <v>579600</v>
       </c>
       <c r="G83" s="3">
-        <v>412000</v>
+        <v>440000</v>
       </c>
       <c r="H83" s="3">
-        <v>273600</v>
+        <v>292200</v>
       </c>
       <c r="I83" s="3">
-        <v>258100</v>
+        <v>275600</v>
       </c>
       <c r="J83" s="3">
-        <v>341100</v>
+        <v>364300</v>
       </c>
       <c r="K83" s="3">
         <v>367800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2108900</v>
+        <v>2252200</v>
       </c>
       <c r="E89" s="3">
-        <v>2000300</v>
+        <v>2136300</v>
       </c>
       <c r="F89" s="3">
-        <v>1797600</v>
+        <v>1919800</v>
       </c>
       <c r="G89" s="3">
-        <v>1377900</v>
+        <v>1471500</v>
       </c>
       <c r="H89" s="3">
-        <v>1021200</v>
+        <v>1090600</v>
       </c>
       <c r="I89" s="3">
-        <v>902700</v>
+        <v>964100</v>
       </c>
       <c r="J89" s="3">
-        <v>922600</v>
+        <v>985400</v>
       </c>
       <c r="K89" s="3">
         <v>1039800</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-560400</v>
+        <v>-598500</v>
       </c>
       <c r="E91" s="3">
-        <v>-581500</v>
+        <v>-621000</v>
       </c>
       <c r="F91" s="3">
-        <v>-536100</v>
+        <v>-572500</v>
       </c>
       <c r="G91" s="3">
-        <v>-508400</v>
+        <v>-543000</v>
       </c>
       <c r="H91" s="3">
-        <v>-679000</v>
+        <v>-725100</v>
       </c>
       <c r="I91" s="3">
-        <v>-613600</v>
+        <v>-655300</v>
       </c>
       <c r="J91" s="3">
-        <v>-346700</v>
+        <v>-370200</v>
       </c>
       <c r="K91" s="3">
         <v>-415000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-663500</v>
+        <v>-708600</v>
       </c>
       <c r="E94" s="3">
-        <v>-660100</v>
+        <v>-705000</v>
       </c>
       <c r="F94" s="3">
-        <v>-540500</v>
+        <v>-577300</v>
       </c>
       <c r="G94" s="3">
-        <v>-424200</v>
+        <v>-453100</v>
       </c>
       <c r="H94" s="3">
-        <v>-301300</v>
+        <v>-321700</v>
       </c>
       <c r="I94" s="3">
-        <v>-229300</v>
+        <v>-244900</v>
       </c>
       <c r="J94" s="3">
-        <v>-365500</v>
+        <v>-390400</v>
       </c>
       <c r="K94" s="3">
         <v>-409600</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-635800</v>
+        <v>-679000</v>
       </c>
       <c r="E96" s="3">
-        <v>-568200</v>
+        <v>-606800</v>
       </c>
       <c r="F96" s="3">
-        <v>-541600</v>
+        <v>-578400</v>
       </c>
       <c r="G96" s="3">
-        <v>-226000</v>
+        <v>-241300</v>
       </c>
       <c r="H96" s="3">
-        <v>-541600</v>
+        <v>-578400</v>
       </c>
       <c r="I96" s="3">
-        <v>-477400</v>
+        <v>-509800</v>
       </c>
       <c r="J96" s="3">
-        <v>-235900</v>
+        <v>-252000</v>
       </c>
       <c r="K96" s="3">
         <v>-205300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1442100</v>
+        <v>-1540100</v>
       </c>
       <c r="E100" s="3">
-        <v>-1394500</v>
+        <v>-1489300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1276000</v>
+        <v>-1362700</v>
       </c>
       <c r="G100" s="3">
-        <v>-693400</v>
+        <v>-740500</v>
       </c>
       <c r="H100" s="3">
-        <v>-758700</v>
+        <v>-810300</v>
       </c>
       <c r="I100" s="3">
-        <v>-749800</v>
+        <v>-800800</v>
       </c>
       <c r="J100" s="3">
-        <v>-992400</v>
+        <v>-1059900</v>
       </c>
       <c r="K100" s="3">
         <v>-610500</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10000</v>
+        <v>-10600</v>
       </c>
       <c r="G101" s="3">
-        <v>-5500</v>
+        <v>-5900</v>
       </c>
       <c r="H101" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="I101" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J101" s="3">
-        <v>16600</v>
+        <v>17700</v>
       </c>
       <c r="K101" s="3">
         <v>20900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7800</v>
+        <v>8300</v>
       </c>
       <c r="E102" s="3">
-        <v>-56500</v>
+        <v>-60300</v>
       </c>
       <c r="F102" s="3">
-        <v>-28800</v>
+        <v>-30800</v>
       </c>
       <c r="G102" s="3">
-        <v>254700</v>
+        <v>272100</v>
       </c>
       <c r="H102" s="3">
-        <v>-31000</v>
+        <v>-33100</v>
       </c>
       <c r="I102" s="3">
-        <v>-73100</v>
+        <v>-78100</v>
       </c>
       <c r="J102" s="3">
-        <v>-418700</v>
+        <v>-447100</v>
       </c>
       <c r="K102" s="3">
         <v>40600</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14214900</v>
+        <v>14374700</v>
       </c>
       <c r="E8" s="3">
-        <v>13624600</v>
+        <v>13777800</v>
       </c>
       <c r="F8" s="3">
-        <v>13085200</v>
+        <v>13232400</v>
       </c>
       <c r="G8" s="3">
-        <v>10803400</v>
+        <v>10924900</v>
       </c>
       <c r="H8" s="3">
-        <v>7486600</v>
+        <v>7570700</v>
       </c>
       <c r="I8" s="3">
-        <v>7354100</v>
+        <v>7436800</v>
       </c>
       <c r="J8" s="3">
-        <v>9714000</v>
+        <v>9823200</v>
       </c>
       <c r="K8" s="3">
         <v>8852100</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8752300</v>
+        <v>8850700</v>
       </c>
       <c r="E9" s="3">
-        <v>8295700</v>
+        <v>8389000</v>
       </c>
       <c r="F9" s="3">
-        <v>7981000</v>
+        <v>8070800</v>
       </c>
       <c r="G9" s="3">
-        <v>6605300</v>
+        <v>6679600</v>
       </c>
       <c r="H9" s="3">
-        <v>14756700</v>
+        <v>14922600</v>
       </c>
       <c r="I9" s="3">
-        <v>15693500</v>
+        <v>15870000</v>
       </c>
       <c r="J9" s="3">
-        <v>6328500</v>
+        <v>6399700</v>
       </c>
       <c r="K9" s="3">
         <v>5667900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5462600</v>
+        <v>5524100</v>
       </c>
       <c r="E10" s="3">
-        <v>5329000</v>
+        <v>5388900</v>
       </c>
       <c r="F10" s="3">
-        <v>5104200</v>
+        <v>5161600</v>
       </c>
       <c r="G10" s="3">
-        <v>4198100</v>
+        <v>4245300</v>
       </c>
       <c r="H10" s="3">
-        <v>-7270100</v>
+        <v>-7351800</v>
       </c>
       <c r="I10" s="3">
-        <v>-8339400</v>
+        <v>-8433200</v>
       </c>
       <c r="J10" s="3">
-        <v>3385500</v>
+        <v>3423500</v>
       </c>
       <c r="K10" s="3">
         <v>3184200</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="E14" s="3">
-        <v>55600</v>
+        <v>56200</v>
       </c>
       <c r="F14" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>76900</v>
+        <v>77800</v>
       </c>
       <c r="I14" s="3">
-        <v>95800</v>
+        <v>96900</v>
       </c>
       <c r="J14" s="3">
-        <v>141900</v>
+        <v>143500</v>
       </c>
       <c r="K14" s="3">
         <v>93300</v>
@@ -908,25 +908,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>52000</v>
+        <v>52600</v>
       </c>
       <c r="E15" s="3">
-        <v>50900</v>
+        <v>51400</v>
       </c>
       <c r="F15" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="G15" s="3">
-        <v>39000</v>
+        <v>39500</v>
       </c>
       <c r="H15" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="I15" s="3">
-        <v>249600</v>
+        <v>252400</v>
       </c>
       <c r="J15" s="3">
-        <v>224800</v>
+        <v>227300</v>
       </c>
       <c r="K15" s="3">
         <v>235000</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12383800</v>
+        <v>12523000</v>
       </c>
       <c r="E17" s="3">
-        <v>12086900</v>
+        <v>12222800</v>
       </c>
       <c r="F17" s="3">
-        <v>11594800</v>
+        <v>11725200</v>
       </c>
       <c r="G17" s="3">
-        <v>9796800</v>
+        <v>9906900</v>
       </c>
       <c r="H17" s="3">
-        <v>6588800</v>
+        <v>6662800</v>
       </c>
       <c r="I17" s="3">
-        <v>6470500</v>
+        <v>6543200</v>
       </c>
       <c r="J17" s="3">
-        <v>8632800</v>
+        <v>8729900</v>
       </c>
       <c r="K17" s="3">
         <v>7833100</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1831100</v>
+        <v>1851700</v>
       </c>
       <c r="E18" s="3">
-        <v>1537800</v>
+        <v>1555100</v>
       </c>
       <c r="F18" s="3">
-        <v>1490500</v>
+        <v>1507200</v>
       </c>
       <c r="G18" s="3">
-        <v>1006600</v>
+        <v>1018000</v>
       </c>
       <c r="H18" s="3">
-        <v>897800</v>
+        <v>907900</v>
       </c>
       <c r="I18" s="3">
-        <v>883600</v>
+        <v>893600</v>
       </c>
       <c r="J18" s="3">
-        <v>1081200</v>
+        <v>1093300</v>
       </c>
       <c r="K18" s="3">
         <v>1018900</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>50900</v>
+        <v>51400</v>
       </c>
       <c r="E20" s="3">
-        <v>46100</v>
+        <v>46700</v>
       </c>
       <c r="F20" s="3">
-        <v>47300</v>
+        <v>47800</v>
       </c>
       <c r="G20" s="3">
-        <v>15400</v>
+        <v>15600</v>
       </c>
       <c r="H20" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="I20" s="3">
-        <v>34300</v>
+        <v>34700</v>
       </c>
       <c r="J20" s="3">
-        <v>-128900</v>
+        <v>-130400</v>
       </c>
       <c r="K20" s="3">
         <v>3300</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2638100</v>
+        <v>2664400</v>
       </c>
       <c r="E21" s="3">
-        <v>2189800</v>
+        <v>2211700</v>
       </c>
       <c r="F21" s="3">
-        <v>2117600</v>
+        <v>2138800</v>
       </c>
       <c r="G21" s="3">
-        <v>1462200</v>
+        <v>1476700</v>
       </c>
       <c r="H21" s="3">
-        <v>1204300</v>
+        <v>1216500</v>
       </c>
       <c r="I21" s="3">
-        <v>1193600</v>
+        <v>1205800</v>
       </c>
       <c r="J21" s="3">
-        <v>1316700</v>
+        <v>1329900</v>
       </c>
       <c r="K21" s="3">
         <v>1390600</v>
@@ -1083,22 +1083,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162100</v>
+        <v>163900</v>
       </c>
       <c r="E22" s="3">
-        <v>158500</v>
+        <v>160300</v>
       </c>
       <c r="F22" s="3">
-        <v>166800</v>
+        <v>168700</v>
       </c>
       <c r="G22" s="3">
-        <v>171500</v>
+        <v>173400</v>
       </c>
       <c r="H22" s="3">
-        <v>150200</v>
+        <v>151900</v>
       </c>
       <c r="I22" s="3">
-        <v>139600</v>
+        <v>141200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1719900</v>
+        <v>1739300</v>
       </c>
       <c r="E23" s="3">
-        <v>1425400</v>
+        <v>1441400</v>
       </c>
       <c r="F23" s="3">
-        <v>1371000</v>
+        <v>1386400</v>
       </c>
       <c r="G23" s="3">
-        <v>850500</v>
+        <v>860100</v>
       </c>
       <c r="H23" s="3">
-        <v>761800</v>
+        <v>770400</v>
       </c>
       <c r="I23" s="3">
-        <v>778300</v>
+        <v>787100</v>
       </c>
       <c r="J23" s="3">
-        <v>952200</v>
+        <v>962900</v>
       </c>
       <c r="K23" s="3">
         <v>919000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>430600</v>
+        <v>435400</v>
       </c>
       <c r="E24" s="3">
-        <v>382100</v>
+        <v>386400</v>
       </c>
       <c r="F24" s="3">
-        <v>178600</v>
+        <v>180600</v>
       </c>
       <c r="G24" s="3">
-        <v>201100</v>
+        <v>203400</v>
       </c>
       <c r="H24" s="3">
-        <v>155000</v>
+        <v>156700</v>
       </c>
       <c r="I24" s="3">
-        <v>205800</v>
+        <v>208100</v>
       </c>
       <c r="J24" s="3">
-        <v>163200</v>
+        <v>165100</v>
       </c>
       <c r="K24" s="3">
         <v>175700</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="E26" s="3">
-        <v>1043300</v>
+        <v>1055000</v>
       </c>
       <c r="F26" s="3">
-        <v>1192400</v>
+        <v>1205800</v>
       </c>
       <c r="G26" s="3">
-        <v>649400</v>
+        <v>656700</v>
       </c>
       <c r="H26" s="3">
-        <v>606800</v>
+        <v>613700</v>
       </c>
       <c r="I26" s="3">
-        <v>572500</v>
+        <v>579000</v>
       </c>
       <c r="J26" s="3">
-        <v>789000</v>
+        <v>797900</v>
       </c>
       <c r="K26" s="3">
         <v>743300</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="E27" s="3">
-        <v>1043300</v>
+        <v>1055000</v>
       </c>
       <c r="F27" s="3">
-        <v>1192400</v>
+        <v>1205800</v>
       </c>
       <c r="G27" s="3">
-        <v>649400</v>
+        <v>656700</v>
       </c>
       <c r="H27" s="3">
-        <v>606800</v>
+        <v>613700</v>
       </c>
       <c r="I27" s="3">
-        <v>572500</v>
+        <v>579000</v>
       </c>
       <c r="J27" s="3">
-        <v>789000</v>
+        <v>797900</v>
       </c>
       <c r="K27" s="3">
         <v>743300</v>
@@ -1296,10 +1296,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="3">
-        <v>31900</v>
+        <v>32300</v>
       </c>
       <c r="F29" s="3">
-        <v>-378500</v>
+        <v>-382800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50900</v>
+        <v>-51400</v>
       </c>
       <c r="E32" s="3">
-        <v>-46100</v>
+        <v>-46700</v>
       </c>
       <c r="F32" s="3">
-        <v>-47300</v>
+        <v>-47800</v>
       </c>
       <c r="G32" s="3">
-        <v>-15400</v>
+        <v>-15600</v>
       </c>
       <c r="H32" s="3">
-        <v>-14200</v>
+        <v>-14400</v>
       </c>
       <c r="I32" s="3">
-        <v>-34300</v>
+        <v>-34700</v>
       </c>
       <c r="J32" s="3">
-        <v>128900</v>
+        <v>130400</v>
       </c>
       <c r="K32" s="3">
         <v>-3300</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="E33" s="3">
-        <v>1075300</v>
+        <v>1087300</v>
       </c>
       <c r="F33" s="3">
-        <v>813800</v>
+        <v>823000</v>
       </c>
       <c r="G33" s="3">
-        <v>649400</v>
+        <v>656700</v>
       </c>
       <c r="H33" s="3">
-        <v>606800</v>
+        <v>613700</v>
       </c>
       <c r="I33" s="3">
-        <v>572500</v>
+        <v>579000</v>
       </c>
       <c r="J33" s="3">
-        <v>789000</v>
+        <v>797900</v>
       </c>
       <c r="K33" s="3">
         <v>743300</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="E35" s="3">
-        <v>1075300</v>
+        <v>1087300</v>
       </c>
       <c r="F35" s="3">
-        <v>813800</v>
+        <v>823000</v>
       </c>
       <c r="G35" s="3">
-        <v>649400</v>
+        <v>656700</v>
       </c>
       <c r="H35" s="3">
-        <v>606800</v>
+        <v>613700</v>
       </c>
       <c r="I35" s="3">
-        <v>572500</v>
+        <v>579000</v>
       </c>
       <c r="J35" s="3">
-        <v>789000</v>
+        <v>797900</v>
       </c>
       <c r="K35" s="3">
         <v>743300</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>201100</v>
+        <v>203400</v>
       </c>
       <c r="E41" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="F41" s="3">
-        <v>359600</v>
+        <v>363600</v>
       </c>
       <c r="G41" s="3">
-        <v>330000</v>
+        <v>333700</v>
       </c>
       <c r="H41" s="3">
-        <v>477900</v>
+        <v>483300</v>
       </c>
       <c r="I41" s="3">
-        <v>661200</v>
+        <v>668700</v>
       </c>
       <c r="J41" s="3">
-        <v>405700</v>
+        <v>410300</v>
       </c>
       <c r="K41" s="3">
         <v>791700</v>
@@ -1596,22 +1596,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>172700</v>
+        <v>174600</v>
       </c>
       <c r="E42" s="3">
-        <v>35500</v>
+        <v>35900</v>
       </c>
       <c r="F42" s="3">
-        <v>66200</v>
+        <v>67000</v>
       </c>
       <c r="G42" s="3">
-        <v>126600</v>
+        <v>128000</v>
       </c>
       <c r="H42" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="I42" s="3">
-        <v>37900</v>
+        <v>38300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2329100</v>
+        <v>2355300</v>
       </c>
       <c r="E43" s="3">
-        <v>2264100</v>
+        <v>2289500</v>
       </c>
       <c r="F43" s="3">
-        <v>2636700</v>
+        <v>2666300</v>
       </c>
       <c r="G43" s="3">
-        <v>2685200</v>
+        <v>2715400</v>
       </c>
       <c r="H43" s="3">
-        <v>4560100</v>
+        <v>4611400</v>
       </c>
       <c r="I43" s="3">
-        <v>4924400</v>
+        <v>4979800</v>
       </c>
       <c r="J43" s="3">
-        <v>1897400</v>
+        <v>1918700</v>
       </c>
       <c r="K43" s="3">
         <v>1644800</v>
@@ -1656,25 +1656,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>855200</v>
+        <v>864900</v>
       </c>
       <c r="E44" s="3">
-        <v>819700</v>
+        <v>829000</v>
       </c>
       <c r="F44" s="3">
-        <v>768900</v>
+        <v>777500</v>
       </c>
       <c r="G44" s="3">
-        <v>796100</v>
+        <v>805000</v>
       </c>
       <c r="H44" s="3">
-        <v>1275200</v>
+        <v>1289500</v>
       </c>
       <c r="I44" s="3">
-        <v>1343800</v>
+        <v>1358900</v>
       </c>
       <c r="J44" s="3">
-        <v>534700</v>
+        <v>540700</v>
       </c>
       <c r="K44" s="3">
         <v>423800</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112400</v>
+        <v>113600</v>
       </c>
       <c r="E45" s="3">
-        <v>88700</v>
+        <v>89700</v>
       </c>
       <c r="F45" s="3">
-        <v>88700</v>
+        <v>89700</v>
       </c>
       <c r="G45" s="3">
-        <v>113600</v>
+        <v>114800</v>
       </c>
       <c r="H45" s="3">
-        <v>364300</v>
+        <v>368400</v>
       </c>
       <c r="I45" s="3">
-        <v>538200</v>
+        <v>544300</v>
       </c>
       <c r="J45" s="3">
-        <v>199900</v>
+        <v>202200</v>
       </c>
       <c r="K45" s="3">
         <v>172400</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3670500</v>
+        <v>3711800</v>
       </c>
       <c r="E46" s="3">
-        <v>3538100</v>
+        <v>3577800</v>
       </c>
       <c r="F46" s="3">
-        <v>3920100</v>
+        <v>3964200</v>
       </c>
       <c r="G46" s="3">
-        <v>4051400</v>
+        <v>4097000</v>
       </c>
       <c r="H46" s="3">
-        <v>2227400</v>
+        <v>2252400</v>
       </c>
       <c r="I46" s="3">
-        <v>2375300</v>
+        <v>2402000</v>
       </c>
       <c r="J46" s="3">
-        <v>3037700</v>
+        <v>3071800</v>
       </c>
       <c r="K46" s="3">
         <v>3032700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4974100</v>
+        <v>5030000</v>
       </c>
       <c r="E48" s="3">
-        <v>4599100</v>
+        <v>4650800</v>
       </c>
       <c r="F48" s="3">
-        <v>4538800</v>
+        <v>4589800</v>
       </c>
       <c r="G48" s="3">
-        <v>4723300</v>
+        <v>4776400</v>
       </c>
       <c r="H48" s="3">
-        <v>6274100</v>
+        <v>6344600</v>
       </c>
       <c r="I48" s="3">
-        <v>6443300</v>
+        <v>6515700</v>
       </c>
       <c r="J48" s="3">
-        <v>2783400</v>
+        <v>2814700</v>
       </c>
       <c r="K48" s="3">
         <v>2549600</v>
@@ -1806,25 +1806,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13042700</v>
+        <v>13189300</v>
       </c>
       <c r="E49" s="3">
-        <v>12896000</v>
+        <v>13041000</v>
       </c>
       <c r="F49" s="3">
-        <v>12898300</v>
+        <v>13043400</v>
       </c>
       <c r="G49" s="3">
-        <v>12741000</v>
+        <v>12884300</v>
       </c>
       <c r="H49" s="3">
-        <v>11777000</v>
+        <v>11909400</v>
       </c>
       <c r="I49" s="3">
-        <v>11826600</v>
+        <v>11959600</v>
       </c>
       <c r="J49" s="3">
-        <v>4883000</v>
+        <v>4937900</v>
       </c>
       <c r="K49" s="3">
         <v>4452400</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>415200</v>
+        <v>419900</v>
       </c>
       <c r="E52" s="3">
-        <v>514600</v>
+        <v>520300</v>
       </c>
       <c r="F52" s="3">
-        <v>164400</v>
+        <v>166300</v>
       </c>
       <c r="G52" s="3">
-        <v>448300</v>
+        <v>453400</v>
       </c>
       <c r="H52" s="3">
-        <v>431800</v>
+        <v>436600</v>
       </c>
       <c r="I52" s="3">
-        <v>516900</v>
+        <v>522700</v>
       </c>
       <c r="J52" s="3">
-        <v>563100</v>
+        <v>569400</v>
       </c>
       <c r="K52" s="3">
         <v>407400</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22102500</v>
+        <v>22351000</v>
       </c>
       <c r="E54" s="3">
-        <v>21547700</v>
+        <v>21790000</v>
       </c>
       <c r="F54" s="3">
-        <v>21521700</v>
+        <v>21763700</v>
       </c>
       <c r="G54" s="3">
-        <v>21964100</v>
+        <v>22211000</v>
       </c>
       <c r="H54" s="3">
-        <v>8275600</v>
+        <v>8368600</v>
       </c>
       <c r="I54" s="3">
-        <v>8337100</v>
+        <v>8430800</v>
       </c>
       <c r="J54" s="3">
-        <v>11267100</v>
+        <v>11393800</v>
       </c>
       <c r="K54" s="3">
         <v>10442000</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1346100</v>
+        <v>1361300</v>
       </c>
       <c r="E57" s="3">
-        <v>1307100</v>
+        <v>1321800</v>
       </c>
       <c r="F57" s="3">
-        <v>1250300</v>
+        <v>1264400</v>
       </c>
       <c r="G57" s="3">
-        <v>1069300</v>
+        <v>1081400</v>
       </c>
       <c r="H57" s="3">
-        <v>2861400</v>
+        <v>2893600</v>
       </c>
       <c r="I57" s="3">
-        <v>2989200</v>
+        <v>3022800</v>
       </c>
       <c r="J57" s="3">
-        <v>746400</v>
+        <v>754800</v>
       </c>
       <c r="K57" s="3">
         <v>1481200</v>
@@ -2044,25 +2044,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>945100</v>
+        <v>955800</v>
       </c>
       <c r="E58" s="3">
-        <v>580800</v>
+        <v>587300</v>
       </c>
       <c r="F58" s="3">
-        <v>324100</v>
+        <v>327800</v>
       </c>
       <c r="G58" s="3">
-        <v>1035000</v>
+        <v>1046700</v>
       </c>
       <c r="H58" s="3">
-        <v>1031500</v>
+        <v>1043100</v>
       </c>
       <c r="I58" s="3">
-        <v>1366200</v>
+        <v>1381600</v>
       </c>
       <c r="J58" s="3">
-        <v>131300</v>
+        <v>132800</v>
       </c>
       <c r="K58" s="3">
         <v>693900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2576400</v>
+        <v>2605300</v>
       </c>
       <c r="E59" s="3">
-        <v>2597600</v>
+        <v>2626900</v>
       </c>
       <c r="F59" s="3">
-        <v>2313800</v>
+        <v>2339800</v>
       </c>
       <c r="G59" s="3">
-        <v>2333900</v>
+        <v>2360100</v>
       </c>
       <c r="H59" s="3">
-        <v>2937100</v>
+        <v>2970200</v>
       </c>
       <c r="I59" s="3">
-        <v>3038900</v>
+        <v>3073000</v>
       </c>
       <c r="J59" s="3">
-        <v>1718800</v>
+        <v>1738100</v>
       </c>
       <c r="K59" s="3">
         <v>656600</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4867600</v>
+        <v>4922400</v>
       </c>
       <c r="E60" s="3">
-        <v>4485600</v>
+        <v>4536000</v>
       </c>
       <c r="F60" s="3">
-        <v>3888200</v>
+        <v>3931900</v>
       </c>
       <c r="G60" s="3">
-        <v>4438200</v>
+        <v>4488100</v>
       </c>
       <c r="H60" s="3">
-        <v>2372900</v>
+        <v>2399600</v>
       </c>
       <c r="I60" s="3">
-        <v>2549100</v>
+        <v>2577800</v>
       </c>
       <c r="J60" s="3">
-        <v>2596500</v>
+        <v>2625700</v>
       </c>
       <c r="K60" s="3">
         <v>2831700</v>
@@ -2134,25 +2134,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6650300</v>
+        <v>6725000</v>
       </c>
       <c r="E61" s="3">
-        <v>6064700</v>
+        <v>6132900</v>
       </c>
       <c r="F61" s="3">
-        <v>6475200</v>
+        <v>6548000</v>
       </c>
       <c r="G61" s="3">
-        <v>6579300</v>
+        <v>6653300</v>
       </c>
       <c r="H61" s="3">
-        <v>3693000</v>
+        <v>3734500</v>
       </c>
       <c r="I61" s="3">
-        <v>3230500</v>
+        <v>3266800</v>
       </c>
       <c r="J61" s="3">
-        <v>4407500</v>
+        <v>4457000</v>
       </c>
       <c r="K61" s="3">
         <v>3111700</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3302700</v>
+        <v>3339800</v>
       </c>
       <c r="E62" s="3">
-        <v>3232900</v>
+        <v>3269200</v>
       </c>
       <c r="F62" s="3">
-        <v>3250600</v>
+        <v>3287200</v>
       </c>
       <c r="G62" s="3">
-        <v>3303800</v>
+        <v>3341000</v>
       </c>
       <c r="H62" s="3">
-        <v>2493600</v>
+        <v>2521600</v>
       </c>
       <c r="I62" s="3">
-        <v>2570400</v>
+        <v>2599300</v>
       </c>
       <c r="J62" s="3">
-        <v>1566200</v>
+        <v>1583800</v>
       </c>
       <c r="K62" s="3">
         <v>1541600</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14820600</v>
+        <v>14987200</v>
       </c>
       <c r="E66" s="3">
-        <v>13783200</v>
+        <v>13938100</v>
       </c>
       <c r="F66" s="3">
-        <v>13614000</v>
+        <v>13767100</v>
       </c>
       <c r="G66" s="3">
-        <v>14321400</v>
+        <v>14482400</v>
       </c>
       <c r="H66" s="3">
-        <v>7245300</v>
+        <v>7326700</v>
       </c>
       <c r="I66" s="3">
-        <v>6933000</v>
+        <v>7010900</v>
       </c>
       <c r="J66" s="3">
-        <v>8570100</v>
+        <v>8666500</v>
       </c>
       <c r="K66" s="3">
         <v>7485100</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7596600</v>
+        <v>7682000</v>
       </c>
       <c r="E72" s="3">
-        <v>8231800</v>
+        <v>8324400</v>
       </c>
       <c r="F72" s="3">
-        <v>8346500</v>
+        <v>8440400</v>
       </c>
       <c r="G72" s="3">
-        <v>7997600</v>
+        <v>8087500</v>
       </c>
       <c r="H72" s="3">
-        <v>4678400</v>
+        <v>4731000</v>
       </c>
       <c r="I72" s="3">
-        <v>3949700</v>
+        <v>3994100</v>
       </c>
       <c r="J72" s="3">
-        <v>1865400</v>
+        <v>1886400</v>
       </c>
       <c r="K72" s="3">
         <v>1236300</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7281900</v>
+        <v>7363800</v>
       </c>
       <c r="E76" s="3">
-        <v>7764600</v>
+        <v>7851900</v>
       </c>
       <c r="F76" s="3">
-        <v>7907700</v>
+        <v>7996600</v>
       </c>
       <c r="G76" s="3">
-        <v>7642700</v>
+        <v>7728600</v>
       </c>
       <c r="H76" s="3">
-        <v>1030300</v>
+        <v>1041900</v>
       </c>
       <c r="I76" s="3">
-        <v>1404100</v>
+        <v>1419900</v>
       </c>
       <c r="J76" s="3">
-        <v>2697000</v>
+        <v>2727300</v>
       </c>
       <c r="K76" s="3">
         <v>2956900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="E81" s="3">
-        <v>1075300</v>
+        <v>1087300</v>
       </c>
       <c r="F81" s="3">
-        <v>813800</v>
+        <v>823000</v>
       </c>
       <c r="G81" s="3">
-        <v>649400</v>
+        <v>656700</v>
       </c>
       <c r="H81" s="3">
-        <v>606800</v>
+        <v>613700</v>
       </c>
       <c r="I81" s="3">
-        <v>572500</v>
+        <v>579000</v>
       </c>
       <c r="J81" s="3">
-        <v>789000</v>
+        <v>797900</v>
       </c>
       <c r="K81" s="3">
         <v>743300</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>755900</v>
+        <v>764400</v>
       </c>
       <c r="E83" s="3">
-        <v>605600</v>
+        <v>612500</v>
       </c>
       <c r="F83" s="3">
-        <v>579600</v>
+        <v>586100</v>
       </c>
       <c r="G83" s="3">
-        <v>440000</v>
+        <v>445000</v>
       </c>
       <c r="H83" s="3">
-        <v>292200</v>
+        <v>295500</v>
       </c>
       <c r="I83" s="3">
-        <v>275600</v>
+        <v>278700</v>
       </c>
       <c r="J83" s="3">
-        <v>364300</v>
+        <v>368400</v>
       </c>
       <c r="K83" s="3">
         <v>367800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2252200</v>
+        <v>2277600</v>
       </c>
       <c r="E89" s="3">
-        <v>2136300</v>
+        <v>2160300</v>
       </c>
       <c r="F89" s="3">
-        <v>1919800</v>
+        <v>1941400</v>
       </c>
       <c r="G89" s="3">
-        <v>1471500</v>
+        <v>1488100</v>
       </c>
       <c r="H89" s="3">
-        <v>1090600</v>
+        <v>1102900</v>
       </c>
       <c r="I89" s="3">
-        <v>964100</v>
+        <v>974900</v>
       </c>
       <c r="J89" s="3">
-        <v>985400</v>
+        <v>996400</v>
       </c>
       <c r="K89" s="3">
         <v>1039800</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-598500</v>
+        <v>-605300</v>
       </c>
       <c r="E91" s="3">
-        <v>-621000</v>
+        <v>-628000</v>
       </c>
       <c r="F91" s="3">
-        <v>-572500</v>
+        <v>-579000</v>
       </c>
       <c r="G91" s="3">
-        <v>-543000</v>
+        <v>-549100</v>
       </c>
       <c r="H91" s="3">
-        <v>-725100</v>
+        <v>-733300</v>
       </c>
       <c r="I91" s="3">
-        <v>-655300</v>
+        <v>-662700</v>
       </c>
       <c r="J91" s="3">
-        <v>-370200</v>
+        <v>-374400</v>
       </c>
       <c r="K91" s="3">
         <v>-415000</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-708600</v>
+        <v>-716500</v>
       </c>
       <c r="E94" s="3">
-        <v>-705000</v>
+        <v>-712900</v>
       </c>
       <c r="F94" s="3">
-        <v>-577300</v>
+        <v>-583700</v>
       </c>
       <c r="G94" s="3">
-        <v>-453100</v>
+        <v>-458100</v>
       </c>
       <c r="H94" s="3">
-        <v>-321700</v>
+        <v>-325400</v>
       </c>
       <c r="I94" s="3">
-        <v>-244900</v>
+        <v>-247600</v>
       </c>
       <c r="J94" s="3">
-        <v>-390400</v>
+        <v>-394700</v>
       </c>
       <c r="K94" s="3">
         <v>-409600</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-679000</v>
+        <v>-686600</v>
       </c>
       <c r="E96" s="3">
-        <v>-606800</v>
+        <v>-613700</v>
       </c>
       <c r="F96" s="3">
-        <v>-578400</v>
+        <v>-584900</v>
       </c>
       <c r="G96" s="3">
-        <v>-241300</v>
+        <v>-244000</v>
       </c>
       <c r="H96" s="3">
-        <v>-578400</v>
+        <v>-584900</v>
       </c>
       <c r="I96" s="3">
-        <v>-509800</v>
+        <v>-515600</v>
       </c>
       <c r="J96" s="3">
-        <v>-252000</v>
+        <v>-254800</v>
       </c>
       <c r="K96" s="3">
         <v>-205300</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1540100</v>
+        <v>-1557500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1489300</v>
+        <v>-1506000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1362700</v>
+        <v>-1378000</v>
       </c>
       <c r="G100" s="3">
-        <v>-740500</v>
+        <v>-748800</v>
       </c>
       <c r="H100" s="3">
-        <v>-810300</v>
+        <v>-819400</v>
       </c>
       <c r="I100" s="3">
-        <v>-800800</v>
+        <v>-809800</v>
       </c>
       <c r="J100" s="3">
-        <v>-1059900</v>
+        <v>-1071800</v>
       </c>
       <c r="K100" s="3">
         <v>-610500</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E101" s="3">
         <v>-2400</v>
       </c>
       <c r="F101" s="3">
-        <v>-10600</v>
+        <v>-10800</v>
       </c>
       <c r="G101" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="H101" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="I101" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J101" s="3">
-        <v>17700</v>
+        <v>17900</v>
       </c>
       <c r="K101" s="3">
         <v>20900</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E102" s="3">
-        <v>-60300</v>
+        <v>-61000</v>
       </c>
       <c r="F102" s="3">
-        <v>-30800</v>
+        <v>-31100</v>
       </c>
       <c r="G102" s="3">
-        <v>272100</v>
+        <v>275100</v>
       </c>
       <c r="H102" s="3">
-        <v>-33100</v>
+        <v>-33500</v>
       </c>
       <c r="I102" s="3">
-        <v>-78100</v>
+        <v>-78900</v>
       </c>
       <c r="J102" s="3">
-        <v>-447100</v>
+        <v>-452200</v>
       </c>
       <c r="K102" s="3">
         <v>40600</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14374700</v>
+        <v>12476900</v>
       </c>
       <c r="E8" s="3">
-        <v>13777800</v>
+        <v>14136800</v>
       </c>
       <c r="F8" s="3">
-        <v>13232400</v>
+        <v>13549800</v>
       </c>
       <c r="G8" s="3">
-        <v>10924900</v>
+        <v>13013300</v>
       </c>
       <c r="H8" s="3">
-        <v>7570700</v>
+        <v>10744100</v>
       </c>
       <c r="I8" s="3">
-        <v>7436800</v>
+        <v>7445400</v>
       </c>
       <c r="J8" s="3">
+        <v>7313700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9823200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8852100</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8850700</v>
+        <v>7976000</v>
       </c>
       <c r="E9" s="3">
-        <v>8389000</v>
+        <v>8704200</v>
       </c>
       <c r="F9" s="3">
-        <v>8070800</v>
+        <v>8250100</v>
       </c>
       <c r="G9" s="3">
-        <v>6679600</v>
+        <v>7937200</v>
       </c>
       <c r="H9" s="3">
-        <v>14922600</v>
+        <v>6569000</v>
       </c>
       <c r="I9" s="3">
-        <v>15870000</v>
+        <v>14675600</v>
       </c>
       <c r="J9" s="3">
+        <v>15607300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6399700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5667900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5524100</v>
+        <v>4500900</v>
       </c>
       <c r="E10" s="3">
-        <v>5388900</v>
+        <v>5432600</v>
       </c>
       <c r="F10" s="3">
-        <v>5161600</v>
+        <v>5299700</v>
       </c>
       <c r="G10" s="3">
-        <v>4245300</v>
+        <v>5076200</v>
       </c>
       <c r="H10" s="3">
-        <v>-7351800</v>
+        <v>4175000</v>
       </c>
       <c r="I10" s="3">
-        <v>-8433200</v>
+        <v>-7230200</v>
       </c>
       <c r="J10" s="3">
+        <v>-8293600</v>
+      </c>
+      <c r="K10" s="3">
         <v>3423500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3184200</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>29900</v>
+        <v>107100</v>
       </c>
       <c r="E14" s="3">
-        <v>56200</v>
+        <v>29400</v>
       </c>
       <c r="F14" s="3">
-        <v>29900</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>55300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>77800</v>
-      </c>
       <c r="I14" s="3">
-        <v>96900</v>
+        <v>76500</v>
       </c>
       <c r="J14" s="3">
+        <v>95300</v>
+      </c>
+      <c r="K14" s="3">
         <v>143500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>93300</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>52600</v>
+        <v>72900</v>
       </c>
       <c r="E15" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="F15" s="3">
-        <v>45500</v>
+        <v>50600</v>
       </c>
       <c r="G15" s="3">
-        <v>39500</v>
+        <v>44700</v>
       </c>
       <c r="H15" s="3">
-        <v>224900</v>
+        <v>38800</v>
       </c>
       <c r="I15" s="3">
-        <v>252400</v>
+        <v>221200</v>
       </c>
       <c r="J15" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K15" s="3">
         <v>227300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>235000</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12523000</v>
+        <v>11520500</v>
       </c>
       <c r="E17" s="3">
-        <v>12222800</v>
+        <v>12315700</v>
       </c>
       <c r="F17" s="3">
-        <v>11725200</v>
+        <v>12020500</v>
       </c>
       <c r="G17" s="3">
-        <v>9906900</v>
+        <v>11531100</v>
       </c>
       <c r="H17" s="3">
-        <v>6662800</v>
+        <v>9742900</v>
       </c>
       <c r="I17" s="3">
-        <v>6543200</v>
+        <v>6552500</v>
       </c>
       <c r="J17" s="3">
+        <v>6434900</v>
+      </c>
+      <c r="K17" s="3">
         <v>8729900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7833100</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1851700</v>
+        <v>956400</v>
       </c>
       <c r="E18" s="3">
-        <v>1555100</v>
+        <v>1821100</v>
       </c>
       <c r="F18" s="3">
-        <v>1507200</v>
+        <v>1529300</v>
       </c>
       <c r="G18" s="3">
-        <v>1018000</v>
+        <v>1482300</v>
       </c>
       <c r="H18" s="3">
-        <v>907900</v>
+        <v>1001100</v>
       </c>
       <c r="I18" s="3">
-        <v>893600</v>
+        <v>892900</v>
       </c>
       <c r="J18" s="3">
+        <v>878800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1093300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1018900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>51400</v>
+        <v>21200</v>
       </c>
       <c r="E20" s="3">
-        <v>46700</v>
+        <v>50600</v>
       </c>
       <c r="F20" s="3">
-        <v>47800</v>
+        <v>45900</v>
       </c>
       <c r="G20" s="3">
-        <v>15600</v>
+        <v>47100</v>
       </c>
       <c r="H20" s="3">
-        <v>14400</v>
+        <v>15300</v>
       </c>
       <c r="I20" s="3">
-        <v>34700</v>
+        <v>14100</v>
       </c>
       <c r="J20" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-130400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2664400</v>
+        <v>1836300</v>
       </c>
       <c r="E21" s="3">
-        <v>2211700</v>
+        <v>2626400</v>
       </c>
       <c r="F21" s="3">
-        <v>2138800</v>
+        <v>2180000</v>
       </c>
       <c r="G21" s="3">
-        <v>1476700</v>
+        <v>2108100</v>
       </c>
       <c r="H21" s="3">
-        <v>1216500</v>
+        <v>1455800</v>
       </c>
       <c r="I21" s="3">
-        <v>1205800</v>
+        <v>1198800</v>
       </c>
       <c r="J21" s="3">
+        <v>1188100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1329900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1390600</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>163900</v>
+        <v>160000</v>
       </c>
       <c r="E22" s="3">
-        <v>160300</v>
+        <v>161200</v>
       </c>
       <c r="F22" s="3">
-        <v>168700</v>
+        <v>157600</v>
       </c>
       <c r="G22" s="3">
-        <v>173400</v>
+        <v>165900</v>
       </c>
       <c r="H22" s="3">
-        <v>151900</v>
+        <v>170600</v>
       </c>
       <c r="I22" s="3">
-        <v>141200</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>149400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>138800</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>103200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1739300</v>
+        <v>817600</v>
       </c>
       <c r="E23" s="3">
-        <v>1441400</v>
+        <v>1710500</v>
       </c>
       <c r="F23" s="3">
-        <v>1386400</v>
+        <v>1417600</v>
       </c>
       <c r="G23" s="3">
-        <v>860100</v>
+        <v>1363400</v>
       </c>
       <c r="H23" s="3">
-        <v>770400</v>
+        <v>845800</v>
       </c>
       <c r="I23" s="3">
-        <v>787100</v>
+        <v>757600</v>
       </c>
       <c r="J23" s="3">
+        <v>774100</v>
+      </c>
+      <c r="K23" s="3">
         <v>962900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>919000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>435400</v>
+        <v>231800</v>
       </c>
       <c r="E24" s="3">
-        <v>386400</v>
+        <v>428200</v>
       </c>
       <c r="F24" s="3">
-        <v>180600</v>
+        <v>380000</v>
       </c>
       <c r="G24" s="3">
-        <v>203400</v>
+        <v>177600</v>
       </c>
       <c r="H24" s="3">
-        <v>156700</v>
+        <v>200000</v>
       </c>
       <c r="I24" s="3">
-        <v>208100</v>
+        <v>154100</v>
       </c>
       <c r="J24" s="3">
+        <v>204700</v>
+      </c>
+      <c r="K24" s="3">
         <v>165100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>175700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1303900</v>
+        <v>585800</v>
       </c>
       <c r="E26" s="3">
-        <v>1055000</v>
+        <v>1282300</v>
       </c>
       <c r="F26" s="3">
-        <v>1205800</v>
+        <v>1037600</v>
       </c>
       <c r="G26" s="3">
-        <v>656700</v>
+        <v>1185800</v>
       </c>
       <c r="H26" s="3">
-        <v>613700</v>
+        <v>645800</v>
       </c>
       <c r="I26" s="3">
-        <v>579000</v>
+        <v>603500</v>
       </c>
       <c r="J26" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K26" s="3">
         <v>797900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>743300</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1303900</v>
+        <v>585800</v>
       </c>
       <c r="E27" s="3">
-        <v>1055000</v>
+        <v>1282300</v>
       </c>
       <c r="F27" s="3">
-        <v>1205800</v>
+        <v>1037600</v>
       </c>
       <c r="G27" s="3">
-        <v>656700</v>
+        <v>1185800</v>
       </c>
       <c r="H27" s="3">
-        <v>613700</v>
+        <v>645800</v>
       </c>
       <c r="I27" s="3">
-        <v>579000</v>
+        <v>603500</v>
       </c>
       <c r="J27" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K27" s="3">
         <v>797900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>743300</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,23 +1343,26 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>32300</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-382800</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
+        <v>31800</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-376400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-51400</v>
+        <v>-21200</v>
       </c>
       <c r="E32" s="3">
-        <v>-46700</v>
+        <v>-50600</v>
       </c>
       <c r="F32" s="3">
-        <v>-47800</v>
+        <v>-45900</v>
       </c>
       <c r="G32" s="3">
-        <v>-15600</v>
+        <v>-47100</v>
       </c>
       <c r="H32" s="3">
-        <v>-14400</v>
+        <v>-15300</v>
       </c>
       <c r="I32" s="3">
-        <v>-34700</v>
+        <v>-14100</v>
       </c>
       <c r="J32" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="K32" s="3">
         <v>130400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1303900</v>
+        <v>585800</v>
       </c>
       <c r="E33" s="3">
-        <v>1087300</v>
+        <v>1282300</v>
       </c>
       <c r="F33" s="3">
-        <v>823000</v>
+        <v>1069300</v>
       </c>
       <c r="G33" s="3">
-        <v>656700</v>
+        <v>809400</v>
       </c>
       <c r="H33" s="3">
-        <v>613700</v>
+        <v>645800</v>
       </c>
       <c r="I33" s="3">
-        <v>579000</v>
+        <v>603500</v>
       </c>
       <c r="J33" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K33" s="3">
         <v>797900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>743300</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1303900</v>
+        <v>585800</v>
       </c>
       <c r="E35" s="3">
-        <v>1087300</v>
+        <v>1282300</v>
       </c>
       <c r="F35" s="3">
-        <v>823000</v>
+        <v>1069300</v>
       </c>
       <c r="G35" s="3">
-        <v>656700</v>
+        <v>809400</v>
       </c>
       <c r="H35" s="3">
-        <v>613700</v>
+        <v>645800</v>
       </c>
       <c r="I35" s="3">
-        <v>579000</v>
+        <v>603500</v>
       </c>
       <c r="J35" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K35" s="3">
         <v>797900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>743300</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,188 +1645,207 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>203400</v>
+        <v>756400</v>
       </c>
       <c r="E41" s="3">
-        <v>333700</v>
+        <v>200000</v>
       </c>
       <c r="F41" s="3">
-        <v>363600</v>
+        <v>328200</v>
       </c>
       <c r="G41" s="3">
-        <v>333700</v>
+        <v>357600</v>
       </c>
       <c r="H41" s="3">
-        <v>483300</v>
+        <v>328200</v>
       </c>
       <c r="I41" s="3">
-        <v>668700</v>
+        <v>475300</v>
       </c>
       <c r="J41" s="3">
+        <v>657600</v>
+      </c>
+      <c r="K41" s="3">
         <v>410300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>791700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>174600</v>
+        <v>1035200</v>
       </c>
       <c r="E42" s="3">
-        <v>35900</v>
+        <v>171800</v>
       </c>
       <c r="F42" s="3">
-        <v>67000</v>
+        <v>35300</v>
       </c>
       <c r="G42" s="3">
-        <v>128000</v>
+        <v>65900</v>
       </c>
       <c r="H42" s="3">
-        <v>93300</v>
+        <v>125900</v>
       </c>
       <c r="I42" s="3">
-        <v>38300</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>91800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>37600</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2355300</v>
+        <v>1891700</v>
       </c>
       <c r="E43" s="3">
-        <v>2289500</v>
+        <v>2316300</v>
       </c>
       <c r="F43" s="3">
-        <v>2666300</v>
+        <v>2251600</v>
       </c>
       <c r="G43" s="3">
-        <v>2715400</v>
+        <v>2622200</v>
       </c>
       <c r="H43" s="3">
-        <v>4611400</v>
+        <v>2670400</v>
       </c>
       <c r="I43" s="3">
-        <v>4979800</v>
+        <v>4535000</v>
       </c>
       <c r="J43" s="3">
+        <v>4897400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1918700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1644800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>864900</v>
+        <v>801100</v>
       </c>
       <c r="E44" s="3">
-        <v>829000</v>
+        <v>850500</v>
       </c>
       <c r="F44" s="3">
-        <v>777500</v>
+        <v>815200</v>
       </c>
       <c r="G44" s="3">
-        <v>805000</v>
+        <v>764700</v>
       </c>
       <c r="H44" s="3">
-        <v>1289500</v>
+        <v>791700</v>
       </c>
       <c r="I44" s="3">
-        <v>1358900</v>
+        <v>1268200</v>
       </c>
       <c r="J44" s="3">
+        <v>1336400</v>
+      </c>
+      <c r="K44" s="3">
         <v>540700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>423800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>113600</v>
+        <v>310600</v>
       </c>
       <c r="E45" s="3">
-        <v>89700</v>
+        <v>111800</v>
       </c>
       <c r="F45" s="3">
-        <v>89700</v>
+        <v>88200</v>
       </c>
       <c r="G45" s="3">
-        <v>114800</v>
+        <v>88200</v>
       </c>
       <c r="H45" s="3">
-        <v>368400</v>
+        <v>112900</v>
       </c>
       <c r="I45" s="3">
-        <v>544300</v>
+        <v>362300</v>
       </c>
       <c r="J45" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K45" s="3">
         <v>202200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>172400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3711800</v>
+        <v>4795000</v>
       </c>
       <c r="E46" s="3">
-        <v>3577800</v>
+        <v>3650400</v>
       </c>
       <c r="F46" s="3">
-        <v>3964200</v>
+        <v>3518600</v>
       </c>
       <c r="G46" s="3">
-        <v>4097000</v>
+        <v>3898600</v>
       </c>
       <c r="H46" s="3">
-        <v>2252400</v>
+        <v>4029200</v>
       </c>
       <c r="I46" s="3">
-        <v>2402000</v>
+        <v>2215200</v>
       </c>
       <c r="J46" s="3">
+        <v>2362200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3071800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3032700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1769,69 +1873,78 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5030000</v>
+        <v>4540900</v>
       </c>
       <c r="E48" s="3">
-        <v>4650800</v>
+        <v>4946800</v>
       </c>
       <c r="F48" s="3">
-        <v>4589800</v>
+        <v>4573800</v>
       </c>
       <c r="G48" s="3">
-        <v>4776400</v>
+        <v>4513800</v>
       </c>
       <c r="H48" s="3">
-        <v>6344600</v>
+        <v>4697400</v>
       </c>
       <c r="I48" s="3">
-        <v>6515700</v>
+        <v>6239600</v>
       </c>
       <c r="J48" s="3">
+        <v>6407900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2814700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2549600</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13189300</v>
+        <v>12859200</v>
       </c>
       <c r="E49" s="3">
-        <v>13041000</v>
+        <v>12971000</v>
       </c>
       <c r="F49" s="3">
-        <v>13043400</v>
+        <v>12825100</v>
       </c>
       <c r="G49" s="3">
-        <v>12884300</v>
+        <v>12827500</v>
       </c>
       <c r="H49" s="3">
-        <v>11909400</v>
+        <v>12671000</v>
       </c>
       <c r="I49" s="3">
-        <v>11959600</v>
+        <v>11712200</v>
       </c>
       <c r="J49" s="3">
+        <v>11761600</v>
+      </c>
+      <c r="K49" s="3">
         <v>4937900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4452400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>419900</v>
+        <v>435300</v>
       </c>
       <c r="E52" s="3">
-        <v>520300</v>
+        <v>412900</v>
       </c>
       <c r="F52" s="3">
-        <v>166300</v>
+        <v>511700</v>
       </c>
       <c r="G52" s="3">
-        <v>453400</v>
+        <v>163500</v>
       </c>
       <c r="H52" s="3">
-        <v>436600</v>
+        <v>445900</v>
       </c>
       <c r="I52" s="3">
-        <v>522700</v>
+        <v>429400</v>
       </c>
       <c r="J52" s="3">
+        <v>514100</v>
+      </c>
+      <c r="K52" s="3">
         <v>569400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>407400</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22351000</v>
+        <v>22630400</v>
       </c>
       <c r="E54" s="3">
-        <v>21790000</v>
+        <v>21981000</v>
       </c>
       <c r="F54" s="3">
-        <v>21763700</v>
+        <v>21429300</v>
       </c>
       <c r="G54" s="3">
-        <v>22211000</v>
+        <v>21403400</v>
       </c>
       <c r="H54" s="3">
-        <v>8368600</v>
+        <v>21843400</v>
       </c>
       <c r="I54" s="3">
-        <v>8430800</v>
+        <v>8230100</v>
       </c>
       <c r="J54" s="3">
+        <v>8291300</v>
+      </c>
+      <c r="K54" s="3">
         <v>11393800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10442000</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1361300</v>
+        <v>1322300</v>
       </c>
       <c r="E57" s="3">
-        <v>1321800</v>
+        <v>1338700</v>
       </c>
       <c r="F57" s="3">
-        <v>1264400</v>
+        <v>1299900</v>
       </c>
       <c r="G57" s="3">
-        <v>1081400</v>
+        <v>1243500</v>
       </c>
       <c r="H57" s="3">
-        <v>2893600</v>
+        <v>1063500</v>
       </c>
       <c r="I57" s="3">
-        <v>3022800</v>
+        <v>2845700</v>
       </c>
       <c r="J57" s="3">
+        <v>2972800</v>
+      </c>
+      <c r="K57" s="3">
         <v>754800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1481200</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>955800</v>
+        <v>947000</v>
       </c>
       <c r="E58" s="3">
-        <v>587300</v>
+        <v>939900</v>
       </c>
       <c r="F58" s="3">
-        <v>327800</v>
+        <v>577600</v>
       </c>
       <c r="G58" s="3">
-        <v>1046700</v>
+        <v>322300</v>
       </c>
       <c r="H58" s="3">
-        <v>1043100</v>
+        <v>1029300</v>
       </c>
       <c r="I58" s="3">
-        <v>1381600</v>
+        <v>1025800</v>
       </c>
       <c r="J58" s="3">
+        <v>1358700</v>
+      </c>
+      <c r="K58" s="3">
         <v>132800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>693900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2605300</v>
+        <v>2601000</v>
       </c>
       <c r="E59" s="3">
-        <v>2626900</v>
+        <v>2562200</v>
       </c>
       <c r="F59" s="3">
-        <v>2339800</v>
+        <v>2583400</v>
       </c>
       <c r="G59" s="3">
-        <v>2360100</v>
+        <v>2301000</v>
       </c>
       <c r="H59" s="3">
-        <v>2970200</v>
+        <v>2321000</v>
       </c>
       <c r="I59" s="3">
-        <v>3073000</v>
+        <v>2921000</v>
       </c>
       <c r="J59" s="3">
+        <v>3022200</v>
+      </c>
+      <c r="K59" s="3">
         <v>1738100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>656600</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4922400</v>
+        <v>4870300</v>
       </c>
       <c r="E60" s="3">
-        <v>4536000</v>
+        <v>4840900</v>
       </c>
       <c r="F60" s="3">
-        <v>3931900</v>
+        <v>4460900</v>
       </c>
       <c r="G60" s="3">
-        <v>4488100</v>
+        <v>3866800</v>
       </c>
       <c r="H60" s="3">
-        <v>2399600</v>
+        <v>4413900</v>
       </c>
       <c r="I60" s="3">
-        <v>2577800</v>
+        <v>2359900</v>
       </c>
       <c r="J60" s="3">
+        <v>2535100</v>
+      </c>
+      <c r="K60" s="3">
         <v>2625700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2831700</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6725000</v>
+        <v>7507800</v>
       </c>
       <c r="E61" s="3">
-        <v>6132900</v>
+        <v>6613700</v>
       </c>
       <c r="F61" s="3">
-        <v>6548000</v>
+        <v>6031400</v>
       </c>
       <c r="G61" s="3">
-        <v>6653300</v>
+        <v>6439600</v>
       </c>
       <c r="H61" s="3">
-        <v>3734500</v>
+        <v>6543100</v>
       </c>
       <c r="I61" s="3">
-        <v>3266800</v>
+        <v>3672700</v>
       </c>
       <c r="J61" s="3">
+        <v>3212700</v>
+      </c>
+      <c r="K61" s="3">
         <v>4457000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3111700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3339800</v>
+        <v>3164500</v>
       </c>
       <c r="E62" s="3">
-        <v>3269200</v>
+        <v>3284500</v>
       </c>
       <c r="F62" s="3">
-        <v>3287200</v>
+        <v>3215100</v>
       </c>
       <c r="G62" s="3">
-        <v>3341000</v>
+        <v>3232700</v>
       </c>
       <c r="H62" s="3">
-        <v>2521600</v>
+        <v>3285700</v>
       </c>
       <c r="I62" s="3">
-        <v>2599300</v>
+        <v>2479900</v>
       </c>
       <c r="J62" s="3">
+        <v>2556300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1583800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1541600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14987200</v>
+        <v>15542600</v>
       </c>
       <c r="E66" s="3">
-        <v>13938100</v>
+        <v>14739100</v>
       </c>
       <c r="F66" s="3">
-        <v>13767100</v>
+        <v>13707400</v>
       </c>
       <c r="G66" s="3">
-        <v>14482400</v>
+        <v>13539200</v>
       </c>
       <c r="H66" s="3">
-        <v>7326700</v>
+        <v>14242700</v>
       </c>
       <c r="I66" s="3">
-        <v>7010900</v>
+        <v>7205400</v>
       </c>
       <c r="J66" s="3">
+        <v>6894900</v>
+      </c>
+      <c r="K66" s="3">
         <v>8666500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7485100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7682000</v>
+        <v>7487800</v>
       </c>
       <c r="E72" s="3">
-        <v>8324400</v>
+        <v>7554800</v>
       </c>
       <c r="F72" s="3">
-        <v>8440400</v>
+        <v>8186600</v>
       </c>
       <c r="G72" s="3">
-        <v>8087500</v>
+        <v>8300700</v>
       </c>
       <c r="H72" s="3">
-        <v>4731000</v>
+        <v>7953600</v>
       </c>
       <c r="I72" s="3">
-        <v>3994100</v>
+        <v>4652700</v>
       </c>
       <c r="J72" s="3">
+        <v>3928000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1886400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1236300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7363800</v>
+        <v>7087800</v>
       </c>
       <c r="E76" s="3">
-        <v>7851900</v>
+        <v>7241900</v>
       </c>
       <c r="F76" s="3">
-        <v>7996600</v>
+        <v>7721900</v>
       </c>
       <c r="G76" s="3">
-        <v>7728600</v>
+        <v>7864200</v>
       </c>
       <c r="H76" s="3">
-        <v>1041900</v>
+        <v>7600700</v>
       </c>
       <c r="I76" s="3">
-        <v>1419900</v>
+        <v>1024600</v>
       </c>
       <c r="J76" s="3">
+        <v>1396400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2727300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2956900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1303900</v>
+        <v>585800</v>
       </c>
       <c r="E81" s="3">
-        <v>1087300</v>
+        <v>1282300</v>
       </c>
       <c r="F81" s="3">
-        <v>823000</v>
+        <v>1069300</v>
       </c>
       <c r="G81" s="3">
-        <v>656700</v>
+        <v>809400</v>
       </c>
       <c r="H81" s="3">
-        <v>613700</v>
+        <v>645800</v>
       </c>
       <c r="I81" s="3">
-        <v>579000</v>
+        <v>603500</v>
       </c>
       <c r="J81" s="3">
+        <v>569400</v>
+      </c>
+      <c r="K81" s="3">
         <v>797900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>743300</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>764400</v>
+        <v>855200</v>
       </c>
       <c r="E83" s="3">
-        <v>612500</v>
+        <v>751700</v>
       </c>
       <c r="F83" s="3">
-        <v>586100</v>
+        <v>602300</v>
       </c>
       <c r="G83" s="3">
-        <v>445000</v>
+        <v>576400</v>
       </c>
       <c r="H83" s="3">
-        <v>295500</v>
+        <v>437600</v>
       </c>
       <c r="I83" s="3">
-        <v>278700</v>
+        <v>290600</v>
       </c>
       <c r="J83" s="3">
+        <v>274100</v>
+      </c>
+      <c r="K83" s="3">
         <v>368400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>367800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2277600</v>
+        <v>1752800</v>
       </c>
       <c r="E89" s="3">
-        <v>2160300</v>
+        <v>2239900</v>
       </c>
       <c r="F89" s="3">
-        <v>1941400</v>
+        <v>2124600</v>
       </c>
       <c r="G89" s="3">
-        <v>1488100</v>
+        <v>1909300</v>
       </c>
       <c r="H89" s="3">
-        <v>1102900</v>
+        <v>1463400</v>
       </c>
       <c r="I89" s="3">
-        <v>974900</v>
+        <v>1084600</v>
       </c>
       <c r="J89" s="3">
+        <v>958800</v>
+      </c>
+      <c r="K89" s="3">
         <v>996400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1039800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-605300</v>
+        <v>-409400</v>
       </c>
       <c r="E91" s="3">
-        <v>-628000</v>
+        <v>-595300</v>
       </c>
       <c r="F91" s="3">
-        <v>-579000</v>
+        <v>-617600</v>
       </c>
       <c r="G91" s="3">
-        <v>-549100</v>
+        <v>-569400</v>
       </c>
       <c r="H91" s="3">
-        <v>-733300</v>
+        <v>-540000</v>
       </c>
       <c r="I91" s="3">
-        <v>-662700</v>
+        <v>-721100</v>
       </c>
       <c r="J91" s="3">
+        <v>-651700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-374400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-415000</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-716500</v>
+        <v>-435300</v>
       </c>
       <c r="E94" s="3">
-        <v>-712900</v>
+        <v>-704700</v>
       </c>
       <c r="F94" s="3">
-        <v>-583700</v>
+        <v>-701100</v>
       </c>
       <c r="G94" s="3">
-        <v>-458100</v>
+        <v>-574100</v>
       </c>
       <c r="H94" s="3">
-        <v>-325400</v>
+        <v>-450600</v>
       </c>
       <c r="I94" s="3">
-        <v>-247600</v>
+        <v>-320000</v>
       </c>
       <c r="J94" s="3">
+        <v>-243500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-394700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-409600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-686600</v>
+        <v>-454100</v>
       </c>
       <c r="E96" s="3">
-        <v>-613700</v>
+        <v>-675300</v>
       </c>
       <c r="F96" s="3">
-        <v>-584900</v>
+        <v>-603500</v>
       </c>
       <c r="G96" s="3">
-        <v>-244000</v>
+        <v>-575300</v>
       </c>
       <c r="H96" s="3">
-        <v>-584900</v>
+        <v>-240000</v>
       </c>
       <c r="I96" s="3">
-        <v>-515600</v>
+        <v>-575300</v>
       </c>
       <c r="J96" s="3">
+        <v>-507000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-254800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-205300</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1557500</v>
+        <v>117600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1506000</v>
+        <v>-1531700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1378000</v>
+        <v>-1481100</v>
       </c>
       <c r="G100" s="3">
-        <v>-748800</v>
+        <v>-1355200</v>
       </c>
       <c r="H100" s="3">
-        <v>-819400</v>
+        <v>-736400</v>
       </c>
       <c r="I100" s="3">
-        <v>-809800</v>
+        <v>-805800</v>
       </c>
       <c r="J100" s="3">
+        <v>-796400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1071800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-610500</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4800</v>
+        <v>-15300</v>
       </c>
       <c r="E101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F101" s="3">
         <v>-2400</v>
       </c>
-      <c r="F101" s="3">
-        <v>-10800</v>
-      </c>
       <c r="G101" s="3">
-        <v>-6000</v>
+        <v>-10600</v>
       </c>
       <c r="H101" s="3">
-        <v>8400</v>
+        <v>-5900</v>
       </c>
       <c r="I101" s="3">
-        <v>3600</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K101" s="3">
         <v>17900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>8400</v>
+        <v>1419900</v>
       </c>
       <c r="E102" s="3">
-        <v>-61000</v>
+        <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-31100</v>
+        <v>-60000</v>
       </c>
       <c r="G102" s="3">
-        <v>275100</v>
+        <v>-30600</v>
       </c>
       <c r="H102" s="3">
-        <v>-33500</v>
+        <v>270600</v>
       </c>
       <c r="I102" s="3">
-        <v>-78900</v>
+        <v>-32900</v>
       </c>
       <c r="J102" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-452200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>40600</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12476900</v>
+        <v>12992200</v>
       </c>
       <c r="E8" s="3">
-        <v>14136800</v>
+        <v>14720700</v>
       </c>
       <c r="F8" s="3">
-        <v>13549800</v>
+        <v>14109400</v>
       </c>
       <c r="G8" s="3">
-        <v>13013300</v>
+        <v>13550800</v>
       </c>
       <c r="H8" s="3">
-        <v>10744100</v>
+        <v>11187800</v>
       </c>
       <c r="I8" s="3">
-        <v>7445400</v>
+        <v>7753000</v>
       </c>
       <c r="J8" s="3">
-        <v>7313700</v>
+        <v>7615800</v>
       </c>
       <c r="K8" s="3">
         <v>9823200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7976000</v>
+        <v>8305400</v>
       </c>
       <c r="E9" s="3">
-        <v>8704200</v>
+        <v>9063700</v>
       </c>
       <c r="F9" s="3">
-        <v>8250100</v>
+        <v>8590900</v>
       </c>
       <c r="G9" s="3">
-        <v>7937200</v>
+        <v>8265000</v>
       </c>
       <c r="H9" s="3">
-        <v>6569000</v>
+        <v>6840300</v>
       </c>
       <c r="I9" s="3">
-        <v>14675600</v>
+        <v>15281800</v>
       </c>
       <c r="J9" s="3">
-        <v>15607300</v>
+        <v>16251900</v>
       </c>
       <c r="K9" s="3">
         <v>6399700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4500900</v>
+        <v>4686800</v>
       </c>
       <c r="E10" s="3">
-        <v>5432600</v>
+        <v>5657000</v>
       </c>
       <c r="F10" s="3">
-        <v>5299700</v>
+        <v>5518600</v>
       </c>
       <c r="G10" s="3">
-        <v>5076200</v>
+        <v>5285800</v>
       </c>
       <c r="H10" s="3">
-        <v>4175000</v>
+        <v>4347500</v>
       </c>
       <c r="I10" s="3">
-        <v>-7230200</v>
+        <v>-7528800</v>
       </c>
       <c r="J10" s="3">
-        <v>-8293600</v>
+        <v>-8636200</v>
       </c>
       <c r="K10" s="3">
         <v>3423500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>107100</v>
+        <v>111500</v>
       </c>
       <c r="E14" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="F14" s="3">
-        <v>55300</v>
+        <v>57600</v>
       </c>
       <c r="G14" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>76500</v>
+        <v>79600</v>
       </c>
       <c r="J14" s="3">
-        <v>95300</v>
+        <v>99200</v>
       </c>
       <c r="K14" s="3">
         <v>143500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>72900</v>
+        <v>75900</v>
       </c>
       <c r="E15" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="F15" s="3">
-        <v>50600</v>
+        <v>52700</v>
       </c>
       <c r="G15" s="3">
-        <v>44700</v>
+        <v>46500</v>
       </c>
       <c r="H15" s="3">
-        <v>38800</v>
+        <v>40400</v>
       </c>
       <c r="I15" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="J15" s="3">
-        <v>248200</v>
+        <v>258500</v>
       </c>
       <c r="K15" s="3">
         <v>227300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11520500</v>
+        <v>11996300</v>
       </c>
       <c r="E17" s="3">
-        <v>12315700</v>
+        <v>12824400</v>
       </c>
       <c r="F17" s="3">
-        <v>12020500</v>
+        <v>12516900</v>
       </c>
       <c r="G17" s="3">
-        <v>11531100</v>
+        <v>12007400</v>
       </c>
       <c r="H17" s="3">
-        <v>9742900</v>
+        <v>10145400</v>
       </c>
       <c r="I17" s="3">
-        <v>6552500</v>
+        <v>6823200</v>
       </c>
       <c r="J17" s="3">
-        <v>6434900</v>
+        <v>6700700</v>
       </c>
       <c r="K17" s="3">
         <v>8729900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>956400</v>
+        <v>995900</v>
       </c>
       <c r="E18" s="3">
-        <v>1821100</v>
+        <v>1896300</v>
       </c>
       <c r="F18" s="3">
-        <v>1529300</v>
+        <v>1592500</v>
       </c>
       <c r="G18" s="3">
-        <v>1482300</v>
+        <v>1543500</v>
       </c>
       <c r="H18" s="3">
-        <v>1001100</v>
+        <v>1042500</v>
       </c>
       <c r="I18" s="3">
-        <v>892900</v>
+        <v>929800</v>
       </c>
       <c r="J18" s="3">
-        <v>878800</v>
+        <v>915100</v>
       </c>
       <c r="K18" s="3">
         <v>1093300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="E20" s="3">
-        <v>50600</v>
+        <v>52700</v>
       </c>
       <c r="F20" s="3">
-        <v>45900</v>
+        <v>47800</v>
       </c>
       <c r="G20" s="3">
-        <v>47100</v>
+        <v>49000</v>
       </c>
       <c r="H20" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="I20" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="J20" s="3">
-        <v>34100</v>
+        <v>35500</v>
       </c>
       <c r="K20" s="3">
         <v>-130400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1836300</v>
+        <v>1906000</v>
       </c>
       <c r="E21" s="3">
-        <v>2626400</v>
+        <v>2729500</v>
       </c>
       <c r="F21" s="3">
-        <v>2180000</v>
+        <v>2265700</v>
       </c>
       <c r="G21" s="3">
-        <v>2108100</v>
+        <v>2191000</v>
       </c>
       <c r="H21" s="3">
-        <v>1455800</v>
+        <v>1512800</v>
       </c>
       <c r="I21" s="3">
-        <v>1198800</v>
+        <v>1246200</v>
       </c>
       <c r="J21" s="3">
-        <v>1188100</v>
+        <v>1235200</v>
       </c>
       <c r="K21" s="3">
         <v>1329900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>160000</v>
+        <v>166600</v>
       </c>
       <c r="E22" s="3">
-        <v>161200</v>
+        <v>167800</v>
       </c>
       <c r="F22" s="3">
-        <v>157600</v>
+        <v>164100</v>
       </c>
       <c r="G22" s="3">
-        <v>165900</v>
+        <v>172700</v>
       </c>
       <c r="H22" s="3">
-        <v>170600</v>
+        <v>177600</v>
       </c>
       <c r="I22" s="3">
-        <v>149400</v>
+        <v>155600</v>
       </c>
       <c r="J22" s="3">
-        <v>138800</v>
+        <v>144500</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>817600</v>
+        <v>851400</v>
       </c>
       <c r="E23" s="3">
-        <v>1710500</v>
+        <v>1781100</v>
       </c>
       <c r="F23" s="3">
-        <v>1417600</v>
+        <v>1476100</v>
       </c>
       <c r="G23" s="3">
-        <v>1363400</v>
+        <v>1419800</v>
       </c>
       <c r="H23" s="3">
-        <v>845800</v>
+        <v>880800</v>
       </c>
       <c r="I23" s="3">
-        <v>757600</v>
+        <v>788900</v>
       </c>
       <c r="J23" s="3">
-        <v>774100</v>
+        <v>806000</v>
       </c>
       <c r="K23" s="3">
         <v>962900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>231800</v>
+        <v>241300</v>
       </c>
       <c r="E24" s="3">
-        <v>428200</v>
+        <v>445900</v>
       </c>
       <c r="F24" s="3">
-        <v>380000</v>
+        <v>395700</v>
       </c>
       <c r="G24" s="3">
-        <v>177600</v>
+        <v>185000</v>
       </c>
       <c r="H24" s="3">
-        <v>200000</v>
+        <v>208200</v>
       </c>
       <c r="I24" s="3">
-        <v>154100</v>
+        <v>160500</v>
       </c>
       <c r="J24" s="3">
-        <v>204700</v>
+        <v>213100</v>
       </c>
       <c r="K24" s="3">
         <v>165100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>585800</v>
+        <v>610000</v>
       </c>
       <c r="E26" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="F26" s="3">
-        <v>1037600</v>
+        <v>1080400</v>
       </c>
       <c r="G26" s="3">
-        <v>1185800</v>
+        <v>1234800</v>
       </c>
       <c r="H26" s="3">
-        <v>645800</v>
+        <v>672500</v>
       </c>
       <c r="I26" s="3">
-        <v>603500</v>
+        <v>628400</v>
       </c>
       <c r="J26" s="3">
-        <v>569400</v>
+        <v>592900</v>
       </c>
       <c r="K26" s="3">
         <v>797900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>585800</v>
+        <v>610000</v>
       </c>
       <c r="E27" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="F27" s="3">
-        <v>1037600</v>
+        <v>1080400</v>
       </c>
       <c r="G27" s="3">
-        <v>1185800</v>
+        <v>1234800</v>
       </c>
       <c r="H27" s="3">
-        <v>645800</v>
+        <v>672500</v>
       </c>
       <c r="I27" s="3">
-        <v>603500</v>
+        <v>628400</v>
       </c>
       <c r="J27" s="3">
-        <v>569400</v>
+        <v>592900</v>
       </c>
       <c r="K27" s="3">
         <v>797900</v>
@@ -1359,10 +1359,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>31800</v>
+        <v>33100</v>
       </c>
       <c r="G29" s="3">
-        <v>-376400</v>
+        <v>-392000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="E32" s="3">
-        <v>-50600</v>
+        <v>-52700</v>
       </c>
       <c r="F32" s="3">
-        <v>-45900</v>
+        <v>-47800</v>
       </c>
       <c r="G32" s="3">
-        <v>-47100</v>
+        <v>-49000</v>
       </c>
       <c r="H32" s="3">
-        <v>-15300</v>
+        <v>-15900</v>
       </c>
       <c r="I32" s="3">
-        <v>-14100</v>
+        <v>-14700</v>
       </c>
       <c r="J32" s="3">
-        <v>-34100</v>
+        <v>-35500</v>
       </c>
       <c r="K32" s="3">
         <v>130400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>585800</v>
+        <v>610000</v>
       </c>
       <c r="E33" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="F33" s="3">
-        <v>1069300</v>
+        <v>1113500</v>
       </c>
       <c r="G33" s="3">
-        <v>809400</v>
+        <v>842800</v>
       </c>
       <c r="H33" s="3">
-        <v>645800</v>
+        <v>672500</v>
       </c>
       <c r="I33" s="3">
-        <v>603500</v>
+        <v>628400</v>
       </c>
       <c r="J33" s="3">
-        <v>569400</v>
+        <v>592900</v>
       </c>
       <c r="K33" s="3">
         <v>797900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>585800</v>
+        <v>610000</v>
       </c>
       <c r="E35" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="F35" s="3">
-        <v>1069300</v>
+        <v>1113500</v>
       </c>
       <c r="G35" s="3">
-        <v>809400</v>
+        <v>842800</v>
       </c>
       <c r="H35" s="3">
-        <v>645800</v>
+        <v>672500</v>
       </c>
       <c r="I35" s="3">
-        <v>603500</v>
+        <v>628400</v>
       </c>
       <c r="J35" s="3">
-        <v>569400</v>
+        <v>592900</v>
       </c>
       <c r="K35" s="3">
         <v>797900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>756400</v>
+        <v>787700</v>
       </c>
       <c r="E41" s="3">
-        <v>200000</v>
+        <v>208200</v>
       </c>
       <c r="F41" s="3">
-        <v>328200</v>
+        <v>341800</v>
       </c>
       <c r="G41" s="3">
-        <v>357600</v>
+        <v>372400</v>
       </c>
       <c r="H41" s="3">
-        <v>328200</v>
+        <v>341800</v>
       </c>
       <c r="I41" s="3">
-        <v>475300</v>
+        <v>494900</v>
       </c>
       <c r="J41" s="3">
-        <v>657600</v>
+        <v>684800</v>
       </c>
       <c r="K41" s="3">
         <v>410300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1035200</v>
+        <v>1078000</v>
       </c>
       <c r="E42" s="3">
-        <v>171800</v>
+        <v>178800</v>
       </c>
       <c r="F42" s="3">
-        <v>35300</v>
+        <v>36700</v>
       </c>
       <c r="G42" s="3">
-        <v>65900</v>
+        <v>68600</v>
       </c>
       <c r="H42" s="3">
-        <v>125900</v>
+        <v>131100</v>
       </c>
       <c r="I42" s="3">
-        <v>91800</v>
+        <v>95500</v>
       </c>
       <c r="J42" s="3">
-        <v>37600</v>
+        <v>39200</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1891700</v>
+        <v>1969800</v>
       </c>
       <c r="E43" s="3">
-        <v>2316300</v>
+        <v>2412000</v>
       </c>
       <c r="F43" s="3">
-        <v>2251600</v>
+        <v>2344600</v>
       </c>
       <c r="G43" s="3">
-        <v>2622200</v>
+        <v>2730500</v>
       </c>
       <c r="H43" s="3">
-        <v>2670400</v>
+        <v>2780700</v>
       </c>
       <c r="I43" s="3">
-        <v>4535000</v>
+        <v>4722300</v>
       </c>
       <c r="J43" s="3">
-        <v>4897400</v>
+        <v>5099600</v>
       </c>
       <c r="K43" s="3">
         <v>1918700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>801100</v>
+        <v>834200</v>
       </c>
       <c r="E44" s="3">
-        <v>850500</v>
+        <v>885700</v>
       </c>
       <c r="F44" s="3">
-        <v>815200</v>
+        <v>848900</v>
       </c>
       <c r="G44" s="3">
-        <v>764700</v>
+        <v>796200</v>
       </c>
       <c r="H44" s="3">
-        <v>791700</v>
+        <v>824400</v>
       </c>
       <c r="I44" s="3">
-        <v>1268200</v>
+        <v>1320500</v>
       </c>
       <c r="J44" s="3">
-        <v>1336400</v>
+        <v>1391600</v>
       </c>
       <c r="K44" s="3">
         <v>540700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>310600</v>
+        <v>323400</v>
       </c>
       <c r="E45" s="3">
-        <v>111800</v>
+        <v>116400</v>
       </c>
       <c r="F45" s="3">
-        <v>88200</v>
+        <v>91900</v>
       </c>
       <c r="G45" s="3">
-        <v>88200</v>
+        <v>91900</v>
       </c>
       <c r="H45" s="3">
-        <v>112900</v>
+        <v>117600</v>
       </c>
       <c r="I45" s="3">
-        <v>362300</v>
+        <v>377300</v>
       </c>
       <c r="J45" s="3">
-        <v>535300</v>
+        <v>557400</v>
       </c>
       <c r="K45" s="3">
         <v>202200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4795000</v>
+        <v>4993100</v>
       </c>
       <c r="E46" s="3">
-        <v>3650400</v>
+        <v>3801100</v>
       </c>
       <c r="F46" s="3">
-        <v>3518600</v>
+        <v>3663900</v>
       </c>
       <c r="G46" s="3">
-        <v>3898600</v>
+        <v>4059600</v>
       </c>
       <c r="H46" s="3">
-        <v>4029200</v>
+        <v>4195600</v>
       </c>
       <c r="I46" s="3">
-        <v>2215200</v>
+        <v>2306700</v>
       </c>
       <c r="J46" s="3">
-        <v>2362200</v>
+        <v>2459800</v>
       </c>
       <c r="K46" s="3">
         <v>3071800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4540900</v>
+        <v>4728500</v>
       </c>
       <c r="E48" s="3">
-        <v>4946800</v>
+        <v>5151100</v>
       </c>
       <c r="F48" s="3">
-        <v>4573800</v>
+        <v>4762800</v>
       </c>
       <c r="G48" s="3">
-        <v>4513800</v>
+        <v>4700300</v>
       </c>
       <c r="H48" s="3">
-        <v>4697400</v>
+        <v>4891400</v>
       </c>
       <c r="I48" s="3">
-        <v>6239600</v>
+        <v>6497300</v>
       </c>
       <c r="J48" s="3">
-        <v>6407900</v>
+        <v>6672500</v>
       </c>
       <c r="K48" s="3">
         <v>2814700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12859200</v>
+        <v>13390400</v>
       </c>
       <c r="E49" s="3">
-        <v>12971000</v>
+        <v>13506700</v>
       </c>
       <c r="F49" s="3">
-        <v>12825100</v>
+        <v>13354800</v>
       </c>
       <c r="G49" s="3">
-        <v>12827500</v>
+        <v>13357300</v>
       </c>
       <c r="H49" s="3">
-        <v>12671000</v>
+        <v>13194400</v>
       </c>
       <c r="I49" s="3">
-        <v>11712200</v>
+        <v>12196000</v>
       </c>
       <c r="J49" s="3">
-        <v>11761600</v>
+        <v>12247500</v>
       </c>
       <c r="K49" s="3">
         <v>4937900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>435300</v>
+        <v>453200</v>
       </c>
       <c r="E52" s="3">
-        <v>412900</v>
+        <v>430000</v>
       </c>
       <c r="F52" s="3">
-        <v>511700</v>
+        <v>532900</v>
       </c>
       <c r="G52" s="3">
-        <v>163500</v>
+        <v>170300</v>
       </c>
       <c r="H52" s="3">
-        <v>445900</v>
+        <v>464300</v>
       </c>
       <c r="I52" s="3">
-        <v>429400</v>
+        <v>447100</v>
       </c>
       <c r="J52" s="3">
-        <v>514100</v>
+        <v>535300</v>
       </c>
       <c r="K52" s="3">
         <v>569400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22630400</v>
+        <v>23565100</v>
       </c>
       <c r="E54" s="3">
-        <v>21981000</v>
+        <v>22888900</v>
       </c>
       <c r="F54" s="3">
-        <v>21429300</v>
+        <v>22314400</v>
       </c>
       <c r="G54" s="3">
-        <v>21403400</v>
+        <v>22287500</v>
       </c>
       <c r="H54" s="3">
-        <v>21843400</v>
+        <v>22745600</v>
       </c>
       <c r="I54" s="3">
-        <v>8230100</v>
+        <v>8570000</v>
       </c>
       <c r="J54" s="3">
-        <v>8291300</v>
+        <v>8633700</v>
       </c>
       <c r="K54" s="3">
         <v>11393800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1322300</v>
+        <v>1376900</v>
       </c>
       <c r="E57" s="3">
-        <v>1338700</v>
+        <v>1394000</v>
       </c>
       <c r="F57" s="3">
-        <v>1299900</v>
+        <v>1353600</v>
       </c>
       <c r="G57" s="3">
-        <v>1243500</v>
+        <v>1294800</v>
       </c>
       <c r="H57" s="3">
-        <v>1063500</v>
+        <v>1107400</v>
       </c>
       <c r="I57" s="3">
-        <v>2845700</v>
+        <v>2963300</v>
       </c>
       <c r="J57" s="3">
-        <v>2972800</v>
+        <v>3095500</v>
       </c>
       <c r="K57" s="3">
         <v>754800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>947000</v>
+        <v>986100</v>
       </c>
       <c r="E58" s="3">
-        <v>939900</v>
+        <v>978800</v>
       </c>
       <c r="F58" s="3">
-        <v>577600</v>
+        <v>601500</v>
       </c>
       <c r="G58" s="3">
-        <v>322300</v>
+        <v>335600</v>
       </c>
       <c r="H58" s="3">
-        <v>1029300</v>
+        <v>1071900</v>
       </c>
       <c r="I58" s="3">
-        <v>1025800</v>
+        <v>1068200</v>
       </c>
       <c r="J58" s="3">
-        <v>1358700</v>
+        <v>1414900</v>
       </c>
       <c r="K58" s="3">
         <v>132800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2601000</v>
+        <v>2708500</v>
       </c>
       <c r="E59" s="3">
-        <v>2562200</v>
+        <v>2668000</v>
       </c>
       <c r="F59" s="3">
-        <v>2583400</v>
+        <v>2690100</v>
       </c>
       <c r="G59" s="3">
-        <v>2301000</v>
+        <v>2396100</v>
       </c>
       <c r="H59" s="3">
-        <v>2321000</v>
+        <v>2416900</v>
       </c>
       <c r="I59" s="3">
-        <v>2921000</v>
+        <v>3041700</v>
       </c>
       <c r="J59" s="3">
-        <v>3022200</v>
+        <v>3147000</v>
       </c>
       <c r="K59" s="3">
         <v>1738100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4870300</v>
+        <v>5071500</v>
       </c>
       <c r="E60" s="3">
-        <v>4840900</v>
+        <v>5040800</v>
       </c>
       <c r="F60" s="3">
-        <v>4460900</v>
+        <v>4645200</v>
       </c>
       <c r="G60" s="3">
-        <v>3866800</v>
+        <v>4026500</v>
       </c>
       <c r="H60" s="3">
-        <v>4413900</v>
+        <v>4596200</v>
       </c>
       <c r="I60" s="3">
-        <v>2359900</v>
+        <v>2457300</v>
       </c>
       <c r="J60" s="3">
-        <v>2535100</v>
+        <v>2639900</v>
       </c>
       <c r="K60" s="3">
         <v>2625700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7507800</v>
+        <v>7817900</v>
       </c>
       <c r="E61" s="3">
-        <v>6613700</v>
+        <v>6886900</v>
       </c>
       <c r="F61" s="3">
-        <v>6031400</v>
+        <v>6280500</v>
       </c>
       <c r="G61" s="3">
-        <v>6439600</v>
+        <v>6705600</v>
       </c>
       <c r="H61" s="3">
-        <v>6543100</v>
+        <v>6813400</v>
       </c>
       <c r="I61" s="3">
-        <v>3672700</v>
+        <v>3824400</v>
       </c>
       <c r="J61" s="3">
-        <v>3212700</v>
+        <v>3345400</v>
       </c>
       <c r="K61" s="3">
         <v>4457000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3164500</v>
+        <v>3295200</v>
       </c>
       <c r="E62" s="3">
-        <v>3284500</v>
+        <v>3420200</v>
       </c>
       <c r="F62" s="3">
-        <v>3215100</v>
+        <v>3347900</v>
       </c>
       <c r="G62" s="3">
-        <v>3232700</v>
+        <v>3366300</v>
       </c>
       <c r="H62" s="3">
-        <v>3285700</v>
+        <v>3421400</v>
       </c>
       <c r="I62" s="3">
-        <v>2479900</v>
+        <v>2582300</v>
       </c>
       <c r="J62" s="3">
-        <v>2556300</v>
+        <v>2661900</v>
       </c>
       <c r="K62" s="3">
         <v>1583800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15542600</v>
+        <v>16184600</v>
       </c>
       <c r="E66" s="3">
-        <v>14739100</v>
+        <v>15347900</v>
       </c>
       <c r="F66" s="3">
-        <v>13707400</v>
+        <v>14273600</v>
       </c>
       <c r="G66" s="3">
-        <v>13539200</v>
+        <v>14098400</v>
       </c>
       <c r="H66" s="3">
-        <v>14242700</v>
+        <v>14831000</v>
       </c>
       <c r="I66" s="3">
-        <v>7205400</v>
+        <v>7503100</v>
       </c>
       <c r="J66" s="3">
-        <v>6894900</v>
+        <v>7179700</v>
       </c>
       <c r="K66" s="3">
         <v>8666500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7487800</v>
+        <v>7797100</v>
       </c>
       <c r="E72" s="3">
-        <v>7554800</v>
+        <v>7866900</v>
       </c>
       <c r="F72" s="3">
-        <v>8186600</v>
+        <v>8524700</v>
       </c>
       <c r="G72" s="3">
-        <v>8300700</v>
+        <v>8643500</v>
       </c>
       <c r="H72" s="3">
-        <v>7953600</v>
+        <v>8282200</v>
       </c>
       <c r="I72" s="3">
-        <v>4652700</v>
+        <v>4844800</v>
       </c>
       <c r="J72" s="3">
-        <v>3928000</v>
+        <v>4090200</v>
       </c>
       <c r="K72" s="3">
         <v>1886400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7087800</v>
+        <v>7380600</v>
       </c>
       <c r="E76" s="3">
-        <v>7241900</v>
+        <v>7541000</v>
       </c>
       <c r="F76" s="3">
-        <v>7721900</v>
+        <v>8040800</v>
       </c>
       <c r="G76" s="3">
-        <v>7864200</v>
+        <v>8189100</v>
       </c>
       <c r="H76" s="3">
-        <v>7600700</v>
+        <v>7914700</v>
       </c>
       <c r="I76" s="3">
-        <v>1024600</v>
+        <v>1067000</v>
       </c>
       <c r="J76" s="3">
-        <v>1396400</v>
+        <v>1454100</v>
       </c>
       <c r="K76" s="3">
         <v>2727300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>585800</v>
+        <v>610000</v>
       </c>
       <c r="E81" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="F81" s="3">
-        <v>1069300</v>
+        <v>1113500</v>
       </c>
       <c r="G81" s="3">
-        <v>809400</v>
+        <v>842800</v>
       </c>
       <c r="H81" s="3">
-        <v>645800</v>
+        <v>672500</v>
       </c>
       <c r="I81" s="3">
-        <v>603500</v>
+        <v>628400</v>
       </c>
       <c r="J81" s="3">
-        <v>569400</v>
+        <v>592900</v>
       </c>
       <c r="K81" s="3">
         <v>797900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>855200</v>
+        <v>890600</v>
       </c>
       <c r="E83" s="3">
-        <v>751700</v>
+        <v>782800</v>
       </c>
       <c r="F83" s="3">
-        <v>602300</v>
+        <v>627200</v>
       </c>
       <c r="G83" s="3">
-        <v>576400</v>
+        <v>600200</v>
       </c>
       <c r="H83" s="3">
-        <v>437600</v>
+        <v>455700</v>
       </c>
       <c r="I83" s="3">
-        <v>290600</v>
+        <v>302600</v>
       </c>
       <c r="J83" s="3">
-        <v>274100</v>
+        <v>285400</v>
       </c>
       <c r="K83" s="3">
         <v>368400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1752800</v>
+        <v>1825200</v>
       </c>
       <c r="E89" s="3">
-        <v>2239900</v>
+        <v>2332400</v>
       </c>
       <c r="F89" s="3">
-        <v>2124600</v>
+        <v>2212300</v>
       </c>
       <c r="G89" s="3">
-        <v>1909300</v>
+        <v>1988200</v>
       </c>
       <c r="H89" s="3">
-        <v>1463400</v>
+        <v>1523900</v>
       </c>
       <c r="I89" s="3">
-        <v>1084600</v>
+        <v>1129400</v>
       </c>
       <c r="J89" s="3">
-        <v>958800</v>
+        <v>998400</v>
       </c>
       <c r="K89" s="3">
         <v>996400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-409400</v>
+        <v>-426300</v>
       </c>
       <c r="E91" s="3">
-        <v>-595300</v>
+        <v>-619800</v>
       </c>
       <c r="F91" s="3">
-        <v>-617600</v>
+        <v>-643100</v>
       </c>
       <c r="G91" s="3">
-        <v>-569400</v>
+        <v>-592900</v>
       </c>
       <c r="H91" s="3">
-        <v>-540000</v>
+        <v>-562300</v>
       </c>
       <c r="I91" s="3">
-        <v>-721100</v>
+        <v>-750900</v>
       </c>
       <c r="J91" s="3">
-        <v>-651700</v>
+        <v>-678600</v>
       </c>
       <c r="K91" s="3">
         <v>-374400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-435300</v>
+        <v>-453200</v>
       </c>
       <c r="E94" s="3">
-        <v>-704700</v>
+        <v>-733800</v>
       </c>
       <c r="F94" s="3">
-        <v>-701100</v>
+        <v>-730100</v>
       </c>
       <c r="G94" s="3">
-        <v>-574100</v>
+        <v>-597800</v>
       </c>
       <c r="H94" s="3">
-        <v>-450600</v>
+        <v>-469200</v>
       </c>
       <c r="I94" s="3">
-        <v>-320000</v>
+        <v>-333200</v>
       </c>
       <c r="J94" s="3">
-        <v>-243500</v>
+        <v>-253600</v>
       </c>
       <c r="K94" s="3">
         <v>-394700</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-454100</v>
+        <v>-472800</v>
       </c>
       <c r="E96" s="3">
-        <v>-675300</v>
+        <v>-703100</v>
       </c>
       <c r="F96" s="3">
-        <v>-603500</v>
+        <v>-628400</v>
       </c>
       <c r="G96" s="3">
-        <v>-575300</v>
+        <v>-599000</v>
       </c>
       <c r="H96" s="3">
-        <v>-240000</v>
+        <v>-249900</v>
       </c>
       <c r="I96" s="3">
-        <v>-575300</v>
+        <v>-599000</v>
       </c>
       <c r="J96" s="3">
-        <v>-507000</v>
+        <v>-528000</v>
       </c>
       <c r="K96" s="3">
         <v>-254800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>117600</v>
+        <v>122500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1531700</v>
+        <v>-1594900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1481100</v>
+        <v>-1542300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1355200</v>
+        <v>-1411200</v>
       </c>
       <c r="H100" s="3">
-        <v>-736400</v>
+        <v>-766800</v>
       </c>
       <c r="I100" s="3">
-        <v>-805800</v>
+        <v>-839100</v>
       </c>
       <c r="J100" s="3">
-        <v>-796400</v>
+        <v>-829300</v>
       </c>
       <c r="K100" s="3">
         <v>-1071800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15300</v>
+        <v>-15900</v>
       </c>
       <c r="E101" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="F101" s="3">
         <v>-2400</v>
       </c>
       <c r="G101" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="H101" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="I101" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="J101" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K101" s="3">
         <v>17900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1419900</v>
+        <v>1478600</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>8600</v>
       </c>
       <c r="F102" s="3">
-        <v>-60000</v>
+        <v>-62500</v>
       </c>
       <c r="G102" s="3">
-        <v>-30600</v>
+        <v>-31800</v>
       </c>
       <c r="H102" s="3">
-        <v>270600</v>
+        <v>281700</v>
       </c>
       <c r="I102" s="3">
-        <v>-32900</v>
+        <v>-34300</v>
       </c>
       <c r="J102" s="3">
-        <v>-77600</v>
+        <v>-80800</v>
       </c>
       <c r="K102" s="3">
         <v>-452200</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12992200</v>
+        <v>12381600</v>
       </c>
       <c r="E8" s="3">
-        <v>14720700</v>
+        <v>14028800</v>
       </c>
       <c r="F8" s="3">
-        <v>14109400</v>
+        <v>13446200</v>
       </c>
       <c r="G8" s="3">
-        <v>13550800</v>
+        <v>12913900</v>
       </c>
       <c r="H8" s="3">
-        <v>11187800</v>
+        <v>10662000</v>
       </c>
       <c r="I8" s="3">
-        <v>7753000</v>
+        <v>7388500</v>
       </c>
       <c r="J8" s="3">
-        <v>7615800</v>
+        <v>7257800</v>
       </c>
       <c r="K8" s="3">
         <v>9823200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8305400</v>
+        <v>7915000</v>
       </c>
       <c r="E9" s="3">
-        <v>9063700</v>
+        <v>8637700</v>
       </c>
       <c r="F9" s="3">
-        <v>8590900</v>
+        <v>8187000</v>
       </c>
       <c r="G9" s="3">
-        <v>8265000</v>
+        <v>7876500</v>
       </c>
       <c r="H9" s="3">
-        <v>6840300</v>
+        <v>6518800</v>
       </c>
       <c r="I9" s="3">
-        <v>15281800</v>
+        <v>14563400</v>
       </c>
       <c r="J9" s="3">
-        <v>16251900</v>
+        <v>15488000</v>
       </c>
       <c r="K9" s="3">
         <v>6399700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4686800</v>
+        <v>4466500</v>
       </c>
       <c r="E10" s="3">
-        <v>5657000</v>
+        <v>5391100</v>
       </c>
       <c r="F10" s="3">
-        <v>5518600</v>
+        <v>5259200</v>
       </c>
       <c r="G10" s="3">
-        <v>5285800</v>
+        <v>5037400</v>
       </c>
       <c r="H10" s="3">
-        <v>4347500</v>
+        <v>4143100</v>
       </c>
       <c r="I10" s="3">
-        <v>-7528800</v>
+        <v>-7174900</v>
       </c>
       <c r="J10" s="3">
-        <v>-8636200</v>
+        <v>-8230200</v>
       </c>
       <c r="K10" s="3">
         <v>3423500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>111500</v>
+        <v>106200</v>
       </c>
       <c r="E14" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="F14" s="3">
-        <v>57600</v>
+        <v>54900</v>
       </c>
       <c r="G14" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>79600</v>
+        <v>75900</v>
       </c>
       <c r="J14" s="3">
-        <v>99200</v>
+        <v>94600</v>
       </c>
       <c r="K14" s="3">
         <v>143500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>75900</v>
+        <v>72400</v>
       </c>
       <c r="E15" s="3">
-        <v>53900</v>
+        <v>51400</v>
       </c>
       <c r="F15" s="3">
-        <v>52700</v>
+        <v>50200</v>
       </c>
       <c r="G15" s="3">
-        <v>46500</v>
+        <v>44400</v>
       </c>
       <c r="H15" s="3">
-        <v>40400</v>
+        <v>38500</v>
       </c>
       <c r="I15" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="J15" s="3">
-        <v>258500</v>
+        <v>246300</v>
       </c>
       <c r="K15" s="3">
         <v>227300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11996300</v>
+        <v>11432400</v>
       </c>
       <c r="E17" s="3">
-        <v>12824400</v>
+        <v>12221600</v>
       </c>
       <c r="F17" s="3">
-        <v>12516900</v>
+        <v>11928600</v>
       </c>
       <c r="G17" s="3">
-        <v>12007400</v>
+        <v>11443000</v>
       </c>
       <c r="H17" s="3">
-        <v>10145400</v>
+        <v>9668500</v>
       </c>
       <c r="I17" s="3">
-        <v>6823200</v>
+        <v>6502500</v>
       </c>
       <c r="J17" s="3">
-        <v>6700700</v>
+        <v>6385700</v>
       </c>
       <c r="K17" s="3">
         <v>8729900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>995900</v>
+        <v>949100</v>
       </c>
       <c r="E18" s="3">
-        <v>1896300</v>
+        <v>1807200</v>
       </c>
       <c r="F18" s="3">
-        <v>1592500</v>
+        <v>1517600</v>
       </c>
       <c r="G18" s="3">
-        <v>1543500</v>
+        <v>1470900</v>
       </c>
       <c r="H18" s="3">
-        <v>1042500</v>
+        <v>993500</v>
       </c>
       <c r="I18" s="3">
-        <v>929800</v>
+        <v>886100</v>
       </c>
       <c r="J18" s="3">
-        <v>915100</v>
+        <v>872100</v>
       </c>
       <c r="K18" s="3">
         <v>1093300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="E20" s="3">
-        <v>52700</v>
+        <v>50200</v>
       </c>
       <c r="F20" s="3">
-        <v>47800</v>
+        <v>45500</v>
       </c>
       <c r="G20" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="H20" s="3">
-        <v>15900</v>
+        <v>15200</v>
       </c>
       <c r="I20" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="J20" s="3">
-        <v>35500</v>
+        <v>33900</v>
       </c>
       <c r="K20" s="3">
         <v>-130400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1906000</v>
+        <v>1821400</v>
       </c>
       <c r="E21" s="3">
-        <v>2729500</v>
+        <v>2605600</v>
       </c>
       <c r="F21" s="3">
-        <v>2265700</v>
+        <v>2162700</v>
       </c>
       <c r="G21" s="3">
-        <v>2191000</v>
+        <v>2091400</v>
       </c>
       <c r="H21" s="3">
-        <v>1512800</v>
+        <v>1444300</v>
       </c>
       <c r="I21" s="3">
-        <v>1246200</v>
+        <v>1189300</v>
       </c>
       <c r="J21" s="3">
-        <v>1235200</v>
+        <v>1178800</v>
       </c>
       <c r="K21" s="3">
         <v>1329900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>166600</v>
+        <v>158800</v>
       </c>
       <c r="E22" s="3">
-        <v>167800</v>
+        <v>159900</v>
       </c>
       <c r="F22" s="3">
-        <v>164100</v>
+        <v>156400</v>
       </c>
       <c r="G22" s="3">
-        <v>172700</v>
+        <v>164600</v>
       </c>
       <c r="H22" s="3">
-        <v>177600</v>
+        <v>169300</v>
       </c>
       <c r="I22" s="3">
-        <v>155600</v>
+        <v>148300</v>
       </c>
       <c r="J22" s="3">
-        <v>144500</v>
+        <v>137800</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>851400</v>
+        <v>811300</v>
       </c>
       <c r="E23" s="3">
-        <v>1781100</v>
+        <v>1697400</v>
       </c>
       <c r="F23" s="3">
-        <v>1476100</v>
+        <v>1406700</v>
       </c>
       <c r="G23" s="3">
-        <v>1419800</v>
+        <v>1353000</v>
       </c>
       <c r="H23" s="3">
-        <v>880800</v>
+        <v>839400</v>
       </c>
       <c r="I23" s="3">
-        <v>788900</v>
+        <v>751800</v>
       </c>
       <c r="J23" s="3">
-        <v>806000</v>
+        <v>768200</v>
       </c>
       <c r="K23" s="3">
         <v>962900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>241300</v>
+        <v>230000</v>
       </c>
       <c r="E24" s="3">
-        <v>445900</v>
+        <v>424900</v>
       </c>
       <c r="F24" s="3">
-        <v>395700</v>
+        <v>377100</v>
       </c>
       <c r="G24" s="3">
-        <v>185000</v>
+        <v>176300</v>
       </c>
       <c r="H24" s="3">
-        <v>208200</v>
+        <v>198500</v>
       </c>
       <c r="I24" s="3">
-        <v>160500</v>
+        <v>152900</v>
       </c>
       <c r="J24" s="3">
-        <v>213100</v>
+        <v>203100</v>
       </c>
       <c r="K24" s="3">
         <v>165100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="E26" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="F26" s="3">
-        <v>1080400</v>
+        <v>1029700</v>
       </c>
       <c r="G26" s="3">
-        <v>1234800</v>
+        <v>1176700</v>
       </c>
       <c r="H26" s="3">
-        <v>672500</v>
+        <v>640900</v>
       </c>
       <c r="I26" s="3">
-        <v>628400</v>
+        <v>598900</v>
       </c>
       <c r="J26" s="3">
-        <v>592900</v>
+        <v>565000</v>
       </c>
       <c r="K26" s="3">
         <v>797900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="E27" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="F27" s="3">
-        <v>1080400</v>
+        <v>1029700</v>
       </c>
       <c r="G27" s="3">
-        <v>1234800</v>
+        <v>1176700</v>
       </c>
       <c r="H27" s="3">
-        <v>672500</v>
+        <v>640900</v>
       </c>
       <c r="I27" s="3">
-        <v>628400</v>
+        <v>598900</v>
       </c>
       <c r="J27" s="3">
-        <v>592900</v>
+        <v>565000</v>
       </c>
       <c r="K27" s="3">
         <v>797900</v>
@@ -1359,10 +1359,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>33100</v>
+        <v>31500</v>
       </c>
       <c r="G29" s="3">
-        <v>-392000</v>
+        <v>-373600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="E32" s="3">
-        <v>-52700</v>
+        <v>-50200</v>
       </c>
       <c r="F32" s="3">
-        <v>-47800</v>
+        <v>-45500</v>
       </c>
       <c r="G32" s="3">
-        <v>-49000</v>
+        <v>-46700</v>
       </c>
       <c r="H32" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="I32" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="J32" s="3">
-        <v>-35500</v>
+        <v>-33900</v>
       </c>
       <c r="K32" s="3">
         <v>130400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="E33" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="F33" s="3">
-        <v>1113500</v>
+        <v>1061200</v>
       </c>
       <c r="G33" s="3">
-        <v>842800</v>
+        <v>803200</v>
       </c>
       <c r="H33" s="3">
-        <v>672500</v>
+        <v>640900</v>
       </c>
       <c r="I33" s="3">
-        <v>628400</v>
+        <v>598900</v>
       </c>
       <c r="J33" s="3">
-        <v>592900</v>
+        <v>565000</v>
       </c>
       <c r="K33" s="3">
         <v>797900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="E35" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="F35" s="3">
-        <v>1113500</v>
+        <v>1061200</v>
       </c>
       <c r="G35" s="3">
-        <v>842800</v>
+        <v>803200</v>
       </c>
       <c r="H35" s="3">
-        <v>672500</v>
+        <v>640900</v>
       </c>
       <c r="I35" s="3">
-        <v>628400</v>
+        <v>598900</v>
       </c>
       <c r="J35" s="3">
-        <v>592900</v>
+        <v>565000</v>
       </c>
       <c r="K35" s="3">
         <v>797900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>787700</v>
+        <v>750600</v>
       </c>
       <c r="E41" s="3">
-        <v>208200</v>
+        <v>198500</v>
       </c>
       <c r="F41" s="3">
-        <v>341800</v>
+        <v>325700</v>
       </c>
       <c r="G41" s="3">
-        <v>372400</v>
+        <v>354900</v>
       </c>
       <c r="H41" s="3">
-        <v>341800</v>
+        <v>325700</v>
       </c>
       <c r="I41" s="3">
-        <v>494900</v>
+        <v>471600</v>
       </c>
       <c r="J41" s="3">
-        <v>684800</v>
+        <v>652600</v>
       </c>
       <c r="K41" s="3">
         <v>410300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1078000</v>
+        <v>1027300</v>
       </c>
       <c r="E42" s="3">
-        <v>178800</v>
+        <v>170400</v>
       </c>
       <c r="F42" s="3">
-        <v>36700</v>
+        <v>35000</v>
       </c>
       <c r="G42" s="3">
-        <v>68600</v>
+        <v>65400</v>
       </c>
       <c r="H42" s="3">
-        <v>131100</v>
+        <v>124900</v>
       </c>
       <c r="I42" s="3">
-        <v>95500</v>
+        <v>91100</v>
       </c>
       <c r="J42" s="3">
-        <v>39200</v>
+        <v>37400</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1969800</v>
+        <v>1877200</v>
       </c>
       <c r="E43" s="3">
-        <v>2412000</v>
+        <v>2298600</v>
       </c>
       <c r="F43" s="3">
-        <v>2344600</v>
+        <v>2234400</v>
       </c>
       <c r="G43" s="3">
-        <v>2730500</v>
+        <v>2602200</v>
       </c>
       <c r="H43" s="3">
-        <v>2780700</v>
+        <v>2650000</v>
       </c>
       <c r="I43" s="3">
-        <v>4722300</v>
+        <v>4500400</v>
       </c>
       <c r="J43" s="3">
-        <v>5099600</v>
+        <v>4859900</v>
       </c>
       <c r="K43" s="3">
         <v>1918700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>834200</v>
+        <v>795000</v>
       </c>
       <c r="E44" s="3">
-        <v>885700</v>
+        <v>844000</v>
       </c>
       <c r="F44" s="3">
-        <v>848900</v>
+        <v>809000</v>
       </c>
       <c r="G44" s="3">
-        <v>796200</v>
+        <v>758800</v>
       </c>
       <c r="H44" s="3">
-        <v>824400</v>
+        <v>785700</v>
       </c>
       <c r="I44" s="3">
-        <v>1320500</v>
+        <v>1258500</v>
       </c>
       <c r="J44" s="3">
-        <v>1391600</v>
+        <v>1326200</v>
       </c>
       <c r="K44" s="3">
         <v>540700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>323400</v>
+        <v>308200</v>
       </c>
       <c r="E45" s="3">
-        <v>116400</v>
+        <v>110900</v>
       </c>
       <c r="F45" s="3">
-        <v>91900</v>
+        <v>87600</v>
       </c>
       <c r="G45" s="3">
-        <v>91900</v>
+        <v>87600</v>
       </c>
       <c r="H45" s="3">
-        <v>117600</v>
+        <v>112100</v>
       </c>
       <c r="I45" s="3">
-        <v>377300</v>
+        <v>359600</v>
       </c>
       <c r="J45" s="3">
-        <v>557400</v>
+        <v>531200</v>
       </c>
       <c r="K45" s="3">
         <v>202200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4993100</v>
+        <v>4758400</v>
       </c>
       <c r="E46" s="3">
-        <v>3801100</v>
+        <v>3622500</v>
       </c>
       <c r="F46" s="3">
-        <v>3663900</v>
+        <v>3491700</v>
       </c>
       <c r="G46" s="3">
-        <v>4059600</v>
+        <v>3868800</v>
       </c>
       <c r="H46" s="3">
-        <v>4195600</v>
+        <v>3998400</v>
       </c>
       <c r="I46" s="3">
-        <v>2306700</v>
+        <v>2198200</v>
       </c>
       <c r="J46" s="3">
-        <v>2459800</v>
+        <v>2344200</v>
       </c>
       <c r="K46" s="3">
         <v>3071800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4728500</v>
+        <v>4506200</v>
       </c>
       <c r="E48" s="3">
-        <v>5151100</v>
+        <v>4909000</v>
       </c>
       <c r="F48" s="3">
-        <v>4762800</v>
+        <v>4538900</v>
       </c>
       <c r="G48" s="3">
-        <v>4700300</v>
+        <v>4479400</v>
       </c>
       <c r="H48" s="3">
-        <v>4891400</v>
+        <v>4661500</v>
       </c>
       <c r="I48" s="3">
-        <v>6497300</v>
+        <v>6191900</v>
       </c>
       <c r="J48" s="3">
-        <v>6672500</v>
+        <v>6358900</v>
       </c>
       <c r="K48" s="3">
         <v>2814700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13390400</v>
+        <v>12761000</v>
       </c>
       <c r="E49" s="3">
-        <v>13506700</v>
+        <v>12871900</v>
       </c>
       <c r="F49" s="3">
-        <v>13354800</v>
+        <v>12727100</v>
       </c>
       <c r="G49" s="3">
-        <v>13357300</v>
+        <v>12729400</v>
       </c>
       <c r="H49" s="3">
-        <v>13194400</v>
+        <v>12574200</v>
       </c>
       <c r="I49" s="3">
-        <v>12196000</v>
+        <v>11622700</v>
       </c>
       <c r="J49" s="3">
-        <v>12247500</v>
+        <v>11671800</v>
       </c>
       <c r="K49" s="3">
         <v>4937900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>453200</v>
+        <v>431900</v>
       </c>
       <c r="E52" s="3">
-        <v>430000</v>
+        <v>409800</v>
       </c>
       <c r="F52" s="3">
-        <v>532900</v>
+        <v>507800</v>
       </c>
       <c r="G52" s="3">
-        <v>170300</v>
+        <v>162300</v>
       </c>
       <c r="H52" s="3">
-        <v>464300</v>
+        <v>442400</v>
       </c>
       <c r="I52" s="3">
-        <v>447100</v>
+        <v>426100</v>
       </c>
       <c r="J52" s="3">
-        <v>535300</v>
+        <v>510200</v>
       </c>
       <c r="K52" s="3">
         <v>569400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>23565100</v>
+        <v>22457500</v>
       </c>
       <c r="E54" s="3">
-        <v>22888900</v>
+        <v>21813100</v>
       </c>
       <c r="F54" s="3">
-        <v>22314400</v>
+        <v>21265500</v>
       </c>
       <c r="G54" s="3">
-        <v>22287500</v>
+        <v>21239900</v>
       </c>
       <c r="H54" s="3">
-        <v>22745600</v>
+        <v>21676500</v>
       </c>
       <c r="I54" s="3">
-        <v>8570000</v>
+        <v>8167200</v>
       </c>
       <c r="J54" s="3">
-        <v>8633700</v>
+        <v>8227900</v>
       </c>
       <c r="K54" s="3">
         <v>11393800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1376900</v>
+        <v>1312200</v>
       </c>
       <c r="E57" s="3">
-        <v>1394000</v>
+        <v>1328500</v>
       </c>
       <c r="F57" s="3">
-        <v>1353600</v>
+        <v>1290000</v>
       </c>
       <c r="G57" s="3">
-        <v>1294800</v>
+        <v>1234000</v>
       </c>
       <c r="H57" s="3">
-        <v>1107400</v>
+        <v>1055300</v>
       </c>
       <c r="I57" s="3">
-        <v>2963300</v>
+        <v>2824000</v>
       </c>
       <c r="J57" s="3">
-        <v>3095500</v>
+        <v>2950000</v>
       </c>
       <c r="K57" s="3">
         <v>754800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>986100</v>
+        <v>939800</v>
       </c>
       <c r="E58" s="3">
-        <v>978800</v>
+        <v>932800</v>
       </c>
       <c r="F58" s="3">
-        <v>601500</v>
+        <v>573200</v>
       </c>
       <c r="G58" s="3">
-        <v>335600</v>
+        <v>319900</v>
       </c>
       <c r="H58" s="3">
-        <v>1071900</v>
+        <v>1021500</v>
       </c>
       <c r="I58" s="3">
-        <v>1068200</v>
+        <v>1018000</v>
       </c>
       <c r="J58" s="3">
-        <v>1414900</v>
+        <v>1348400</v>
       </c>
       <c r="K58" s="3">
         <v>132800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2708500</v>
+        <v>2581100</v>
       </c>
       <c r="E59" s="3">
-        <v>2668000</v>
+        <v>2542600</v>
       </c>
       <c r="F59" s="3">
-        <v>2690100</v>
+        <v>2563600</v>
       </c>
       <c r="G59" s="3">
-        <v>2396100</v>
+        <v>2283500</v>
       </c>
       <c r="H59" s="3">
-        <v>2416900</v>
+        <v>2303300</v>
       </c>
       <c r="I59" s="3">
-        <v>3041700</v>
+        <v>2898700</v>
       </c>
       <c r="J59" s="3">
-        <v>3147000</v>
+        <v>2999100</v>
       </c>
       <c r="K59" s="3">
         <v>1738100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5071500</v>
+        <v>4833100</v>
       </c>
       <c r="E60" s="3">
-        <v>5040800</v>
+        <v>4803900</v>
       </c>
       <c r="F60" s="3">
-        <v>4645200</v>
+        <v>4426800</v>
       </c>
       <c r="G60" s="3">
-        <v>4026500</v>
+        <v>3837300</v>
       </c>
       <c r="H60" s="3">
-        <v>4596200</v>
+        <v>4380100</v>
       </c>
       <c r="I60" s="3">
-        <v>2457300</v>
+        <v>2341800</v>
       </c>
       <c r="J60" s="3">
-        <v>2639900</v>
+        <v>2515800</v>
       </c>
       <c r="K60" s="3">
         <v>2625700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7817900</v>
+        <v>7450400</v>
       </c>
       <c r="E61" s="3">
-        <v>6886900</v>
+        <v>6563200</v>
       </c>
       <c r="F61" s="3">
-        <v>6280500</v>
+        <v>5985300</v>
       </c>
       <c r="G61" s="3">
-        <v>6705600</v>
+        <v>6390400</v>
       </c>
       <c r="H61" s="3">
-        <v>6813400</v>
+        <v>6493100</v>
       </c>
       <c r="I61" s="3">
-        <v>3824400</v>
+        <v>3644700</v>
       </c>
       <c r="J61" s="3">
-        <v>3345400</v>
+        <v>3188200</v>
       </c>
       <c r="K61" s="3">
         <v>4457000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3295200</v>
+        <v>3140300</v>
       </c>
       <c r="E62" s="3">
-        <v>3420200</v>
+        <v>3259400</v>
       </c>
       <c r="F62" s="3">
-        <v>3347900</v>
+        <v>3190500</v>
       </c>
       <c r="G62" s="3">
-        <v>3366300</v>
+        <v>3208000</v>
       </c>
       <c r="H62" s="3">
-        <v>3421400</v>
+        <v>3260600</v>
       </c>
       <c r="I62" s="3">
-        <v>2582300</v>
+        <v>2460900</v>
       </c>
       <c r="J62" s="3">
-        <v>2661900</v>
+        <v>2536800</v>
       </c>
       <c r="K62" s="3">
         <v>1583800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16184600</v>
+        <v>15423800</v>
       </c>
       <c r="E66" s="3">
-        <v>15347900</v>
+        <v>14626500</v>
       </c>
       <c r="F66" s="3">
-        <v>14273600</v>
+        <v>13602700</v>
       </c>
       <c r="G66" s="3">
-        <v>14098400</v>
+        <v>13435700</v>
       </c>
       <c r="H66" s="3">
-        <v>14831000</v>
+        <v>14133800</v>
       </c>
       <c r="I66" s="3">
-        <v>7503100</v>
+        <v>7150400</v>
       </c>
       <c r="J66" s="3">
-        <v>7179700</v>
+        <v>6842200</v>
       </c>
       <c r="K66" s="3">
         <v>8666500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7797100</v>
+        <v>7430600</v>
       </c>
       <c r="E72" s="3">
-        <v>7866900</v>
+        <v>7497100</v>
       </c>
       <c r="F72" s="3">
-        <v>8524700</v>
+        <v>8124000</v>
       </c>
       <c r="G72" s="3">
-        <v>8643500</v>
+        <v>8237200</v>
       </c>
       <c r="H72" s="3">
-        <v>8282200</v>
+        <v>7892900</v>
       </c>
       <c r="I72" s="3">
-        <v>4844800</v>
+        <v>4617100</v>
       </c>
       <c r="J72" s="3">
-        <v>4090200</v>
+        <v>3898000</v>
       </c>
       <c r="K72" s="3">
         <v>1886400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7380600</v>
+        <v>7033600</v>
       </c>
       <c r="E76" s="3">
-        <v>7541000</v>
+        <v>7186600</v>
       </c>
       <c r="F76" s="3">
-        <v>8040800</v>
+        <v>7662900</v>
       </c>
       <c r="G76" s="3">
-        <v>8189100</v>
+        <v>7804100</v>
       </c>
       <c r="H76" s="3">
-        <v>7914700</v>
+        <v>7542600</v>
       </c>
       <c r="I76" s="3">
-        <v>1067000</v>
+        <v>1016800</v>
       </c>
       <c r="J76" s="3">
-        <v>1454100</v>
+        <v>1385700</v>
       </c>
       <c r="K76" s="3">
         <v>2727300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>610000</v>
+        <v>581400</v>
       </c>
       <c r="E81" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="F81" s="3">
-        <v>1113500</v>
+        <v>1061200</v>
       </c>
       <c r="G81" s="3">
-        <v>842800</v>
+        <v>803200</v>
       </c>
       <c r="H81" s="3">
-        <v>672500</v>
+        <v>640900</v>
       </c>
       <c r="I81" s="3">
-        <v>628400</v>
+        <v>598900</v>
       </c>
       <c r="J81" s="3">
-        <v>592900</v>
+        <v>565000</v>
       </c>
       <c r="K81" s="3">
         <v>797900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>890600</v>
+        <v>848700</v>
       </c>
       <c r="E83" s="3">
-        <v>782800</v>
+        <v>746000</v>
       </c>
       <c r="F83" s="3">
-        <v>627200</v>
+        <v>597700</v>
       </c>
       <c r="G83" s="3">
-        <v>600200</v>
+        <v>572000</v>
       </c>
       <c r="H83" s="3">
-        <v>455700</v>
+        <v>434300</v>
       </c>
       <c r="I83" s="3">
-        <v>302600</v>
+        <v>288400</v>
       </c>
       <c r="J83" s="3">
-        <v>285400</v>
+        <v>272000</v>
       </c>
       <c r="K83" s="3">
         <v>368400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1825200</v>
+        <v>1739400</v>
       </c>
       <c r="E89" s="3">
-        <v>2332400</v>
+        <v>2222700</v>
       </c>
       <c r="F89" s="3">
-        <v>2212300</v>
+        <v>2108300</v>
       </c>
       <c r="G89" s="3">
-        <v>1988200</v>
+        <v>1894700</v>
       </c>
       <c r="H89" s="3">
-        <v>1523900</v>
+        <v>1452300</v>
       </c>
       <c r="I89" s="3">
-        <v>1129400</v>
+        <v>1076400</v>
       </c>
       <c r="J89" s="3">
-        <v>998400</v>
+        <v>951400</v>
       </c>
       <c r="K89" s="3">
         <v>996400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-426300</v>
+        <v>-406300</v>
       </c>
       <c r="E91" s="3">
-        <v>-619800</v>
+        <v>-590700</v>
       </c>
       <c r="F91" s="3">
-        <v>-643100</v>
+        <v>-612900</v>
       </c>
       <c r="G91" s="3">
-        <v>-592900</v>
+        <v>-565000</v>
       </c>
       <c r="H91" s="3">
-        <v>-562300</v>
+        <v>-535800</v>
       </c>
       <c r="I91" s="3">
-        <v>-750900</v>
+        <v>-715600</v>
       </c>
       <c r="J91" s="3">
-        <v>-678600</v>
+        <v>-646700</v>
       </c>
       <c r="K91" s="3">
         <v>-374400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-453200</v>
+        <v>-431900</v>
       </c>
       <c r="E94" s="3">
-        <v>-733800</v>
+        <v>-699300</v>
       </c>
       <c r="F94" s="3">
-        <v>-730100</v>
+        <v>-695800</v>
       </c>
       <c r="G94" s="3">
-        <v>-597800</v>
+        <v>-569700</v>
       </c>
       <c r="H94" s="3">
-        <v>-469200</v>
+        <v>-447100</v>
       </c>
       <c r="I94" s="3">
-        <v>-333200</v>
+        <v>-317500</v>
       </c>
       <c r="J94" s="3">
-        <v>-253600</v>
+        <v>-241700</v>
       </c>
       <c r="K94" s="3">
         <v>-394700</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-472800</v>
+        <v>-450600</v>
       </c>
       <c r="E96" s="3">
-        <v>-703100</v>
+        <v>-670100</v>
       </c>
       <c r="F96" s="3">
-        <v>-628400</v>
+        <v>-598900</v>
       </c>
       <c r="G96" s="3">
-        <v>-599000</v>
+        <v>-570900</v>
       </c>
       <c r="H96" s="3">
-        <v>-249900</v>
+        <v>-238200</v>
       </c>
       <c r="I96" s="3">
-        <v>-599000</v>
+        <v>-570900</v>
       </c>
       <c r="J96" s="3">
-        <v>-528000</v>
+        <v>-503200</v>
       </c>
       <c r="K96" s="3">
         <v>-254800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>122500</v>
+        <v>116700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1594900</v>
+        <v>-1520000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1542300</v>
+        <v>-1469800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1411200</v>
+        <v>-1344900</v>
       </c>
       <c r="H100" s="3">
-        <v>-766800</v>
+        <v>-730800</v>
       </c>
       <c r="I100" s="3">
-        <v>-839100</v>
+        <v>-799700</v>
       </c>
       <c r="J100" s="3">
-        <v>-829300</v>
+        <v>-790300</v>
       </c>
       <c r="K100" s="3">
         <v>-1071800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15900</v>
+        <v>-15200</v>
       </c>
       <c r="E101" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="F101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-6100</v>
+        <v>-5800</v>
       </c>
       <c r="I101" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="J101" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K101" s="3">
         <v>17900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1478600</v>
+        <v>1409100</v>
       </c>
       <c r="E102" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="F102" s="3">
-        <v>-62500</v>
+        <v>-59500</v>
       </c>
       <c r="G102" s="3">
-        <v>-31800</v>
+        <v>-30400</v>
       </c>
       <c r="H102" s="3">
-        <v>281700</v>
+        <v>268500</v>
       </c>
       <c r="I102" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="J102" s="3">
-        <v>-80800</v>
+        <v>-77000</v>
       </c>
       <c r="K102" s="3">
         <v>-452200</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12381600</v>
+        <v>11975200</v>
       </c>
       <c r="E8" s="3">
-        <v>14028800</v>
+        <v>13568400</v>
       </c>
       <c r="F8" s="3">
-        <v>13446200</v>
+        <v>13005000</v>
       </c>
       <c r="G8" s="3">
-        <v>12913900</v>
+        <v>12490100</v>
       </c>
       <c r="H8" s="3">
-        <v>10662000</v>
+        <v>10312100</v>
       </c>
       <c r="I8" s="3">
-        <v>7388500</v>
+        <v>7146100</v>
       </c>
       <c r="J8" s="3">
-        <v>7257800</v>
+        <v>7019600</v>
       </c>
       <c r="K8" s="3">
         <v>9823200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7915000</v>
+        <v>7655300</v>
       </c>
       <c r="E9" s="3">
-        <v>8637700</v>
+        <v>8354200</v>
       </c>
       <c r="F9" s="3">
-        <v>8187000</v>
+        <v>7918400</v>
       </c>
       <c r="G9" s="3">
-        <v>7876500</v>
+        <v>7618000</v>
       </c>
       <c r="H9" s="3">
-        <v>6518800</v>
+        <v>6304900</v>
       </c>
       <c r="I9" s="3">
-        <v>14563400</v>
+        <v>14085500</v>
       </c>
       <c r="J9" s="3">
-        <v>15488000</v>
+        <v>14979800</v>
       </c>
       <c r="K9" s="3">
         <v>6399700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4466500</v>
+        <v>4319900</v>
       </c>
       <c r="E10" s="3">
-        <v>5391100</v>
+        <v>5214200</v>
       </c>
       <c r="F10" s="3">
-        <v>5259200</v>
+        <v>5086600</v>
       </c>
       <c r="G10" s="3">
-        <v>5037400</v>
+        <v>4872100</v>
       </c>
       <c r="H10" s="3">
-        <v>4143100</v>
+        <v>4007200</v>
       </c>
       <c r="I10" s="3">
-        <v>-7174900</v>
+        <v>-6939400</v>
       </c>
       <c r="J10" s="3">
-        <v>-8230200</v>
+        <v>-7960200</v>
       </c>
       <c r="K10" s="3">
         <v>3423500</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>106200</v>
+        <v>102700</v>
       </c>
       <c r="E14" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="F14" s="3">
-        <v>54900</v>
+        <v>53100</v>
       </c>
       <c r="G14" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>75900</v>
+        <v>73400</v>
       </c>
       <c r="J14" s="3">
-        <v>94600</v>
+        <v>91500</v>
       </c>
       <c r="K14" s="3">
         <v>143500</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>72400</v>
+        <v>70000</v>
       </c>
       <c r="E15" s="3">
-        <v>51400</v>
+        <v>49700</v>
       </c>
       <c r="F15" s="3">
-        <v>50200</v>
+        <v>48600</v>
       </c>
       <c r="G15" s="3">
-        <v>44400</v>
+        <v>42900</v>
       </c>
       <c r="H15" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="I15" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="J15" s="3">
-        <v>246300</v>
+        <v>238200</v>
       </c>
       <c r="K15" s="3">
         <v>227300</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11432400</v>
+        <v>11057300</v>
       </c>
       <c r="E17" s="3">
-        <v>12221600</v>
+        <v>11820500</v>
       </c>
       <c r="F17" s="3">
-        <v>11928600</v>
+        <v>11537100</v>
       </c>
       <c r="G17" s="3">
-        <v>11443000</v>
+        <v>11067400</v>
       </c>
       <c r="H17" s="3">
-        <v>9668500</v>
+        <v>9351200</v>
       </c>
       <c r="I17" s="3">
-        <v>6502500</v>
+        <v>6289100</v>
       </c>
       <c r="J17" s="3">
-        <v>6385700</v>
+        <v>6176200</v>
       </c>
       <c r="K17" s="3">
         <v>8729900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>949100</v>
+        <v>918000</v>
       </c>
       <c r="E18" s="3">
-        <v>1807200</v>
+        <v>1747800</v>
       </c>
       <c r="F18" s="3">
-        <v>1517600</v>
+        <v>1467800</v>
       </c>
       <c r="G18" s="3">
-        <v>1470900</v>
+        <v>1422700</v>
       </c>
       <c r="H18" s="3">
-        <v>993500</v>
+        <v>960900</v>
       </c>
       <c r="I18" s="3">
-        <v>886100</v>
+        <v>857000</v>
       </c>
       <c r="J18" s="3">
-        <v>872100</v>
+        <v>843400</v>
       </c>
       <c r="K18" s="3">
         <v>1093300</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="E20" s="3">
-        <v>50200</v>
+        <v>48600</v>
       </c>
       <c r="F20" s="3">
-        <v>45500</v>
+        <v>44000</v>
       </c>
       <c r="G20" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="H20" s="3">
-        <v>15200</v>
+        <v>14700</v>
       </c>
       <c r="I20" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="J20" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="K20" s="3">
         <v>-130400</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1821400</v>
+        <v>1761000</v>
       </c>
       <c r="E21" s="3">
-        <v>2605600</v>
+        <v>2519600</v>
       </c>
       <c r="F21" s="3">
-        <v>2162700</v>
+        <v>2091300</v>
       </c>
       <c r="G21" s="3">
-        <v>2091400</v>
+        <v>2022400</v>
       </c>
       <c r="H21" s="3">
-        <v>1444300</v>
+        <v>1396500</v>
       </c>
       <c r="I21" s="3">
-        <v>1189300</v>
+        <v>1150100</v>
       </c>
       <c r="J21" s="3">
-        <v>1178800</v>
+        <v>1139900</v>
       </c>
       <c r="K21" s="3">
         <v>1329900</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>158800</v>
+        <v>153600</v>
       </c>
       <c r="E22" s="3">
-        <v>159900</v>
+        <v>154700</v>
       </c>
       <c r="F22" s="3">
-        <v>156400</v>
+        <v>151300</v>
       </c>
       <c r="G22" s="3">
-        <v>164600</v>
+        <v>159200</v>
       </c>
       <c r="H22" s="3">
-        <v>169300</v>
+        <v>163700</v>
       </c>
       <c r="I22" s="3">
-        <v>148300</v>
+        <v>143400</v>
       </c>
       <c r="J22" s="3">
-        <v>137800</v>
+        <v>133200</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>811300</v>
+        <v>784700</v>
       </c>
       <c r="E23" s="3">
-        <v>1697400</v>
+        <v>1641700</v>
       </c>
       <c r="F23" s="3">
-        <v>1406700</v>
+        <v>1360600</v>
       </c>
       <c r="G23" s="3">
-        <v>1353000</v>
+        <v>1308600</v>
       </c>
       <c r="H23" s="3">
-        <v>839400</v>
+        <v>811800</v>
       </c>
       <c r="I23" s="3">
-        <v>751800</v>
+        <v>727100</v>
       </c>
       <c r="J23" s="3">
-        <v>768200</v>
+        <v>742900</v>
       </c>
       <c r="K23" s="3">
         <v>962900</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>230000</v>
+        <v>222400</v>
       </c>
       <c r="E24" s="3">
-        <v>424900</v>
+        <v>411000</v>
       </c>
       <c r="F24" s="3">
-        <v>377100</v>
+        <v>364700</v>
       </c>
       <c r="G24" s="3">
-        <v>176300</v>
+        <v>170500</v>
       </c>
       <c r="H24" s="3">
-        <v>198500</v>
+        <v>191900</v>
       </c>
       <c r="I24" s="3">
-        <v>152900</v>
+        <v>147900</v>
       </c>
       <c r="J24" s="3">
-        <v>203100</v>
+        <v>196500</v>
       </c>
       <c r="K24" s="3">
         <v>165100</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>581400</v>
+        <v>562300</v>
       </c>
       <c r="E26" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="F26" s="3">
-        <v>1029700</v>
+        <v>995900</v>
       </c>
       <c r="G26" s="3">
-        <v>1176700</v>
+        <v>1138100</v>
       </c>
       <c r="H26" s="3">
-        <v>640900</v>
+        <v>619900</v>
       </c>
       <c r="I26" s="3">
-        <v>598900</v>
+        <v>579200</v>
       </c>
       <c r="J26" s="3">
-        <v>565000</v>
+        <v>546500</v>
       </c>
       <c r="K26" s="3">
         <v>797900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>581400</v>
+        <v>562300</v>
       </c>
       <c r="E27" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="F27" s="3">
-        <v>1029700</v>
+        <v>995900</v>
       </c>
       <c r="G27" s="3">
-        <v>1176700</v>
+        <v>1138100</v>
       </c>
       <c r="H27" s="3">
-        <v>640900</v>
+        <v>619900</v>
       </c>
       <c r="I27" s="3">
-        <v>598900</v>
+        <v>579200</v>
       </c>
       <c r="J27" s="3">
-        <v>565000</v>
+        <v>546500</v>
       </c>
       <c r="K27" s="3">
         <v>797900</v>
@@ -1359,10 +1359,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>31500</v>
+        <v>30500</v>
       </c>
       <c r="G29" s="3">
-        <v>-373600</v>
+        <v>-361300</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21000</v>
+        <v>-20300</v>
       </c>
       <c r="E32" s="3">
-        <v>-50200</v>
+        <v>-48600</v>
       </c>
       <c r="F32" s="3">
-        <v>-45500</v>
+        <v>-44000</v>
       </c>
       <c r="G32" s="3">
-        <v>-46700</v>
+        <v>-45200</v>
       </c>
       <c r="H32" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="I32" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="J32" s="3">
-        <v>-33900</v>
+        <v>-32700</v>
       </c>
       <c r="K32" s="3">
         <v>130400</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>581400</v>
+        <v>562300</v>
       </c>
       <c r="E33" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="F33" s="3">
-        <v>1061200</v>
+        <v>1026400</v>
       </c>
       <c r="G33" s="3">
-        <v>803200</v>
+        <v>776800</v>
       </c>
       <c r="H33" s="3">
-        <v>640900</v>
+        <v>619900</v>
       </c>
       <c r="I33" s="3">
-        <v>598900</v>
+        <v>579200</v>
       </c>
       <c r="J33" s="3">
-        <v>565000</v>
+        <v>546500</v>
       </c>
       <c r="K33" s="3">
         <v>797900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>581400</v>
+        <v>562300</v>
       </c>
       <c r="E35" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="F35" s="3">
-        <v>1061200</v>
+        <v>1026400</v>
       </c>
       <c r="G35" s="3">
-        <v>803200</v>
+        <v>776800</v>
       </c>
       <c r="H35" s="3">
-        <v>640900</v>
+        <v>619900</v>
       </c>
       <c r="I35" s="3">
-        <v>598900</v>
+        <v>579200</v>
       </c>
       <c r="J35" s="3">
-        <v>565000</v>
+        <v>546500</v>
       </c>
       <c r="K35" s="3">
         <v>797900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>750600</v>
+        <v>726000</v>
       </c>
       <c r="E41" s="3">
-        <v>198500</v>
+        <v>191900</v>
       </c>
       <c r="F41" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="G41" s="3">
-        <v>354900</v>
+        <v>343200</v>
       </c>
       <c r="H41" s="3">
-        <v>325700</v>
+        <v>315000</v>
       </c>
       <c r="I41" s="3">
-        <v>471600</v>
+        <v>456200</v>
       </c>
       <c r="J41" s="3">
-        <v>652600</v>
+        <v>631200</v>
       </c>
       <c r="K41" s="3">
         <v>410300</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1027300</v>
+        <v>993600</v>
       </c>
       <c r="E42" s="3">
-        <v>170400</v>
+        <v>164800</v>
       </c>
       <c r="F42" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="G42" s="3">
-        <v>65400</v>
+        <v>63200</v>
       </c>
       <c r="H42" s="3">
-        <v>124900</v>
+        <v>120800</v>
       </c>
       <c r="I42" s="3">
-        <v>91100</v>
+        <v>88100</v>
       </c>
       <c r="J42" s="3">
-        <v>37400</v>
+        <v>36100</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1877200</v>
+        <v>1815600</v>
       </c>
       <c r="E43" s="3">
-        <v>2298600</v>
+        <v>2223200</v>
       </c>
       <c r="F43" s="3">
-        <v>2234400</v>
+        <v>2161100</v>
       </c>
       <c r="G43" s="3">
-        <v>2602200</v>
+        <v>2516800</v>
       </c>
       <c r="H43" s="3">
-        <v>2650000</v>
+        <v>2563100</v>
       </c>
       <c r="I43" s="3">
-        <v>4500400</v>
+        <v>4352700</v>
       </c>
       <c r="J43" s="3">
-        <v>4859900</v>
+        <v>4700400</v>
       </c>
       <c r="K43" s="3">
         <v>1918700</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>795000</v>
+        <v>768900</v>
       </c>
       <c r="E44" s="3">
-        <v>844000</v>
+        <v>816300</v>
       </c>
       <c r="F44" s="3">
-        <v>809000</v>
+        <v>782500</v>
       </c>
       <c r="G44" s="3">
-        <v>758800</v>
+        <v>733900</v>
       </c>
       <c r="H44" s="3">
-        <v>785700</v>
+        <v>759900</v>
       </c>
       <c r="I44" s="3">
-        <v>1258500</v>
+        <v>1217200</v>
       </c>
       <c r="J44" s="3">
-        <v>1326200</v>
+        <v>1282700</v>
       </c>
       <c r="K44" s="3">
         <v>540700</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>308200</v>
+        <v>298100</v>
       </c>
       <c r="E45" s="3">
-        <v>110900</v>
+        <v>107300</v>
       </c>
       <c r="F45" s="3">
-        <v>87600</v>
+        <v>84700</v>
       </c>
       <c r="G45" s="3">
-        <v>87600</v>
+        <v>84700</v>
       </c>
       <c r="H45" s="3">
-        <v>112100</v>
+        <v>108400</v>
       </c>
       <c r="I45" s="3">
-        <v>359600</v>
+        <v>347800</v>
       </c>
       <c r="J45" s="3">
-        <v>531200</v>
+        <v>513700</v>
       </c>
       <c r="K45" s="3">
         <v>202200</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4758400</v>
+        <v>4602200</v>
       </c>
       <c r="E46" s="3">
-        <v>3622500</v>
+        <v>3503600</v>
       </c>
       <c r="F46" s="3">
-        <v>3491700</v>
+        <v>3377100</v>
       </c>
       <c r="G46" s="3">
-        <v>3868800</v>
+        <v>3741800</v>
       </c>
       <c r="H46" s="3">
-        <v>3998400</v>
+        <v>3867200</v>
       </c>
       <c r="I46" s="3">
-        <v>2198200</v>
+        <v>2126100</v>
       </c>
       <c r="J46" s="3">
-        <v>2344200</v>
+        <v>2267200</v>
       </c>
       <c r="K46" s="3">
         <v>3071800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4506200</v>
+        <v>4358300</v>
       </c>
       <c r="E48" s="3">
-        <v>4909000</v>
+        <v>4747900</v>
       </c>
       <c r="F48" s="3">
-        <v>4538900</v>
+        <v>4389900</v>
       </c>
       <c r="G48" s="3">
-        <v>4479400</v>
+        <v>4332400</v>
       </c>
       <c r="H48" s="3">
-        <v>4661500</v>
+        <v>4508500</v>
       </c>
       <c r="I48" s="3">
-        <v>6191900</v>
+        <v>5988700</v>
       </c>
       <c r="J48" s="3">
-        <v>6358900</v>
+        <v>6150200</v>
       </c>
       <c r="K48" s="3">
         <v>2814700</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12761000</v>
+        <v>12342200</v>
       </c>
       <c r="E49" s="3">
-        <v>12871900</v>
+        <v>12449500</v>
       </c>
       <c r="F49" s="3">
-        <v>12727100</v>
+        <v>12309400</v>
       </c>
       <c r="G49" s="3">
-        <v>12729400</v>
+        <v>12311700</v>
       </c>
       <c r="H49" s="3">
-        <v>12574200</v>
+        <v>12161500</v>
       </c>
       <c r="I49" s="3">
-        <v>11622700</v>
+        <v>11241300</v>
       </c>
       <c r="J49" s="3">
-        <v>11671800</v>
+        <v>11288700</v>
       </c>
       <c r="K49" s="3">
         <v>4937900</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>431900</v>
+        <v>417800</v>
       </c>
       <c r="E52" s="3">
-        <v>409800</v>
+        <v>396300</v>
       </c>
       <c r="F52" s="3">
-        <v>507800</v>
+        <v>491200</v>
       </c>
       <c r="G52" s="3">
-        <v>162300</v>
+        <v>156900</v>
       </c>
       <c r="H52" s="3">
-        <v>442400</v>
+        <v>427900</v>
       </c>
       <c r="I52" s="3">
-        <v>426100</v>
+        <v>412100</v>
       </c>
       <c r="J52" s="3">
-        <v>510200</v>
+        <v>493400</v>
       </c>
       <c r="K52" s="3">
         <v>569400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22457500</v>
+        <v>21720500</v>
       </c>
       <c r="E54" s="3">
-        <v>21813100</v>
+        <v>21097200</v>
       </c>
       <c r="F54" s="3">
-        <v>21265500</v>
+        <v>20567700</v>
       </c>
       <c r="G54" s="3">
-        <v>21239900</v>
+        <v>20542800</v>
       </c>
       <c r="H54" s="3">
-        <v>21676500</v>
+        <v>20965100</v>
       </c>
       <c r="I54" s="3">
-        <v>8167200</v>
+        <v>7899200</v>
       </c>
       <c r="J54" s="3">
-        <v>8227900</v>
+        <v>7957900</v>
       </c>
       <c r="K54" s="3">
         <v>11393800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1312200</v>
+        <v>1269100</v>
       </c>
       <c r="E57" s="3">
-        <v>1328500</v>
+        <v>1284900</v>
       </c>
       <c r="F57" s="3">
-        <v>1290000</v>
+        <v>1247700</v>
       </c>
       <c r="G57" s="3">
-        <v>1234000</v>
+        <v>1193500</v>
       </c>
       <c r="H57" s="3">
-        <v>1055300</v>
+        <v>1020700</v>
       </c>
       <c r="I57" s="3">
-        <v>2824000</v>
+        <v>2731300</v>
       </c>
       <c r="J57" s="3">
-        <v>2950000</v>
+        <v>2853200</v>
       </c>
       <c r="K57" s="3">
         <v>754800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>939800</v>
+        <v>908900</v>
       </c>
       <c r="E58" s="3">
-        <v>932800</v>
+        <v>902200</v>
       </c>
       <c r="F58" s="3">
-        <v>573200</v>
+        <v>554400</v>
       </c>
       <c r="G58" s="3">
-        <v>319900</v>
+        <v>309400</v>
       </c>
       <c r="H58" s="3">
-        <v>1021500</v>
+        <v>988000</v>
       </c>
       <c r="I58" s="3">
-        <v>1018000</v>
+        <v>984600</v>
       </c>
       <c r="J58" s="3">
-        <v>1348400</v>
+        <v>1304100</v>
       </c>
       <c r="K58" s="3">
         <v>132800</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2581100</v>
+        <v>2496400</v>
       </c>
       <c r="E59" s="3">
-        <v>2542600</v>
+        <v>2459200</v>
       </c>
       <c r="F59" s="3">
-        <v>2563600</v>
+        <v>2479500</v>
       </c>
       <c r="G59" s="3">
-        <v>2283500</v>
+        <v>2208500</v>
       </c>
       <c r="H59" s="3">
-        <v>2303300</v>
+        <v>2227700</v>
       </c>
       <c r="I59" s="3">
-        <v>2898700</v>
+        <v>2803600</v>
       </c>
       <c r="J59" s="3">
-        <v>2999100</v>
+        <v>2900700</v>
       </c>
       <c r="K59" s="3">
         <v>1738100</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4833100</v>
+        <v>4674500</v>
       </c>
       <c r="E60" s="3">
-        <v>4803900</v>
+        <v>4646200</v>
       </c>
       <c r="F60" s="3">
-        <v>4426800</v>
+        <v>4281500</v>
       </c>
       <c r="G60" s="3">
-        <v>3837300</v>
+        <v>3711400</v>
       </c>
       <c r="H60" s="3">
-        <v>4380100</v>
+        <v>4236400</v>
       </c>
       <c r="I60" s="3">
-        <v>2341800</v>
+        <v>2265000</v>
       </c>
       <c r="J60" s="3">
-        <v>2515800</v>
+        <v>2433200</v>
       </c>
       <c r="K60" s="3">
         <v>2625700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7450400</v>
+        <v>7205900</v>
       </c>
       <c r="E61" s="3">
-        <v>6563200</v>
+        <v>6347800</v>
       </c>
       <c r="F61" s="3">
-        <v>5985300</v>
+        <v>5788900</v>
       </c>
       <c r="G61" s="3">
-        <v>6390400</v>
+        <v>6180700</v>
       </c>
       <c r="H61" s="3">
-        <v>6493100</v>
+        <v>6280100</v>
       </c>
       <c r="I61" s="3">
-        <v>3644700</v>
+        <v>3525100</v>
       </c>
       <c r="J61" s="3">
-        <v>3188200</v>
+        <v>3083600</v>
       </c>
       <c r="K61" s="3">
         <v>4457000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3140300</v>
+        <v>3037300</v>
       </c>
       <c r="E62" s="3">
-        <v>3259400</v>
+        <v>3152400</v>
       </c>
       <c r="F62" s="3">
-        <v>3190500</v>
+        <v>3085800</v>
       </c>
       <c r="G62" s="3">
-        <v>3208000</v>
+        <v>3102800</v>
       </c>
       <c r="H62" s="3">
-        <v>3260600</v>
+        <v>3153600</v>
       </c>
       <c r="I62" s="3">
-        <v>2460900</v>
+        <v>2380100</v>
       </c>
       <c r="J62" s="3">
-        <v>2536800</v>
+        <v>2453500</v>
       </c>
       <c r="K62" s="3">
         <v>1583800</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15423800</v>
+        <v>14917700</v>
       </c>
       <c r="E66" s="3">
-        <v>14626500</v>
+        <v>14146500</v>
       </c>
       <c r="F66" s="3">
-        <v>13602700</v>
+        <v>13156300</v>
       </c>
       <c r="G66" s="3">
-        <v>13435700</v>
+        <v>12994800</v>
       </c>
       <c r="H66" s="3">
-        <v>14133800</v>
+        <v>13670000</v>
       </c>
       <c r="I66" s="3">
-        <v>7150400</v>
+        <v>6915700</v>
       </c>
       <c r="J66" s="3">
-        <v>6842200</v>
+        <v>6617700</v>
       </c>
       <c r="K66" s="3">
         <v>8666500</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7430600</v>
+        <v>7186700</v>
       </c>
       <c r="E72" s="3">
-        <v>7497100</v>
+        <v>7251100</v>
       </c>
       <c r="F72" s="3">
-        <v>8124000</v>
+        <v>7857400</v>
       </c>
       <c r="G72" s="3">
-        <v>8237200</v>
+        <v>7966900</v>
       </c>
       <c r="H72" s="3">
-        <v>7892900</v>
+        <v>7633800</v>
       </c>
       <c r="I72" s="3">
-        <v>4617100</v>
+        <v>4465600</v>
       </c>
       <c r="J72" s="3">
-        <v>3898000</v>
+        <v>3770100</v>
       </c>
       <c r="K72" s="3">
         <v>1886400</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7033600</v>
+        <v>6802800</v>
       </c>
       <c r="E76" s="3">
-        <v>7186600</v>
+        <v>6950700</v>
       </c>
       <c r="F76" s="3">
-        <v>7662900</v>
+        <v>7411400</v>
       </c>
       <c r="G76" s="3">
-        <v>7804100</v>
+        <v>7548000</v>
       </c>
       <c r="H76" s="3">
-        <v>7542600</v>
+        <v>7295100</v>
       </c>
       <c r="I76" s="3">
-        <v>1016800</v>
+        <v>983400</v>
       </c>
       <c r="J76" s="3">
-        <v>1385700</v>
+        <v>1340200</v>
       </c>
       <c r="K76" s="3">
         <v>2727300</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>581400</v>
+        <v>562300</v>
       </c>
       <c r="E81" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="F81" s="3">
-        <v>1061200</v>
+        <v>1026400</v>
       </c>
       <c r="G81" s="3">
-        <v>803200</v>
+        <v>776800</v>
       </c>
       <c r="H81" s="3">
-        <v>640900</v>
+        <v>619900</v>
       </c>
       <c r="I81" s="3">
-        <v>598900</v>
+        <v>579200</v>
       </c>
       <c r="J81" s="3">
-        <v>565000</v>
+        <v>546500</v>
       </c>
       <c r="K81" s="3">
         <v>797900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>848700</v>
+        <v>820900</v>
       </c>
       <c r="E83" s="3">
-        <v>746000</v>
+        <v>721500</v>
       </c>
       <c r="F83" s="3">
-        <v>597700</v>
+        <v>578100</v>
       </c>
       <c r="G83" s="3">
-        <v>572000</v>
+        <v>553300</v>
       </c>
       <c r="H83" s="3">
-        <v>434300</v>
+        <v>420000</v>
       </c>
       <c r="I83" s="3">
-        <v>288400</v>
+        <v>278900</v>
       </c>
       <c r="J83" s="3">
-        <v>272000</v>
+        <v>263100</v>
       </c>
       <c r="K83" s="3">
         <v>368400</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1739400</v>
+        <v>1682400</v>
       </c>
       <c r="E89" s="3">
-        <v>2222700</v>
+        <v>2149800</v>
       </c>
       <c r="F89" s="3">
-        <v>2108300</v>
+        <v>2039200</v>
       </c>
       <c r="G89" s="3">
-        <v>1894700</v>
+        <v>1832500</v>
       </c>
       <c r="H89" s="3">
-        <v>1452300</v>
+        <v>1404600</v>
       </c>
       <c r="I89" s="3">
-        <v>1076400</v>
+        <v>1041000</v>
       </c>
       <c r="J89" s="3">
-        <v>951400</v>
+        <v>920200</v>
       </c>
       <c r="K89" s="3">
         <v>996400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-406300</v>
+        <v>-392900</v>
       </c>
       <c r="E91" s="3">
-        <v>-590700</v>
+        <v>-571300</v>
       </c>
       <c r="F91" s="3">
-        <v>-612900</v>
+        <v>-592800</v>
       </c>
       <c r="G91" s="3">
-        <v>-565000</v>
+        <v>-546500</v>
       </c>
       <c r="H91" s="3">
-        <v>-535800</v>
+        <v>-518300</v>
       </c>
       <c r="I91" s="3">
-        <v>-715600</v>
+        <v>-692100</v>
       </c>
       <c r="J91" s="3">
-        <v>-646700</v>
+        <v>-625500</v>
       </c>
       <c r="K91" s="3">
         <v>-374400</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-431900</v>
+        <v>-417800</v>
       </c>
       <c r="E94" s="3">
-        <v>-699300</v>
+        <v>-676300</v>
       </c>
       <c r="F94" s="3">
-        <v>-695800</v>
+        <v>-672900</v>
       </c>
       <c r="G94" s="3">
-        <v>-569700</v>
+        <v>-551000</v>
       </c>
       <c r="H94" s="3">
-        <v>-447100</v>
+        <v>-432400</v>
       </c>
       <c r="I94" s="3">
-        <v>-317500</v>
+        <v>-307100</v>
       </c>
       <c r="J94" s="3">
-        <v>-241700</v>
+        <v>-233700</v>
       </c>
       <c r="K94" s="3">
         <v>-394700</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-450600</v>
+        <v>-435800</v>
       </c>
       <c r="E96" s="3">
-        <v>-670100</v>
+        <v>-648100</v>
       </c>
       <c r="F96" s="3">
-        <v>-598900</v>
+        <v>-579200</v>
       </c>
       <c r="G96" s="3">
-        <v>-570900</v>
+        <v>-552100</v>
       </c>
       <c r="H96" s="3">
-        <v>-238200</v>
+        <v>-230300</v>
       </c>
       <c r="I96" s="3">
-        <v>-570900</v>
+        <v>-552100</v>
       </c>
       <c r="J96" s="3">
-        <v>-503200</v>
+        <v>-486600</v>
       </c>
       <c r="K96" s="3">
         <v>-254800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>116700</v>
+        <v>112900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1520000</v>
+        <v>-1470100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1469800</v>
+        <v>-1421500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1344900</v>
+        <v>-1300700</v>
       </c>
       <c r="H100" s="3">
-        <v>-730800</v>
+        <v>-706800</v>
       </c>
       <c r="I100" s="3">
-        <v>-799700</v>
+        <v>-773400</v>
       </c>
       <c r="J100" s="3">
-        <v>-790300</v>
+        <v>-764400</v>
       </c>
       <c r="K100" s="3">
         <v>-1071800</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-15200</v>
+        <v>-14700</v>
       </c>
       <c r="E101" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="F101" s="3">
         <v>-2300</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="H101" s="3">
-        <v>-5800</v>
+        <v>-5600</v>
       </c>
       <c r="I101" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="J101" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K101" s="3">
         <v>17900</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1409100</v>
+        <v>1362800</v>
       </c>
       <c r="E102" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="F102" s="3">
-        <v>-59500</v>
+        <v>-57600</v>
       </c>
       <c r="G102" s="3">
-        <v>-30400</v>
+        <v>-29400</v>
       </c>
       <c r="H102" s="3">
-        <v>268500</v>
+        <v>259700</v>
       </c>
       <c r="I102" s="3">
-        <v>-32700</v>
+        <v>-31600</v>
       </c>
       <c r="J102" s="3">
-        <v>-77000</v>
+        <v>-74500</v>
       </c>
       <c r="K102" s="3">
         <v>-452200</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11975200</v>
+        <v>15014200</v>
       </c>
       <c r="E8" s="3">
-        <v>13568400</v>
+        <v>11570200</v>
       </c>
       <c r="F8" s="3">
-        <v>13005000</v>
+        <v>13109500</v>
       </c>
       <c r="G8" s="3">
-        <v>12490100</v>
+        <v>12565100</v>
       </c>
       <c r="H8" s="3">
-        <v>10312100</v>
+        <v>12067600</v>
       </c>
       <c r="I8" s="3">
-        <v>7146100</v>
+        <v>9963300</v>
       </c>
       <c r="J8" s="3">
+        <v>6904400</v>
+      </c>
+      <c r="K8" s="3">
         <v>7019600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9823200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8852100</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7655300</v>
+        <v>9394900</v>
       </c>
       <c r="E9" s="3">
-        <v>8354200</v>
+        <v>7396400</v>
       </c>
       <c r="F9" s="3">
-        <v>7918400</v>
+        <v>8071600</v>
       </c>
       <c r="G9" s="3">
-        <v>7618000</v>
+        <v>7650600</v>
       </c>
       <c r="H9" s="3">
-        <v>6304900</v>
+        <v>7360400</v>
       </c>
       <c r="I9" s="3">
-        <v>14085500</v>
+        <v>6091600</v>
       </c>
       <c r="J9" s="3">
+        <v>13609100</v>
+      </c>
+      <c r="K9" s="3">
         <v>14979800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6399700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5667900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4319900</v>
+        <v>5619300</v>
       </c>
       <c r="E10" s="3">
-        <v>5214200</v>
+        <v>4173800</v>
       </c>
       <c r="F10" s="3">
-        <v>5086600</v>
+        <v>5037800</v>
       </c>
       <c r="G10" s="3">
-        <v>4872100</v>
+        <v>4914500</v>
       </c>
       <c r="H10" s="3">
-        <v>4007200</v>
+        <v>4707300</v>
       </c>
       <c r="I10" s="3">
-        <v>-6939400</v>
+        <v>3871600</v>
       </c>
       <c r="J10" s="3">
+        <v>-6704700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-7960200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3423500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3184200</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>102700</v>
+        <v>70900</v>
       </c>
       <c r="E14" s="3">
-        <v>28200</v>
+        <v>99300</v>
       </c>
       <c r="F14" s="3">
-        <v>53100</v>
+        <v>27300</v>
       </c>
       <c r="G14" s="3">
-        <v>28200</v>
-      </c>
-      <c r="H14" s="3" t="s">
+        <v>51300</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27300</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>73400</v>
-      </c>
       <c r="J14" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K14" s="3">
         <v>91500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>143500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>93300</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>70000</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>49700</v>
+        <v>67600</v>
       </c>
       <c r="F15" s="3">
-        <v>48600</v>
+        <v>48000</v>
       </c>
       <c r="G15" s="3">
-        <v>42900</v>
+        <v>46900</v>
       </c>
       <c r="H15" s="3">
-        <v>37300</v>
+        <v>41500</v>
       </c>
       <c r="I15" s="3">
-        <v>212300</v>
+        <v>36000</v>
       </c>
       <c r="J15" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K15" s="3">
         <v>238200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>227300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>235000</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11057300</v>
+        <v>13360400</v>
       </c>
       <c r="E17" s="3">
-        <v>11820500</v>
+        <v>10683300</v>
       </c>
       <c r="F17" s="3">
-        <v>11537100</v>
+        <v>11420700</v>
       </c>
       <c r="G17" s="3">
-        <v>11067400</v>
+        <v>11146900</v>
       </c>
       <c r="H17" s="3">
-        <v>9351200</v>
+        <v>10693100</v>
       </c>
       <c r="I17" s="3">
-        <v>6289100</v>
+        <v>9034900</v>
       </c>
       <c r="J17" s="3">
+        <v>6076400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6176200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8729900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7833100</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>918000</v>
+        <v>1653800</v>
       </c>
       <c r="E18" s="3">
-        <v>1747800</v>
+        <v>886900</v>
       </c>
       <c r="F18" s="3">
-        <v>1467800</v>
+        <v>1688700</v>
       </c>
       <c r="G18" s="3">
-        <v>1422700</v>
+        <v>1418200</v>
       </c>
       <c r="H18" s="3">
-        <v>960900</v>
+        <v>1374500</v>
       </c>
       <c r="I18" s="3">
-        <v>857000</v>
+        <v>928400</v>
       </c>
       <c r="J18" s="3">
+        <v>828000</v>
+      </c>
+      <c r="K18" s="3">
         <v>843400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1093300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1018900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>20300</v>
+        <v>-146200</v>
       </c>
       <c r="E20" s="3">
-        <v>48600</v>
+        <v>19600</v>
       </c>
       <c r="F20" s="3">
-        <v>44000</v>
+        <v>46900</v>
       </c>
       <c r="G20" s="3">
-        <v>45200</v>
+        <v>42500</v>
       </c>
       <c r="H20" s="3">
-        <v>14700</v>
+        <v>43600</v>
       </c>
       <c r="I20" s="3">
-        <v>13500</v>
+        <v>14200</v>
       </c>
       <c r="J20" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K20" s="3">
         <v>32700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-130400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3300</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1761000</v>
+        <v>2373700</v>
       </c>
       <c r="E21" s="3">
-        <v>2519600</v>
+        <v>1711700</v>
       </c>
       <c r="F21" s="3">
-        <v>2091300</v>
+        <v>2443300</v>
       </c>
       <c r="G21" s="3">
-        <v>2022400</v>
+        <v>2027800</v>
       </c>
       <c r="H21" s="3">
-        <v>1396500</v>
+        <v>1960900</v>
       </c>
       <c r="I21" s="3">
-        <v>1150100</v>
+        <v>1354500</v>
       </c>
       <c r="J21" s="3">
+        <v>1114600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1139900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1329900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1390600</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>153600</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>154700</v>
+        <v>148400</v>
       </c>
       <c r="F22" s="3">
-        <v>151300</v>
+        <v>149500</v>
       </c>
       <c r="G22" s="3">
-        <v>159200</v>
+        <v>146200</v>
       </c>
       <c r="H22" s="3">
-        <v>163700</v>
+        <v>153800</v>
       </c>
       <c r="I22" s="3">
-        <v>143400</v>
+        <v>158200</v>
       </c>
       <c r="J22" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K22" s="3">
         <v>133200</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>103200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>784700</v>
+        <v>1507600</v>
       </c>
       <c r="E23" s="3">
-        <v>1641700</v>
+        <v>758200</v>
       </c>
       <c r="F23" s="3">
-        <v>1360600</v>
+        <v>1586200</v>
       </c>
       <c r="G23" s="3">
-        <v>1308600</v>
+        <v>1314500</v>
       </c>
       <c r="H23" s="3">
-        <v>811800</v>
+        <v>1264400</v>
       </c>
       <c r="I23" s="3">
-        <v>727100</v>
+        <v>784400</v>
       </c>
       <c r="J23" s="3">
+        <v>702500</v>
+      </c>
+      <c r="K23" s="3">
         <v>742900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>962900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>919000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>222400</v>
+        <v>429800</v>
       </c>
       <c r="E24" s="3">
-        <v>411000</v>
+        <v>214900</v>
       </c>
       <c r="F24" s="3">
-        <v>364700</v>
+        <v>397100</v>
       </c>
       <c r="G24" s="3">
-        <v>170500</v>
+        <v>352400</v>
       </c>
       <c r="H24" s="3">
-        <v>191900</v>
+        <v>164700</v>
       </c>
       <c r="I24" s="3">
-        <v>147900</v>
+        <v>185500</v>
       </c>
       <c r="J24" s="3">
+        <v>142900</v>
+      </c>
+      <c r="K24" s="3">
         <v>196500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>165100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>175700</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>562300</v>
+        <v>1077800</v>
       </c>
       <c r="E26" s="3">
-        <v>1230700</v>
+        <v>543300</v>
       </c>
       <c r="F26" s="3">
-        <v>995900</v>
+        <v>1189100</v>
       </c>
       <c r="G26" s="3">
-        <v>1138100</v>
+        <v>962200</v>
       </c>
       <c r="H26" s="3">
-        <v>619900</v>
+        <v>1099600</v>
       </c>
       <c r="I26" s="3">
-        <v>579200</v>
+        <v>598900</v>
       </c>
       <c r="J26" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K26" s="3">
         <v>546500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>797900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>743300</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>562300</v>
+        <v>1071300</v>
       </c>
       <c r="E27" s="3">
-        <v>1230700</v>
+        <v>543300</v>
       </c>
       <c r="F27" s="3">
-        <v>995900</v>
+        <v>1189100</v>
       </c>
       <c r="G27" s="3">
-        <v>1138100</v>
+        <v>962200</v>
       </c>
       <c r="H27" s="3">
-        <v>619900</v>
+        <v>1099600</v>
       </c>
       <c r="I27" s="3">
-        <v>579200</v>
+        <v>598900</v>
       </c>
       <c r="J27" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K27" s="3">
         <v>546500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>797900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>743300</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,14 +1418,14 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>30500</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-361300</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>29500</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-349100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-20300</v>
+        <v>146200</v>
       </c>
       <c r="E32" s="3">
-        <v>-48600</v>
+        <v>-19600</v>
       </c>
       <c r="F32" s="3">
-        <v>-44000</v>
+        <v>-46900</v>
       </c>
       <c r="G32" s="3">
-        <v>-45200</v>
+        <v>-42500</v>
       </c>
       <c r="H32" s="3">
-        <v>-14700</v>
+        <v>-43600</v>
       </c>
       <c r="I32" s="3">
-        <v>-13500</v>
+        <v>-14200</v>
       </c>
       <c r="J32" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>130400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3300</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>562300</v>
+        <v>1071300</v>
       </c>
       <c r="E33" s="3">
-        <v>1230700</v>
+        <v>543300</v>
       </c>
       <c r="F33" s="3">
-        <v>1026400</v>
+        <v>1189100</v>
       </c>
       <c r="G33" s="3">
-        <v>776800</v>
+        <v>991600</v>
       </c>
       <c r="H33" s="3">
-        <v>619900</v>
+        <v>750500</v>
       </c>
       <c r="I33" s="3">
-        <v>579200</v>
+        <v>598900</v>
       </c>
       <c r="J33" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K33" s="3">
         <v>546500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>797900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>743300</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>562300</v>
+        <v>1071300</v>
       </c>
       <c r="E35" s="3">
-        <v>1230700</v>
+        <v>543300</v>
       </c>
       <c r="F35" s="3">
-        <v>1026400</v>
+        <v>1189100</v>
       </c>
       <c r="G35" s="3">
-        <v>776800</v>
+        <v>991600</v>
       </c>
       <c r="H35" s="3">
-        <v>619900</v>
+        <v>750500</v>
       </c>
       <c r="I35" s="3">
-        <v>579200</v>
+        <v>598900</v>
       </c>
       <c r="J35" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K35" s="3">
         <v>546500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>797900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>743300</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,206 +1731,225 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>726000</v>
+        <v>1534900</v>
       </c>
       <c r="E41" s="3">
-        <v>191900</v>
+        <v>701500</v>
       </c>
       <c r="F41" s="3">
-        <v>315000</v>
+        <v>185500</v>
       </c>
       <c r="G41" s="3">
-        <v>343200</v>
+        <v>304400</v>
       </c>
       <c r="H41" s="3">
-        <v>315000</v>
+        <v>331600</v>
       </c>
       <c r="I41" s="3">
-        <v>456200</v>
+        <v>304400</v>
       </c>
       <c r="J41" s="3">
+        <v>440700</v>
+      </c>
+      <c r="K41" s="3">
         <v>631200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>410300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>791700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>993600</v>
+        <v>63300</v>
       </c>
       <c r="E42" s="3">
-        <v>164800</v>
+        <v>960000</v>
       </c>
       <c r="F42" s="3">
-        <v>33900</v>
+        <v>159300</v>
       </c>
       <c r="G42" s="3">
-        <v>63200</v>
+        <v>32700</v>
       </c>
       <c r="H42" s="3">
-        <v>120800</v>
+        <v>61100</v>
       </c>
       <c r="I42" s="3">
-        <v>88100</v>
+        <v>116700</v>
       </c>
       <c r="J42" s="3">
+        <v>85100</v>
+      </c>
+      <c r="K42" s="3">
         <v>36100</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1815600</v>
+        <v>2720700</v>
       </c>
       <c r="E43" s="3">
-        <v>2223200</v>
+        <v>1754200</v>
       </c>
       <c r="F43" s="3">
-        <v>2161100</v>
+        <v>2148000</v>
       </c>
       <c r="G43" s="3">
-        <v>2516800</v>
+        <v>2088000</v>
       </c>
       <c r="H43" s="3">
-        <v>2563100</v>
+        <v>2431600</v>
       </c>
       <c r="I43" s="3">
-        <v>4352700</v>
+        <v>2476400</v>
       </c>
       <c r="J43" s="3">
+        <v>4205500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4700400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1918700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1644800</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>768900</v>
+        <v>1262200</v>
       </c>
       <c r="E44" s="3">
-        <v>816300</v>
+        <v>742900</v>
       </c>
       <c r="F44" s="3">
-        <v>782500</v>
+        <v>788700</v>
       </c>
       <c r="G44" s="3">
-        <v>733900</v>
+        <v>756000</v>
       </c>
       <c r="H44" s="3">
-        <v>759900</v>
+        <v>709100</v>
       </c>
       <c r="I44" s="3">
-        <v>1217200</v>
+        <v>734200</v>
       </c>
       <c r="J44" s="3">
+        <v>1176000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1282700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>540700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>423800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>298100</v>
+        <v>702500</v>
       </c>
       <c r="E45" s="3">
-        <v>107300</v>
+        <v>288000</v>
       </c>
       <c r="F45" s="3">
-        <v>84700</v>
+        <v>103600</v>
       </c>
       <c r="G45" s="3">
-        <v>84700</v>
+        <v>81800</v>
       </c>
       <c r="H45" s="3">
-        <v>108400</v>
+        <v>81800</v>
       </c>
       <c r="I45" s="3">
-        <v>347800</v>
+        <v>104700</v>
       </c>
       <c r="J45" s="3">
+        <v>336000</v>
+      </c>
+      <c r="K45" s="3">
         <v>513700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>202200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>172400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4602200</v>
+        <v>6283600</v>
       </c>
       <c r="E46" s="3">
-        <v>3503600</v>
+        <v>4446500</v>
       </c>
       <c r="F46" s="3">
-        <v>3377100</v>
+        <v>3385100</v>
       </c>
       <c r="G46" s="3">
-        <v>3741800</v>
+        <v>3262900</v>
       </c>
       <c r="H46" s="3">
-        <v>3867200</v>
+        <v>3615300</v>
       </c>
       <c r="I46" s="3">
-        <v>2126100</v>
+        <v>3736400</v>
       </c>
       <c r="J46" s="3">
+        <v>2054200</v>
+      </c>
+      <c r="K46" s="3">
         <v>2267200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3071800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3032700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4358300</v>
+        <v>5725100</v>
       </c>
       <c r="E48" s="3">
-        <v>4747900</v>
+        <v>4210900</v>
       </c>
       <c r="F48" s="3">
-        <v>4389900</v>
+        <v>4587300</v>
       </c>
       <c r="G48" s="3">
-        <v>4332400</v>
+        <v>4241500</v>
       </c>
       <c r="H48" s="3">
-        <v>4508500</v>
+        <v>4185800</v>
       </c>
       <c r="I48" s="3">
-        <v>5988700</v>
+        <v>4356000</v>
       </c>
       <c r="J48" s="3">
+        <v>5786200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6150200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2814700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2549600</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12342200</v>
+        <v>18831300</v>
       </c>
       <c r="E49" s="3">
-        <v>12449500</v>
+        <v>11924700</v>
       </c>
       <c r="F49" s="3">
-        <v>12309400</v>
+        <v>12028400</v>
       </c>
       <c r="G49" s="3">
-        <v>12311700</v>
+        <v>11893100</v>
       </c>
       <c r="H49" s="3">
-        <v>12161500</v>
+        <v>11895300</v>
       </c>
       <c r="I49" s="3">
-        <v>11241300</v>
+        <v>11750200</v>
       </c>
       <c r="J49" s="3">
+        <v>10861100</v>
+      </c>
+      <c r="K49" s="3">
         <v>11288700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4937900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4452400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>417800</v>
+        <v>894500</v>
       </c>
       <c r="E52" s="3">
-        <v>396300</v>
+        <v>403600</v>
       </c>
       <c r="F52" s="3">
-        <v>491200</v>
+        <v>382900</v>
       </c>
       <c r="G52" s="3">
-        <v>156900</v>
+        <v>474500</v>
       </c>
       <c r="H52" s="3">
-        <v>427900</v>
+        <v>151600</v>
       </c>
       <c r="I52" s="3">
-        <v>412100</v>
+        <v>413500</v>
       </c>
       <c r="J52" s="3">
+        <v>398200</v>
+      </c>
+      <c r="K52" s="3">
         <v>493400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>569400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>407400</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21720500</v>
+        <v>31734600</v>
       </c>
       <c r="E54" s="3">
-        <v>21097200</v>
+        <v>20985800</v>
       </c>
       <c r="F54" s="3">
-        <v>20567700</v>
+        <v>20383700</v>
       </c>
       <c r="G54" s="3">
-        <v>20542800</v>
+        <v>19872000</v>
       </c>
       <c r="H54" s="3">
-        <v>20965100</v>
+        <v>19848000</v>
       </c>
       <c r="I54" s="3">
-        <v>7899200</v>
+        <v>20256000</v>
       </c>
       <c r="J54" s="3">
+        <v>7632000</v>
+      </c>
+      <c r="K54" s="3">
         <v>7957900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11393800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10442000</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1269100</v>
+        <v>4622200</v>
       </c>
       <c r="E57" s="3">
-        <v>1284900</v>
+        <v>1226200</v>
       </c>
       <c r="F57" s="3">
-        <v>1247700</v>
+        <v>1241500</v>
       </c>
       <c r="G57" s="3">
-        <v>1193500</v>
+        <v>1205500</v>
       </c>
       <c r="H57" s="3">
-        <v>1020700</v>
+        <v>1153100</v>
       </c>
       <c r="I57" s="3">
-        <v>2731300</v>
+        <v>986200</v>
       </c>
       <c r="J57" s="3">
+        <v>2638900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2853200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>754800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1481200</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>908900</v>
+        <v>1472700</v>
       </c>
       <c r="E58" s="3">
-        <v>902200</v>
+        <v>878200</v>
       </c>
       <c r="F58" s="3">
-        <v>554400</v>
+        <v>871600</v>
       </c>
       <c r="G58" s="3">
-        <v>309400</v>
+        <v>535600</v>
       </c>
       <c r="H58" s="3">
-        <v>988000</v>
+        <v>298900</v>
       </c>
       <c r="I58" s="3">
-        <v>984600</v>
+        <v>954500</v>
       </c>
       <c r="J58" s="3">
+        <v>951300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1304100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>132800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>693900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2496400</v>
+        <v>552000</v>
       </c>
       <c r="E59" s="3">
-        <v>2459200</v>
+        <v>2412000</v>
       </c>
       <c r="F59" s="3">
-        <v>2479500</v>
+        <v>2376000</v>
       </c>
       <c r="G59" s="3">
-        <v>2208500</v>
+        <v>2395600</v>
       </c>
       <c r="H59" s="3">
-        <v>2227700</v>
+        <v>2133800</v>
       </c>
       <c r="I59" s="3">
-        <v>2803600</v>
+        <v>2152400</v>
       </c>
       <c r="J59" s="3">
+        <v>2708700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2900700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1738100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>656600</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4674500</v>
+        <v>6646900</v>
       </c>
       <c r="E60" s="3">
-        <v>4646200</v>
+        <v>4516400</v>
       </c>
       <c r="F60" s="3">
-        <v>4281500</v>
+        <v>4489100</v>
       </c>
       <c r="G60" s="3">
-        <v>3711400</v>
+        <v>4136700</v>
       </c>
       <c r="H60" s="3">
-        <v>4236400</v>
+        <v>3585800</v>
       </c>
       <c r="I60" s="3">
-        <v>2265000</v>
+        <v>4093100</v>
       </c>
       <c r="J60" s="3">
+        <v>2188400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2433200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2625700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2831700</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7205900</v>
+        <v>12861800</v>
       </c>
       <c r="E61" s="3">
-        <v>6347800</v>
+        <v>6962200</v>
       </c>
       <c r="F61" s="3">
-        <v>5788900</v>
+        <v>6133100</v>
       </c>
       <c r="G61" s="3">
-        <v>6180700</v>
+        <v>5593100</v>
       </c>
       <c r="H61" s="3">
-        <v>6280100</v>
+        <v>5971600</v>
       </c>
       <c r="I61" s="3">
-        <v>3525100</v>
+        <v>6067600</v>
       </c>
       <c r="J61" s="3">
+        <v>3405800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3083600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4457000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3111700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3037300</v>
+        <v>4360400</v>
       </c>
       <c r="E62" s="3">
-        <v>3152400</v>
+        <v>2934500</v>
       </c>
       <c r="F62" s="3">
-        <v>3085800</v>
+        <v>3045800</v>
       </c>
       <c r="G62" s="3">
-        <v>3102800</v>
+        <v>2981500</v>
       </c>
       <c r="H62" s="3">
-        <v>3153600</v>
+        <v>2997800</v>
       </c>
       <c r="I62" s="3">
-        <v>2380100</v>
+        <v>3046900</v>
       </c>
       <c r="J62" s="3">
+        <v>2299600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2453500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1583800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1541600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>14917700</v>
+        <v>24062200</v>
       </c>
       <c r="E66" s="3">
-        <v>14146500</v>
+        <v>14413100</v>
       </c>
       <c r="F66" s="3">
-        <v>13156300</v>
+        <v>13668000</v>
       </c>
       <c r="G66" s="3">
-        <v>12994800</v>
+        <v>12711300</v>
       </c>
       <c r="H66" s="3">
-        <v>13670000</v>
+        <v>12555300</v>
       </c>
       <c r="I66" s="3">
-        <v>6915700</v>
+        <v>13207600</v>
       </c>
       <c r="J66" s="3">
+        <v>6681800</v>
+      </c>
+      <c r="K66" s="3">
         <v>6617700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8666500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7485100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7186700</v>
+        <v>7426900</v>
       </c>
       <c r="E72" s="3">
-        <v>7251100</v>
+        <v>6943600</v>
       </c>
       <c r="F72" s="3">
-        <v>7857400</v>
+        <v>7005800</v>
       </c>
       <c r="G72" s="3">
-        <v>7966900</v>
+        <v>7591600</v>
       </c>
       <c r="H72" s="3">
-        <v>7633800</v>
+        <v>7697500</v>
       </c>
       <c r="I72" s="3">
-        <v>4465600</v>
+        <v>7375600</v>
       </c>
       <c r="J72" s="3">
+        <v>4314500</v>
+      </c>
+      <c r="K72" s="3">
         <v>3770100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1886400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1236300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6802800</v>
+        <v>7672400</v>
       </c>
       <c r="E76" s="3">
-        <v>6950700</v>
+        <v>6572700</v>
       </c>
       <c r="F76" s="3">
-        <v>7411400</v>
+        <v>6715600</v>
       </c>
       <c r="G76" s="3">
-        <v>7548000</v>
+        <v>7160700</v>
       </c>
       <c r="H76" s="3">
-        <v>7295100</v>
+        <v>7292700</v>
       </c>
       <c r="I76" s="3">
-        <v>983400</v>
+        <v>7048400</v>
       </c>
       <c r="J76" s="3">
+        <v>950200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1340200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2727300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2956900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>562300</v>
+        <v>1071300</v>
       </c>
       <c r="E81" s="3">
-        <v>1230700</v>
+        <v>543300</v>
       </c>
       <c r="F81" s="3">
-        <v>1026400</v>
+        <v>1189100</v>
       </c>
       <c r="G81" s="3">
-        <v>776800</v>
+        <v>991600</v>
       </c>
       <c r="H81" s="3">
-        <v>619900</v>
+        <v>750500</v>
       </c>
       <c r="I81" s="3">
-        <v>579200</v>
+        <v>598900</v>
       </c>
       <c r="J81" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K81" s="3">
         <v>546500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>797900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>743300</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>820900</v>
+        <v>853100</v>
       </c>
       <c r="E83" s="3">
-        <v>721500</v>
+        <v>793100</v>
       </c>
       <c r="F83" s="3">
-        <v>578100</v>
+        <v>697100</v>
       </c>
       <c r="G83" s="3">
-        <v>553300</v>
+        <v>558500</v>
       </c>
       <c r="H83" s="3">
-        <v>420000</v>
+        <v>534500</v>
       </c>
       <c r="I83" s="3">
-        <v>278900</v>
+        <v>405800</v>
       </c>
       <c r="J83" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K83" s="3">
         <v>263100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>368400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>367800</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1682400</v>
+        <v>2309500</v>
       </c>
       <c r="E89" s="3">
-        <v>2149800</v>
+        <v>1625500</v>
       </c>
       <c r="F89" s="3">
-        <v>2039200</v>
+        <v>2077100</v>
       </c>
       <c r="G89" s="3">
-        <v>1832500</v>
+        <v>1970200</v>
       </c>
       <c r="H89" s="3">
-        <v>1404600</v>
+        <v>1770500</v>
       </c>
       <c r="I89" s="3">
-        <v>1041000</v>
+        <v>1357100</v>
       </c>
       <c r="J89" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="K89" s="3">
         <v>920200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>996400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1039800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-392900</v>
+        <v>-380700</v>
       </c>
       <c r="E91" s="3">
-        <v>-571300</v>
+        <v>-379600</v>
       </c>
       <c r="F91" s="3">
-        <v>-592800</v>
+        <v>-552000</v>
       </c>
       <c r="G91" s="3">
-        <v>-546500</v>
+        <v>-572700</v>
       </c>
       <c r="H91" s="3">
-        <v>-518300</v>
+        <v>-528000</v>
       </c>
       <c r="I91" s="3">
-        <v>-692100</v>
+        <v>-500700</v>
       </c>
       <c r="J91" s="3">
+        <v>-668700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-625500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-374400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-415000</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6114600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-403600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-653500</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-650200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-532400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-417800</v>
       </c>
-      <c r="E94" s="3">
-        <v>-676300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-672900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-551000</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-432400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-307100</v>
-      </c>
       <c r="J94" s="3">
+        <v>-296700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-233700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-394700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-409600</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-435800</v>
+        <v>-696000</v>
       </c>
       <c r="E96" s="3">
-        <v>-648100</v>
+        <v>-421100</v>
       </c>
       <c r="F96" s="3">
-        <v>-579200</v>
+        <v>-626200</v>
       </c>
       <c r="G96" s="3">
-        <v>-552100</v>
+        <v>-559600</v>
       </c>
       <c r="H96" s="3">
-        <v>-230300</v>
+        <v>-533500</v>
       </c>
       <c r="I96" s="3">
-        <v>-552100</v>
+        <v>-222500</v>
       </c>
       <c r="J96" s="3">
+        <v>-533500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-486600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-254800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-205300</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>112900</v>
+        <v>3588000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1470100</v>
+        <v>109100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1421500</v>
+        <v>-1420400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1300700</v>
+        <v>-1373500</v>
       </c>
       <c r="H100" s="3">
-        <v>-706800</v>
+        <v>-1256700</v>
       </c>
       <c r="I100" s="3">
-        <v>-773400</v>
+        <v>-682900</v>
       </c>
       <c r="J100" s="3">
+        <v>-747300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-764400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1071800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-610500</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-14700</v>
+        <v>90500</v>
       </c>
       <c r="E101" s="3">
-        <v>4500</v>
+        <v>-14200</v>
       </c>
       <c r="F101" s="3">
-        <v>-2300</v>
+        <v>4400</v>
       </c>
       <c r="G101" s="3">
-        <v>-10200</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
-        <v>-5600</v>
+        <v>-9800</v>
       </c>
       <c r="I101" s="3">
-        <v>7900</v>
+        <v>-5500</v>
       </c>
       <c r="J101" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K101" s="3">
         <v>3400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>20900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1362800</v>
+        <v>-126500</v>
       </c>
       <c r="E102" s="3">
-        <v>7900</v>
+        <v>1316700</v>
       </c>
       <c r="F102" s="3">
-        <v>-57600</v>
+        <v>7600</v>
       </c>
       <c r="G102" s="3">
-        <v>-29400</v>
+        <v>-55600</v>
       </c>
       <c r="H102" s="3">
-        <v>259700</v>
+        <v>-28400</v>
       </c>
       <c r="I102" s="3">
-        <v>-31600</v>
+        <v>250900</v>
       </c>
       <c r="J102" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-74500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-452200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>40600</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15014200</v>
+        <v>14284600</v>
       </c>
       <c r="E8" s="3">
-        <v>11570200</v>
+        <v>11008000</v>
       </c>
       <c r="F8" s="3">
-        <v>13109500</v>
+        <v>12472400</v>
       </c>
       <c r="G8" s="3">
-        <v>12565100</v>
+        <v>11954500</v>
       </c>
       <c r="H8" s="3">
-        <v>12067600</v>
+        <v>11481200</v>
       </c>
       <c r="I8" s="3">
-        <v>9963300</v>
+        <v>9479100</v>
       </c>
       <c r="J8" s="3">
-        <v>6904400</v>
+        <v>6568900</v>
       </c>
       <c r="K8" s="3">
         <v>7019600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9394900</v>
+        <v>8945700</v>
       </c>
       <c r="E9" s="3">
-        <v>7396400</v>
+        <v>7037000</v>
       </c>
       <c r="F9" s="3">
-        <v>8071600</v>
+        <v>7679400</v>
       </c>
       <c r="G9" s="3">
-        <v>7650600</v>
+        <v>7278800</v>
       </c>
       <c r="H9" s="3">
-        <v>7360400</v>
+        <v>7002700</v>
       </c>
       <c r="I9" s="3">
-        <v>6091600</v>
+        <v>5795600</v>
       </c>
       <c r="J9" s="3">
-        <v>13609100</v>
+        <v>12947800</v>
       </c>
       <c r="K9" s="3">
         <v>14979800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5619300</v>
+        <v>5339000</v>
       </c>
       <c r="E10" s="3">
-        <v>4173800</v>
+        <v>3971000</v>
       </c>
       <c r="F10" s="3">
-        <v>5037800</v>
+        <v>4793000</v>
       </c>
       <c r="G10" s="3">
-        <v>4914500</v>
+        <v>4675700</v>
       </c>
       <c r="H10" s="3">
-        <v>4707300</v>
+        <v>4478500</v>
       </c>
       <c r="I10" s="3">
-        <v>3871600</v>
+        <v>3683500</v>
       </c>
       <c r="J10" s="3">
-        <v>-6704700</v>
+        <v>-6378900</v>
       </c>
       <c r="K10" s="3">
         <v>-7960200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>70900</v>
+        <v>60200</v>
       </c>
       <c r="E14" s="3">
-        <v>99300</v>
+        <v>94400</v>
       </c>
       <c r="F14" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="G14" s="3">
-        <v>51300</v>
+        <v>48800</v>
       </c>
       <c r="H14" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="K14" s="3">
         <v>91500</v>
@@ -951,26 +951,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>87200</v>
       </c>
       <c r="E15" s="3">
-        <v>67600</v>
+        <v>64300</v>
       </c>
       <c r="F15" s="3">
-        <v>48000</v>
+        <v>45700</v>
       </c>
       <c r="G15" s="3">
-        <v>46900</v>
+        <v>44600</v>
       </c>
       <c r="H15" s="3">
-        <v>41500</v>
+        <v>39400</v>
       </c>
       <c r="I15" s="3">
-        <v>36000</v>
+        <v>34300</v>
       </c>
       <c r="J15" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="K15" s="3">
         <v>238200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13360400</v>
+        <v>12711200</v>
       </c>
       <c r="E17" s="3">
-        <v>10683300</v>
+        <v>10164200</v>
       </c>
       <c r="F17" s="3">
-        <v>11420700</v>
+        <v>10865800</v>
       </c>
       <c r="G17" s="3">
-        <v>11146900</v>
+        <v>10605300</v>
       </c>
       <c r="H17" s="3">
-        <v>10693100</v>
+        <v>10173500</v>
       </c>
       <c r="I17" s="3">
-        <v>9034900</v>
+        <v>8595900</v>
       </c>
       <c r="J17" s="3">
-        <v>6076400</v>
+        <v>5781100</v>
       </c>
       <c r="K17" s="3">
         <v>6176200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1653800</v>
+        <v>1573500</v>
       </c>
       <c r="E18" s="3">
-        <v>886900</v>
+        <v>843800</v>
       </c>
       <c r="F18" s="3">
-        <v>1688700</v>
+        <v>1606700</v>
       </c>
       <c r="G18" s="3">
-        <v>1418200</v>
+        <v>1349300</v>
       </c>
       <c r="H18" s="3">
-        <v>1374500</v>
+        <v>1307800</v>
       </c>
       <c r="I18" s="3">
-        <v>928400</v>
+        <v>883300</v>
       </c>
       <c r="J18" s="3">
-        <v>828000</v>
+        <v>787800</v>
       </c>
       <c r="K18" s="3">
         <v>843400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-146200</v>
+        <v>30100</v>
       </c>
       <c r="E20" s="3">
-        <v>19600</v>
+        <v>18700</v>
       </c>
       <c r="F20" s="3">
-        <v>46900</v>
+        <v>44600</v>
       </c>
       <c r="G20" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="H20" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="I20" s="3">
-        <v>14200</v>
+        <v>13500</v>
       </c>
       <c r="J20" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="K20" s="3">
         <v>32700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2373700</v>
+        <v>2425500</v>
       </c>
       <c r="E21" s="3">
-        <v>1711700</v>
+        <v>1626600</v>
       </c>
       <c r="F21" s="3">
-        <v>2443300</v>
+        <v>2323000</v>
       </c>
       <c r="G21" s="3">
-        <v>2027800</v>
+        <v>1927900</v>
       </c>
       <c r="H21" s="3">
-        <v>1960900</v>
+        <v>1864300</v>
       </c>
       <c r="I21" s="3">
-        <v>1354500</v>
+        <v>1287800</v>
       </c>
       <c r="J21" s="3">
-        <v>1114600</v>
+        <v>1059800</v>
       </c>
       <c r="K21" s="3">
         <v>1139900</v>
@@ -1160,26 +1160,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>169200</v>
       </c>
       <c r="E22" s="3">
-        <v>148400</v>
+        <v>141200</v>
       </c>
       <c r="F22" s="3">
-        <v>149500</v>
+        <v>142200</v>
       </c>
       <c r="G22" s="3">
-        <v>146200</v>
+        <v>139100</v>
       </c>
       <c r="H22" s="3">
-        <v>153800</v>
+        <v>146300</v>
       </c>
       <c r="I22" s="3">
-        <v>158200</v>
+        <v>150500</v>
       </c>
       <c r="J22" s="3">
-        <v>138500</v>
+        <v>131800</v>
       </c>
       <c r="K22" s="3">
         <v>133200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1507600</v>
+        <v>1434400</v>
       </c>
       <c r="E23" s="3">
-        <v>758200</v>
+        <v>721300</v>
       </c>
       <c r="F23" s="3">
-        <v>1586200</v>
+        <v>1509100</v>
       </c>
       <c r="G23" s="3">
-        <v>1314500</v>
+        <v>1250700</v>
       </c>
       <c r="H23" s="3">
-        <v>1264400</v>
+        <v>1202900</v>
       </c>
       <c r="I23" s="3">
-        <v>784400</v>
+        <v>746300</v>
       </c>
       <c r="J23" s="3">
-        <v>702500</v>
+        <v>668400</v>
       </c>
       <c r="K23" s="3">
         <v>742900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>429800</v>
+        <v>408900</v>
       </c>
       <c r="E24" s="3">
-        <v>214900</v>
+        <v>204500</v>
       </c>
       <c r="F24" s="3">
-        <v>397100</v>
+        <v>377800</v>
       </c>
       <c r="G24" s="3">
-        <v>352400</v>
+        <v>335200</v>
       </c>
       <c r="H24" s="3">
-        <v>164700</v>
+        <v>156700</v>
       </c>
       <c r="I24" s="3">
-        <v>185500</v>
+        <v>176400</v>
       </c>
       <c r="J24" s="3">
-        <v>142900</v>
+        <v>136000</v>
       </c>
       <c r="K24" s="3">
         <v>196500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1077800</v>
+        <v>1025400</v>
       </c>
       <c r="E26" s="3">
-        <v>543300</v>
+        <v>516900</v>
       </c>
       <c r="F26" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="G26" s="3">
-        <v>962200</v>
+        <v>915400</v>
       </c>
       <c r="H26" s="3">
-        <v>1099600</v>
+        <v>1046200</v>
       </c>
       <c r="I26" s="3">
-        <v>598900</v>
+        <v>569800</v>
       </c>
       <c r="J26" s="3">
-        <v>559600</v>
+        <v>532400</v>
       </c>
       <c r="K26" s="3">
         <v>546500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1071300</v>
+        <v>1019200</v>
       </c>
       <c r="E27" s="3">
-        <v>543300</v>
+        <v>516900</v>
       </c>
       <c r="F27" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="G27" s="3">
-        <v>962200</v>
+        <v>915400</v>
       </c>
       <c r="H27" s="3">
-        <v>1099600</v>
+        <v>1046200</v>
       </c>
       <c r="I27" s="3">
-        <v>598900</v>
+        <v>569800</v>
       </c>
       <c r="J27" s="3">
-        <v>559600</v>
+        <v>532400</v>
       </c>
       <c r="K27" s="3">
         <v>546500</v>
@@ -1422,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>29500</v>
+        <v>28000</v>
       </c>
       <c r="H29" s="3">
-        <v>-349100</v>
+        <v>-332100</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>146200</v>
+        <v>-30100</v>
       </c>
       <c r="E32" s="3">
-        <v>-19600</v>
+        <v>-18700</v>
       </c>
       <c r="F32" s="3">
-        <v>-46900</v>
+        <v>-44600</v>
       </c>
       <c r="G32" s="3">
-        <v>-42500</v>
+        <v>-40500</v>
       </c>
       <c r="H32" s="3">
-        <v>-43600</v>
+        <v>-41500</v>
       </c>
       <c r="I32" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="J32" s="3">
-        <v>-13100</v>
+        <v>-12500</v>
       </c>
       <c r="K32" s="3">
         <v>-32700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1071300</v>
+        <v>1019200</v>
       </c>
       <c r="E33" s="3">
-        <v>543300</v>
+        <v>516900</v>
       </c>
       <c r="F33" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="G33" s="3">
-        <v>991600</v>
+        <v>943500</v>
       </c>
       <c r="H33" s="3">
-        <v>750500</v>
+        <v>714100</v>
       </c>
       <c r="I33" s="3">
-        <v>598900</v>
+        <v>569800</v>
       </c>
       <c r="J33" s="3">
-        <v>559600</v>
+        <v>532400</v>
       </c>
       <c r="K33" s="3">
         <v>546500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1071300</v>
+        <v>1019200</v>
       </c>
       <c r="E35" s="3">
-        <v>543300</v>
+        <v>516900</v>
       </c>
       <c r="F35" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="G35" s="3">
-        <v>991600</v>
+        <v>943500</v>
       </c>
       <c r="H35" s="3">
-        <v>750500</v>
+        <v>714100</v>
       </c>
       <c r="I35" s="3">
-        <v>598900</v>
+        <v>569800</v>
       </c>
       <c r="J35" s="3">
-        <v>559600</v>
+        <v>532400</v>
       </c>
       <c r="K35" s="3">
         <v>546500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1534900</v>
+        <v>734800</v>
       </c>
       <c r="E41" s="3">
-        <v>701500</v>
+        <v>667400</v>
       </c>
       <c r="F41" s="3">
-        <v>185500</v>
+        <v>176400</v>
       </c>
       <c r="G41" s="3">
-        <v>304400</v>
+        <v>289600</v>
       </c>
       <c r="H41" s="3">
-        <v>331600</v>
+        <v>315500</v>
       </c>
       <c r="I41" s="3">
-        <v>304400</v>
+        <v>289600</v>
       </c>
       <c r="J41" s="3">
-        <v>440700</v>
+        <v>419300</v>
       </c>
       <c r="K41" s="3">
         <v>631200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>63300</v>
+        <v>785700</v>
       </c>
       <c r="E42" s="3">
-        <v>960000</v>
+        <v>913400</v>
       </c>
       <c r="F42" s="3">
-        <v>159300</v>
+        <v>151500</v>
       </c>
       <c r="G42" s="3">
-        <v>32700</v>
+        <v>31100</v>
       </c>
       <c r="H42" s="3">
-        <v>61100</v>
+        <v>58100</v>
       </c>
       <c r="I42" s="3">
-        <v>116700</v>
+        <v>111100</v>
       </c>
       <c r="J42" s="3">
-        <v>85100</v>
+        <v>81000</v>
       </c>
       <c r="K42" s="3">
         <v>36100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2720700</v>
+        <v>2588500</v>
       </c>
       <c r="E43" s="3">
-        <v>1754200</v>
+        <v>1668900</v>
       </c>
       <c r="F43" s="3">
-        <v>2148000</v>
+        <v>2043600</v>
       </c>
       <c r="G43" s="3">
-        <v>2088000</v>
+        <v>1986500</v>
       </c>
       <c r="H43" s="3">
-        <v>2431600</v>
+        <v>2313500</v>
       </c>
       <c r="I43" s="3">
-        <v>2476400</v>
+        <v>2356000</v>
       </c>
       <c r="J43" s="3">
-        <v>4205500</v>
+        <v>4001100</v>
       </c>
       <c r="K43" s="3">
         <v>4700400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1262200</v>
+        <v>1200900</v>
       </c>
       <c r="E44" s="3">
-        <v>742900</v>
+        <v>706800</v>
       </c>
       <c r="F44" s="3">
-        <v>788700</v>
+        <v>750400</v>
       </c>
       <c r="G44" s="3">
-        <v>756000</v>
+        <v>719300</v>
       </c>
       <c r="H44" s="3">
-        <v>709100</v>
+        <v>674600</v>
       </c>
       <c r="I44" s="3">
-        <v>734200</v>
+        <v>698500</v>
       </c>
       <c r="J44" s="3">
-        <v>1176000</v>
+        <v>1118900</v>
       </c>
       <c r="K44" s="3">
         <v>1282700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>702500</v>
+        <v>668400</v>
       </c>
       <c r="E45" s="3">
-        <v>288000</v>
+        <v>274000</v>
       </c>
       <c r="F45" s="3">
-        <v>103600</v>
+        <v>98600</v>
       </c>
       <c r="G45" s="3">
-        <v>81800</v>
+        <v>77800</v>
       </c>
       <c r="H45" s="3">
-        <v>81800</v>
+        <v>77800</v>
       </c>
       <c r="I45" s="3">
-        <v>104700</v>
+        <v>99600</v>
       </c>
       <c r="J45" s="3">
-        <v>336000</v>
+        <v>319700</v>
       </c>
       <c r="K45" s="3">
         <v>513700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6283600</v>
+        <v>5978300</v>
       </c>
       <c r="E46" s="3">
-        <v>4446500</v>
+        <v>4230500</v>
       </c>
       <c r="F46" s="3">
-        <v>3385100</v>
+        <v>3220600</v>
       </c>
       <c r="G46" s="3">
-        <v>3262900</v>
+        <v>3104400</v>
       </c>
       <c r="H46" s="3">
-        <v>3615300</v>
+        <v>3439600</v>
       </c>
       <c r="I46" s="3">
-        <v>3736400</v>
+        <v>3554800</v>
       </c>
       <c r="J46" s="3">
-        <v>2054200</v>
+        <v>1954400</v>
       </c>
       <c r="K46" s="3">
         <v>2267200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5725100</v>
+        <v>5446900</v>
       </c>
       <c r="E48" s="3">
-        <v>4210900</v>
+        <v>4006300</v>
       </c>
       <c r="F48" s="3">
-        <v>4587300</v>
+        <v>4364400</v>
       </c>
       <c r="G48" s="3">
-        <v>4241500</v>
+        <v>4035400</v>
       </c>
       <c r="H48" s="3">
-        <v>4185800</v>
+        <v>3982400</v>
       </c>
       <c r="I48" s="3">
-        <v>4356000</v>
+        <v>4144300</v>
       </c>
       <c r="J48" s="3">
-        <v>5786200</v>
+        <v>5505000</v>
       </c>
       <c r="K48" s="3">
         <v>6150200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18831300</v>
+        <v>17916200</v>
       </c>
       <c r="E49" s="3">
-        <v>11924700</v>
+        <v>11345300</v>
       </c>
       <c r="F49" s="3">
-        <v>12028400</v>
+        <v>11443900</v>
       </c>
       <c r="G49" s="3">
-        <v>11893100</v>
+        <v>11315200</v>
       </c>
       <c r="H49" s="3">
-        <v>11895300</v>
+        <v>11317300</v>
       </c>
       <c r="I49" s="3">
-        <v>11750200</v>
+        <v>11179200</v>
       </c>
       <c r="J49" s="3">
-        <v>10861100</v>
+        <v>10333300</v>
       </c>
       <c r="K49" s="3">
         <v>11288700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>894500</v>
+        <v>851100</v>
       </c>
       <c r="E52" s="3">
-        <v>403600</v>
+        <v>384000</v>
       </c>
       <c r="F52" s="3">
-        <v>382900</v>
+        <v>364300</v>
       </c>
       <c r="G52" s="3">
-        <v>474500</v>
+        <v>451500</v>
       </c>
       <c r="H52" s="3">
-        <v>151600</v>
+        <v>144300</v>
       </c>
       <c r="I52" s="3">
-        <v>413500</v>
+        <v>393400</v>
       </c>
       <c r="J52" s="3">
-        <v>398200</v>
+        <v>378800</v>
       </c>
       <c r="K52" s="3">
         <v>493400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31734600</v>
+        <v>30192500</v>
       </c>
       <c r="E54" s="3">
-        <v>20985800</v>
+        <v>19966100</v>
       </c>
       <c r="F54" s="3">
-        <v>20383700</v>
+        <v>19393200</v>
       </c>
       <c r="G54" s="3">
-        <v>19872000</v>
+        <v>18906400</v>
       </c>
       <c r="H54" s="3">
-        <v>19848000</v>
+        <v>18883600</v>
       </c>
       <c r="I54" s="3">
-        <v>20256000</v>
+        <v>19271700</v>
       </c>
       <c r="J54" s="3">
-        <v>7632000</v>
+        <v>7261100</v>
       </c>
       <c r="K54" s="3">
         <v>7957900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4622200</v>
+        <v>1755100</v>
       </c>
       <c r="E57" s="3">
-        <v>1226200</v>
+        <v>1166600</v>
       </c>
       <c r="F57" s="3">
-        <v>1241500</v>
+        <v>1181100</v>
       </c>
       <c r="G57" s="3">
-        <v>1205500</v>
+        <v>1146900</v>
       </c>
       <c r="H57" s="3">
-        <v>1153100</v>
+        <v>1097100</v>
       </c>
       <c r="I57" s="3">
-        <v>986200</v>
+        <v>938300</v>
       </c>
       <c r="J57" s="3">
-        <v>2638900</v>
+        <v>2510700</v>
       </c>
       <c r="K57" s="3">
         <v>2853200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1472700</v>
+        <v>1401200</v>
       </c>
       <c r="E58" s="3">
-        <v>878200</v>
+        <v>835500</v>
       </c>
       <c r="F58" s="3">
-        <v>871600</v>
+        <v>829300</v>
       </c>
       <c r="G58" s="3">
-        <v>535600</v>
+        <v>509600</v>
       </c>
       <c r="H58" s="3">
-        <v>298900</v>
+        <v>284400</v>
       </c>
       <c r="I58" s="3">
-        <v>954500</v>
+        <v>908200</v>
       </c>
       <c r="J58" s="3">
-        <v>951300</v>
+        <v>905000</v>
       </c>
       <c r="K58" s="3">
         <v>1304100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>552000</v>
+        <v>3167700</v>
       </c>
       <c r="E59" s="3">
-        <v>2412000</v>
+        <v>2294800</v>
       </c>
       <c r="F59" s="3">
-        <v>2376000</v>
+        <v>2260500</v>
       </c>
       <c r="G59" s="3">
-        <v>2395600</v>
+        <v>2279200</v>
       </c>
       <c r="H59" s="3">
-        <v>2133800</v>
+        <v>2030100</v>
       </c>
       <c r="I59" s="3">
-        <v>2152400</v>
+        <v>2047800</v>
       </c>
       <c r="J59" s="3">
-        <v>2708700</v>
+        <v>2577100</v>
       </c>
       <c r="K59" s="3">
         <v>2900700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6646900</v>
+        <v>6323900</v>
       </c>
       <c r="E60" s="3">
-        <v>4516400</v>
+        <v>4296900</v>
       </c>
       <c r="F60" s="3">
-        <v>4489100</v>
+        <v>4271000</v>
       </c>
       <c r="G60" s="3">
-        <v>4136700</v>
+        <v>3935700</v>
       </c>
       <c r="H60" s="3">
-        <v>3585800</v>
+        <v>3411600</v>
       </c>
       <c r="I60" s="3">
-        <v>4093100</v>
+        <v>3894200</v>
       </c>
       <c r="J60" s="3">
-        <v>2188400</v>
+        <v>2082000</v>
       </c>
       <c r="K60" s="3">
         <v>2433200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12861800</v>
+        <v>12236800</v>
       </c>
       <c r="E61" s="3">
-        <v>6962200</v>
+        <v>6623900</v>
       </c>
       <c r="F61" s="3">
-        <v>6133100</v>
+        <v>5835100</v>
       </c>
       <c r="G61" s="3">
-        <v>5593100</v>
+        <v>5321300</v>
       </c>
       <c r="H61" s="3">
-        <v>5971600</v>
+        <v>5681500</v>
       </c>
       <c r="I61" s="3">
-        <v>6067600</v>
+        <v>5772800</v>
       </c>
       <c r="J61" s="3">
-        <v>3405800</v>
+        <v>3240300</v>
       </c>
       <c r="K61" s="3">
         <v>3083600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4360400</v>
+        <v>4148500</v>
       </c>
       <c r="E62" s="3">
-        <v>2934500</v>
+        <v>2792000</v>
       </c>
       <c r="F62" s="3">
-        <v>3045800</v>
+        <v>2897800</v>
       </c>
       <c r="G62" s="3">
-        <v>2981500</v>
+        <v>2836600</v>
       </c>
       <c r="H62" s="3">
-        <v>2997800</v>
+        <v>2852100</v>
       </c>
       <c r="I62" s="3">
-        <v>3046900</v>
+        <v>2898900</v>
       </c>
       <c r="J62" s="3">
-        <v>2299600</v>
+        <v>2187900</v>
       </c>
       <c r="K62" s="3">
         <v>2453500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24062200</v>
+        <v>22893000</v>
       </c>
       <c r="E66" s="3">
-        <v>14413100</v>
+        <v>13712700</v>
       </c>
       <c r="F66" s="3">
-        <v>13668000</v>
+        <v>13003800</v>
       </c>
       <c r="G66" s="3">
-        <v>12711300</v>
+        <v>12093600</v>
       </c>
       <c r="H66" s="3">
-        <v>12555300</v>
+        <v>11945200</v>
       </c>
       <c r="I66" s="3">
-        <v>13207600</v>
+        <v>12565900</v>
       </c>
       <c r="J66" s="3">
-        <v>6681800</v>
+        <v>6357100</v>
       </c>
       <c r="K66" s="3">
         <v>6617700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7426900</v>
+        <v>7233100</v>
       </c>
       <c r="E72" s="3">
-        <v>6943600</v>
+        <v>6606200</v>
       </c>
       <c r="F72" s="3">
-        <v>7005800</v>
+        <v>6665400</v>
       </c>
       <c r="G72" s="3">
-        <v>7591600</v>
+        <v>7222700</v>
       </c>
       <c r="H72" s="3">
-        <v>7697500</v>
+        <v>7323400</v>
       </c>
       <c r="I72" s="3">
-        <v>7375600</v>
+        <v>7017200</v>
       </c>
       <c r="J72" s="3">
-        <v>4314500</v>
+        <v>4104900</v>
       </c>
       <c r="K72" s="3">
         <v>3770100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7672400</v>
+        <v>7299600</v>
       </c>
       <c r="E76" s="3">
-        <v>6572700</v>
+        <v>6253300</v>
       </c>
       <c r="F76" s="3">
-        <v>6715600</v>
+        <v>6389300</v>
       </c>
       <c r="G76" s="3">
-        <v>7160700</v>
+        <v>6812800</v>
       </c>
       <c r="H76" s="3">
-        <v>7292700</v>
+        <v>6938400</v>
       </c>
       <c r="I76" s="3">
-        <v>7048400</v>
+        <v>6705900</v>
       </c>
       <c r="J76" s="3">
-        <v>950200</v>
+        <v>904000</v>
       </c>
       <c r="K76" s="3">
         <v>1340200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1071300</v>
+        <v>1019200</v>
       </c>
       <c r="E81" s="3">
-        <v>543300</v>
+        <v>516900</v>
       </c>
       <c r="F81" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="G81" s="3">
-        <v>991600</v>
+        <v>943500</v>
       </c>
       <c r="H81" s="3">
-        <v>750500</v>
+        <v>714100</v>
       </c>
       <c r="I81" s="3">
-        <v>598900</v>
+        <v>569800</v>
       </c>
       <c r="J81" s="3">
-        <v>559600</v>
+        <v>532400</v>
       </c>
       <c r="K81" s="3">
         <v>546500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>853100</v>
+        <v>811600</v>
       </c>
       <c r="E83" s="3">
-        <v>793100</v>
+        <v>754600</v>
       </c>
       <c r="F83" s="3">
-        <v>697100</v>
+        <v>663200</v>
       </c>
       <c r="G83" s="3">
-        <v>558500</v>
+        <v>531400</v>
       </c>
       <c r="H83" s="3">
-        <v>534500</v>
+        <v>508600</v>
       </c>
       <c r="I83" s="3">
-        <v>405800</v>
+        <v>386100</v>
       </c>
       <c r="J83" s="3">
-        <v>269500</v>
+        <v>256400</v>
       </c>
       <c r="K83" s="3">
         <v>263100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2309500</v>
+        <v>2197200</v>
       </c>
       <c r="E89" s="3">
-        <v>1625500</v>
+        <v>1546500</v>
       </c>
       <c r="F89" s="3">
-        <v>2077100</v>
+        <v>1976200</v>
       </c>
       <c r="G89" s="3">
-        <v>1970200</v>
+        <v>1874400</v>
       </c>
       <c r="H89" s="3">
-        <v>1770500</v>
+        <v>1684500</v>
       </c>
       <c r="I89" s="3">
-        <v>1357100</v>
+        <v>1291100</v>
       </c>
       <c r="J89" s="3">
-        <v>1005800</v>
+        <v>956900</v>
       </c>
       <c r="K89" s="3">
         <v>920200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-380700</v>
+        <v>-362200</v>
       </c>
       <c r="E91" s="3">
-        <v>-379600</v>
+        <v>-361200</v>
       </c>
       <c r="F91" s="3">
-        <v>-552000</v>
+        <v>-525200</v>
       </c>
       <c r="G91" s="3">
-        <v>-572700</v>
+        <v>-544900</v>
       </c>
       <c r="H91" s="3">
-        <v>-528000</v>
+        <v>-502300</v>
       </c>
       <c r="I91" s="3">
-        <v>-500700</v>
+        <v>-476400</v>
       </c>
       <c r="J91" s="3">
-        <v>-668700</v>
+        <v>-636200</v>
       </c>
       <c r="K91" s="3">
         <v>-625500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6114600</v>
+        <v>-5817400</v>
       </c>
       <c r="E94" s="3">
-        <v>-403600</v>
+        <v>-384000</v>
       </c>
       <c r="F94" s="3">
-        <v>-653500</v>
+        <v>-621700</v>
       </c>
       <c r="G94" s="3">
-        <v>-650200</v>
+        <v>-618600</v>
       </c>
       <c r="H94" s="3">
-        <v>-532400</v>
+        <v>-506500</v>
       </c>
       <c r="I94" s="3">
-        <v>-417800</v>
+        <v>-397500</v>
       </c>
       <c r="J94" s="3">
-        <v>-296700</v>
+        <v>-282300</v>
       </c>
       <c r="K94" s="3">
         <v>-233700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-696000</v>
+        <v>-662200</v>
       </c>
       <c r="E96" s="3">
-        <v>-421100</v>
+        <v>-400600</v>
       </c>
       <c r="F96" s="3">
-        <v>-626200</v>
+        <v>-595800</v>
       </c>
       <c r="G96" s="3">
-        <v>-559600</v>
+        <v>-532400</v>
       </c>
       <c r="H96" s="3">
-        <v>-533500</v>
+        <v>-507500</v>
       </c>
       <c r="I96" s="3">
-        <v>-222500</v>
+        <v>-211700</v>
       </c>
       <c r="J96" s="3">
-        <v>-533500</v>
+        <v>-507500</v>
       </c>
       <c r="K96" s="3">
         <v>-486600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3588000</v>
+        <v>3413700</v>
       </c>
       <c r="E100" s="3">
-        <v>109100</v>
+        <v>103800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1420400</v>
+        <v>-1351300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1373500</v>
+        <v>-1306700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1256700</v>
+        <v>-1195700</v>
       </c>
       <c r="I100" s="3">
-        <v>-682900</v>
+        <v>-649700</v>
       </c>
       <c r="J100" s="3">
-        <v>-747300</v>
+        <v>-711000</v>
       </c>
       <c r="K100" s="3">
         <v>-764400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>90500</v>
+        <v>86100</v>
       </c>
       <c r="E101" s="3">
-        <v>-14200</v>
+        <v>-13500</v>
       </c>
       <c r="F101" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-9800</v>
+        <v>-9300</v>
       </c>
       <c r="I101" s="3">
-        <v>-5500</v>
+        <v>-5200</v>
       </c>
       <c r="J101" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="K101" s="3">
         <v>3400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-126500</v>
+        <v>-120400</v>
       </c>
       <c r="E102" s="3">
-        <v>1316700</v>
+        <v>1252700</v>
       </c>
       <c r="F102" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G102" s="3">
-        <v>-55600</v>
+        <v>-52900</v>
       </c>
       <c r="H102" s="3">
-        <v>-28400</v>
+        <v>-27000</v>
       </c>
       <c r="I102" s="3">
-        <v>250900</v>
+        <v>238700</v>
       </c>
       <c r="J102" s="3">
-        <v>-30500</v>
+        <v>-29100</v>
       </c>
       <c r="K102" s="3">
         <v>-74500</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14284600</v>
+        <v>13727200</v>
       </c>
       <c r="E8" s="3">
-        <v>11008000</v>
+        <v>10578400</v>
       </c>
       <c r="F8" s="3">
-        <v>12472400</v>
+        <v>11985800</v>
       </c>
       <c r="G8" s="3">
-        <v>11954500</v>
+        <v>11488100</v>
       </c>
       <c r="H8" s="3">
-        <v>11481200</v>
+        <v>11033200</v>
       </c>
       <c r="I8" s="3">
-        <v>9479100</v>
+        <v>9109300</v>
       </c>
       <c r="J8" s="3">
-        <v>6568900</v>
+        <v>6312500</v>
       </c>
       <c r="K8" s="3">
         <v>7019600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8945700</v>
+        <v>8596600</v>
       </c>
       <c r="E9" s="3">
-        <v>7037000</v>
+        <v>6762400</v>
       </c>
       <c r="F9" s="3">
-        <v>7679400</v>
+        <v>7379800</v>
       </c>
       <c r="G9" s="3">
-        <v>7278800</v>
+        <v>6994800</v>
       </c>
       <c r="H9" s="3">
-        <v>7002700</v>
+        <v>6729500</v>
       </c>
       <c r="I9" s="3">
-        <v>5795600</v>
+        <v>5569500</v>
       </c>
       <c r="J9" s="3">
-        <v>12947800</v>
+        <v>12442600</v>
       </c>
       <c r="K9" s="3">
         <v>14979800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5339000</v>
+        <v>5130600</v>
       </c>
       <c r="E10" s="3">
-        <v>3971000</v>
+        <v>3816100</v>
       </c>
       <c r="F10" s="3">
-        <v>4793000</v>
+        <v>4606000</v>
       </c>
       <c r="G10" s="3">
-        <v>4675700</v>
+        <v>4493300</v>
       </c>
       <c r="H10" s="3">
-        <v>4478500</v>
+        <v>4303800</v>
       </c>
       <c r="I10" s="3">
-        <v>3683500</v>
+        <v>3539800</v>
       </c>
       <c r="J10" s="3">
-        <v>-6378900</v>
+        <v>-6130000</v>
       </c>
       <c r="K10" s="3">
         <v>-7960200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>60200</v>
+        <v>57800</v>
       </c>
       <c r="E14" s="3">
-        <v>94400</v>
+        <v>90800</v>
       </c>
       <c r="F14" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="G14" s="3">
-        <v>48800</v>
+        <v>46900</v>
       </c>
       <c r="H14" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="K14" s="3">
         <v>91500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="E15" s="3">
-        <v>64300</v>
+        <v>61800</v>
       </c>
       <c r="F15" s="3">
-        <v>45700</v>
+        <v>43900</v>
       </c>
       <c r="G15" s="3">
-        <v>44600</v>
+        <v>42900</v>
       </c>
       <c r="H15" s="3">
-        <v>39400</v>
+        <v>37900</v>
       </c>
       <c r="I15" s="3">
-        <v>34300</v>
+        <v>32900</v>
       </c>
       <c r="J15" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="K15" s="3">
         <v>238200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12711200</v>
+        <v>12215200</v>
       </c>
       <c r="E17" s="3">
-        <v>10164200</v>
+        <v>9767500</v>
       </c>
       <c r="F17" s="3">
-        <v>10865800</v>
+        <v>10441800</v>
       </c>
       <c r="G17" s="3">
-        <v>10605300</v>
+        <v>10191400</v>
       </c>
       <c r="H17" s="3">
-        <v>10173500</v>
+        <v>9776500</v>
       </c>
       <c r="I17" s="3">
-        <v>8595900</v>
+        <v>8260500</v>
       </c>
       <c r="J17" s="3">
-        <v>5781100</v>
+        <v>5555500</v>
       </c>
       <c r="K17" s="3">
         <v>6176200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1573500</v>
+        <v>1512100</v>
       </c>
       <c r="E18" s="3">
-        <v>843800</v>
+        <v>810900</v>
       </c>
       <c r="F18" s="3">
-        <v>1606700</v>
+        <v>1544000</v>
       </c>
       <c r="G18" s="3">
-        <v>1349300</v>
+        <v>1296600</v>
       </c>
       <c r="H18" s="3">
-        <v>1307800</v>
+        <v>1256700</v>
       </c>
       <c r="I18" s="3">
-        <v>883300</v>
+        <v>848800</v>
       </c>
       <c r="J18" s="3">
-        <v>787800</v>
+        <v>757000</v>
       </c>
       <c r="K18" s="3">
         <v>843400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>30100</v>
+        <v>28900</v>
       </c>
       <c r="E20" s="3">
-        <v>18700</v>
+        <v>18000</v>
       </c>
       <c r="F20" s="3">
-        <v>44600</v>
+        <v>42900</v>
       </c>
       <c r="G20" s="3">
-        <v>40500</v>
+        <v>38900</v>
       </c>
       <c r="H20" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="I20" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="J20" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="K20" s="3">
         <v>32700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2425500</v>
+        <v>2320200</v>
       </c>
       <c r="E21" s="3">
-        <v>1626600</v>
+        <v>1553300</v>
       </c>
       <c r="F21" s="3">
-        <v>2323000</v>
+        <v>2223600</v>
       </c>
       <c r="G21" s="3">
-        <v>1927900</v>
+        <v>1845700</v>
       </c>
       <c r="H21" s="3">
-        <v>1864300</v>
+        <v>1784900</v>
       </c>
       <c r="I21" s="3">
-        <v>1287800</v>
+        <v>1232500</v>
       </c>
       <c r="J21" s="3">
-        <v>1059800</v>
+        <v>1015100</v>
       </c>
       <c r="K21" s="3">
         <v>1139900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>169200</v>
+        <v>162600</v>
       </c>
       <c r="E22" s="3">
-        <v>141200</v>
+        <v>135600</v>
       </c>
       <c r="F22" s="3">
-        <v>142200</v>
+        <v>136600</v>
       </c>
       <c r="G22" s="3">
-        <v>139100</v>
+        <v>133700</v>
       </c>
       <c r="H22" s="3">
-        <v>146300</v>
+        <v>140600</v>
       </c>
       <c r="I22" s="3">
-        <v>150500</v>
+        <v>144600</v>
       </c>
       <c r="J22" s="3">
-        <v>131800</v>
+        <v>126700</v>
       </c>
       <c r="K22" s="3">
         <v>133200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1434400</v>
+        <v>1378400</v>
       </c>
       <c r="E23" s="3">
-        <v>721300</v>
+        <v>693200</v>
       </c>
       <c r="F23" s="3">
-        <v>1509100</v>
+        <v>1450200</v>
       </c>
       <c r="G23" s="3">
-        <v>1250700</v>
+        <v>1201900</v>
       </c>
       <c r="H23" s="3">
-        <v>1202900</v>
+        <v>1156000</v>
       </c>
       <c r="I23" s="3">
-        <v>746300</v>
+        <v>717100</v>
       </c>
       <c r="J23" s="3">
-        <v>668400</v>
+        <v>642300</v>
       </c>
       <c r="K23" s="3">
         <v>742900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>408900</v>
+        <v>393000</v>
       </c>
       <c r="E24" s="3">
-        <v>204500</v>
+        <v>196500</v>
       </c>
       <c r="F24" s="3">
-        <v>377800</v>
+        <v>363100</v>
       </c>
       <c r="G24" s="3">
-        <v>335200</v>
+        <v>322200</v>
       </c>
       <c r="H24" s="3">
-        <v>156700</v>
+        <v>150600</v>
       </c>
       <c r="I24" s="3">
-        <v>176400</v>
+        <v>169600</v>
       </c>
       <c r="J24" s="3">
-        <v>136000</v>
+        <v>130700</v>
       </c>
       <c r="K24" s="3">
         <v>196500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1025400</v>
+        <v>985400</v>
       </c>
       <c r="E26" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="F26" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="G26" s="3">
-        <v>915400</v>
+        <v>879700</v>
       </c>
       <c r="H26" s="3">
-        <v>1046200</v>
+        <v>1005400</v>
       </c>
       <c r="I26" s="3">
-        <v>569800</v>
+        <v>547600</v>
       </c>
       <c r="J26" s="3">
-        <v>532400</v>
+        <v>511700</v>
       </c>
       <c r="K26" s="3">
         <v>546500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1019200</v>
+        <v>979400</v>
       </c>
       <c r="E27" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="F27" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="G27" s="3">
-        <v>915400</v>
+        <v>879700</v>
       </c>
       <c r="H27" s="3">
-        <v>1046200</v>
+        <v>1005400</v>
       </c>
       <c r="I27" s="3">
-        <v>569800</v>
+        <v>547600</v>
       </c>
       <c r="J27" s="3">
-        <v>532400</v>
+        <v>511700</v>
       </c>
       <c r="K27" s="3">
         <v>546500</v>
@@ -1422,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>28000</v>
+        <v>26900</v>
       </c>
       <c r="H29" s="3">
-        <v>-332100</v>
+        <v>-319200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-30100</v>
+        <v>-28900</v>
       </c>
       <c r="E32" s="3">
-        <v>-18700</v>
+        <v>-18000</v>
       </c>
       <c r="F32" s="3">
-        <v>-44600</v>
+        <v>-42900</v>
       </c>
       <c r="G32" s="3">
-        <v>-40500</v>
+        <v>-38900</v>
       </c>
       <c r="H32" s="3">
-        <v>-41500</v>
+        <v>-39900</v>
       </c>
       <c r="I32" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="J32" s="3">
-        <v>-12500</v>
+        <v>-12000</v>
       </c>
       <c r="K32" s="3">
         <v>-32700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1019200</v>
+        <v>979400</v>
       </c>
       <c r="E33" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="F33" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="G33" s="3">
-        <v>943500</v>
+        <v>906600</v>
       </c>
       <c r="H33" s="3">
-        <v>714100</v>
+        <v>686200</v>
       </c>
       <c r="I33" s="3">
-        <v>569800</v>
+        <v>547600</v>
       </c>
       <c r="J33" s="3">
-        <v>532400</v>
+        <v>511700</v>
       </c>
       <c r="K33" s="3">
         <v>546500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1019200</v>
+        <v>979400</v>
       </c>
       <c r="E35" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="F35" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="G35" s="3">
-        <v>943500</v>
+        <v>906600</v>
       </c>
       <c r="H35" s="3">
-        <v>714100</v>
+        <v>686200</v>
       </c>
       <c r="I35" s="3">
-        <v>569800</v>
+        <v>547600</v>
       </c>
       <c r="J35" s="3">
-        <v>532400</v>
+        <v>511700</v>
       </c>
       <c r="K35" s="3">
         <v>546500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>734800</v>
+        <v>706200</v>
       </c>
       <c r="E41" s="3">
-        <v>667400</v>
+        <v>641300</v>
       </c>
       <c r="F41" s="3">
-        <v>176400</v>
+        <v>169600</v>
       </c>
       <c r="G41" s="3">
-        <v>289600</v>
+        <v>278300</v>
       </c>
       <c r="H41" s="3">
-        <v>315500</v>
+        <v>303200</v>
       </c>
       <c r="I41" s="3">
-        <v>289600</v>
+        <v>278300</v>
       </c>
       <c r="J41" s="3">
-        <v>419300</v>
+        <v>402900</v>
       </c>
       <c r="K41" s="3">
         <v>631200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>785700</v>
+        <v>755000</v>
       </c>
       <c r="E42" s="3">
-        <v>913400</v>
+        <v>877700</v>
       </c>
       <c r="F42" s="3">
-        <v>151500</v>
+        <v>145600</v>
       </c>
       <c r="G42" s="3">
-        <v>31100</v>
+        <v>29900</v>
       </c>
       <c r="H42" s="3">
-        <v>58100</v>
+        <v>55900</v>
       </c>
       <c r="I42" s="3">
-        <v>111100</v>
+        <v>106700</v>
       </c>
       <c r="J42" s="3">
-        <v>81000</v>
+        <v>77800</v>
       </c>
       <c r="K42" s="3">
         <v>36100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2588500</v>
+        <v>2487500</v>
       </c>
       <c r="E43" s="3">
-        <v>1668900</v>
+        <v>1603800</v>
       </c>
       <c r="F43" s="3">
-        <v>2043600</v>
+        <v>1963900</v>
       </c>
       <c r="G43" s="3">
-        <v>1986500</v>
+        <v>1909000</v>
       </c>
       <c r="H43" s="3">
-        <v>2313500</v>
+        <v>2223200</v>
       </c>
       <c r="I43" s="3">
-        <v>2356000</v>
+        <v>2264100</v>
       </c>
       <c r="J43" s="3">
-        <v>4001100</v>
+        <v>3845000</v>
       </c>
       <c r="K43" s="3">
         <v>4700400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1200900</v>
+        <v>1154000</v>
       </c>
       <c r="E44" s="3">
-        <v>706800</v>
+        <v>679200</v>
       </c>
       <c r="F44" s="3">
-        <v>750400</v>
+        <v>721100</v>
       </c>
       <c r="G44" s="3">
-        <v>719300</v>
+        <v>691200</v>
       </c>
       <c r="H44" s="3">
-        <v>674600</v>
+        <v>648300</v>
       </c>
       <c r="I44" s="3">
-        <v>698500</v>
+        <v>671300</v>
       </c>
       <c r="J44" s="3">
-        <v>1118900</v>
+        <v>1075200</v>
       </c>
       <c r="K44" s="3">
         <v>1282700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>668400</v>
+        <v>642300</v>
       </c>
       <c r="E45" s="3">
-        <v>274000</v>
+        <v>263300</v>
       </c>
       <c r="F45" s="3">
-        <v>98600</v>
+        <v>94800</v>
       </c>
       <c r="G45" s="3">
-        <v>77800</v>
+        <v>74800</v>
       </c>
       <c r="H45" s="3">
-        <v>77800</v>
+        <v>74800</v>
       </c>
       <c r="I45" s="3">
-        <v>99600</v>
+        <v>95800</v>
       </c>
       <c r="J45" s="3">
-        <v>319700</v>
+        <v>307200</v>
       </c>
       <c r="K45" s="3">
         <v>513700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5978300</v>
+        <v>5745000</v>
       </c>
       <c r="E46" s="3">
-        <v>4230500</v>
+        <v>4065400</v>
       </c>
       <c r="F46" s="3">
-        <v>3220600</v>
+        <v>3094900</v>
       </c>
       <c r="G46" s="3">
-        <v>3104400</v>
+        <v>2983200</v>
       </c>
       <c r="H46" s="3">
-        <v>3439600</v>
+        <v>3305400</v>
       </c>
       <c r="I46" s="3">
-        <v>3554800</v>
+        <v>3416100</v>
       </c>
       <c r="J46" s="3">
-        <v>1954400</v>
+        <v>1878100</v>
       </c>
       <c r="K46" s="3">
         <v>2267200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5446900</v>
+        <v>5234400</v>
       </c>
       <c r="E48" s="3">
-        <v>4006300</v>
+        <v>3850000</v>
       </c>
       <c r="F48" s="3">
-        <v>4364400</v>
+        <v>4194100</v>
       </c>
       <c r="G48" s="3">
-        <v>4035400</v>
+        <v>3877900</v>
       </c>
       <c r="H48" s="3">
-        <v>3982400</v>
+        <v>3827000</v>
       </c>
       <c r="I48" s="3">
-        <v>4144300</v>
+        <v>3982600</v>
       </c>
       <c r="J48" s="3">
-        <v>5505000</v>
+        <v>5290200</v>
       </c>
       <c r="K48" s="3">
         <v>6150200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17916200</v>
+        <v>17217100</v>
       </c>
       <c r="E49" s="3">
-        <v>11345300</v>
+        <v>10902600</v>
       </c>
       <c r="F49" s="3">
-        <v>11443900</v>
+        <v>10997300</v>
       </c>
       <c r="G49" s="3">
-        <v>11315200</v>
+        <v>10873700</v>
       </c>
       <c r="H49" s="3">
-        <v>11317300</v>
+        <v>10875600</v>
       </c>
       <c r="I49" s="3">
-        <v>11179200</v>
+        <v>10743000</v>
       </c>
       <c r="J49" s="3">
-        <v>10333300</v>
+        <v>9930100</v>
       </c>
       <c r="K49" s="3">
         <v>11288700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>851100</v>
+        <v>817900</v>
       </c>
       <c r="E52" s="3">
-        <v>384000</v>
+        <v>369000</v>
       </c>
       <c r="F52" s="3">
-        <v>364300</v>
+        <v>350100</v>
       </c>
       <c r="G52" s="3">
-        <v>451500</v>
+        <v>433900</v>
       </c>
       <c r="H52" s="3">
-        <v>144300</v>
+        <v>138600</v>
       </c>
       <c r="I52" s="3">
-        <v>393400</v>
+        <v>378000</v>
       </c>
       <c r="J52" s="3">
-        <v>378800</v>
+        <v>364100</v>
       </c>
       <c r="K52" s="3">
         <v>493400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30192500</v>
+        <v>29014400</v>
       </c>
       <c r="E54" s="3">
-        <v>19966100</v>
+        <v>19187000</v>
       </c>
       <c r="F54" s="3">
-        <v>19393200</v>
+        <v>18636400</v>
       </c>
       <c r="G54" s="3">
-        <v>18906400</v>
+        <v>18168600</v>
       </c>
       <c r="H54" s="3">
-        <v>18883600</v>
+        <v>18146700</v>
       </c>
       <c r="I54" s="3">
-        <v>19271700</v>
+        <v>18519700</v>
       </c>
       <c r="J54" s="3">
-        <v>7261100</v>
+        <v>6977800</v>
       </c>
       <c r="K54" s="3">
         <v>7957900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1755100</v>
+        <v>1686600</v>
       </c>
       <c r="E57" s="3">
-        <v>1166600</v>
+        <v>1121100</v>
       </c>
       <c r="F57" s="3">
-        <v>1181100</v>
+        <v>1135000</v>
       </c>
       <c r="G57" s="3">
-        <v>1146900</v>
+        <v>1102100</v>
       </c>
       <c r="H57" s="3">
-        <v>1097100</v>
+        <v>1054300</v>
       </c>
       <c r="I57" s="3">
-        <v>938300</v>
+        <v>901600</v>
       </c>
       <c r="J57" s="3">
-        <v>2510700</v>
+        <v>2412700</v>
       </c>
       <c r="K57" s="3">
         <v>2853200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1401200</v>
+        <v>1346500</v>
       </c>
       <c r="E58" s="3">
-        <v>835500</v>
+        <v>802900</v>
       </c>
       <c r="F58" s="3">
-        <v>829300</v>
+        <v>796900</v>
       </c>
       <c r="G58" s="3">
-        <v>509600</v>
+        <v>489700</v>
       </c>
       <c r="H58" s="3">
-        <v>284400</v>
+        <v>273300</v>
       </c>
       <c r="I58" s="3">
-        <v>908200</v>
+        <v>872700</v>
       </c>
       <c r="J58" s="3">
-        <v>905000</v>
+        <v>869700</v>
       </c>
       <c r="K58" s="3">
         <v>1304100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3167700</v>
+        <v>3044100</v>
       </c>
       <c r="E59" s="3">
-        <v>2294800</v>
+        <v>2205300</v>
       </c>
       <c r="F59" s="3">
-        <v>2260500</v>
+        <v>2172300</v>
       </c>
       <c r="G59" s="3">
-        <v>2279200</v>
+        <v>2190300</v>
       </c>
       <c r="H59" s="3">
-        <v>2030100</v>
+        <v>1950900</v>
       </c>
       <c r="I59" s="3">
-        <v>2047800</v>
+        <v>1967900</v>
       </c>
       <c r="J59" s="3">
-        <v>2577100</v>
+        <v>2476500</v>
       </c>
       <c r="K59" s="3">
         <v>2900700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6323900</v>
+        <v>6077200</v>
       </c>
       <c r="E60" s="3">
-        <v>4296900</v>
+        <v>4129200</v>
       </c>
       <c r="F60" s="3">
-        <v>4271000</v>
+        <v>4104300</v>
       </c>
       <c r="G60" s="3">
-        <v>3935700</v>
+        <v>3782100</v>
       </c>
       <c r="H60" s="3">
-        <v>3411600</v>
+        <v>3278500</v>
       </c>
       <c r="I60" s="3">
-        <v>3894200</v>
+        <v>3742200</v>
       </c>
       <c r="J60" s="3">
-        <v>2082000</v>
+        <v>2000800</v>
       </c>
       <c r="K60" s="3">
         <v>2433200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12236800</v>
+        <v>11759300</v>
       </c>
       <c r="E61" s="3">
-        <v>6623900</v>
+        <v>6365400</v>
       </c>
       <c r="F61" s="3">
-        <v>5835100</v>
+        <v>5607400</v>
       </c>
       <c r="G61" s="3">
-        <v>5321300</v>
+        <v>5113700</v>
       </c>
       <c r="H61" s="3">
-        <v>5681500</v>
+        <v>5459800</v>
       </c>
       <c r="I61" s="3">
-        <v>5772800</v>
+        <v>5547500</v>
       </c>
       <c r="J61" s="3">
-        <v>3240300</v>
+        <v>3113900</v>
       </c>
       <c r="K61" s="3">
         <v>3083600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4148500</v>
+        <v>3986600</v>
       </c>
       <c r="E62" s="3">
-        <v>2792000</v>
+        <v>2683000</v>
       </c>
       <c r="F62" s="3">
-        <v>2897800</v>
+        <v>2784700</v>
       </c>
       <c r="G62" s="3">
-        <v>2836600</v>
+        <v>2725900</v>
       </c>
       <c r="H62" s="3">
-        <v>2852100</v>
+        <v>2740900</v>
       </c>
       <c r="I62" s="3">
-        <v>2898900</v>
+        <v>2785700</v>
       </c>
       <c r="J62" s="3">
-        <v>2187900</v>
+        <v>2102500</v>
       </c>
       <c r="K62" s="3">
         <v>2453500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22893000</v>
+        <v>21999700</v>
       </c>
       <c r="E66" s="3">
-        <v>13712700</v>
+        <v>13177600</v>
       </c>
       <c r="F66" s="3">
-        <v>13003800</v>
+        <v>12496400</v>
       </c>
       <c r="G66" s="3">
-        <v>12093600</v>
+        <v>11621700</v>
       </c>
       <c r="H66" s="3">
-        <v>11945200</v>
+        <v>11479100</v>
       </c>
       <c r="I66" s="3">
-        <v>12565900</v>
+        <v>12075500</v>
       </c>
       <c r="J66" s="3">
-        <v>6357100</v>
+        <v>6109100</v>
       </c>
       <c r="K66" s="3">
         <v>6617700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7233100</v>
+        <v>6950900</v>
       </c>
       <c r="E72" s="3">
-        <v>6606200</v>
+        <v>6348500</v>
       </c>
       <c r="F72" s="3">
-        <v>6665400</v>
+        <v>6405300</v>
       </c>
       <c r="G72" s="3">
-        <v>7222700</v>
+        <v>6940900</v>
       </c>
       <c r="H72" s="3">
-        <v>7323400</v>
+        <v>7037700</v>
       </c>
       <c r="I72" s="3">
-        <v>7017200</v>
+        <v>6743400</v>
       </c>
       <c r="J72" s="3">
-        <v>4104900</v>
+        <v>3944700</v>
       </c>
       <c r="K72" s="3">
         <v>3770100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7299600</v>
+        <v>7014700</v>
       </c>
       <c r="E76" s="3">
-        <v>6253300</v>
+        <v>6009300</v>
       </c>
       <c r="F76" s="3">
-        <v>6389300</v>
+        <v>6140000</v>
       </c>
       <c r="G76" s="3">
-        <v>6812800</v>
+        <v>6546900</v>
       </c>
       <c r="H76" s="3">
-        <v>6938400</v>
+        <v>6667600</v>
       </c>
       <c r="I76" s="3">
-        <v>6705900</v>
+        <v>6444200</v>
       </c>
       <c r="J76" s="3">
-        <v>904000</v>
+        <v>868700</v>
       </c>
       <c r="K76" s="3">
         <v>1340200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1019200</v>
+        <v>979400</v>
       </c>
       <c r="E81" s="3">
-        <v>516900</v>
+        <v>496700</v>
       </c>
       <c r="F81" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="G81" s="3">
-        <v>943500</v>
+        <v>906600</v>
       </c>
       <c r="H81" s="3">
-        <v>714100</v>
+        <v>686200</v>
       </c>
       <c r="I81" s="3">
-        <v>569800</v>
+        <v>547600</v>
       </c>
       <c r="J81" s="3">
-        <v>532400</v>
+        <v>511700</v>
       </c>
       <c r="K81" s="3">
         <v>546500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>811600</v>
+        <v>780000</v>
       </c>
       <c r="E83" s="3">
-        <v>754600</v>
+        <v>725100</v>
       </c>
       <c r="F83" s="3">
-        <v>663200</v>
+        <v>637300</v>
       </c>
       <c r="G83" s="3">
-        <v>531400</v>
+        <v>510700</v>
       </c>
       <c r="H83" s="3">
-        <v>508600</v>
+        <v>488700</v>
       </c>
       <c r="I83" s="3">
-        <v>386100</v>
+        <v>371000</v>
       </c>
       <c r="J83" s="3">
-        <v>256400</v>
+        <v>246400</v>
       </c>
       <c r="K83" s="3">
         <v>263100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2197200</v>
+        <v>2111500</v>
       </c>
       <c r="E89" s="3">
-        <v>1546500</v>
+        <v>1486100</v>
       </c>
       <c r="F89" s="3">
-        <v>1976200</v>
+        <v>1899000</v>
       </c>
       <c r="G89" s="3">
-        <v>1874400</v>
+        <v>1801300</v>
       </c>
       <c r="H89" s="3">
-        <v>1684500</v>
+        <v>1618800</v>
       </c>
       <c r="I89" s="3">
-        <v>1291100</v>
+        <v>1240800</v>
       </c>
       <c r="J89" s="3">
-        <v>956900</v>
+        <v>919600</v>
       </c>
       <c r="K89" s="3">
         <v>920200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-362200</v>
+        <v>-348100</v>
       </c>
       <c r="E91" s="3">
-        <v>-361200</v>
+        <v>-347100</v>
       </c>
       <c r="F91" s="3">
-        <v>-525200</v>
+        <v>-504700</v>
       </c>
       <c r="G91" s="3">
-        <v>-544900</v>
+        <v>-523600</v>
       </c>
       <c r="H91" s="3">
-        <v>-502300</v>
+        <v>-482700</v>
       </c>
       <c r="I91" s="3">
-        <v>-476400</v>
+        <v>-457800</v>
       </c>
       <c r="J91" s="3">
-        <v>-636200</v>
+        <v>-611400</v>
       </c>
       <c r="K91" s="3">
         <v>-625500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5817400</v>
+        <v>-5590400</v>
       </c>
       <c r="E94" s="3">
-        <v>-384000</v>
+        <v>-369000</v>
       </c>
       <c r="F94" s="3">
-        <v>-621700</v>
+        <v>-597400</v>
       </c>
       <c r="G94" s="3">
-        <v>-618600</v>
+        <v>-594500</v>
       </c>
       <c r="H94" s="3">
-        <v>-506500</v>
+        <v>-486700</v>
       </c>
       <c r="I94" s="3">
-        <v>-397500</v>
+        <v>-382000</v>
       </c>
       <c r="J94" s="3">
-        <v>-282300</v>
+        <v>-271300</v>
       </c>
       <c r="K94" s="3">
         <v>-233700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-662200</v>
+        <v>-636300</v>
       </c>
       <c r="E96" s="3">
-        <v>-400600</v>
+        <v>-385000</v>
       </c>
       <c r="F96" s="3">
-        <v>-595800</v>
+        <v>-572500</v>
       </c>
       <c r="G96" s="3">
-        <v>-532400</v>
+        <v>-511700</v>
       </c>
       <c r="H96" s="3">
-        <v>-507500</v>
+        <v>-487700</v>
       </c>
       <c r="I96" s="3">
-        <v>-211700</v>
+        <v>-203500</v>
       </c>
       <c r="J96" s="3">
-        <v>-507500</v>
+        <v>-487700</v>
       </c>
       <c r="K96" s="3">
         <v>-486600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3413700</v>
+        <v>3280400</v>
       </c>
       <c r="E100" s="3">
-        <v>103800</v>
+        <v>99700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1351300</v>
+        <v>-1298600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1306700</v>
+        <v>-1255700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1195700</v>
+        <v>-1149000</v>
       </c>
       <c r="I100" s="3">
-        <v>-649700</v>
+        <v>-624400</v>
       </c>
       <c r="J100" s="3">
-        <v>-711000</v>
+        <v>-683200</v>
       </c>
       <c r="K100" s="3">
         <v>-764400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>86100</v>
+        <v>82800</v>
       </c>
       <c r="E101" s="3">
-        <v>-13500</v>
+        <v>-13000</v>
       </c>
       <c r="F101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-9300</v>
+        <v>-9000</v>
       </c>
       <c r="I101" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="J101" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="K101" s="3">
         <v>3400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-120400</v>
+        <v>-115700</v>
       </c>
       <c r="E102" s="3">
-        <v>1252700</v>
+        <v>1203900</v>
       </c>
       <c r="F102" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G102" s="3">
-        <v>-52900</v>
+        <v>-50900</v>
       </c>
       <c r="H102" s="3">
-        <v>-27000</v>
+        <v>-25900</v>
       </c>
       <c r="I102" s="3">
-        <v>238700</v>
+        <v>229400</v>
       </c>
       <c r="J102" s="3">
-        <v>-29100</v>
+        <v>-27900</v>
       </c>
       <c r="K102" s="3">
         <v>-74500</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>13727200</v>
+        <v>14049300</v>
       </c>
       <c r="E8" s="3">
-        <v>10578400</v>
+        <v>10826600</v>
       </c>
       <c r="F8" s="3">
-        <v>11985800</v>
+        <v>12267000</v>
       </c>
       <c r="G8" s="3">
-        <v>11488100</v>
+        <v>11757600</v>
       </c>
       <c r="H8" s="3">
-        <v>11033200</v>
+        <v>11292100</v>
       </c>
       <c r="I8" s="3">
-        <v>9109300</v>
+        <v>9323000</v>
       </c>
       <c r="J8" s="3">
-        <v>6312500</v>
+        <v>6460600</v>
       </c>
       <c r="K8" s="3">
         <v>7019600</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8596600</v>
+        <v>8798300</v>
       </c>
       <c r="E9" s="3">
-        <v>6762400</v>
+        <v>6921000</v>
       </c>
       <c r="F9" s="3">
-        <v>7379800</v>
+        <v>7552900</v>
       </c>
       <c r="G9" s="3">
-        <v>6994800</v>
+        <v>7158900</v>
       </c>
       <c r="H9" s="3">
-        <v>6729500</v>
+        <v>6887300</v>
       </c>
       <c r="I9" s="3">
-        <v>5569500</v>
+        <v>5700100</v>
       </c>
       <c r="J9" s="3">
-        <v>12442600</v>
+        <v>12734500</v>
       </c>
       <c r="K9" s="3">
         <v>14979800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5130600</v>
+        <v>5251000</v>
       </c>
       <c r="E10" s="3">
-        <v>3816100</v>
+        <v>3905600</v>
       </c>
       <c r="F10" s="3">
-        <v>4606000</v>
+        <v>4714100</v>
       </c>
       <c r="G10" s="3">
-        <v>4493300</v>
+        <v>4598700</v>
       </c>
       <c r="H10" s="3">
-        <v>4303800</v>
+        <v>4404800</v>
       </c>
       <c r="I10" s="3">
-        <v>3539800</v>
+        <v>3622800</v>
       </c>
       <c r="J10" s="3">
-        <v>-6130000</v>
+        <v>-6273800</v>
       </c>
       <c r="K10" s="3">
         <v>-7960200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>57800</v>
+        <v>59200</v>
       </c>
       <c r="E14" s="3">
-        <v>90800</v>
+        <v>92900</v>
       </c>
       <c r="F14" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="G14" s="3">
-        <v>46900</v>
+        <v>48000</v>
       </c>
       <c r="H14" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="K14" s="3">
         <v>91500</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>83800</v>
+        <v>85700</v>
       </c>
       <c r="E15" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="F15" s="3">
+        <v>44900</v>
+      </c>
+      <c r="G15" s="3">
         <v>43900</v>
       </c>
-      <c r="G15" s="3">
-        <v>42900</v>
-      </c>
       <c r="H15" s="3">
-        <v>37900</v>
+        <v>38800</v>
       </c>
       <c r="I15" s="3">
-        <v>32900</v>
+        <v>33700</v>
       </c>
       <c r="J15" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="K15" s="3">
         <v>238200</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12215200</v>
+        <v>12501700</v>
       </c>
       <c r="E17" s="3">
-        <v>9767500</v>
+        <v>9996700</v>
       </c>
       <c r="F17" s="3">
-        <v>10441800</v>
+        <v>10686800</v>
       </c>
       <c r="G17" s="3">
-        <v>10191400</v>
+        <v>10430500</v>
       </c>
       <c r="H17" s="3">
-        <v>9776500</v>
+        <v>10005900</v>
       </c>
       <c r="I17" s="3">
-        <v>8260500</v>
+        <v>8454300</v>
       </c>
       <c r="J17" s="3">
-        <v>5555500</v>
+        <v>5685900</v>
       </c>
       <c r="K17" s="3">
         <v>6176200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1512100</v>
+        <v>1547500</v>
       </c>
       <c r="E18" s="3">
-        <v>810900</v>
+        <v>829900</v>
       </c>
       <c r="F18" s="3">
-        <v>1544000</v>
+        <v>1580200</v>
       </c>
       <c r="G18" s="3">
-        <v>1296600</v>
+        <v>1327000</v>
       </c>
       <c r="H18" s="3">
-        <v>1256700</v>
+        <v>1286200</v>
       </c>
       <c r="I18" s="3">
-        <v>848800</v>
+        <v>868700</v>
       </c>
       <c r="J18" s="3">
-        <v>757000</v>
+        <v>774800</v>
       </c>
       <c r="K18" s="3">
         <v>843400</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28900</v>
+        <v>29600</v>
       </c>
       <c r="E20" s="3">
-        <v>18000</v>
+        <v>18400</v>
       </c>
       <c r="F20" s="3">
-        <v>42900</v>
+        <v>43900</v>
       </c>
       <c r="G20" s="3">
-        <v>38900</v>
+        <v>39800</v>
       </c>
       <c r="H20" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="I20" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="J20" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="K20" s="3">
         <v>32700</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2320200</v>
+        <v>2360000</v>
       </c>
       <c r="E21" s="3">
-        <v>1553300</v>
+        <v>1576100</v>
       </c>
       <c r="F21" s="3">
-        <v>2223600</v>
+        <v>2263800</v>
       </c>
       <c r="G21" s="3">
-        <v>1845700</v>
+        <v>1879400</v>
       </c>
       <c r="H21" s="3">
-        <v>1784900</v>
+        <v>1817600</v>
       </c>
       <c r="I21" s="3">
-        <v>1232500</v>
+        <v>1254400</v>
       </c>
       <c r="J21" s="3">
-        <v>1015100</v>
+        <v>1034300</v>
       </c>
       <c r="K21" s="3">
         <v>1139900</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>162600</v>
+        <v>166400</v>
       </c>
       <c r="E22" s="3">
-        <v>135600</v>
+        <v>138800</v>
       </c>
       <c r="F22" s="3">
-        <v>136600</v>
+        <v>139800</v>
       </c>
       <c r="G22" s="3">
-        <v>133700</v>
+        <v>136800</v>
       </c>
       <c r="H22" s="3">
-        <v>140600</v>
+        <v>143900</v>
       </c>
       <c r="I22" s="3">
-        <v>144600</v>
+        <v>148000</v>
       </c>
       <c r="J22" s="3">
-        <v>126700</v>
+        <v>129600</v>
       </c>
       <c r="K22" s="3">
         <v>133200</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1378400</v>
+        <v>1410700</v>
       </c>
       <c r="E23" s="3">
-        <v>693200</v>
+        <v>709500</v>
       </c>
       <c r="F23" s="3">
-        <v>1450200</v>
+        <v>1484200</v>
       </c>
       <c r="G23" s="3">
-        <v>1201900</v>
+        <v>1230100</v>
       </c>
       <c r="H23" s="3">
-        <v>1156000</v>
+        <v>1183100</v>
       </c>
       <c r="I23" s="3">
-        <v>717100</v>
+        <v>734000</v>
       </c>
       <c r="J23" s="3">
-        <v>642300</v>
+        <v>657400</v>
       </c>
       <c r="K23" s="3">
         <v>742900</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>393000</v>
+        <v>402200</v>
       </c>
       <c r="E24" s="3">
-        <v>196500</v>
+        <v>201100</v>
       </c>
       <c r="F24" s="3">
-        <v>363100</v>
+        <v>371600</v>
       </c>
       <c r="G24" s="3">
-        <v>322200</v>
+        <v>329700</v>
       </c>
       <c r="H24" s="3">
-        <v>150600</v>
+        <v>154100</v>
       </c>
       <c r="I24" s="3">
-        <v>169600</v>
+        <v>173500</v>
       </c>
       <c r="J24" s="3">
-        <v>130700</v>
+        <v>133700</v>
       </c>
       <c r="K24" s="3">
         <v>196500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>985400</v>
+        <v>1008600</v>
       </c>
       <c r="E26" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="F26" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="G26" s="3">
-        <v>879700</v>
+        <v>900300</v>
       </c>
       <c r="H26" s="3">
-        <v>1005400</v>
+        <v>1029000</v>
       </c>
       <c r="I26" s="3">
-        <v>547600</v>
+        <v>560400</v>
       </c>
       <c r="J26" s="3">
-        <v>511700</v>
+        <v>523700</v>
       </c>
       <c r="K26" s="3">
         <v>546500</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>979400</v>
+        <v>1002400</v>
       </c>
       <c r="E27" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="F27" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="G27" s="3">
-        <v>879700</v>
+        <v>900300</v>
       </c>
       <c r="H27" s="3">
-        <v>1005400</v>
+        <v>1029000</v>
       </c>
       <c r="I27" s="3">
-        <v>547600</v>
+        <v>560400</v>
       </c>
       <c r="J27" s="3">
-        <v>511700</v>
+        <v>523700</v>
       </c>
       <c r="K27" s="3">
         <v>546500</v>
@@ -1422,10 +1422,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>26900</v>
+        <v>27600</v>
       </c>
       <c r="H29" s="3">
-        <v>-319200</v>
+        <v>-326700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28900</v>
+        <v>-29600</v>
       </c>
       <c r="E32" s="3">
-        <v>-18000</v>
+        <v>-18400</v>
       </c>
       <c r="F32" s="3">
-        <v>-42900</v>
+        <v>-43900</v>
       </c>
       <c r="G32" s="3">
-        <v>-38900</v>
+        <v>-39800</v>
       </c>
       <c r="H32" s="3">
-        <v>-39900</v>
+        <v>-40800</v>
       </c>
       <c r="I32" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="J32" s="3">
-        <v>-12000</v>
+        <v>-12200</v>
       </c>
       <c r="K32" s="3">
         <v>-32700</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>979400</v>
+        <v>1002400</v>
       </c>
       <c r="E33" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="F33" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="G33" s="3">
-        <v>906600</v>
+        <v>927900</v>
       </c>
       <c r="H33" s="3">
-        <v>686200</v>
+        <v>702300</v>
       </c>
       <c r="I33" s="3">
-        <v>547600</v>
+        <v>560400</v>
       </c>
       <c r="J33" s="3">
-        <v>511700</v>
+        <v>523700</v>
       </c>
       <c r="K33" s="3">
         <v>546500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>979400</v>
+        <v>1002400</v>
       </c>
       <c r="E35" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="F35" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="G35" s="3">
-        <v>906600</v>
+        <v>927900</v>
       </c>
       <c r="H35" s="3">
-        <v>686200</v>
+        <v>702300</v>
       </c>
       <c r="I35" s="3">
-        <v>547600</v>
+        <v>560400</v>
       </c>
       <c r="J35" s="3">
-        <v>511700</v>
+        <v>523700</v>
       </c>
       <c r="K35" s="3">
         <v>546500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>706200</v>
+        <v>722700</v>
       </c>
       <c r="E41" s="3">
-        <v>641300</v>
+        <v>656400</v>
       </c>
       <c r="F41" s="3">
-        <v>169600</v>
+        <v>173500</v>
       </c>
       <c r="G41" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="H41" s="3">
-        <v>303200</v>
+        <v>310300</v>
       </c>
       <c r="I41" s="3">
-        <v>278300</v>
+        <v>284800</v>
       </c>
       <c r="J41" s="3">
-        <v>402900</v>
+        <v>412400</v>
       </c>
       <c r="K41" s="3">
         <v>631200</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>755000</v>
+        <v>772700</v>
       </c>
       <c r="E42" s="3">
-        <v>877700</v>
+        <v>898300</v>
       </c>
       <c r="F42" s="3">
-        <v>145600</v>
+        <v>149000</v>
       </c>
       <c r="G42" s="3">
-        <v>29900</v>
+        <v>30600</v>
       </c>
       <c r="H42" s="3">
-        <v>55900</v>
+        <v>57200</v>
       </c>
       <c r="I42" s="3">
-        <v>106700</v>
+        <v>109200</v>
       </c>
       <c r="J42" s="3">
-        <v>77800</v>
+        <v>79600</v>
       </c>
       <c r="K42" s="3">
         <v>36100</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2487500</v>
+        <v>2545900</v>
       </c>
       <c r="E43" s="3">
-        <v>1603800</v>
+        <v>1641400</v>
       </c>
       <c r="F43" s="3">
-        <v>1963900</v>
+        <v>2010000</v>
       </c>
       <c r="G43" s="3">
-        <v>1909000</v>
+        <v>1953800</v>
       </c>
       <c r="H43" s="3">
-        <v>2223200</v>
+        <v>2275400</v>
       </c>
       <c r="I43" s="3">
-        <v>2264100</v>
+        <v>2317200</v>
       </c>
       <c r="J43" s="3">
-        <v>3845000</v>
+        <v>3935200</v>
       </c>
       <c r="K43" s="3">
         <v>4700400</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1154000</v>
+        <v>1181100</v>
       </c>
       <c r="E44" s="3">
-        <v>679200</v>
+        <v>695200</v>
       </c>
       <c r="F44" s="3">
-        <v>721100</v>
+        <v>738000</v>
       </c>
       <c r="G44" s="3">
-        <v>691200</v>
+        <v>707400</v>
       </c>
       <c r="H44" s="3">
-        <v>648300</v>
+        <v>663500</v>
       </c>
       <c r="I44" s="3">
-        <v>671300</v>
+        <v>687000</v>
       </c>
       <c r="J44" s="3">
-        <v>1075200</v>
+        <v>1100400</v>
       </c>
       <c r="K44" s="3">
         <v>1282700</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>642300</v>
+        <v>657400</v>
       </c>
       <c r="E45" s="3">
-        <v>263300</v>
+        <v>269500</v>
       </c>
       <c r="F45" s="3">
-        <v>94800</v>
+        <v>97000</v>
       </c>
       <c r="G45" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="H45" s="3">
-        <v>74800</v>
+        <v>76600</v>
       </c>
       <c r="I45" s="3">
-        <v>95800</v>
+        <v>98000</v>
       </c>
       <c r="J45" s="3">
-        <v>307200</v>
+        <v>314400</v>
       </c>
       <c r="K45" s="3">
         <v>513700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5745000</v>
+        <v>5879800</v>
       </c>
       <c r="E46" s="3">
-        <v>4065400</v>
+        <v>4160800</v>
       </c>
       <c r="F46" s="3">
-        <v>3094900</v>
+        <v>3167500</v>
       </c>
       <c r="G46" s="3">
-        <v>2983200</v>
+        <v>3053200</v>
       </c>
       <c r="H46" s="3">
-        <v>3305400</v>
+        <v>3382900</v>
       </c>
       <c r="I46" s="3">
-        <v>3416100</v>
+        <v>3496200</v>
       </c>
       <c r="J46" s="3">
-        <v>1878100</v>
+        <v>1922200</v>
       </c>
       <c r="K46" s="3">
         <v>2267200</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5234400</v>
+        <v>5357200</v>
       </c>
       <c r="E48" s="3">
-        <v>3850000</v>
+        <v>3940300</v>
       </c>
       <c r="F48" s="3">
-        <v>4194100</v>
+        <v>4292500</v>
       </c>
       <c r="G48" s="3">
-        <v>3877900</v>
+        <v>3968900</v>
       </c>
       <c r="H48" s="3">
-        <v>3827000</v>
+        <v>3916800</v>
       </c>
       <c r="I48" s="3">
-        <v>3982600</v>
+        <v>4076100</v>
       </c>
       <c r="J48" s="3">
-        <v>5290200</v>
+        <v>5414300</v>
       </c>
       <c r="K48" s="3">
         <v>6150200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17217100</v>
+        <v>17621000</v>
       </c>
       <c r="E49" s="3">
-        <v>10902600</v>
+        <v>11158400</v>
       </c>
       <c r="F49" s="3">
-        <v>10997300</v>
+        <v>11255300</v>
       </c>
       <c r="G49" s="3">
-        <v>10873700</v>
+        <v>11128800</v>
       </c>
       <c r="H49" s="3">
-        <v>10875600</v>
+        <v>11130800</v>
       </c>
       <c r="I49" s="3">
-        <v>10743000</v>
+        <v>10995000</v>
       </c>
       <c r="J49" s="3">
-        <v>9930100</v>
+        <v>10163100</v>
       </c>
       <c r="K49" s="3">
         <v>11288700</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>817900</v>
+        <v>837100</v>
       </c>
       <c r="E52" s="3">
-        <v>369000</v>
+        <v>377700</v>
       </c>
       <c r="F52" s="3">
-        <v>350100</v>
+        <v>358300</v>
       </c>
       <c r="G52" s="3">
-        <v>433900</v>
+        <v>444000</v>
       </c>
       <c r="H52" s="3">
-        <v>138600</v>
+        <v>141900</v>
       </c>
       <c r="I52" s="3">
-        <v>378000</v>
+        <v>386900</v>
       </c>
       <c r="J52" s="3">
-        <v>364100</v>
+        <v>372600</v>
       </c>
       <c r="K52" s="3">
         <v>493400</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29014400</v>
+        <v>29695100</v>
       </c>
       <c r="E54" s="3">
-        <v>19187000</v>
+        <v>19637100</v>
       </c>
       <c r="F54" s="3">
-        <v>18636400</v>
+        <v>19073600</v>
       </c>
       <c r="G54" s="3">
-        <v>18168600</v>
+        <v>18594900</v>
       </c>
       <c r="H54" s="3">
-        <v>18146700</v>
+        <v>18572400</v>
       </c>
       <c r="I54" s="3">
-        <v>18519700</v>
+        <v>18954200</v>
       </c>
       <c r="J54" s="3">
-        <v>6977800</v>
+        <v>7141500</v>
       </c>
       <c r="K54" s="3">
         <v>7957900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1686600</v>
+        <v>1726200</v>
       </c>
       <c r="E57" s="3">
-        <v>1121100</v>
+        <v>1147400</v>
       </c>
       <c r="F57" s="3">
-        <v>1135000</v>
+        <v>1161700</v>
       </c>
       <c r="G57" s="3">
-        <v>1102100</v>
+        <v>1128000</v>
       </c>
       <c r="H57" s="3">
-        <v>1054300</v>
+        <v>1079000</v>
       </c>
       <c r="I57" s="3">
-        <v>901600</v>
+        <v>922800</v>
       </c>
       <c r="J57" s="3">
-        <v>2412700</v>
+        <v>2469300</v>
       </c>
       <c r="K57" s="3">
         <v>2853200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1346500</v>
+        <v>1378100</v>
       </c>
       <c r="E58" s="3">
-        <v>802900</v>
+        <v>821700</v>
       </c>
       <c r="F58" s="3">
-        <v>796900</v>
+        <v>815600</v>
       </c>
       <c r="G58" s="3">
-        <v>489700</v>
+        <v>501200</v>
       </c>
       <c r="H58" s="3">
-        <v>273300</v>
+        <v>279700</v>
       </c>
       <c r="I58" s="3">
-        <v>872700</v>
+        <v>893200</v>
       </c>
       <c r="J58" s="3">
-        <v>869700</v>
+        <v>890100</v>
       </c>
       <c r="K58" s="3">
         <v>1304100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3044100</v>
+        <v>3115500</v>
       </c>
       <c r="E59" s="3">
-        <v>2205300</v>
+        <v>2257000</v>
       </c>
       <c r="F59" s="3">
-        <v>2172300</v>
+        <v>2223300</v>
       </c>
       <c r="G59" s="3">
-        <v>2190300</v>
+        <v>2241700</v>
       </c>
       <c r="H59" s="3">
-        <v>1950900</v>
+        <v>1996700</v>
       </c>
       <c r="I59" s="3">
-        <v>1967900</v>
+        <v>2014000</v>
       </c>
       <c r="J59" s="3">
-        <v>2476500</v>
+        <v>2534600</v>
       </c>
       <c r="K59" s="3">
         <v>2900700</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6077200</v>
+        <v>6219700</v>
       </c>
       <c r="E60" s="3">
-        <v>4129200</v>
+        <v>4226100</v>
       </c>
       <c r="F60" s="3">
-        <v>4104300</v>
+        <v>4200600</v>
       </c>
       <c r="G60" s="3">
-        <v>3782100</v>
+        <v>3870900</v>
       </c>
       <c r="H60" s="3">
-        <v>3278500</v>
+        <v>3355400</v>
       </c>
       <c r="I60" s="3">
-        <v>3742200</v>
+        <v>3830000</v>
       </c>
       <c r="J60" s="3">
-        <v>2000800</v>
+        <v>2047700</v>
       </c>
       <c r="K60" s="3">
         <v>2433200</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11759300</v>
+        <v>12035200</v>
       </c>
       <c r="E61" s="3">
-        <v>6365400</v>
+        <v>6514700</v>
       </c>
       <c r="F61" s="3">
-        <v>5607400</v>
+        <v>5738900</v>
       </c>
       <c r="G61" s="3">
-        <v>5113700</v>
+        <v>5233600</v>
       </c>
       <c r="H61" s="3">
-        <v>5459800</v>
+        <v>5587900</v>
       </c>
       <c r="I61" s="3">
-        <v>5547500</v>
+        <v>5677700</v>
       </c>
       <c r="J61" s="3">
-        <v>3113900</v>
+        <v>3186900</v>
       </c>
       <c r="K61" s="3">
         <v>3083600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3986600</v>
+        <v>4080100</v>
       </c>
       <c r="E62" s="3">
-        <v>2683000</v>
+        <v>2746000</v>
       </c>
       <c r="F62" s="3">
-        <v>2784700</v>
+        <v>2850100</v>
       </c>
       <c r="G62" s="3">
-        <v>2725900</v>
+        <v>2789800</v>
       </c>
       <c r="H62" s="3">
-        <v>2740900</v>
+        <v>2805200</v>
       </c>
       <c r="I62" s="3">
-        <v>2785700</v>
+        <v>2851100</v>
       </c>
       <c r="J62" s="3">
-        <v>2102500</v>
+        <v>2151800</v>
       </c>
       <c r="K62" s="3">
         <v>2453500</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21999700</v>
+        <v>22515800</v>
       </c>
       <c r="E66" s="3">
-        <v>13177600</v>
+        <v>13486800</v>
       </c>
       <c r="F66" s="3">
-        <v>12496400</v>
+        <v>12789600</v>
       </c>
       <c r="G66" s="3">
-        <v>11621700</v>
+        <v>11894400</v>
       </c>
       <c r="H66" s="3">
-        <v>11479100</v>
+        <v>11748400</v>
       </c>
       <c r="I66" s="3">
-        <v>12075500</v>
+        <v>12358800</v>
       </c>
       <c r="J66" s="3">
-        <v>6109100</v>
+        <v>6252400</v>
       </c>
       <c r="K66" s="3">
         <v>6617700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6950900</v>
+        <v>7114000</v>
       </c>
       <c r="E72" s="3">
-        <v>6348500</v>
+        <v>6497400</v>
       </c>
       <c r="F72" s="3">
-        <v>6405300</v>
+        <v>6555600</v>
       </c>
       <c r="G72" s="3">
-        <v>6940900</v>
+        <v>7103700</v>
       </c>
       <c r="H72" s="3">
-        <v>7037700</v>
+        <v>7202800</v>
       </c>
       <c r="I72" s="3">
-        <v>6743400</v>
+        <v>6901600</v>
       </c>
       <c r="J72" s="3">
-        <v>3944700</v>
+        <v>4037300</v>
       </c>
       <c r="K72" s="3">
         <v>3770100</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7014700</v>
+        <v>7179300</v>
       </c>
       <c r="E76" s="3">
-        <v>6009300</v>
+        <v>6150300</v>
       </c>
       <c r="F76" s="3">
-        <v>6140000</v>
+        <v>6284000</v>
       </c>
       <c r="G76" s="3">
-        <v>6546900</v>
+        <v>6700500</v>
       </c>
       <c r="H76" s="3">
-        <v>6667600</v>
+        <v>6824000</v>
       </c>
       <c r="I76" s="3">
-        <v>6444200</v>
+        <v>6595400</v>
       </c>
       <c r="J76" s="3">
-        <v>868700</v>
+        <v>889100</v>
       </c>
       <c r="K76" s="3">
         <v>1340200</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>979400</v>
+        <v>1002400</v>
       </c>
       <c r="E81" s="3">
-        <v>496700</v>
+        <v>508400</v>
       </c>
       <c r="F81" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="G81" s="3">
-        <v>906600</v>
+        <v>927900</v>
       </c>
       <c r="H81" s="3">
-        <v>686200</v>
+        <v>702300</v>
       </c>
       <c r="I81" s="3">
-        <v>547600</v>
+        <v>560400</v>
       </c>
       <c r="J81" s="3">
-        <v>511700</v>
+        <v>523700</v>
       </c>
       <c r="K81" s="3">
         <v>546500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>780000</v>
+        <v>798300</v>
       </c>
       <c r="E83" s="3">
-        <v>725100</v>
+        <v>742100</v>
       </c>
       <c r="F83" s="3">
-        <v>637300</v>
+        <v>652300</v>
       </c>
       <c r="G83" s="3">
-        <v>510700</v>
+        <v>522600</v>
       </c>
       <c r="H83" s="3">
-        <v>488700</v>
+        <v>500200</v>
       </c>
       <c r="I83" s="3">
-        <v>371000</v>
+        <v>379700</v>
       </c>
       <c r="J83" s="3">
-        <v>246400</v>
+        <v>252100</v>
       </c>
       <c r="K83" s="3">
         <v>263100</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2111500</v>
+        <v>2161000</v>
       </c>
       <c r="E89" s="3">
-        <v>1486100</v>
+        <v>1521000</v>
       </c>
       <c r="F89" s="3">
-        <v>1899000</v>
+        <v>1943600</v>
       </c>
       <c r="G89" s="3">
-        <v>1801300</v>
+        <v>1843600</v>
       </c>
       <c r="H89" s="3">
-        <v>1618800</v>
+        <v>1656800</v>
       </c>
       <c r="I89" s="3">
-        <v>1240800</v>
+        <v>1269900</v>
       </c>
       <c r="J89" s="3">
-        <v>919600</v>
+        <v>941200</v>
       </c>
       <c r="K89" s="3">
         <v>920200</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-348100</v>
+        <v>-356300</v>
       </c>
       <c r="E91" s="3">
-        <v>-347100</v>
+        <v>-355200</v>
       </c>
       <c r="F91" s="3">
-        <v>-504700</v>
+        <v>-516500</v>
       </c>
       <c r="G91" s="3">
-        <v>-523600</v>
+        <v>-535900</v>
       </c>
       <c r="H91" s="3">
-        <v>-482700</v>
+        <v>-494100</v>
       </c>
       <c r="I91" s="3">
-        <v>-457800</v>
+        <v>-468500</v>
       </c>
       <c r="J91" s="3">
-        <v>-611400</v>
+        <v>-625800</v>
       </c>
       <c r="K91" s="3">
         <v>-625500</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5590400</v>
+        <v>-5721600</v>
       </c>
       <c r="E94" s="3">
-        <v>-369000</v>
+        <v>-377700</v>
       </c>
       <c r="F94" s="3">
-        <v>-597400</v>
+        <v>-611500</v>
       </c>
       <c r="G94" s="3">
-        <v>-594500</v>
+        <v>-608400</v>
       </c>
       <c r="H94" s="3">
-        <v>-486700</v>
+        <v>-498200</v>
       </c>
       <c r="I94" s="3">
-        <v>-382000</v>
+        <v>-391000</v>
       </c>
       <c r="J94" s="3">
-        <v>-271300</v>
+        <v>-277700</v>
       </c>
       <c r="K94" s="3">
         <v>-233700</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-636300</v>
+        <v>-651300</v>
       </c>
       <c r="E96" s="3">
-        <v>-385000</v>
+        <v>-394000</v>
       </c>
       <c r="F96" s="3">
-        <v>-572500</v>
+        <v>-585900</v>
       </c>
       <c r="G96" s="3">
-        <v>-511700</v>
+        <v>-523700</v>
       </c>
       <c r="H96" s="3">
-        <v>-487700</v>
+        <v>-499200</v>
       </c>
       <c r="I96" s="3">
-        <v>-203500</v>
+        <v>-208200</v>
       </c>
       <c r="J96" s="3">
-        <v>-487700</v>
+        <v>-499200</v>
       </c>
       <c r="K96" s="3">
         <v>-486600</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3280400</v>
+        <v>3357400</v>
       </c>
       <c r="E100" s="3">
-        <v>99700</v>
+        <v>102100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1298600</v>
+        <v>-1329100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1255700</v>
+        <v>-1285200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1149000</v>
+        <v>-1176000</v>
       </c>
       <c r="I100" s="3">
-        <v>-624400</v>
+        <v>-639000</v>
       </c>
       <c r="J100" s="3">
-        <v>-683200</v>
+        <v>-699200</v>
       </c>
       <c r="K100" s="3">
         <v>-764400</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>82800</v>
+        <v>84700</v>
       </c>
       <c r="E101" s="3">
-        <v>-13000</v>
+        <v>-13300</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
         <v>-2000</v>
       </c>
       <c r="H101" s="3">
-        <v>-9000</v>
+        <v>-9200</v>
       </c>
       <c r="I101" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="J101" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="K101" s="3">
         <v>3400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-115700</v>
+        <v>-118400</v>
       </c>
       <c r="E102" s="3">
-        <v>1203900</v>
+        <v>1232100</v>
       </c>
       <c r="F102" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="G102" s="3">
-        <v>-50900</v>
+        <v>-52100</v>
       </c>
       <c r="H102" s="3">
-        <v>-25900</v>
+        <v>-26500</v>
       </c>
       <c r="I102" s="3">
-        <v>229400</v>
+        <v>234800</v>
       </c>
       <c r="J102" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="K102" s="3">
         <v>-74500</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14049300</v>
+        <v>18324600</v>
       </c>
       <c r="E8" s="3">
-        <v>10826600</v>
+        <v>14561300</v>
       </c>
       <c r="F8" s="3">
-        <v>12267000</v>
+        <v>11221100</v>
       </c>
       <c r="G8" s="3">
-        <v>11757600</v>
+        <v>12714000</v>
       </c>
       <c r="H8" s="3">
-        <v>11292100</v>
+        <v>12186000</v>
       </c>
       <c r="I8" s="3">
-        <v>9323000</v>
+        <v>11703600</v>
       </c>
       <c r="J8" s="3">
+        <v>9662700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6460600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7019600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9823200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8852100</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8798300</v>
+        <v>11719500</v>
       </c>
       <c r="E9" s="3">
-        <v>6921000</v>
+        <v>9118900</v>
       </c>
       <c r="F9" s="3">
-        <v>7552900</v>
+        <v>7173200</v>
       </c>
       <c r="G9" s="3">
-        <v>7158900</v>
+        <v>7828100</v>
       </c>
       <c r="H9" s="3">
-        <v>6887300</v>
+        <v>7419800</v>
       </c>
       <c r="I9" s="3">
-        <v>5700100</v>
+        <v>7138300</v>
       </c>
       <c r="J9" s="3">
+        <v>5907900</v>
+      </c>
+      <c r="K9" s="3">
         <v>12734500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14979800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6399700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5667900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5251000</v>
+        <v>6605100</v>
       </c>
       <c r="E10" s="3">
-        <v>3905600</v>
+        <v>5442400</v>
       </c>
       <c r="F10" s="3">
-        <v>4714100</v>
+        <v>4047900</v>
       </c>
       <c r="G10" s="3">
-        <v>4598700</v>
+        <v>4885800</v>
       </c>
       <c r="H10" s="3">
-        <v>4404800</v>
+        <v>4766300</v>
       </c>
       <c r="I10" s="3">
-        <v>3622800</v>
+        <v>4565300</v>
       </c>
       <c r="J10" s="3">
+        <v>3754800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-6273800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-7960200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3423500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3184200</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>59200</v>
+        <v>20100</v>
       </c>
       <c r="E14" s="3">
-        <v>92900</v>
+        <v>61400</v>
       </c>
       <c r="F14" s="3">
-        <v>25500</v>
+        <v>96300</v>
       </c>
       <c r="G14" s="3">
-        <v>48000</v>
+        <v>26500</v>
       </c>
       <c r="H14" s="3">
-        <v>25500</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>49700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>26500</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>66400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>91500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>143500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>93300</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>85700</v>
+      <c r="D15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>63300</v>
+        <v>88900</v>
       </c>
       <c r="F15" s="3">
-        <v>44900</v>
+        <v>65600</v>
       </c>
       <c r="G15" s="3">
-        <v>43900</v>
+        <v>46600</v>
       </c>
       <c r="H15" s="3">
-        <v>38800</v>
+        <v>45500</v>
       </c>
       <c r="I15" s="3">
-        <v>33700</v>
+        <v>40200</v>
       </c>
       <c r="J15" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K15" s="3">
         <v>191900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>238200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>227300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>235000</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>12501700</v>
+        <v>16117600</v>
       </c>
       <c r="E17" s="3">
-        <v>9996700</v>
+        <v>12957300</v>
       </c>
       <c r="F17" s="3">
-        <v>10686800</v>
+        <v>10361000</v>
       </c>
       <c r="G17" s="3">
-        <v>10430500</v>
+        <v>11076200</v>
       </c>
       <c r="H17" s="3">
-        <v>10005900</v>
+        <v>10810600</v>
       </c>
       <c r="I17" s="3">
-        <v>8454300</v>
+        <v>10370500</v>
       </c>
       <c r="J17" s="3">
+        <v>8762400</v>
+      </c>
+      <c r="K17" s="3">
         <v>5685900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6176200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8729900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7833100</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1547500</v>
+        <v>2207000</v>
       </c>
       <c r="E18" s="3">
-        <v>829900</v>
+        <v>1603900</v>
       </c>
       <c r="F18" s="3">
-        <v>1580200</v>
+        <v>860200</v>
       </c>
       <c r="G18" s="3">
-        <v>1327000</v>
+        <v>1637800</v>
       </c>
       <c r="H18" s="3">
-        <v>1286200</v>
+        <v>1375400</v>
       </c>
       <c r="I18" s="3">
-        <v>868700</v>
+        <v>1333100</v>
       </c>
       <c r="J18" s="3">
+        <v>900400</v>
+      </c>
+      <c r="K18" s="3">
         <v>774800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>843400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1093300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1018900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>29600</v>
+        <v>-136500</v>
       </c>
       <c r="E20" s="3">
-        <v>18400</v>
+        <v>30700</v>
       </c>
       <c r="F20" s="3">
-        <v>43900</v>
+        <v>19000</v>
       </c>
       <c r="G20" s="3">
-        <v>39800</v>
+        <v>45500</v>
       </c>
       <c r="H20" s="3">
-        <v>40800</v>
+        <v>41300</v>
       </c>
       <c r="I20" s="3">
-        <v>13300</v>
+        <v>42300</v>
       </c>
       <c r="J20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K20" s="3">
         <v>12200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-130400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2360000</v>
+        <v>2930900</v>
       </c>
       <c r="E21" s="3">
-        <v>1576100</v>
+        <v>2459200</v>
       </c>
       <c r="F21" s="3">
-        <v>2263800</v>
+        <v>1645700</v>
       </c>
       <c r="G21" s="3">
-        <v>1879400</v>
+        <v>2357000</v>
       </c>
       <c r="H21" s="3">
-        <v>1817600</v>
+        <v>1956500</v>
       </c>
       <c r="I21" s="3">
-        <v>1254400</v>
+        <v>1892100</v>
       </c>
       <c r="J21" s="3">
+        <v>1306300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1034300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1139900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1329900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1390600</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>166400</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>138800</v>
+        <v>172500</v>
       </c>
       <c r="F22" s="3">
-        <v>139800</v>
+        <v>143900</v>
       </c>
       <c r="G22" s="3">
-        <v>136800</v>
+        <v>144900</v>
       </c>
       <c r="H22" s="3">
-        <v>143900</v>
+        <v>141800</v>
       </c>
       <c r="I22" s="3">
-        <v>148000</v>
+        <v>149200</v>
       </c>
       <c r="J22" s="3">
+        <v>153400</v>
+      </c>
+      <c r="K22" s="3">
         <v>129600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>133200</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>103200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1410700</v>
+        <v>2070500</v>
       </c>
       <c r="E23" s="3">
-        <v>709500</v>
+        <v>1462200</v>
       </c>
       <c r="F23" s="3">
-        <v>1484200</v>
+        <v>735300</v>
       </c>
       <c r="G23" s="3">
-        <v>1230100</v>
+        <v>1538300</v>
       </c>
       <c r="H23" s="3">
-        <v>1183100</v>
+        <v>1274900</v>
       </c>
       <c r="I23" s="3">
-        <v>734000</v>
+        <v>1226200</v>
       </c>
       <c r="J23" s="3">
+        <v>760700</v>
+      </c>
+      <c r="K23" s="3">
         <v>657400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>742900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>962900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>919000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>402200</v>
+        <v>461300</v>
       </c>
       <c r="E24" s="3">
-        <v>201100</v>
+        <v>416900</v>
       </c>
       <c r="F24" s="3">
-        <v>371600</v>
+        <v>208400</v>
       </c>
       <c r="G24" s="3">
-        <v>329700</v>
+        <v>385100</v>
       </c>
       <c r="H24" s="3">
-        <v>154100</v>
+        <v>341700</v>
       </c>
       <c r="I24" s="3">
-        <v>173500</v>
+        <v>159800</v>
       </c>
       <c r="J24" s="3">
+        <v>179900</v>
+      </c>
+      <c r="K24" s="3">
         <v>133700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>196500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>165100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>175700</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1008600</v>
+        <v>1609200</v>
       </c>
       <c r="E26" s="3">
-        <v>508400</v>
+        <v>1045300</v>
       </c>
       <c r="F26" s="3">
-        <v>1112700</v>
+        <v>526900</v>
       </c>
       <c r="G26" s="3">
-        <v>900300</v>
+        <v>1153200</v>
       </c>
       <c r="H26" s="3">
-        <v>1029000</v>
+        <v>933200</v>
       </c>
       <c r="I26" s="3">
-        <v>560400</v>
+        <v>1066500</v>
       </c>
       <c r="J26" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K26" s="3">
         <v>523700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>546500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>797900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>743300</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1002400</v>
+        <v>1595500</v>
       </c>
       <c r="E27" s="3">
-        <v>508400</v>
+        <v>1039000</v>
       </c>
       <c r="F27" s="3">
-        <v>1112700</v>
+        <v>526900</v>
       </c>
       <c r="G27" s="3">
-        <v>900300</v>
+        <v>1153200</v>
       </c>
       <c r="H27" s="3">
-        <v>1029000</v>
+        <v>933200</v>
       </c>
       <c r="I27" s="3">
-        <v>560400</v>
+        <v>1066500</v>
       </c>
       <c r="J27" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K27" s="3">
         <v>523700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>546500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>797900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>743300</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,14 +1481,14 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>27600</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-326700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>28600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-338600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-29600</v>
+        <v>136500</v>
       </c>
       <c r="E32" s="3">
-        <v>-18400</v>
+        <v>-30700</v>
       </c>
       <c r="F32" s="3">
-        <v>-43900</v>
+        <v>-19000</v>
       </c>
       <c r="G32" s="3">
-        <v>-39800</v>
+        <v>-45500</v>
       </c>
       <c r="H32" s="3">
-        <v>-40800</v>
+        <v>-41300</v>
       </c>
       <c r="I32" s="3">
-        <v>-13300</v>
+        <v>-42300</v>
       </c>
       <c r="J32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>130400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1002400</v>
+        <v>1595500</v>
       </c>
       <c r="E33" s="3">
-        <v>508400</v>
+        <v>1039000</v>
       </c>
       <c r="F33" s="3">
-        <v>1112700</v>
+        <v>526900</v>
       </c>
       <c r="G33" s="3">
-        <v>927900</v>
+        <v>1153200</v>
       </c>
       <c r="H33" s="3">
-        <v>702300</v>
+        <v>961700</v>
       </c>
       <c r="I33" s="3">
-        <v>560400</v>
+        <v>727900</v>
       </c>
       <c r="J33" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K33" s="3">
         <v>523700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>546500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>797900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>743300</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1002400</v>
+        <v>1595500</v>
       </c>
       <c r="E35" s="3">
-        <v>508400</v>
+        <v>1039000</v>
       </c>
       <c r="F35" s="3">
-        <v>1112700</v>
+        <v>526900</v>
       </c>
       <c r="G35" s="3">
-        <v>927900</v>
+        <v>1153200</v>
       </c>
       <c r="H35" s="3">
-        <v>702300</v>
+        <v>961700</v>
       </c>
       <c r="I35" s="3">
-        <v>560400</v>
+        <v>727900</v>
       </c>
       <c r="J35" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K35" s="3">
         <v>523700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>546500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>797900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>743300</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,224 +1817,243 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>722700</v>
+        <v>1467400</v>
       </c>
       <c r="E41" s="3">
-        <v>656400</v>
+        <v>749100</v>
       </c>
       <c r="F41" s="3">
-        <v>173500</v>
+        <v>680300</v>
       </c>
       <c r="G41" s="3">
-        <v>284800</v>
+        <v>179900</v>
       </c>
       <c r="H41" s="3">
-        <v>310300</v>
+        <v>295200</v>
       </c>
       <c r="I41" s="3">
-        <v>284800</v>
+        <v>321600</v>
       </c>
       <c r="J41" s="3">
+        <v>295200</v>
+      </c>
+      <c r="K41" s="3">
         <v>412400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>631200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>410300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>791700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>772700</v>
+        <v>270800</v>
       </c>
       <c r="E42" s="3">
-        <v>898300</v>
+        <v>800900</v>
       </c>
       <c r="F42" s="3">
-        <v>149000</v>
+        <v>931000</v>
       </c>
       <c r="G42" s="3">
-        <v>30600</v>
+        <v>154500</v>
       </c>
       <c r="H42" s="3">
-        <v>57200</v>
+        <v>31700</v>
       </c>
       <c r="I42" s="3">
-        <v>109200</v>
+        <v>59200</v>
       </c>
       <c r="J42" s="3">
+        <v>113200</v>
+      </c>
+      <c r="K42" s="3">
         <v>79600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>36100</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2545900</v>
+        <v>2846000</v>
       </c>
       <c r="E43" s="3">
-        <v>1641400</v>
+        <v>2638700</v>
       </c>
       <c r="F43" s="3">
-        <v>2010000</v>
+        <v>1701300</v>
       </c>
       <c r="G43" s="3">
-        <v>1953800</v>
+        <v>2083200</v>
       </c>
       <c r="H43" s="3">
-        <v>2275400</v>
+        <v>2025000</v>
       </c>
       <c r="I43" s="3">
-        <v>2317200</v>
+        <v>2358300</v>
       </c>
       <c r="J43" s="3">
+        <v>2401700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3935200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4700400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1918700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1644800</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1181100</v>
+        <v>1460000</v>
       </c>
       <c r="E44" s="3">
-        <v>695200</v>
+        <v>1224100</v>
       </c>
       <c r="F44" s="3">
-        <v>738000</v>
+        <v>720500</v>
       </c>
       <c r="G44" s="3">
-        <v>707400</v>
+        <v>764900</v>
       </c>
       <c r="H44" s="3">
-        <v>663500</v>
+        <v>733200</v>
       </c>
       <c r="I44" s="3">
-        <v>687000</v>
+        <v>687700</v>
       </c>
       <c r="J44" s="3">
+        <v>712000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1100400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1282700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>540700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>423800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>657400</v>
+        <v>878100</v>
       </c>
       <c r="E45" s="3">
-        <v>269500</v>
+        <v>681400</v>
       </c>
       <c r="F45" s="3">
-        <v>97000</v>
+        <v>279300</v>
       </c>
       <c r="G45" s="3">
-        <v>76600</v>
+        <v>100500</v>
       </c>
       <c r="H45" s="3">
-        <v>76600</v>
+        <v>79400</v>
       </c>
       <c r="I45" s="3">
-        <v>98000</v>
+        <v>79400</v>
       </c>
       <c r="J45" s="3">
+        <v>101600</v>
+      </c>
+      <c r="K45" s="3">
         <v>314400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>513700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>202200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>172400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5879800</v>
+        <v>6922500</v>
       </c>
       <c r="E46" s="3">
-        <v>4160800</v>
+        <v>6094100</v>
       </c>
       <c r="F46" s="3">
-        <v>3167500</v>
+        <v>4312400</v>
       </c>
       <c r="G46" s="3">
-        <v>3053200</v>
+        <v>3283000</v>
       </c>
       <c r="H46" s="3">
-        <v>3382900</v>
+        <v>3164500</v>
       </c>
       <c r="I46" s="3">
-        <v>3496200</v>
+        <v>3506200</v>
       </c>
       <c r="J46" s="3">
+        <v>3623700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1922200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2267200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3071800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3032700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1983,81 +2087,90 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5357200</v>
+        <v>5502700</v>
       </c>
       <c r="E48" s="3">
-        <v>3940300</v>
+        <v>5552400</v>
       </c>
       <c r="F48" s="3">
-        <v>4292500</v>
+        <v>4083900</v>
       </c>
       <c r="G48" s="3">
-        <v>3968900</v>
+        <v>4448900</v>
       </c>
       <c r="H48" s="3">
-        <v>3916800</v>
+        <v>4113500</v>
       </c>
       <c r="I48" s="3">
-        <v>4076100</v>
+        <v>4059500</v>
       </c>
       <c r="J48" s="3">
+        <v>4224600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5414300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6150200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2814700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2549600</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17621000</v>
+        <v>18097100</v>
       </c>
       <c r="E49" s="3">
-        <v>11158400</v>
+        <v>18263200</v>
       </c>
       <c r="F49" s="3">
-        <v>11255300</v>
+        <v>11565000</v>
       </c>
       <c r="G49" s="3">
-        <v>11128800</v>
+        <v>11665500</v>
       </c>
       <c r="H49" s="3">
-        <v>11130800</v>
+        <v>11534300</v>
       </c>
       <c r="I49" s="3">
-        <v>10995000</v>
+        <v>11536400</v>
       </c>
       <c r="J49" s="3">
+        <v>11395700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10163100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11288700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4937900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4452400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>837100</v>
+        <v>490900</v>
       </c>
       <c r="E52" s="3">
-        <v>377700</v>
+        <v>867600</v>
       </c>
       <c r="F52" s="3">
-        <v>358300</v>
+        <v>391500</v>
       </c>
       <c r="G52" s="3">
-        <v>444000</v>
+        <v>371400</v>
       </c>
       <c r="H52" s="3">
-        <v>141900</v>
+        <v>460200</v>
       </c>
       <c r="I52" s="3">
-        <v>386900</v>
+        <v>147100</v>
       </c>
       <c r="J52" s="3">
+        <v>401000</v>
+      </c>
+      <c r="K52" s="3">
         <v>372600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>493400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>569400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>407400</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29695100</v>
+        <v>31013200</v>
       </c>
       <c r="E54" s="3">
-        <v>19637100</v>
+        <v>30777200</v>
       </c>
       <c r="F54" s="3">
-        <v>19073600</v>
+        <v>20352700</v>
       </c>
       <c r="G54" s="3">
-        <v>18594900</v>
+        <v>19768700</v>
       </c>
       <c r="H54" s="3">
-        <v>18572400</v>
+        <v>19272500</v>
       </c>
       <c r="I54" s="3">
-        <v>18954200</v>
+        <v>19249300</v>
       </c>
       <c r="J54" s="3">
+        <v>19644900</v>
+      </c>
+      <c r="K54" s="3">
         <v>7141500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7957900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11393800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10442000</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1726200</v>
+        <v>5345000</v>
       </c>
       <c r="E57" s="3">
-        <v>1147400</v>
+        <v>1789100</v>
       </c>
       <c r="F57" s="3">
-        <v>1161700</v>
+        <v>1189200</v>
       </c>
       <c r="G57" s="3">
-        <v>1128000</v>
+        <v>1204000</v>
       </c>
       <c r="H57" s="3">
-        <v>1079000</v>
+        <v>1169100</v>
       </c>
       <c r="I57" s="3">
-        <v>922800</v>
+        <v>1118300</v>
       </c>
       <c r="J57" s="3">
+        <v>956400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2469300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2853200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>754800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1481200</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1378100</v>
+        <v>1413500</v>
       </c>
       <c r="E58" s="3">
-        <v>821700</v>
+        <v>1428300</v>
       </c>
       <c r="F58" s="3">
-        <v>815600</v>
+        <v>851700</v>
       </c>
       <c r="G58" s="3">
-        <v>501200</v>
+        <v>845300</v>
       </c>
       <c r="H58" s="3">
-        <v>279700</v>
+        <v>519500</v>
       </c>
       <c r="I58" s="3">
-        <v>893200</v>
+        <v>289900</v>
       </c>
       <c r="J58" s="3">
+        <v>925800</v>
+      </c>
+      <c r="K58" s="3">
         <v>890100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1304100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>132800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>693900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3115500</v>
+        <v>978700</v>
       </c>
       <c r="E59" s="3">
-        <v>2257000</v>
+        <v>3229000</v>
       </c>
       <c r="F59" s="3">
-        <v>2223300</v>
+        <v>2339200</v>
       </c>
       <c r="G59" s="3">
-        <v>2241700</v>
+        <v>2304300</v>
       </c>
       <c r="H59" s="3">
-        <v>1996700</v>
+        <v>2323400</v>
       </c>
       <c r="I59" s="3">
-        <v>2014000</v>
+        <v>2069400</v>
       </c>
       <c r="J59" s="3">
+        <v>2087400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2534600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2900700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1738100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>656600</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6219700</v>
+        <v>7737200</v>
       </c>
       <c r="E60" s="3">
-        <v>4226100</v>
+        <v>6446400</v>
       </c>
       <c r="F60" s="3">
-        <v>4200600</v>
+        <v>4380100</v>
       </c>
       <c r="G60" s="3">
-        <v>3870900</v>
+        <v>4353700</v>
       </c>
       <c r="H60" s="3">
-        <v>3355400</v>
+        <v>4011900</v>
       </c>
       <c r="I60" s="3">
-        <v>3830000</v>
+        <v>3477600</v>
       </c>
       <c r="J60" s="3">
+        <v>3969600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2047700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2433200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2625700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2831700</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12035200</v>
+        <v>11184100</v>
       </c>
       <c r="E61" s="3">
-        <v>6514700</v>
+        <v>12473800</v>
       </c>
       <c r="F61" s="3">
-        <v>5738900</v>
+        <v>6752200</v>
       </c>
       <c r="G61" s="3">
-        <v>5233600</v>
+        <v>5948100</v>
       </c>
       <c r="H61" s="3">
-        <v>5587900</v>
+        <v>5424400</v>
       </c>
       <c r="I61" s="3">
-        <v>5677700</v>
+        <v>5791500</v>
       </c>
       <c r="J61" s="3">
+        <v>5884600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3186900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3083600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4457000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3111700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4080100</v>
+        <v>4213000</v>
       </c>
       <c r="E62" s="3">
-        <v>2746000</v>
+        <v>4228800</v>
       </c>
       <c r="F62" s="3">
-        <v>2850100</v>
+        <v>2846000</v>
       </c>
       <c r="G62" s="3">
-        <v>2789800</v>
+        <v>2953900</v>
       </c>
       <c r="H62" s="3">
-        <v>2805200</v>
+        <v>2891500</v>
       </c>
       <c r="I62" s="3">
-        <v>2851100</v>
+        <v>2907400</v>
       </c>
       <c r="J62" s="3">
+        <v>2955000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2151800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2453500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1583800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1541600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22515800</v>
+        <v>23134200</v>
       </c>
       <c r="E66" s="3">
-        <v>13486800</v>
+        <v>23336300</v>
       </c>
       <c r="F66" s="3">
-        <v>12789600</v>
+        <v>13978300</v>
       </c>
       <c r="G66" s="3">
-        <v>11894400</v>
+        <v>13255700</v>
       </c>
       <c r="H66" s="3">
-        <v>11748400</v>
+        <v>12327800</v>
       </c>
       <c r="I66" s="3">
-        <v>12358800</v>
+        <v>12176500</v>
       </c>
       <c r="J66" s="3">
+        <v>12809200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6252400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6617700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8666500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7485100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7114000</v>
+        <v>7626100</v>
       </c>
       <c r="E72" s="3">
-        <v>6497400</v>
+        <v>7373200</v>
       </c>
       <c r="F72" s="3">
-        <v>6555600</v>
+        <v>6734200</v>
       </c>
       <c r="G72" s="3">
-        <v>7103700</v>
+        <v>6794500</v>
       </c>
       <c r="H72" s="3">
-        <v>7202800</v>
+        <v>7362600</v>
       </c>
       <c r="I72" s="3">
-        <v>6901600</v>
+        <v>7465200</v>
       </c>
       <c r="J72" s="3">
+        <v>7153100</v>
+      </c>
+      <c r="K72" s="3">
         <v>4037300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3770100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1886400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1236300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7179300</v>
+        <v>7878900</v>
       </c>
       <c r="E76" s="3">
-        <v>6150300</v>
+        <v>7440900</v>
       </c>
       <c r="F76" s="3">
-        <v>6284000</v>
+        <v>6374500</v>
       </c>
       <c r="G76" s="3">
-        <v>6700500</v>
+        <v>6513000</v>
       </c>
       <c r="H76" s="3">
-        <v>6824000</v>
+        <v>6944700</v>
       </c>
       <c r="I76" s="3">
-        <v>6595400</v>
+        <v>7072700</v>
       </c>
       <c r="J76" s="3">
+        <v>6835700</v>
+      </c>
+      <c r="K76" s="3">
         <v>889100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1340200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2727300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2956900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1002400</v>
+        <v>1595500</v>
       </c>
       <c r="E81" s="3">
-        <v>508400</v>
+        <v>1039000</v>
       </c>
       <c r="F81" s="3">
-        <v>1112700</v>
+        <v>526900</v>
       </c>
       <c r="G81" s="3">
-        <v>927900</v>
+        <v>1153200</v>
       </c>
       <c r="H81" s="3">
-        <v>702300</v>
+        <v>961700</v>
       </c>
       <c r="I81" s="3">
-        <v>560400</v>
+        <v>727900</v>
       </c>
       <c r="J81" s="3">
+        <v>580800</v>
+      </c>
+      <c r="K81" s="3">
         <v>523700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>546500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>797900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>743300</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>798300</v>
+        <v>863300</v>
       </c>
       <c r="E83" s="3">
-        <v>742100</v>
+        <v>827400</v>
       </c>
       <c r="F83" s="3">
-        <v>652300</v>
+        <v>769200</v>
       </c>
       <c r="G83" s="3">
-        <v>522600</v>
+        <v>676100</v>
       </c>
       <c r="H83" s="3">
-        <v>500200</v>
+        <v>541700</v>
       </c>
       <c r="I83" s="3">
-        <v>379700</v>
+        <v>518400</v>
       </c>
       <c r="J83" s="3">
+        <v>393600</v>
+      </c>
+      <c r="K83" s="3">
         <v>252100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>263100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>368400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>367800</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2161000</v>
+        <v>3102100</v>
       </c>
       <c r="E89" s="3">
-        <v>1521000</v>
+        <v>2239800</v>
       </c>
       <c r="F89" s="3">
-        <v>1943600</v>
+        <v>1576400</v>
       </c>
       <c r="G89" s="3">
-        <v>1843600</v>
+        <v>2014400</v>
       </c>
       <c r="H89" s="3">
-        <v>1656800</v>
+        <v>1910700</v>
       </c>
       <c r="I89" s="3">
-        <v>1269900</v>
+        <v>1717100</v>
       </c>
       <c r="J89" s="3">
+        <v>1316200</v>
+      </c>
+      <c r="K89" s="3">
         <v>941200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>920200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>996400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1039800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-356300</v>
+        <v>-529000</v>
       </c>
       <c r="E91" s="3">
-        <v>-355200</v>
+        <v>-369200</v>
       </c>
       <c r="F91" s="3">
-        <v>-516500</v>
+        <v>-368200</v>
       </c>
       <c r="G91" s="3">
-        <v>-535900</v>
+        <v>-535300</v>
       </c>
       <c r="H91" s="3">
-        <v>-494100</v>
+        <v>-555500</v>
       </c>
       <c r="I91" s="3">
-        <v>-468500</v>
+        <v>-512100</v>
       </c>
       <c r="J91" s="3">
+        <v>-485600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-625800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-625500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-374400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-415000</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5721600</v>
+        <v>-682400</v>
       </c>
       <c r="E94" s="3">
-        <v>-377700</v>
+        <v>-5930100</v>
       </c>
       <c r="F94" s="3">
-        <v>-611500</v>
+        <v>-391500</v>
       </c>
       <c r="G94" s="3">
-        <v>-608400</v>
+        <v>-633700</v>
       </c>
       <c r="H94" s="3">
-        <v>-498200</v>
+        <v>-630600</v>
       </c>
       <c r="I94" s="3">
-        <v>-391000</v>
+        <v>-516300</v>
       </c>
       <c r="J94" s="3">
+        <v>-405200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-277700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-233700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-394700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-409600</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-651300</v>
+        <v>-807300</v>
       </c>
       <c r="E96" s="3">
-        <v>-394000</v>
+        <v>-675000</v>
       </c>
       <c r="F96" s="3">
-        <v>-585900</v>
+        <v>-408400</v>
       </c>
       <c r="G96" s="3">
-        <v>-523700</v>
+        <v>-607300</v>
       </c>
       <c r="H96" s="3">
+        <v>-542800</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-517400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-215800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-499200</v>
       </c>
-      <c r="I96" s="3">
-        <v>-208200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-499200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-486600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-254800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-205300</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3357400</v>
+        <v>-2408000</v>
       </c>
       <c r="E100" s="3">
-        <v>102100</v>
+        <v>3479800</v>
       </c>
       <c r="F100" s="3">
-        <v>-1329100</v>
+        <v>105800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1285200</v>
+        <v>-1377500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1176000</v>
+        <v>-1332000</v>
       </c>
       <c r="I100" s="3">
-        <v>-639000</v>
+        <v>-1218800</v>
       </c>
       <c r="J100" s="3">
+        <v>-662300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-699200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-764400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1071800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-610500</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>84700</v>
+        <v>-32800</v>
       </c>
       <c r="E101" s="3">
-        <v>-13300</v>
+        <v>87800</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>-13800</v>
       </c>
       <c r="G101" s="3">
-        <v>-2000</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-9200</v>
+        <v>-2100</v>
       </c>
       <c r="I101" s="3">
-        <v>-5100</v>
+        <v>-9500</v>
       </c>
       <c r="J101" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K101" s="3">
         <v>7100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>20900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-118400</v>
+        <v>-21200</v>
       </c>
       <c r="E102" s="3">
-        <v>1232100</v>
+        <v>-122700</v>
       </c>
       <c r="F102" s="3">
-        <v>7100</v>
+        <v>1277000</v>
       </c>
       <c r="G102" s="3">
-        <v>-52100</v>
+        <v>7400</v>
       </c>
       <c r="H102" s="3">
-        <v>-26500</v>
+        <v>-54000</v>
       </c>
       <c r="I102" s="3">
-        <v>234800</v>
+        <v>-27500</v>
       </c>
       <c r="J102" s="3">
+        <v>243300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-28600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-74500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-452200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>40600</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>CCEP</t>
   </si>
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18324600</v>
+        <v>18651900</v>
       </c>
       <c r="E8" s="3">
-        <v>14561300</v>
+        <v>14821400</v>
       </c>
       <c r="F8" s="3">
-        <v>11221100</v>
+        <v>11421600</v>
       </c>
       <c r="G8" s="3">
-        <v>12714000</v>
+        <v>12941100</v>
       </c>
       <c r="H8" s="3">
-        <v>12186000</v>
+        <v>12403700</v>
       </c>
       <c r="I8" s="3">
-        <v>11703600</v>
+        <v>11912700</v>
       </c>
       <c r="J8" s="3">
-        <v>9662700</v>
+        <v>9835300</v>
       </c>
       <c r="K8" s="3">
         <v>6460600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11719500</v>
+        <v>11884700</v>
       </c>
       <c r="E9" s="3">
-        <v>9118900</v>
+        <v>9281800</v>
       </c>
       <c r="F9" s="3">
-        <v>7173200</v>
+        <v>7301400</v>
       </c>
       <c r="G9" s="3">
-        <v>7828100</v>
+        <v>7968000</v>
       </c>
       <c r="H9" s="3">
-        <v>7419800</v>
+        <v>7552300</v>
       </c>
       <c r="I9" s="3">
-        <v>7138300</v>
+        <v>7265800</v>
       </c>
       <c r="J9" s="3">
-        <v>5907900</v>
+        <v>6013400</v>
       </c>
       <c r="K9" s="3">
         <v>12734500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6605100</v>
+        <v>6767200</v>
       </c>
       <c r="E10" s="3">
-        <v>5442400</v>
+        <v>5539600</v>
       </c>
       <c r="F10" s="3">
-        <v>4047900</v>
+        <v>4120200</v>
       </c>
       <c r="G10" s="3">
-        <v>4885800</v>
+        <v>4973100</v>
       </c>
       <c r="H10" s="3">
-        <v>4766300</v>
+        <v>4851400</v>
       </c>
       <c r="I10" s="3">
-        <v>4565300</v>
+        <v>4646800</v>
       </c>
       <c r="J10" s="3">
-        <v>3754800</v>
+        <v>3821900</v>
       </c>
       <c r="K10" s="3">
         <v>-6273800</v>
@@ -935,22 +935,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20100</v>
+        <v>64600</v>
       </c>
       <c r="E14" s="3">
-        <v>61400</v>
+        <v>62500</v>
       </c>
       <c r="F14" s="3">
-        <v>96300</v>
+        <v>98000</v>
       </c>
       <c r="G14" s="3">
-        <v>26500</v>
+        <v>26900</v>
       </c>
       <c r="H14" s="3">
-        <v>49700</v>
+        <v>50600</v>
       </c>
       <c r="I14" s="3">
-        <v>26500</v>
+        <v>26900</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -973,26 +973,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3">
+        <v>100200</v>
       </c>
       <c r="E15" s="3">
-        <v>88900</v>
+        <v>90500</v>
       </c>
       <c r="F15" s="3">
-        <v>65600</v>
+        <v>66800</v>
       </c>
       <c r="G15" s="3">
-        <v>46600</v>
+        <v>47400</v>
       </c>
       <c r="H15" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="I15" s="3">
-        <v>40200</v>
+        <v>40900</v>
       </c>
       <c r="J15" s="3">
-        <v>34900</v>
+        <v>35500</v>
       </c>
       <c r="K15" s="3">
         <v>191900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16117600</v>
+        <v>16405500</v>
       </c>
       <c r="E17" s="3">
-        <v>12957300</v>
+        <v>13188800</v>
       </c>
       <c r="F17" s="3">
-        <v>10361000</v>
+        <v>10546100</v>
       </c>
       <c r="G17" s="3">
-        <v>11076200</v>
+        <v>11274100</v>
       </c>
       <c r="H17" s="3">
-        <v>10810600</v>
+        <v>11003800</v>
       </c>
       <c r="I17" s="3">
-        <v>10370500</v>
+        <v>10555800</v>
       </c>
       <c r="J17" s="3">
-        <v>8762400</v>
+        <v>8918900</v>
       </c>
       <c r="K17" s="3">
         <v>5685900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2207000</v>
+        <v>2246400</v>
       </c>
       <c r="E18" s="3">
-        <v>1603900</v>
+        <v>1632600</v>
       </c>
       <c r="F18" s="3">
-        <v>860200</v>
+        <v>875500</v>
       </c>
       <c r="G18" s="3">
-        <v>1637800</v>
+        <v>1667000</v>
       </c>
       <c r="H18" s="3">
-        <v>1375400</v>
+        <v>1400000</v>
       </c>
       <c r="I18" s="3">
-        <v>1333100</v>
+        <v>1356900</v>
       </c>
       <c r="J18" s="3">
-        <v>900400</v>
+        <v>916400</v>
       </c>
       <c r="K18" s="3">
         <v>774800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-136500</v>
+        <v>50600</v>
       </c>
       <c r="E20" s="3">
-        <v>30700</v>
+        <v>31200</v>
       </c>
       <c r="F20" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="G20" s="3">
-        <v>45500</v>
+        <v>46300</v>
       </c>
       <c r="H20" s="3">
-        <v>41300</v>
+        <v>42000</v>
       </c>
       <c r="I20" s="3">
-        <v>42300</v>
+        <v>43100</v>
       </c>
       <c r="J20" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="K20" s="3">
         <v>12200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2930900</v>
+        <v>3181500</v>
       </c>
       <c r="E21" s="3">
-        <v>2459200</v>
+        <v>2511400</v>
       </c>
       <c r="F21" s="3">
-        <v>1645700</v>
+        <v>1682900</v>
       </c>
       <c r="G21" s="3">
-        <v>2357000</v>
+        <v>2406000</v>
       </c>
       <c r="H21" s="3">
-        <v>1956500</v>
+        <v>1996900</v>
       </c>
       <c r="I21" s="3">
-        <v>1892100</v>
+        <v>1931100</v>
       </c>
       <c r="J21" s="3">
-        <v>1306300</v>
+        <v>1333700</v>
       </c>
       <c r="K21" s="3">
         <v>1034300</v>
@@ -1199,26 +1199,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>189500</v>
       </c>
       <c r="E22" s="3">
-        <v>172500</v>
+        <v>175500</v>
       </c>
       <c r="F22" s="3">
-        <v>143900</v>
+        <v>146500</v>
       </c>
       <c r="G22" s="3">
-        <v>144900</v>
+        <v>147500</v>
       </c>
       <c r="H22" s="3">
-        <v>141800</v>
+        <v>144300</v>
       </c>
       <c r="I22" s="3">
-        <v>149200</v>
+        <v>151800</v>
       </c>
       <c r="J22" s="3">
-        <v>153400</v>
+        <v>156200</v>
       </c>
       <c r="K22" s="3">
         <v>129600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2070500</v>
+        <v>2107500</v>
       </c>
       <c r="E23" s="3">
-        <v>1462200</v>
+        <v>1488300</v>
       </c>
       <c r="F23" s="3">
-        <v>735300</v>
+        <v>748400</v>
       </c>
       <c r="G23" s="3">
-        <v>1538300</v>
+        <v>1565800</v>
       </c>
       <c r="H23" s="3">
-        <v>1274900</v>
+        <v>1297700</v>
       </c>
       <c r="I23" s="3">
-        <v>1226200</v>
+        <v>1248100</v>
       </c>
       <c r="J23" s="3">
-        <v>760700</v>
+        <v>774300</v>
       </c>
       <c r="K23" s="3">
         <v>657400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>461300</v>
+        <v>469500</v>
       </c>
       <c r="E24" s="3">
-        <v>416900</v>
+        <v>424300</v>
       </c>
       <c r="F24" s="3">
-        <v>208400</v>
+        <v>212100</v>
       </c>
       <c r="G24" s="3">
-        <v>385100</v>
+        <v>392000</v>
       </c>
       <c r="H24" s="3">
-        <v>341700</v>
+        <v>347800</v>
       </c>
       <c r="I24" s="3">
-        <v>159800</v>
+        <v>162600</v>
       </c>
       <c r="J24" s="3">
-        <v>179900</v>
+        <v>183100</v>
       </c>
       <c r="K24" s="3">
         <v>133700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1609200</v>
+        <v>1638000</v>
       </c>
       <c r="E26" s="3">
-        <v>1045300</v>
+        <v>1064000</v>
       </c>
       <c r="F26" s="3">
-        <v>526900</v>
+        <v>536300</v>
       </c>
       <c r="G26" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="H26" s="3">
-        <v>933200</v>
+        <v>949800</v>
       </c>
       <c r="I26" s="3">
-        <v>1066500</v>
+        <v>1085500</v>
       </c>
       <c r="J26" s="3">
-        <v>580800</v>
+        <v>591200</v>
       </c>
       <c r="K26" s="3">
         <v>523700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1595500</v>
+        <v>1624000</v>
       </c>
       <c r="E27" s="3">
-        <v>1039000</v>
+        <v>1057500</v>
       </c>
       <c r="F27" s="3">
-        <v>526900</v>
+        <v>536300</v>
       </c>
       <c r="G27" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="H27" s="3">
-        <v>933200</v>
+        <v>949800</v>
       </c>
       <c r="I27" s="3">
-        <v>1066500</v>
+        <v>1085500</v>
       </c>
       <c r="J27" s="3">
-        <v>580800</v>
+        <v>591200</v>
       </c>
       <c r="K27" s="3">
         <v>523700</v>
@@ -1485,10 +1485,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="I29" s="3">
-        <v>-338600</v>
+        <v>-344600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>136500</v>
+        <v>-50600</v>
       </c>
       <c r="E32" s="3">
-        <v>-30700</v>
+        <v>-31200</v>
       </c>
       <c r="F32" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="G32" s="3">
-        <v>-45500</v>
+        <v>-46300</v>
       </c>
       <c r="H32" s="3">
-        <v>-41300</v>
+        <v>-42000</v>
       </c>
       <c r="I32" s="3">
-        <v>-42300</v>
+        <v>-43100</v>
       </c>
       <c r="J32" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="K32" s="3">
         <v>-12200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1595500</v>
+        <v>1624000</v>
       </c>
       <c r="E33" s="3">
-        <v>1039000</v>
+        <v>1057500</v>
       </c>
       <c r="F33" s="3">
-        <v>526900</v>
+        <v>536300</v>
       </c>
       <c r="G33" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="H33" s="3">
-        <v>961700</v>
+        <v>978900</v>
       </c>
       <c r="I33" s="3">
-        <v>727900</v>
+        <v>740900</v>
       </c>
       <c r="J33" s="3">
-        <v>580800</v>
+        <v>591200</v>
       </c>
       <c r="K33" s="3">
         <v>523700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1595500</v>
+        <v>1624000</v>
       </c>
       <c r="E35" s="3">
-        <v>1039000</v>
+        <v>1057500</v>
       </c>
       <c r="F35" s="3">
-        <v>526900</v>
+        <v>536300</v>
       </c>
       <c r="G35" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="H35" s="3">
-        <v>961700</v>
+        <v>978900</v>
       </c>
       <c r="I35" s="3">
-        <v>727900</v>
+        <v>740900</v>
       </c>
       <c r="J35" s="3">
-        <v>580800</v>
+        <v>591200</v>
       </c>
       <c r="K35" s="3">
         <v>523700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1467400</v>
+        <v>528800</v>
       </c>
       <c r="E41" s="3">
-        <v>749100</v>
+        <v>762400</v>
       </c>
       <c r="F41" s="3">
-        <v>680300</v>
+        <v>692400</v>
       </c>
       <c r="G41" s="3">
-        <v>179900</v>
+        <v>183100</v>
       </c>
       <c r="H41" s="3">
-        <v>295200</v>
+        <v>300500</v>
       </c>
       <c r="I41" s="3">
-        <v>321600</v>
+        <v>327400</v>
       </c>
       <c r="J41" s="3">
-        <v>295200</v>
+        <v>300500</v>
       </c>
       <c r="K41" s="3">
         <v>412400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>270800</v>
+        <v>1240600</v>
       </c>
       <c r="E42" s="3">
-        <v>800900</v>
+        <v>815200</v>
       </c>
       <c r="F42" s="3">
-        <v>931000</v>
+        <v>947700</v>
       </c>
       <c r="G42" s="3">
-        <v>154500</v>
+        <v>157200</v>
       </c>
       <c r="H42" s="3">
-        <v>31700</v>
+        <v>32300</v>
       </c>
       <c r="I42" s="3">
-        <v>59200</v>
+        <v>60300</v>
       </c>
       <c r="J42" s="3">
-        <v>113200</v>
+        <v>115200</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2846000</v>
+        <v>2896900</v>
       </c>
       <c r="E43" s="3">
-        <v>2638700</v>
+        <v>2685800</v>
       </c>
       <c r="F43" s="3">
-        <v>1701300</v>
+        <v>1731700</v>
       </c>
       <c r="G43" s="3">
-        <v>2083200</v>
+        <v>2120400</v>
       </c>
       <c r="H43" s="3">
-        <v>2025000</v>
+        <v>2061200</v>
       </c>
       <c r="I43" s="3">
-        <v>2358300</v>
+        <v>2400400</v>
       </c>
       <c r="J43" s="3">
-        <v>2401700</v>
+        <v>2444600</v>
       </c>
       <c r="K43" s="3">
         <v>3935200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1460000</v>
+        <v>1486100</v>
       </c>
       <c r="E44" s="3">
-        <v>1224100</v>
+        <v>1246000</v>
       </c>
       <c r="F44" s="3">
-        <v>720500</v>
+        <v>733400</v>
       </c>
       <c r="G44" s="3">
-        <v>764900</v>
+        <v>778600</v>
       </c>
       <c r="H44" s="3">
-        <v>733200</v>
+        <v>746300</v>
       </c>
       <c r="I44" s="3">
-        <v>687700</v>
+        <v>700000</v>
       </c>
       <c r="J44" s="3">
-        <v>712000</v>
+        <v>724800</v>
       </c>
       <c r="K44" s="3">
         <v>1100400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>878100</v>
+        <v>893800</v>
       </c>
       <c r="E45" s="3">
-        <v>681400</v>
+        <v>693500</v>
       </c>
       <c r="F45" s="3">
-        <v>279300</v>
+        <v>284300</v>
       </c>
       <c r="G45" s="3">
-        <v>100500</v>
+        <v>102300</v>
       </c>
       <c r="H45" s="3">
-        <v>79400</v>
+        <v>80800</v>
       </c>
       <c r="I45" s="3">
-        <v>79400</v>
+        <v>80800</v>
       </c>
       <c r="J45" s="3">
-        <v>101600</v>
+        <v>103400</v>
       </c>
       <c r="K45" s="3">
         <v>314400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6922500</v>
+        <v>7046200</v>
       </c>
       <c r="E46" s="3">
-        <v>6094100</v>
+        <v>6202900</v>
       </c>
       <c r="F46" s="3">
-        <v>4312400</v>
+        <v>4389400</v>
       </c>
       <c r="G46" s="3">
-        <v>3283000</v>
+        <v>3341600</v>
       </c>
       <c r="H46" s="3">
-        <v>3164500</v>
+        <v>3221000</v>
       </c>
       <c r="I46" s="3">
-        <v>3506200</v>
+        <v>3568800</v>
       </c>
       <c r="J46" s="3">
-        <v>3623700</v>
+        <v>3688400</v>
       </c>
       <c r="K46" s="3">
         <v>1922200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5502700</v>
+        <v>5601000</v>
       </c>
       <c r="E48" s="3">
-        <v>5552400</v>
+        <v>5651600</v>
       </c>
       <c r="F48" s="3">
-        <v>4083900</v>
+        <v>4156800</v>
       </c>
       <c r="G48" s="3">
-        <v>4448900</v>
+        <v>4528400</v>
       </c>
       <c r="H48" s="3">
-        <v>4113500</v>
+        <v>4187000</v>
       </c>
       <c r="I48" s="3">
-        <v>4059500</v>
+        <v>4132100</v>
       </c>
       <c r="J48" s="3">
-        <v>4224600</v>
+        <v>4300100</v>
       </c>
       <c r="K48" s="3">
         <v>5414300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18097100</v>
+        <v>18420400</v>
       </c>
       <c r="E49" s="3">
-        <v>18263200</v>
+        <v>18589400</v>
       </c>
       <c r="F49" s="3">
-        <v>11565000</v>
+        <v>11771600</v>
       </c>
       <c r="G49" s="3">
-        <v>11665500</v>
+        <v>11873900</v>
       </c>
       <c r="H49" s="3">
-        <v>11534300</v>
+        <v>11740400</v>
       </c>
       <c r="I49" s="3">
-        <v>11536400</v>
+        <v>11742500</v>
       </c>
       <c r="J49" s="3">
-        <v>11395700</v>
+        <v>11599300</v>
       </c>
       <c r="K49" s="3">
         <v>10163100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>490900</v>
+        <v>499700</v>
       </c>
       <c r="E52" s="3">
-        <v>867600</v>
+        <v>883100</v>
       </c>
       <c r="F52" s="3">
-        <v>391500</v>
+        <v>398500</v>
       </c>
       <c r="G52" s="3">
-        <v>371400</v>
+        <v>378000</v>
       </c>
       <c r="H52" s="3">
-        <v>460200</v>
+        <v>468500</v>
       </c>
       <c r="I52" s="3">
-        <v>147100</v>
+        <v>149700</v>
       </c>
       <c r="J52" s="3">
-        <v>401000</v>
+        <v>408100</v>
       </c>
       <c r="K52" s="3">
         <v>372600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31013200</v>
+        <v>31567200</v>
       </c>
       <c r="E54" s="3">
-        <v>30777200</v>
+        <v>31327000</v>
       </c>
       <c r="F54" s="3">
-        <v>20352700</v>
+        <v>20716300</v>
       </c>
       <c r="G54" s="3">
-        <v>19768700</v>
+        <v>20121900</v>
       </c>
       <c r="H54" s="3">
-        <v>19272500</v>
+        <v>19616800</v>
       </c>
       <c r="I54" s="3">
-        <v>19249300</v>
+        <v>19593100</v>
       </c>
       <c r="J54" s="3">
-        <v>19644900</v>
+        <v>19995900</v>
       </c>
       <c r="K54" s="3">
         <v>7141500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5345000</v>
+        <v>2359500</v>
       </c>
       <c r="E57" s="3">
-        <v>1789100</v>
+        <v>1821000</v>
       </c>
       <c r="F57" s="3">
-        <v>1189200</v>
+        <v>1210400</v>
       </c>
       <c r="G57" s="3">
-        <v>1204000</v>
+        <v>1225500</v>
       </c>
       <c r="H57" s="3">
-        <v>1169100</v>
+        <v>1190000</v>
       </c>
       <c r="I57" s="3">
-        <v>1118300</v>
+        <v>1138300</v>
       </c>
       <c r="J57" s="3">
-        <v>956400</v>
+        <v>973500</v>
       </c>
       <c r="K57" s="3">
         <v>2469300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1413500</v>
+        <v>1438700</v>
       </c>
       <c r="E58" s="3">
-        <v>1428300</v>
+        <v>1453800</v>
       </c>
       <c r="F58" s="3">
-        <v>851700</v>
+        <v>866900</v>
       </c>
       <c r="G58" s="3">
-        <v>845300</v>
+        <v>860400</v>
       </c>
       <c r="H58" s="3">
-        <v>519500</v>
+        <v>528800</v>
       </c>
       <c r="I58" s="3">
-        <v>289900</v>
+        <v>295100</v>
       </c>
       <c r="J58" s="3">
-        <v>925800</v>
+        <v>942300</v>
       </c>
       <c r="K58" s="3">
         <v>890100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>978700</v>
+        <v>4077100</v>
       </c>
       <c r="E59" s="3">
-        <v>3229000</v>
+        <v>3286700</v>
       </c>
       <c r="F59" s="3">
-        <v>2339200</v>
+        <v>2381000</v>
       </c>
       <c r="G59" s="3">
-        <v>2304300</v>
+        <v>2345500</v>
       </c>
       <c r="H59" s="3">
-        <v>2323400</v>
+        <v>2364900</v>
       </c>
       <c r="I59" s="3">
-        <v>2069400</v>
+        <v>2106400</v>
       </c>
       <c r="J59" s="3">
-        <v>2087400</v>
+        <v>2124700</v>
       </c>
       <c r="K59" s="3">
         <v>2534600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7737200</v>
+        <v>7875400</v>
       </c>
       <c r="E60" s="3">
-        <v>6446400</v>
+        <v>6561600</v>
       </c>
       <c r="F60" s="3">
-        <v>4380100</v>
+        <v>4458400</v>
       </c>
       <c r="G60" s="3">
-        <v>4353700</v>
+        <v>4431400</v>
       </c>
       <c r="H60" s="3">
-        <v>4011900</v>
+        <v>4083600</v>
       </c>
       <c r="I60" s="3">
-        <v>3477600</v>
+        <v>3539800</v>
       </c>
       <c r="J60" s="3">
-        <v>3969600</v>
+        <v>4040500</v>
       </c>
       <c r="K60" s="3">
         <v>2047700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11184100</v>
+        <v>11383900</v>
       </c>
       <c r="E61" s="3">
-        <v>12473800</v>
+        <v>12696700</v>
       </c>
       <c r="F61" s="3">
-        <v>6752200</v>
+        <v>6872800</v>
       </c>
       <c r="G61" s="3">
-        <v>5948100</v>
+        <v>6054300</v>
       </c>
       <c r="H61" s="3">
-        <v>5424400</v>
+        <v>5521300</v>
       </c>
       <c r="I61" s="3">
-        <v>5791500</v>
+        <v>5895000</v>
       </c>
       <c r="J61" s="3">
-        <v>5884600</v>
+        <v>5989700</v>
       </c>
       <c r="K61" s="3">
         <v>3186900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4213000</v>
+        <v>4288200</v>
       </c>
       <c r="E62" s="3">
-        <v>4228800</v>
+        <v>4304400</v>
       </c>
       <c r="F62" s="3">
-        <v>2846000</v>
+        <v>2896900</v>
       </c>
       <c r="G62" s="3">
-        <v>2953900</v>
+        <v>3006700</v>
       </c>
       <c r="H62" s="3">
-        <v>2891500</v>
+        <v>2943200</v>
       </c>
       <c r="I62" s="3">
-        <v>2907400</v>
+        <v>2959300</v>
       </c>
       <c r="J62" s="3">
-        <v>2955000</v>
+        <v>3007800</v>
       </c>
       <c r="K62" s="3">
         <v>2151800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23134200</v>
+        <v>23547500</v>
       </c>
       <c r="E66" s="3">
-        <v>23336300</v>
+        <v>23753200</v>
       </c>
       <c r="F66" s="3">
-        <v>13978300</v>
+        <v>14228000</v>
       </c>
       <c r="G66" s="3">
-        <v>13255700</v>
+        <v>13492500</v>
       </c>
       <c r="H66" s="3">
-        <v>12327800</v>
+        <v>12548000</v>
       </c>
       <c r="I66" s="3">
-        <v>12176500</v>
+        <v>12394000</v>
       </c>
       <c r="J66" s="3">
-        <v>12809200</v>
+        <v>13038000</v>
       </c>
       <c r="K66" s="3">
         <v>6252400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7626100</v>
+        <v>8222100</v>
       </c>
       <c r="E72" s="3">
-        <v>7373200</v>
+        <v>7504900</v>
       </c>
       <c r="F72" s="3">
-        <v>6734200</v>
+        <v>6854500</v>
       </c>
       <c r="G72" s="3">
-        <v>6794500</v>
+        <v>6915900</v>
       </c>
       <c r="H72" s="3">
-        <v>7362600</v>
+        <v>7494100</v>
       </c>
       <c r="I72" s="3">
-        <v>7465200</v>
+        <v>7598600</v>
       </c>
       <c r="J72" s="3">
-        <v>7153100</v>
+        <v>7280900</v>
       </c>
       <c r="K72" s="3">
         <v>4037300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7878900</v>
+        <v>8019700</v>
       </c>
       <c r="E76" s="3">
-        <v>7440900</v>
+        <v>7573800</v>
       </c>
       <c r="F76" s="3">
-        <v>6374500</v>
+        <v>6488300</v>
       </c>
       <c r="G76" s="3">
-        <v>6513000</v>
+        <v>6629400</v>
       </c>
       <c r="H76" s="3">
-        <v>6944700</v>
+        <v>7068800</v>
       </c>
       <c r="I76" s="3">
-        <v>7072700</v>
+        <v>7199100</v>
       </c>
       <c r="J76" s="3">
-        <v>6835700</v>
+        <v>6957900</v>
       </c>
       <c r="K76" s="3">
         <v>889100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1595500</v>
+        <v>1624000</v>
       </c>
       <c r="E81" s="3">
-        <v>1039000</v>
+        <v>1057500</v>
       </c>
       <c r="F81" s="3">
-        <v>526900</v>
+        <v>536300</v>
       </c>
       <c r="G81" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="H81" s="3">
-        <v>961700</v>
+        <v>978900</v>
       </c>
       <c r="I81" s="3">
-        <v>727900</v>
+        <v>740900</v>
       </c>
       <c r="J81" s="3">
-        <v>580800</v>
+        <v>591200</v>
       </c>
       <c r="K81" s="3">
         <v>523700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>863300</v>
+        <v>878800</v>
       </c>
       <c r="E83" s="3">
-        <v>827400</v>
+        <v>842100</v>
       </c>
       <c r="F83" s="3">
-        <v>769200</v>
+        <v>782900</v>
       </c>
       <c r="G83" s="3">
-        <v>676100</v>
+        <v>688100</v>
       </c>
       <c r="H83" s="3">
-        <v>541700</v>
+        <v>551400</v>
       </c>
       <c r="I83" s="3">
-        <v>518400</v>
+        <v>527700</v>
       </c>
       <c r="J83" s="3">
-        <v>393600</v>
+        <v>400600</v>
       </c>
       <c r="K83" s="3">
         <v>252100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3102100</v>
+        <v>3157500</v>
       </c>
       <c r="E89" s="3">
-        <v>2239800</v>
+        <v>2279800</v>
       </c>
       <c r="F89" s="3">
-        <v>1576400</v>
+        <v>1604600</v>
       </c>
       <c r="G89" s="3">
-        <v>2014400</v>
+        <v>2050400</v>
       </c>
       <c r="H89" s="3">
-        <v>1910700</v>
+        <v>1944900</v>
       </c>
       <c r="I89" s="3">
-        <v>1717100</v>
+        <v>1747800</v>
       </c>
       <c r="J89" s="3">
-        <v>1316200</v>
+        <v>1339700</v>
       </c>
       <c r="K89" s="3">
         <v>941200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-529000</v>
+        <v>-538500</v>
       </c>
       <c r="E91" s="3">
-        <v>-369200</v>
+        <v>-375800</v>
       </c>
       <c r="F91" s="3">
-        <v>-368200</v>
+        <v>-374800</v>
       </c>
       <c r="G91" s="3">
-        <v>-535300</v>
+        <v>-544900</v>
       </c>
       <c r="H91" s="3">
-        <v>-555500</v>
+        <v>-565400</v>
       </c>
       <c r="I91" s="3">
-        <v>-512100</v>
+        <v>-521200</v>
       </c>
       <c r="J91" s="3">
-        <v>-485600</v>
+        <v>-494300</v>
       </c>
       <c r="K91" s="3">
         <v>-625800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-682400</v>
+        <v>-694600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5930100</v>
+        <v>-6036000</v>
       </c>
       <c r="F94" s="3">
-        <v>-391500</v>
+        <v>-398500</v>
       </c>
       <c r="G94" s="3">
-        <v>-633700</v>
+        <v>-645100</v>
       </c>
       <c r="H94" s="3">
-        <v>-630600</v>
+        <v>-641800</v>
       </c>
       <c r="I94" s="3">
-        <v>-516300</v>
+        <v>-525500</v>
       </c>
       <c r="J94" s="3">
-        <v>-405200</v>
+        <v>-412500</v>
       </c>
       <c r="K94" s="3">
         <v>-277700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-807300</v>
+        <v>-821700</v>
       </c>
       <c r="E96" s="3">
-        <v>-675000</v>
+        <v>-687100</v>
       </c>
       <c r="F96" s="3">
-        <v>-408400</v>
+        <v>-415700</v>
       </c>
       <c r="G96" s="3">
-        <v>-607300</v>
+        <v>-618100</v>
       </c>
       <c r="H96" s="3">
-        <v>-542800</v>
+        <v>-552400</v>
       </c>
       <c r="I96" s="3">
-        <v>-517400</v>
+        <v>-526600</v>
       </c>
       <c r="J96" s="3">
-        <v>-215800</v>
+        <v>-219700</v>
       </c>
       <c r="K96" s="3">
         <v>-499200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2408000</v>
+        <v>-2451000</v>
       </c>
       <c r="E100" s="3">
-        <v>3479800</v>
+        <v>3541900</v>
       </c>
       <c r="F100" s="3">
-        <v>105800</v>
+        <v>107700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1377500</v>
+        <v>-1402100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1332000</v>
+        <v>-1355800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1218800</v>
+        <v>-1240600</v>
       </c>
       <c r="J100" s="3">
-        <v>-662300</v>
+        <v>-674100</v>
       </c>
       <c r="K100" s="3">
         <v>-699200</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="E101" s="3">
-        <v>87800</v>
+        <v>89400</v>
       </c>
       <c r="F101" s="3">
-        <v>-13800</v>
+        <v>-14000</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="J101" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="K101" s="3">
         <v>7100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21200</v>
+        <v>-21500</v>
       </c>
       <c r="E102" s="3">
-        <v>-122700</v>
+        <v>-124900</v>
       </c>
       <c r="F102" s="3">
-        <v>1277000</v>
+        <v>1299800</v>
       </c>
       <c r="G102" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="H102" s="3">
-        <v>-54000</v>
+        <v>-54900</v>
       </c>
       <c r="I102" s="3">
-        <v>-27500</v>
+        <v>-28000</v>
       </c>
       <c r="J102" s="3">
-        <v>243300</v>
+        <v>247700</v>
       </c>
       <c r="K102" s="3">
         <v>-28600</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18651900</v>
+        <v>18776600</v>
       </c>
       <c r="E8" s="3">
-        <v>14821400</v>
+        <v>14920500</v>
       </c>
       <c r="F8" s="3">
-        <v>11421600</v>
+        <v>11498000</v>
       </c>
       <c r="G8" s="3">
-        <v>12941100</v>
+        <v>13027600</v>
       </c>
       <c r="H8" s="3">
-        <v>12403700</v>
+        <v>12486700</v>
       </c>
       <c r="I8" s="3">
-        <v>11912700</v>
+        <v>11992300</v>
       </c>
       <c r="J8" s="3">
-        <v>9835300</v>
+        <v>9901100</v>
       </c>
       <c r="K8" s="3">
         <v>6460600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11884700</v>
+        <v>11964100</v>
       </c>
       <c r="E9" s="3">
-        <v>9281800</v>
+        <v>9343900</v>
       </c>
       <c r="F9" s="3">
-        <v>7301400</v>
+        <v>7350200</v>
       </c>
       <c r="G9" s="3">
-        <v>7968000</v>
+        <v>8021300</v>
       </c>
       <c r="H9" s="3">
-        <v>7552300</v>
+        <v>7602800</v>
       </c>
       <c r="I9" s="3">
-        <v>7265800</v>
+        <v>7314400</v>
       </c>
       <c r="J9" s="3">
-        <v>6013400</v>
+        <v>6053600</v>
       </c>
       <c r="K9" s="3">
         <v>12734500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6767200</v>
+        <v>6812500</v>
       </c>
       <c r="E10" s="3">
-        <v>5539600</v>
+        <v>5576600</v>
       </c>
       <c r="F10" s="3">
-        <v>4120200</v>
+        <v>4147800</v>
       </c>
       <c r="G10" s="3">
-        <v>4973100</v>
+        <v>5006400</v>
       </c>
       <c r="H10" s="3">
-        <v>4851400</v>
+        <v>4883900</v>
       </c>
       <c r="I10" s="3">
-        <v>4646800</v>
+        <v>4677900</v>
       </c>
       <c r="J10" s="3">
-        <v>3821900</v>
+        <v>3847500</v>
       </c>
       <c r="K10" s="3">
         <v>-6273800</v>
@@ -935,22 +935,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>64600</v>
+        <v>65000</v>
       </c>
       <c r="E14" s="3">
-        <v>62500</v>
+        <v>62900</v>
       </c>
       <c r="F14" s="3">
-        <v>98000</v>
+        <v>98700</v>
       </c>
       <c r="G14" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="H14" s="3">
-        <v>50600</v>
+        <v>51000</v>
       </c>
       <c r="I14" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100200</v>
+        <v>100800</v>
       </c>
       <c r="E15" s="3">
-        <v>90500</v>
+        <v>91100</v>
       </c>
       <c r="F15" s="3">
-        <v>66800</v>
+        <v>67200</v>
       </c>
       <c r="G15" s="3">
-        <v>47400</v>
+        <v>47700</v>
       </c>
       <c r="H15" s="3">
-        <v>46300</v>
+        <v>46600</v>
       </c>
       <c r="I15" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="J15" s="3">
-        <v>35500</v>
+        <v>35800</v>
       </c>
       <c r="K15" s="3">
         <v>191900</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16405500</v>
+        <v>16515200</v>
       </c>
       <c r="E17" s="3">
-        <v>13188800</v>
+        <v>13277000</v>
       </c>
       <c r="F17" s="3">
-        <v>10546100</v>
+        <v>10616600</v>
       </c>
       <c r="G17" s="3">
-        <v>11274100</v>
+        <v>11349400</v>
       </c>
       <c r="H17" s="3">
-        <v>11003800</v>
+        <v>11077300</v>
       </c>
       <c r="I17" s="3">
-        <v>10555800</v>
+        <v>10626300</v>
       </c>
       <c r="J17" s="3">
-        <v>8918900</v>
+        <v>8978500</v>
       </c>
       <c r="K17" s="3">
         <v>5685900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2246400</v>
+        <v>2261400</v>
       </c>
       <c r="E18" s="3">
-        <v>1632600</v>
+        <v>1643500</v>
       </c>
       <c r="F18" s="3">
-        <v>875500</v>
+        <v>881400</v>
       </c>
       <c r="G18" s="3">
-        <v>1667000</v>
+        <v>1678200</v>
       </c>
       <c r="H18" s="3">
-        <v>1400000</v>
+        <v>1409300</v>
       </c>
       <c r="I18" s="3">
-        <v>1356900</v>
+        <v>1366000</v>
       </c>
       <c r="J18" s="3">
-        <v>916400</v>
+        <v>922600</v>
       </c>
       <c r="K18" s="3">
         <v>774800</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>50600</v>
+        <v>51000</v>
       </c>
       <c r="E20" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="F20" s="3">
-        <v>19400</v>
+        <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>46300</v>
+        <v>46600</v>
       </c>
       <c r="H20" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="I20" s="3">
-        <v>43100</v>
+        <v>43400</v>
       </c>
       <c r="J20" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="K20" s="3">
         <v>12200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3181500</v>
+        <v>3197000</v>
       </c>
       <c r="E21" s="3">
-        <v>2511400</v>
+        <v>2522700</v>
       </c>
       <c r="F21" s="3">
-        <v>1682900</v>
+        <v>1689000</v>
       </c>
       <c r="G21" s="3">
-        <v>2406000</v>
+        <v>2417500</v>
       </c>
       <c r="H21" s="3">
-        <v>1996900</v>
+        <v>2006700</v>
       </c>
       <c r="I21" s="3">
-        <v>1931100</v>
+        <v>1940500</v>
       </c>
       <c r="J21" s="3">
-        <v>1333700</v>
+        <v>1339900</v>
       </c>
       <c r="K21" s="3">
         <v>1034300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>189500</v>
+        <v>190800</v>
       </c>
       <c r="E22" s="3">
-        <v>175500</v>
+        <v>176700</v>
       </c>
       <c r="F22" s="3">
-        <v>146500</v>
+        <v>147400</v>
       </c>
       <c r="G22" s="3">
-        <v>147500</v>
+        <v>148500</v>
       </c>
       <c r="H22" s="3">
-        <v>144300</v>
+        <v>145300</v>
       </c>
       <c r="I22" s="3">
-        <v>151800</v>
+        <v>152900</v>
       </c>
       <c r="J22" s="3">
-        <v>156200</v>
+        <v>157200</v>
       </c>
       <c r="K22" s="3">
         <v>129600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2107500</v>
+        <v>2121600</v>
       </c>
       <c r="E23" s="3">
-        <v>1488300</v>
+        <v>1498200</v>
       </c>
       <c r="F23" s="3">
-        <v>748400</v>
+        <v>753400</v>
       </c>
       <c r="G23" s="3">
-        <v>1565800</v>
+        <v>1576300</v>
       </c>
       <c r="H23" s="3">
-        <v>1297700</v>
+        <v>1306300</v>
       </c>
       <c r="I23" s="3">
-        <v>1248100</v>
+        <v>1256500</v>
       </c>
       <c r="J23" s="3">
-        <v>774300</v>
+        <v>779500</v>
       </c>
       <c r="K23" s="3">
         <v>657400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>469500</v>
+        <v>472700</v>
       </c>
       <c r="E24" s="3">
-        <v>424300</v>
+        <v>427100</v>
       </c>
       <c r="F24" s="3">
-        <v>212100</v>
+        <v>213600</v>
       </c>
       <c r="G24" s="3">
-        <v>392000</v>
+        <v>394600</v>
       </c>
       <c r="H24" s="3">
-        <v>347800</v>
+        <v>350200</v>
       </c>
       <c r="I24" s="3">
-        <v>162600</v>
+        <v>163700</v>
       </c>
       <c r="J24" s="3">
-        <v>183100</v>
+        <v>184300</v>
       </c>
       <c r="K24" s="3">
         <v>133700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1638000</v>
+        <v>1648900</v>
       </c>
       <c r="E26" s="3">
-        <v>1064000</v>
+        <v>1071100</v>
       </c>
       <c r="F26" s="3">
-        <v>536300</v>
+        <v>539900</v>
       </c>
       <c r="G26" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="H26" s="3">
-        <v>949800</v>
+        <v>956200</v>
       </c>
       <c r="I26" s="3">
-        <v>1085500</v>
+        <v>1092800</v>
       </c>
       <c r="J26" s="3">
-        <v>591200</v>
+        <v>595200</v>
       </c>
       <c r="K26" s="3">
         <v>523700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1624000</v>
+        <v>1634800</v>
       </c>
       <c r="E27" s="3">
-        <v>1057500</v>
+        <v>1064600</v>
       </c>
       <c r="F27" s="3">
-        <v>536300</v>
+        <v>539900</v>
       </c>
       <c r="G27" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="H27" s="3">
-        <v>949800</v>
+        <v>956200</v>
       </c>
       <c r="I27" s="3">
-        <v>1085500</v>
+        <v>1092800</v>
       </c>
       <c r="J27" s="3">
-        <v>591200</v>
+        <v>595200</v>
       </c>
       <c r="K27" s="3">
         <v>523700</v>
@@ -1485,10 +1485,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="I29" s="3">
-        <v>-344600</v>
+        <v>-346900</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-50600</v>
+        <v>-51000</v>
       </c>
       <c r="E32" s="3">
-        <v>-31200</v>
+        <v>-31400</v>
       </c>
       <c r="F32" s="3">
-        <v>-19400</v>
+        <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>-46300</v>
+        <v>-46600</v>
       </c>
       <c r="H32" s="3">
-        <v>-42000</v>
+        <v>-42300</v>
       </c>
       <c r="I32" s="3">
-        <v>-43100</v>
+        <v>-43400</v>
       </c>
       <c r="J32" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="K32" s="3">
         <v>-12200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1624000</v>
+        <v>1634800</v>
       </c>
       <c r="E33" s="3">
-        <v>1057500</v>
+        <v>1064600</v>
       </c>
       <c r="F33" s="3">
-        <v>536300</v>
+        <v>539900</v>
       </c>
       <c r="G33" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="H33" s="3">
-        <v>978900</v>
+        <v>985400</v>
       </c>
       <c r="I33" s="3">
-        <v>740900</v>
+        <v>745900</v>
       </c>
       <c r="J33" s="3">
-        <v>591200</v>
+        <v>595200</v>
       </c>
       <c r="K33" s="3">
         <v>523700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1624000</v>
+        <v>1634800</v>
       </c>
       <c r="E35" s="3">
-        <v>1057500</v>
+        <v>1064600</v>
       </c>
       <c r="F35" s="3">
-        <v>536300</v>
+        <v>539900</v>
       </c>
       <c r="G35" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="H35" s="3">
-        <v>978900</v>
+        <v>985400</v>
       </c>
       <c r="I35" s="3">
-        <v>740900</v>
+        <v>745900</v>
       </c>
       <c r="J35" s="3">
-        <v>591200</v>
+        <v>595200</v>
       </c>
       <c r="K35" s="3">
         <v>523700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="E41" s="3">
-        <v>762400</v>
+        <v>767500</v>
       </c>
       <c r="F41" s="3">
-        <v>692400</v>
+        <v>697100</v>
       </c>
       <c r="G41" s="3">
-        <v>183100</v>
+        <v>184300</v>
       </c>
       <c r="H41" s="3">
-        <v>300500</v>
+        <v>302500</v>
       </c>
       <c r="I41" s="3">
-        <v>327400</v>
+        <v>329600</v>
       </c>
       <c r="J41" s="3">
-        <v>300500</v>
+        <v>302500</v>
       </c>
       <c r="K41" s="3">
         <v>412400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1240600</v>
+        <v>1248900</v>
       </c>
       <c r="E42" s="3">
-        <v>815200</v>
+        <v>820700</v>
       </c>
       <c r="F42" s="3">
-        <v>947700</v>
+        <v>954000</v>
       </c>
       <c r="G42" s="3">
-        <v>157200</v>
+        <v>158300</v>
       </c>
       <c r="H42" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="I42" s="3">
-        <v>60300</v>
+        <v>60700</v>
       </c>
       <c r="J42" s="3">
-        <v>115200</v>
+        <v>116000</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2896900</v>
+        <v>2916200</v>
       </c>
       <c r="E43" s="3">
-        <v>2685800</v>
+        <v>2703700</v>
       </c>
       <c r="F43" s="3">
-        <v>1731700</v>
+        <v>1743200</v>
       </c>
       <c r="G43" s="3">
-        <v>2120400</v>
+        <v>2134600</v>
       </c>
       <c r="H43" s="3">
-        <v>2061200</v>
+        <v>2075000</v>
       </c>
       <c r="I43" s="3">
-        <v>2400400</v>
+        <v>2416500</v>
       </c>
       <c r="J43" s="3">
-        <v>2444600</v>
+        <v>2460900</v>
       </c>
       <c r="K43" s="3">
         <v>3935200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1486100</v>
+        <v>1496100</v>
       </c>
       <c r="E44" s="3">
-        <v>1246000</v>
+        <v>1254300</v>
       </c>
       <c r="F44" s="3">
-        <v>733400</v>
+        <v>738300</v>
       </c>
       <c r="G44" s="3">
-        <v>778600</v>
+        <v>783800</v>
       </c>
       <c r="H44" s="3">
-        <v>746300</v>
+        <v>751300</v>
       </c>
       <c r="I44" s="3">
-        <v>700000</v>
+        <v>704700</v>
       </c>
       <c r="J44" s="3">
-        <v>724800</v>
+        <v>729600</v>
       </c>
       <c r="K44" s="3">
         <v>1100400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>893800</v>
+        <v>899800</v>
       </c>
       <c r="E45" s="3">
-        <v>693500</v>
+        <v>698200</v>
       </c>
       <c r="F45" s="3">
-        <v>284300</v>
+        <v>286200</v>
       </c>
       <c r="G45" s="3">
-        <v>102300</v>
+        <v>103000</v>
       </c>
       <c r="H45" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="I45" s="3">
-        <v>80800</v>
+        <v>81300</v>
       </c>
       <c r="J45" s="3">
-        <v>103400</v>
+        <v>104100</v>
       </c>
       <c r="K45" s="3">
         <v>314400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7046200</v>
+        <v>7093300</v>
       </c>
       <c r="E46" s="3">
-        <v>6202900</v>
+        <v>6244400</v>
       </c>
       <c r="F46" s="3">
-        <v>4389400</v>
+        <v>4418800</v>
       </c>
       <c r="G46" s="3">
-        <v>3341600</v>
+        <v>3364000</v>
       </c>
       <c r="H46" s="3">
-        <v>3221000</v>
+        <v>3242500</v>
       </c>
       <c r="I46" s="3">
-        <v>3568800</v>
+        <v>3592700</v>
       </c>
       <c r="J46" s="3">
-        <v>3688400</v>
+        <v>3713000</v>
       </c>
       <c r="K46" s="3">
         <v>1922200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5601000</v>
+        <v>5638400</v>
       </c>
       <c r="E48" s="3">
-        <v>5651600</v>
+        <v>5689400</v>
       </c>
       <c r="F48" s="3">
-        <v>4156800</v>
+        <v>4184600</v>
       </c>
       <c r="G48" s="3">
-        <v>4528400</v>
+        <v>4558600</v>
       </c>
       <c r="H48" s="3">
-        <v>4187000</v>
+        <v>4215000</v>
       </c>
       <c r="I48" s="3">
-        <v>4132100</v>
+        <v>4159700</v>
       </c>
       <c r="J48" s="3">
-        <v>4300100</v>
+        <v>4328800</v>
       </c>
       <c r="K48" s="3">
         <v>5414300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18420400</v>
+        <v>18543500</v>
       </c>
       <c r="E49" s="3">
-        <v>18589400</v>
+        <v>18713700</v>
       </c>
       <c r="F49" s="3">
-        <v>11771600</v>
+        <v>11850300</v>
       </c>
       <c r="G49" s="3">
-        <v>11873900</v>
+        <v>11953300</v>
       </c>
       <c r="H49" s="3">
-        <v>11740400</v>
+        <v>11818900</v>
       </c>
       <c r="I49" s="3">
-        <v>11742500</v>
+        <v>11821000</v>
       </c>
       <c r="J49" s="3">
-        <v>11599300</v>
+        <v>11676800</v>
       </c>
       <c r="K49" s="3">
         <v>10163100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>499700</v>
+        <v>503000</v>
       </c>
       <c r="E52" s="3">
-        <v>883100</v>
+        <v>889000</v>
       </c>
       <c r="F52" s="3">
-        <v>398500</v>
+        <v>401100</v>
       </c>
       <c r="G52" s="3">
-        <v>378000</v>
+        <v>380500</v>
       </c>
       <c r="H52" s="3">
-        <v>468500</v>
+        <v>471600</v>
       </c>
       <c r="I52" s="3">
-        <v>149700</v>
+        <v>150700</v>
       </c>
       <c r="J52" s="3">
-        <v>408100</v>
+        <v>410900</v>
       </c>
       <c r="K52" s="3">
         <v>372600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31567200</v>
+        <v>31778200</v>
       </c>
       <c r="E54" s="3">
-        <v>31327000</v>
+        <v>31536500</v>
       </c>
       <c r="F54" s="3">
-        <v>20716300</v>
+        <v>20854800</v>
       </c>
       <c r="G54" s="3">
-        <v>20121900</v>
+        <v>20256400</v>
       </c>
       <c r="H54" s="3">
-        <v>19616800</v>
+        <v>19748000</v>
       </c>
       <c r="I54" s="3">
-        <v>19593100</v>
+        <v>19724100</v>
       </c>
       <c r="J54" s="3">
-        <v>19995900</v>
+        <v>20129600</v>
       </c>
       <c r="K54" s="3">
         <v>7141500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2359500</v>
+        <v>2375300</v>
       </c>
       <c r="E57" s="3">
-        <v>1821000</v>
+        <v>1833200</v>
       </c>
       <c r="F57" s="3">
-        <v>1210400</v>
+        <v>1218500</v>
       </c>
       <c r="G57" s="3">
-        <v>1225500</v>
+        <v>1233700</v>
       </c>
       <c r="H57" s="3">
-        <v>1190000</v>
+        <v>1197900</v>
       </c>
       <c r="I57" s="3">
-        <v>1138300</v>
+        <v>1145900</v>
       </c>
       <c r="J57" s="3">
-        <v>973500</v>
+        <v>980000</v>
       </c>
       <c r="K57" s="3">
         <v>2469300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1438700</v>
+        <v>1448400</v>
       </c>
       <c r="E58" s="3">
-        <v>1453800</v>
+        <v>1463500</v>
       </c>
       <c r="F58" s="3">
-        <v>866900</v>
+        <v>872700</v>
       </c>
       <c r="G58" s="3">
-        <v>860400</v>
+        <v>866200</v>
       </c>
       <c r="H58" s="3">
-        <v>528800</v>
+        <v>532300</v>
       </c>
       <c r="I58" s="3">
-        <v>295100</v>
+        <v>297000</v>
       </c>
       <c r="J58" s="3">
-        <v>942300</v>
+        <v>948600</v>
       </c>
       <c r="K58" s="3">
         <v>890100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4077100</v>
+        <v>4104400</v>
       </c>
       <c r="E59" s="3">
-        <v>3286700</v>
+        <v>3308700</v>
       </c>
       <c r="F59" s="3">
-        <v>2381000</v>
+        <v>2396900</v>
       </c>
       <c r="G59" s="3">
-        <v>2345500</v>
+        <v>2361200</v>
       </c>
       <c r="H59" s="3">
-        <v>2364900</v>
+        <v>2380700</v>
       </c>
       <c r="I59" s="3">
-        <v>2106400</v>
+        <v>2120500</v>
       </c>
       <c r="J59" s="3">
-        <v>2124700</v>
+        <v>2138900</v>
       </c>
       <c r="K59" s="3">
         <v>2534600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7875400</v>
+        <v>7928000</v>
       </c>
       <c r="E60" s="3">
-        <v>6561600</v>
+        <v>6605400</v>
       </c>
       <c r="F60" s="3">
-        <v>4458400</v>
+        <v>4488200</v>
       </c>
       <c r="G60" s="3">
-        <v>4431400</v>
+        <v>4461100</v>
       </c>
       <c r="H60" s="3">
-        <v>4083600</v>
+        <v>4110900</v>
       </c>
       <c r="I60" s="3">
-        <v>3539800</v>
+        <v>3563400</v>
       </c>
       <c r="J60" s="3">
-        <v>4040500</v>
+        <v>4067500</v>
       </c>
       <c r="K60" s="3">
         <v>2047700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11383900</v>
+        <v>11460000</v>
       </c>
       <c r="E61" s="3">
-        <v>12696700</v>
+        <v>12781500</v>
       </c>
       <c r="F61" s="3">
-        <v>6872800</v>
+        <v>6918700</v>
       </c>
       <c r="G61" s="3">
-        <v>6054300</v>
+        <v>6094800</v>
       </c>
       <c r="H61" s="3">
-        <v>5521300</v>
+        <v>5558200</v>
       </c>
       <c r="I61" s="3">
-        <v>5895000</v>
+        <v>5934400</v>
       </c>
       <c r="J61" s="3">
-        <v>5989700</v>
+        <v>6029800</v>
       </c>
       <c r="K61" s="3">
         <v>3186900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4288200</v>
+        <v>4316900</v>
       </c>
       <c r="E62" s="3">
-        <v>4304400</v>
+        <v>4333100</v>
       </c>
       <c r="F62" s="3">
-        <v>2896900</v>
+        <v>2916200</v>
       </c>
       <c r="G62" s="3">
-        <v>3006700</v>
+        <v>3026800</v>
       </c>
       <c r="H62" s="3">
-        <v>2943200</v>
+        <v>2962800</v>
       </c>
       <c r="I62" s="3">
-        <v>2959300</v>
+        <v>2979100</v>
       </c>
       <c r="J62" s="3">
-        <v>3007800</v>
+        <v>3027900</v>
       </c>
       <c r="K62" s="3">
         <v>2151800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23547500</v>
+        <v>23704900</v>
       </c>
       <c r="E66" s="3">
-        <v>23753200</v>
+        <v>23912000</v>
       </c>
       <c r="F66" s="3">
-        <v>14228000</v>
+        <v>14323100</v>
       </c>
       <c r="G66" s="3">
-        <v>13492500</v>
+        <v>13582700</v>
       </c>
       <c r="H66" s="3">
-        <v>12548000</v>
+        <v>12631900</v>
       </c>
       <c r="I66" s="3">
-        <v>12394000</v>
+        <v>12476900</v>
       </c>
       <c r="J66" s="3">
-        <v>13038000</v>
+        <v>13125200</v>
       </c>
       <c r="K66" s="3">
         <v>6252400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8222100</v>
+        <v>8277100</v>
       </c>
       <c r="E72" s="3">
-        <v>7504900</v>
+        <v>7555100</v>
       </c>
       <c r="F72" s="3">
-        <v>6854500</v>
+        <v>6900300</v>
       </c>
       <c r="G72" s="3">
-        <v>6915900</v>
+        <v>6962100</v>
       </c>
       <c r="H72" s="3">
-        <v>7494100</v>
+        <v>7544300</v>
       </c>
       <c r="I72" s="3">
-        <v>7598600</v>
+        <v>7649400</v>
       </c>
       <c r="J72" s="3">
-        <v>7280900</v>
+        <v>7329600</v>
       </c>
       <c r="K72" s="3">
         <v>4037300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8019700</v>
+        <v>8073300</v>
       </c>
       <c r="E76" s="3">
-        <v>7573800</v>
+        <v>7624500</v>
       </c>
       <c r="F76" s="3">
-        <v>6488300</v>
+        <v>6531700</v>
       </c>
       <c r="G76" s="3">
-        <v>6629400</v>
+        <v>6673700</v>
       </c>
       <c r="H76" s="3">
-        <v>7068800</v>
+        <v>7116000</v>
       </c>
       <c r="I76" s="3">
-        <v>7199100</v>
+        <v>7247200</v>
       </c>
       <c r="J76" s="3">
-        <v>6957900</v>
+        <v>7004400</v>
       </c>
       <c r="K76" s="3">
         <v>889100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1624000</v>
+        <v>1634800</v>
       </c>
       <c r="E81" s="3">
-        <v>1057500</v>
+        <v>1064600</v>
       </c>
       <c r="F81" s="3">
-        <v>536300</v>
+        <v>539900</v>
       </c>
       <c r="G81" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="H81" s="3">
-        <v>978900</v>
+        <v>985400</v>
       </c>
       <c r="I81" s="3">
-        <v>740900</v>
+        <v>745900</v>
       </c>
       <c r="J81" s="3">
-        <v>591200</v>
+        <v>595200</v>
       </c>
       <c r="K81" s="3">
         <v>523700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>878800</v>
+        <v>884600</v>
       </c>
       <c r="E83" s="3">
-        <v>842100</v>
+        <v>847800</v>
       </c>
       <c r="F83" s="3">
-        <v>782900</v>
+        <v>788100</v>
       </c>
       <c r="G83" s="3">
-        <v>688100</v>
+        <v>692700</v>
       </c>
       <c r="H83" s="3">
-        <v>551400</v>
+        <v>555100</v>
       </c>
       <c r="I83" s="3">
-        <v>527700</v>
+        <v>531200</v>
       </c>
       <c r="J83" s="3">
-        <v>400600</v>
+        <v>403300</v>
       </c>
       <c r="K83" s="3">
         <v>252100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3157500</v>
+        <v>3178600</v>
       </c>
       <c r="E89" s="3">
-        <v>2279800</v>
+        <v>2295000</v>
       </c>
       <c r="F89" s="3">
-        <v>1604600</v>
+        <v>1615300</v>
       </c>
       <c r="G89" s="3">
-        <v>2050400</v>
+        <v>2064100</v>
       </c>
       <c r="H89" s="3">
-        <v>1944900</v>
+        <v>1957900</v>
       </c>
       <c r="I89" s="3">
-        <v>1747800</v>
+        <v>1759500</v>
       </c>
       <c r="J89" s="3">
-        <v>1339700</v>
+        <v>1348600</v>
       </c>
       <c r="K89" s="3">
         <v>941200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-538500</v>
+        <v>-542100</v>
       </c>
       <c r="E91" s="3">
-        <v>-375800</v>
+        <v>-378400</v>
       </c>
       <c r="F91" s="3">
-        <v>-374800</v>
+        <v>-377300</v>
       </c>
       <c r="G91" s="3">
-        <v>-544900</v>
+        <v>-548600</v>
       </c>
       <c r="H91" s="3">
-        <v>-565400</v>
+        <v>-569200</v>
       </c>
       <c r="I91" s="3">
-        <v>-521200</v>
+        <v>-524700</v>
       </c>
       <c r="J91" s="3">
-        <v>-494300</v>
+        <v>-497600</v>
       </c>
       <c r="K91" s="3">
         <v>-625800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-694600</v>
+        <v>-699200</v>
       </c>
       <c r="E94" s="3">
-        <v>-6036000</v>
+        <v>-6076400</v>
       </c>
       <c r="F94" s="3">
-        <v>-398500</v>
+        <v>-401100</v>
       </c>
       <c r="G94" s="3">
-        <v>-645100</v>
+        <v>-649400</v>
       </c>
       <c r="H94" s="3">
-        <v>-641800</v>
+        <v>-646100</v>
       </c>
       <c r="I94" s="3">
-        <v>-525500</v>
+        <v>-529000</v>
       </c>
       <c r="J94" s="3">
-        <v>-412500</v>
+        <v>-415200</v>
       </c>
       <c r="K94" s="3">
         <v>-277700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-821700</v>
+        <v>-827200</v>
       </c>
       <c r="E96" s="3">
-        <v>-687100</v>
+        <v>-691700</v>
       </c>
       <c r="F96" s="3">
-        <v>-415700</v>
+        <v>-418500</v>
       </c>
       <c r="G96" s="3">
-        <v>-618100</v>
+        <v>-622300</v>
       </c>
       <c r="H96" s="3">
-        <v>-552400</v>
+        <v>-556100</v>
       </c>
       <c r="I96" s="3">
-        <v>-526600</v>
+        <v>-530100</v>
       </c>
       <c r="J96" s="3">
-        <v>-219700</v>
+        <v>-221200</v>
       </c>
       <c r="K96" s="3">
         <v>-499200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2451000</v>
+        <v>-2467400</v>
       </c>
       <c r="E100" s="3">
-        <v>3541900</v>
+        <v>3565600</v>
       </c>
       <c r="F100" s="3">
-        <v>107700</v>
+        <v>108400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1402100</v>
+        <v>-1411500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1355800</v>
+        <v>-1364900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1240600</v>
+        <v>-1248900</v>
       </c>
       <c r="J100" s="3">
-        <v>-674100</v>
+        <v>-678600</v>
       </c>
       <c r="K100" s="3">
         <v>-699200</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33400</v>
+        <v>-33600</v>
       </c>
       <c r="E101" s="3">
-        <v>89400</v>
+        <v>90000</v>
       </c>
       <c r="F101" s="3">
-        <v>-14000</v>
+        <v>-14100</v>
       </c>
       <c r="G101" s="3">
         <v>4300</v>
@@ -3974,7 +3974,7 @@
         <v>-2200</v>
       </c>
       <c r="I101" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="J101" s="3">
         <v>-5400</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21500</v>
+        <v>-21700</v>
       </c>
       <c r="E102" s="3">
-        <v>-124900</v>
+        <v>-125800</v>
       </c>
       <c r="F102" s="3">
-        <v>1299800</v>
+        <v>1308500</v>
       </c>
       <c r="G102" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="H102" s="3">
-        <v>-54900</v>
+        <v>-55300</v>
       </c>
       <c r="I102" s="3">
-        <v>-28000</v>
+        <v>-28200</v>
       </c>
       <c r="J102" s="3">
-        <v>247700</v>
+        <v>249300</v>
       </c>
       <c r="K102" s="3">
         <v>-28600</v>

--- a/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CCEP_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18776600</v>
+        <v>18792200</v>
       </c>
       <c r="E8" s="3">
-        <v>14920500</v>
+        <v>14932900</v>
       </c>
       <c r="F8" s="3">
-        <v>11498000</v>
+        <v>11507500</v>
       </c>
       <c r="G8" s="3">
-        <v>13027600</v>
+        <v>13038400</v>
       </c>
       <c r="H8" s="3">
-        <v>12486700</v>
+        <v>12497000</v>
       </c>
       <c r="I8" s="3">
-        <v>11992300</v>
+        <v>12002300</v>
       </c>
       <c r="J8" s="3">
-        <v>9901100</v>
+        <v>9909300</v>
       </c>
       <c r="K8" s="3">
         <v>6460600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11964100</v>
+        <v>11974100</v>
       </c>
       <c r="E9" s="3">
-        <v>9343900</v>
+        <v>9351600</v>
       </c>
       <c r="F9" s="3">
-        <v>7350200</v>
+        <v>7356300</v>
       </c>
       <c r="G9" s="3">
-        <v>8021300</v>
+        <v>8027900</v>
       </c>
       <c r="H9" s="3">
-        <v>7602800</v>
+        <v>7609100</v>
       </c>
       <c r="I9" s="3">
-        <v>7314400</v>
+        <v>7320500</v>
       </c>
       <c r="J9" s="3">
-        <v>6053600</v>
+        <v>6058600</v>
       </c>
       <c r="K9" s="3">
         <v>12734500</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6812500</v>
+        <v>6818100</v>
       </c>
       <c r="E10" s="3">
-        <v>5576600</v>
+        <v>5581200</v>
       </c>
       <c r="F10" s="3">
-        <v>4147800</v>
+        <v>4151200</v>
       </c>
       <c r="G10" s="3">
-        <v>5006400</v>
+        <v>5010500</v>
       </c>
       <c r="H10" s="3">
-        <v>4883900</v>
+        <v>4887900</v>
       </c>
       <c r="I10" s="3">
-        <v>4677900</v>
+        <v>4681800</v>
       </c>
       <c r="J10" s="3">
-        <v>3847500</v>
+        <v>3850700</v>
       </c>
       <c r="K10" s="3">
         <v>-6273800</v>
@@ -935,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>65000</v>
+        <v>65100</v>
       </c>
       <c r="E14" s="3">
         <v>62900</v>
@@ -974,19 +974,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100800</v>
+        <v>100900</v>
       </c>
       <c r="E15" s="3">
         <v>91100</v>
       </c>
       <c r="F15" s="3">
-        <v>67200</v>
+        <v>67300</v>
       </c>
       <c r="G15" s="3">
         <v>47700</v>
       </c>
       <c r="H15" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="I15" s="3">
         <v>41200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>16515200</v>
+        <v>16528900</v>
       </c>
       <c r="E17" s="3">
-        <v>13277000</v>
+        <v>13288000</v>
       </c>
       <c r="F17" s="3">
-        <v>10616600</v>
+        <v>10625400</v>
       </c>
       <c r="G17" s="3">
-        <v>11349400</v>
+        <v>11358900</v>
       </c>
       <c r="H17" s="3">
-        <v>11077300</v>
+        <v>11086500</v>
       </c>
       <c r="I17" s="3">
-        <v>10626300</v>
+        <v>10635200</v>
       </c>
       <c r="J17" s="3">
-        <v>8978500</v>
+        <v>8986000</v>
       </c>
       <c r="K17" s="3">
         <v>5685900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2261400</v>
+        <v>2263300</v>
       </c>
       <c r="E18" s="3">
-        <v>1643500</v>
+        <v>1644900</v>
       </c>
       <c r="F18" s="3">
-        <v>881400</v>
+        <v>882100</v>
       </c>
       <c r="G18" s="3">
-        <v>1678200</v>
+        <v>1679600</v>
       </c>
       <c r="H18" s="3">
-        <v>1409300</v>
+        <v>1410500</v>
       </c>
       <c r="I18" s="3">
-        <v>1366000</v>
+        <v>1367100</v>
       </c>
       <c r="J18" s="3">
-        <v>922600</v>
+        <v>923300</v>
       </c>
       <c r="K18" s="3">
         <v>774800</v>
@@ -1125,13 +1125,13 @@
         <v>51000</v>
       </c>
       <c r="E20" s="3">
-        <v>31400</v>
+        <v>31500</v>
       </c>
       <c r="F20" s="3">
         <v>19500</v>
       </c>
       <c r="G20" s="3">
-        <v>46600</v>
+        <v>46700</v>
       </c>
       <c r="H20" s="3">
         <v>42300</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3197000</v>
+        <v>3199300</v>
       </c>
       <c r="E21" s="3">
-        <v>2522700</v>
+        <v>2524500</v>
       </c>
       <c r="F21" s="3">
-        <v>1689000</v>
+        <v>1690100</v>
       </c>
       <c r="G21" s="3">
-        <v>2417500</v>
+        <v>2419300</v>
       </c>
       <c r="H21" s="3">
-        <v>2006700</v>
+        <v>2008100</v>
       </c>
       <c r="I21" s="3">
-        <v>1940500</v>
+        <v>1942000</v>
       </c>
       <c r="J21" s="3">
-        <v>1339900</v>
+        <v>1340900</v>
       </c>
       <c r="K21" s="3">
         <v>1034300</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>190800</v>
+        <v>191000</v>
       </c>
       <c r="E22" s="3">
-        <v>176700</v>
+        <v>176900</v>
       </c>
       <c r="F22" s="3">
-        <v>147400</v>
+        <v>147600</v>
       </c>
       <c r="G22" s="3">
-        <v>148500</v>
+        <v>148600</v>
       </c>
       <c r="H22" s="3">
-        <v>145300</v>
+        <v>145400</v>
       </c>
       <c r="I22" s="3">
-        <v>152900</v>
+        <v>153000</v>
       </c>
       <c r="J22" s="3">
-        <v>157200</v>
+        <v>157300</v>
       </c>
       <c r="K22" s="3">
         <v>129600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2121600</v>
+        <v>2123300</v>
       </c>
       <c r="E23" s="3">
-        <v>1498200</v>
+        <v>1499500</v>
       </c>
       <c r="F23" s="3">
-        <v>753400</v>
+        <v>754100</v>
       </c>
       <c r="G23" s="3">
-        <v>1576300</v>
+        <v>1577600</v>
       </c>
       <c r="H23" s="3">
-        <v>1306300</v>
+        <v>1307400</v>
       </c>
       <c r="I23" s="3">
-        <v>1256500</v>
+        <v>1257500</v>
       </c>
       <c r="J23" s="3">
-        <v>779500</v>
+        <v>780100</v>
       </c>
       <c r="K23" s="3">
         <v>657400</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>472700</v>
+        <v>473100</v>
       </c>
       <c r="E24" s="3">
-        <v>427100</v>
+        <v>427500</v>
       </c>
       <c r="F24" s="3">
-        <v>213600</v>
+        <v>213700</v>
       </c>
       <c r="G24" s="3">
-        <v>394600</v>
+        <v>394900</v>
       </c>
       <c r="H24" s="3">
-        <v>350200</v>
+        <v>350500</v>
       </c>
       <c r="I24" s="3">
-        <v>163700</v>
+        <v>163800</v>
       </c>
       <c r="J24" s="3">
-        <v>184300</v>
+        <v>184500</v>
       </c>
       <c r="K24" s="3">
         <v>133700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1648900</v>
+        <v>1650300</v>
       </c>
       <c r="E26" s="3">
-        <v>1071100</v>
+        <v>1072000</v>
       </c>
       <c r="F26" s="3">
-        <v>539900</v>
+        <v>540300</v>
       </c>
       <c r="G26" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="H26" s="3">
-        <v>956200</v>
+        <v>957000</v>
       </c>
       <c r="I26" s="3">
-        <v>1092800</v>
+        <v>1093700</v>
       </c>
       <c r="J26" s="3">
-        <v>595200</v>
+        <v>595700</v>
       </c>
       <c r="K26" s="3">
         <v>523700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1634800</v>
+        <v>1636200</v>
       </c>
       <c r="E27" s="3">
-        <v>1064600</v>
+        <v>1065500</v>
       </c>
       <c r="F27" s="3">
-        <v>539900</v>
+        <v>540300</v>
       </c>
       <c r="G27" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="H27" s="3">
-        <v>956200</v>
+        <v>957000</v>
       </c>
       <c r="I27" s="3">
-        <v>1092800</v>
+        <v>1093700</v>
       </c>
       <c r="J27" s="3">
-        <v>595200</v>
+        <v>595700</v>
       </c>
       <c r="K27" s="3">
         <v>523700</v>
@@ -1488,7 +1488,7 @@
         <v>29300</v>
       </c>
       <c r="I29" s="3">
-        <v>-346900</v>
+        <v>-347200</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1593,13 +1593,13 @@
         <v>-51000</v>
       </c>
       <c r="E32" s="3">
-        <v>-31400</v>
+        <v>-31500</v>
       </c>
       <c r="F32" s="3">
         <v>-19500</v>
       </c>
       <c r="G32" s="3">
-        <v>-46600</v>
+        <v>-46700</v>
       </c>
       <c r="H32" s="3">
         <v>-42300</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1634800</v>
+        <v>1636200</v>
       </c>
       <c r="E33" s="3">
-        <v>1064600</v>
+        <v>1065500</v>
       </c>
       <c r="F33" s="3">
-        <v>539900</v>
+        <v>540300</v>
       </c>
       <c r="G33" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="H33" s="3">
-        <v>985400</v>
+        <v>986300</v>
       </c>
       <c r="I33" s="3">
-        <v>745900</v>
+        <v>746500</v>
       </c>
       <c r="J33" s="3">
-        <v>595200</v>
+        <v>595700</v>
       </c>
       <c r="K33" s="3">
         <v>523700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1634800</v>
+        <v>1636200</v>
       </c>
       <c r="E35" s="3">
-        <v>1064600</v>
+        <v>1065500</v>
       </c>
       <c r="F35" s="3">
-        <v>539900</v>
+        <v>540300</v>
       </c>
       <c r="G35" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="H35" s="3">
-        <v>985400</v>
+        <v>986300</v>
       </c>
       <c r="I35" s="3">
-        <v>745900</v>
+        <v>746500</v>
       </c>
       <c r="J35" s="3">
-        <v>595200</v>
+        <v>595700</v>
       </c>
       <c r="K35" s="3">
         <v>523700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="E41" s="3">
-        <v>767500</v>
+        <v>768200</v>
       </c>
       <c r="F41" s="3">
-        <v>697100</v>
+        <v>697700</v>
       </c>
       <c r="G41" s="3">
-        <v>184300</v>
+        <v>184400</v>
       </c>
       <c r="H41" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="I41" s="3">
-        <v>329600</v>
+        <v>329800</v>
       </c>
       <c r="J41" s="3">
-        <v>302500</v>
+        <v>302700</v>
       </c>
       <c r="K41" s="3">
         <v>412400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1248900</v>
+        <v>1249900</v>
       </c>
       <c r="E42" s="3">
-        <v>820700</v>
+        <v>821300</v>
       </c>
       <c r="F42" s="3">
-        <v>954000</v>
+        <v>954800</v>
       </c>
       <c r="G42" s="3">
-        <v>158300</v>
+        <v>158400</v>
       </c>
       <c r="H42" s="3">
         <v>32500</v>
       </c>
       <c r="I42" s="3">
-        <v>60700</v>
+        <v>60800</v>
       </c>
       <c r="J42" s="3">
-        <v>116000</v>
+        <v>116100</v>
       </c>
       <c r="K42" s="3">
         <v>79600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2916200</v>
+        <v>2918700</v>
       </c>
       <c r="E43" s="3">
-        <v>2703700</v>
+        <v>2706000</v>
       </c>
       <c r="F43" s="3">
-        <v>1743200</v>
+        <v>1744700</v>
       </c>
       <c r="G43" s="3">
-        <v>2134600</v>
+        <v>2136400</v>
       </c>
       <c r="H43" s="3">
-        <v>2075000</v>
+        <v>2076700</v>
       </c>
       <c r="I43" s="3">
-        <v>2416500</v>
+        <v>2418500</v>
       </c>
       <c r="J43" s="3">
-        <v>2460900</v>
+        <v>2462900</v>
       </c>
       <c r="K43" s="3">
         <v>3935200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1496100</v>
+        <v>1497300</v>
       </c>
       <c r="E44" s="3">
-        <v>1254300</v>
+        <v>1255300</v>
       </c>
       <c r="F44" s="3">
-        <v>738300</v>
+        <v>738900</v>
       </c>
       <c r="G44" s="3">
-        <v>783800</v>
+        <v>784500</v>
       </c>
       <c r="H44" s="3">
-        <v>751300</v>
+        <v>751900</v>
       </c>
       <c r="I44" s="3">
-        <v>704700</v>
+        <v>705300</v>
       </c>
       <c r="J44" s="3">
-        <v>729600</v>
+        <v>730200</v>
       </c>
       <c r="K44" s="3">
         <v>1100400</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>899800</v>
+        <v>900500</v>
       </c>
       <c r="E45" s="3">
-        <v>698200</v>
+        <v>698700</v>
       </c>
       <c r="F45" s="3">
-        <v>286200</v>
+        <v>286400</v>
       </c>
       <c r="G45" s="3">
-        <v>103000</v>
+        <v>103100</v>
       </c>
       <c r="H45" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="I45" s="3">
-        <v>81300</v>
+        <v>81400</v>
       </c>
       <c r="J45" s="3">
-        <v>104100</v>
+        <v>104200</v>
       </c>
       <c r="K45" s="3">
         <v>314400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>7093300</v>
+        <v>7099200</v>
       </c>
       <c r="E46" s="3">
-        <v>6244400</v>
+        <v>6249600</v>
       </c>
       <c r="F46" s="3">
-        <v>4418800</v>
+        <v>4422500</v>
       </c>
       <c r="G46" s="3">
-        <v>3364000</v>
+        <v>3366800</v>
       </c>
       <c r="H46" s="3">
-        <v>3242500</v>
+        <v>3245200</v>
       </c>
       <c r="I46" s="3">
-        <v>3592700</v>
+        <v>3595700</v>
       </c>
       <c r="J46" s="3">
-        <v>3713000</v>
+        <v>3716100</v>
       </c>
       <c r="K46" s="3">
         <v>1922200</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5638400</v>
+        <v>5643100</v>
       </c>
       <c r="E48" s="3">
-        <v>5689400</v>
+        <v>5694100</v>
       </c>
       <c r="F48" s="3">
-        <v>4184600</v>
+        <v>4188100</v>
       </c>
       <c r="G48" s="3">
-        <v>4558600</v>
+        <v>4562400</v>
       </c>
       <c r="H48" s="3">
-        <v>4215000</v>
+        <v>4218500</v>
       </c>
       <c r="I48" s="3">
-        <v>4159700</v>
+        <v>4163100</v>
       </c>
       <c r="J48" s="3">
-        <v>4328800</v>
+        <v>4332400</v>
       </c>
       <c r="K48" s="3">
         <v>5414300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>18543500</v>
+        <v>18558900</v>
       </c>
       <c r="E49" s="3">
-        <v>18713700</v>
+        <v>18729300</v>
       </c>
       <c r="F49" s="3">
-        <v>11850300</v>
+        <v>11860100</v>
       </c>
       <c r="G49" s="3">
-        <v>11953300</v>
+        <v>11963200</v>
       </c>
       <c r="H49" s="3">
-        <v>11818900</v>
+        <v>11828700</v>
       </c>
       <c r="I49" s="3">
-        <v>11821000</v>
+        <v>11830800</v>
       </c>
       <c r="J49" s="3">
-        <v>11676800</v>
+        <v>11686500</v>
       </c>
       <c r="K49" s="3">
         <v>10163100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>503000</v>
+        <v>503400</v>
       </c>
       <c r="E52" s="3">
-        <v>889000</v>
+        <v>889700</v>
       </c>
       <c r="F52" s="3">
-        <v>401100</v>
+        <v>401400</v>
       </c>
       <c r="G52" s="3">
-        <v>380500</v>
+        <v>380800</v>
       </c>
       <c r="H52" s="3">
-        <v>471600</v>
+        <v>472000</v>
       </c>
       <c r="I52" s="3">
-        <v>150700</v>
+        <v>150800</v>
       </c>
       <c r="J52" s="3">
-        <v>410900</v>
+        <v>411200</v>
       </c>
       <c r="K52" s="3">
         <v>372600</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31778200</v>
+        <v>31804600</v>
       </c>
       <c r="E54" s="3">
-        <v>31536500</v>
+        <v>31562600</v>
       </c>
       <c r="F54" s="3">
-        <v>20854800</v>
+        <v>20872100</v>
       </c>
       <c r="G54" s="3">
-        <v>20256400</v>
+        <v>20273200</v>
       </c>
       <c r="H54" s="3">
-        <v>19748000</v>
+        <v>19764400</v>
       </c>
       <c r="I54" s="3">
-        <v>19724100</v>
+        <v>19740500</v>
       </c>
       <c r="J54" s="3">
-        <v>20129600</v>
+        <v>20146300</v>
       </c>
       <c r="K54" s="3">
         <v>7141500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2375300</v>
+        <v>2377200</v>
       </c>
       <c r="E57" s="3">
-        <v>1833200</v>
+        <v>1834700</v>
       </c>
       <c r="F57" s="3">
-        <v>1218500</v>
+        <v>1219500</v>
       </c>
       <c r="G57" s="3">
-        <v>1233700</v>
+        <v>1234700</v>
       </c>
       <c r="H57" s="3">
-        <v>1197900</v>
+        <v>1198900</v>
       </c>
       <c r="I57" s="3">
-        <v>1145900</v>
+        <v>1146800</v>
       </c>
       <c r="J57" s="3">
-        <v>980000</v>
+        <v>980800</v>
       </c>
       <c r="K57" s="3">
         <v>2469300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1448400</v>
+        <v>1449600</v>
       </c>
       <c r="E58" s="3">
-        <v>1463500</v>
+        <v>1464800</v>
       </c>
       <c r="F58" s="3">
-        <v>872700</v>
+        <v>873400</v>
       </c>
       <c r="G58" s="3">
-        <v>866200</v>
+        <v>866900</v>
       </c>
       <c r="H58" s="3">
-        <v>532300</v>
+        <v>532700</v>
       </c>
       <c r="I58" s="3">
-        <v>297000</v>
+        <v>297300</v>
       </c>
       <c r="J58" s="3">
-        <v>948600</v>
+        <v>949400</v>
       </c>
       <c r="K58" s="3">
         <v>890100</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4104400</v>
+        <v>4107800</v>
       </c>
       <c r="E59" s="3">
-        <v>3308700</v>
+        <v>3311400</v>
       </c>
       <c r="F59" s="3">
-        <v>2396900</v>
+        <v>2398900</v>
       </c>
       <c r="G59" s="3">
-        <v>2361200</v>
+        <v>2363100</v>
       </c>
       <c r="H59" s="3">
-        <v>2380700</v>
+        <v>2382700</v>
       </c>
       <c r="I59" s="3">
-        <v>2120500</v>
+        <v>2122300</v>
       </c>
       <c r="J59" s="3">
-        <v>2138900</v>
+        <v>2140700</v>
       </c>
       <c r="K59" s="3">
         <v>2534600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7928000</v>
+        <v>7934600</v>
       </c>
       <c r="E60" s="3">
-        <v>6605400</v>
+        <v>6610900</v>
       </c>
       <c r="F60" s="3">
-        <v>4488200</v>
+        <v>4491900</v>
       </c>
       <c r="G60" s="3">
-        <v>4461100</v>
+        <v>4464800</v>
       </c>
       <c r="H60" s="3">
-        <v>4110900</v>
+        <v>4114300</v>
       </c>
       <c r="I60" s="3">
-        <v>3563400</v>
+        <v>3566400</v>
       </c>
       <c r="J60" s="3">
-        <v>4067500</v>
+        <v>4070900</v>
       </c>
       <c r="K60" s="3">
         <v>2047700</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11460000</v>
+        <v>11469500</v>
       </c>
       <c r="E61" s="3">
-        <v>12781500</v>
+        <v>12792100</v>
       </c>
       <c r="F61" s="3">
-        <v>6918700</v>
+        <v>6924500</v>
       </c>
       <c r="G61" s="3">
-        <v>6094800</v>
+        <v>6099900</v>
       </c>
       <c r="H61" s="3">
-        <v>5558200</v>
+        <v>5562800</v>
       </c>
       <c r="I61" s="3">
-        <v>5934400</v>
+        <v>5939300</v>
       </c>
       <c r="J61" s="3">
-        <v>6029800</v>
+        <v>6034800</v>
       </c>
       <c r="K61" s="3">
         <v>3186900</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4316900</v>
+        <v>4320500</v>
       </c>
       <c r="E62" s="3">
-        <v>4333100</v>
+        <v>4336700</v>
       </c>
       <c r="F62" s="3">
-        <v>2916200</v>
+        <v>2918700</v>
       </c>
       <c r="G62" s="3">
-        <v>3026800</v>
+        <v>3029300</v>
       </c>
       <c r="H62" s="3">
-        <v>2962800</v>
+        <v>2965300</v>
       </c>
       <c r="I62" s="3">
-        <v>2979100</v>
+        <v>2981600</v>
       </c>
       <c r="J62" s="3">
-        <v>3027900</v>
+        <v>3030400</v>
       </c>
       <c r="K62" s="3">
         <v>2151800</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>23704900</v>
+        <v>23724600</v>
       </c>
       <c r="E66" s="3">
-        <v>23912000</v>
+        <v>23931800</v>
       </c>
       <c r="F66" s="3">
-        <v>14323100</v>
+        <v>14335000</v>
       </c>
       <c r="G66" s="3">
-        <v>13582700</v>
+        <v>13594000</v>
       </c>
       <c r="H66" s="3">
-        <v>12631900</v>
+        <v>12642400</v>
       </c>
       <c r="I66" s="3">
-        <v>12476900</v>
+        <v>12487300</v>
       </c>
       <c r="J66" s="3">
-        <v>13125200</v>
+        <v>13136100</v>
       </c>
       <c r="K66" s="3">
         <v>6252400</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8277100</v>
+        <v>8284000</v>
       </c>
       <c r="E72" s="3">
-        <v>7555100</v>
+        <v>7561400</v>
       </c>
       <c r="F72" s="3">
-        <v>6900300</v>
+        <v>6906000</v>
       </c>
       <c r="G72" s="3">
-        <v>6962100</v>
+        <v>6967900</v>
       </c>
       <c r="H72" s="3">
-        <v>7544300</v>
+        <v>7550500</v>
       </c>
       <c r="I72" s="3">
-        <v>7649400</v>
+        <v>7655800</v>
       </c>
       <c r="J72" s="3">
-        <v>7329600</v>
+        <v>7335700</v>
       </c>
       <c r="K72" s="3">
         <v>4037300</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8073300</v>
+        <v>8080000</v>
       </c>
       <c r="E76" s="3">
-        <v>7624500</v>
+        <v>7630800</v>
       </c>
       <c r="F76" s="3">
-        <v>6531700</v>
+        <v>6537100</v>
       </c>
       <c r="G76" s="3">
-        <v>6673700</v>
+        <v>6679300</v>
       </c>
       <c r="H76" s="3">
-        <v>7116000</v>
+        <v>7121900</v>
       </c>
       <c r="I76" s="3">
-        <v>7247200</v>
+        <v>7253200</v>
       </c>
       <c r="J76" s="3">
-        <v>7004400</v>
+        <v>7010200</v>
       </c>
       <c r="K76" s="3">
         <v>889100</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1634800</v>
+        <v>1636200</v>
       </c>
       <c r="E81" s="3">
-        <v>1064600</v>
+        <v>1065500</v>
       </c>
       <c r="F81" s="3">
-        <v>539900</v>
+        <v>540300</v>
       </c>
       <c r="G81" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="H81" s="3">
-        <v>985400</v>
+        <v>986300</v>
       </c>
       <c r="I81" s="3">
-        <v>745900</v>
+        <v>746500</v>
       </c>
       <c r="J81" s="3">
-        <v>595200</v>
+        <v>595700</v>
       </c>
       <c r="K81" s="3">
         <v>523700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>884600</v>
+        <v>885400</v>
       </c>
       <c r="E83" s="3">
-        <v>847800</v>
+        <v>848500</v>
       </c>
       <c r="F83" s="3">
-        <v>788100</v>
+        <v>788800</v>
       </c>
       <c r="G83" s="3">
-        <v>692700</v>
+        <v>693300</v>
       </c>
       <c r="H83" s="3">
-        <v>555100</v>
+        <v>555500</v>
       </c>
       <c r="I83" s="3">
-        <v>531200</v>
+        <v>531700</v>
       </c>
       <c r="J83" s="3">
-        <v>403300</v>
+        <v>403600</v>
       </c>
       <c r="K83" s="3">
         <v>252100</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3178600</v>
+        <v>3181200</v>
       </c>
       <c r="E89" s="3">
-        <v>2295000</v>
+        <v>2296900</v>
       </c>
       <c r="F89" s="3">
-        <v>1615300</v>
+        <v>1616700</v>
       </c>
       <c r="G89" s="3">
-        <v>2064100</v>
+        <v>2065800</v>
       </c>
       <c r="H89" s="3">
-        <v>1957900</v>
+        <v>1959500</v>
       </c>
       <c r="I89" s="3">
-        <v>1759500</v>
+        <v>1761000</v>
       </c>
       <c r="J89" s="3">
-        <v>1348600</v>
+        <v>1349700</v>
       </c>
       <c r="K89" s="3">
         <v>941200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-542100</v>
+        <v>-542500</v>
       </c>
       <c r="E91" s="3">
-        <v>-378400</v>
+        <v>-378700</v>
       </c>
       <c r="F91" s="3">
-        <v>-377300</v>
+        <v>-377600</v>
       </c>
       <c r="G91" s="3">
-        <v>-548600</v>
+        <v>-549000</v>
       </c>
       <c r="H91" s="3">
-        <v>-569200</v>
+        <v>-569600</v>
       </c>
       <c r="I91" s="3">
-        <v>-524700</v>
+        <v>-525100</v>
       </c>
       <c r="J91" s="3">
-        <v>-497600</v>
+        <v>-498000</v>
       </c>
       <c r="K91" s="3">
         <v>-625800</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-699200</v>
+        <v>-699800</v>
       </c>
       <c r="E94" s="3">
-        <v>-6076400</v>
+        <v>-6081400</v>
       </c>
       <c r="F94" s="3">
-        <v>-401100</v>
+        <v>-401500</v>
       </c>
       <c r="G94" s="3">
-        <v>-649400</v>
+        <v>-649900</v>
       </c>
       <c r="H94" s="3">
-        <v>-646100</v>
+        <v>-646700</v>
       </c>
       <c r="I94" s="3">
-        <v>-529000</v>
+        <v>-529500</v>
       </c>
       <c r="J94" s="3">
-        <v>-415200</v>
+        <v>-415600</v>
       </c>
       <c r="K94" s="3">
         <v>-277700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-827200</v>
+        <v>-827900</v>
       </c>
       <c r="E96" s="3">
-        <v>-691700</v>
+        <v>-692200</v>
       </c>
       <c r="F96" s="3">
-        <v>-418500</v>
+        <v>-418800</v>
       </c>
       <c r="G96" s="3">
-        <v>-622300</v>
+        <v>-622800</v>
       </c>
       <c r="H96" s="3">
-        <v>-556100</v>
+        <v>-556600</v>
       </c>
       <c r="I96" s="3">
-        <v>-530100</v>
+        <v>-530600</v>
       </c>
       <c r="J96" s="3">
-        <v>-221200</v>
+        <v>-221300</v>
       </c>
       <c r="K96" s="3">
         <v>-499200</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2467400</v>
+        <v>-2469500</v>
       </c>
       <c r="E100" s="3">
-        <v>3565600</v>
+        <v>3568600</v>
       </c>
       <c r="F100" s="3">
-        <v>108400</v>
+        <v>108500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1411500</v>
+        <v>-1412700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1364900</v>
+        <v>-1366000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1248900</v>
+        <v>-1249900</v>
       </c>
       <c r="J100" s="3">
-        <v>-678600</v>
+        <v>-679200</v>
       </c>
       <c r="K100" s="3">
         <v>-699200</v>
@@ -3962,7 +3962,7 @@
         <v>-33600</v>
       </c>
       <c r="E101" s="3">
-        <v>90000</v>
+        <v>90100</v>
       </c>
       <c r="F101" s="3">
         <v>-14100</v>
@@ -4001,10 +4001,10 @@
         <v>-21700</v>
       </c>
       <c r="E102" s="3">
-        <v>-125800</v>
+        <v>-125900</v>
       </c>
       <c r="F102" s="3">
-        <v>1308500</v>
+        <v>1309600</v>
       </c>
       <c r="G102" s="3">
         <v>7600</v>
@@ -4016,7 +4016,7 @@
         <v>-28200</v>
       </c>
       <c r="J102" s="3">
-        <v>249300</v>
+        <v>249600</v>
       </c>
       <c r="K102" s="3">
         <v>-28600</v>
